--- a/r_map/data_boot_cq_remov_As.xlsx
+++ b/r_map/data_boot_cq_remov_As.xlsx
@@ -594,16 +594,16 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>24489996600.256199</v>
+        <v>24084085054.395599</v>
       </c>
       <c r="E2">
-        <v>22606150707.928799</v>
+        <v>22231463127.134399</v>
       </c>
       <c r="F2">
-        <v>11093.252457029472</v>
+        <v>10909.38639420578</v>
       </c>
       <c r="H2">
-        <v>10239.925344950281</v>
+        <v>10070.20282542072</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -629,16 +629,16 @@
         <v>505392</v>
       </c>
       <c r="C3">
-        <v>1048475073.5998309</v>
+        <v>1067922008.2181365</v>
       </c>
       <c r="E3">
-        <v>967823144.86138225</v>
+        <v>985774161.43212605</v>
       </c>
       <c r="F3">
-        <v>2074.5778991353859</v>
+        <v>2113.0568117780585</v>
       </c>
       <c r="H3">
-        <v>1914.994983817279</v>
+        <v>1950.5139801028231</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -664,16 +664,16 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>16478203758.29372</v>
+        <v>16552545721.731565</v>
       </c>
       <c r="E4">
-        <v>3423554630.3862948</v>
+        <v>3347001011.9341197</v>
       </c>
       <c r="F4">
-        <v>6043.977575533645</v>
+        <v>6071.2451810645771</v>
       </c>
       <c r="H4">
-        <v>1255.7125593409787</v>
+        <v>1227.6337492936136</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -699,16 +699,16 @@
         <v>541762</v>
       </c>
       <c r="C5">
-        <v>386165673.32670599</v>
+        <v>381062162.22547197</v>
       </c>
       <c r="E5">
-        <v>356460621.53234392</v>
+        <v>351749688.20812798</v>
       </c>
       <c r="F5">
-        <v>712.79579100547107</v>
+        <v>703.37558231376875</v>
       </c>
       <c r="H5">
-        <v>657.9653455435116</v>
+        <v>649.26976828963268</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -737,13 +737,13 @@
         <v>432021780.16881657</v>
       </c>
       <c r="E6">
-        <v>53256367.237764642</v>
+        <v>53340214.985781841</v>
       </c>
       <c r="F6">
         <v>1332.8164204849004</v>
       </c>
       <c r="H6">
-        <v>164.29949601645157</v>
+        <v>164.55817199184875</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -769,7 +769,7 @@
         <v>2081937</v>
       </c>
       <c r="C7">
-        <v>2746286241.9260812</v>
+        <v>2720343030.30162</v>
       </c>
       <c r="D7">
         <v>166653.97481618595</v>
@@ -778,7 +778,7 @@
         <v>3756867.5955610601</v>
       </c>
       <c r="F7">
-        <v>1319.1015107210646</v>
+        <v>1306.6404172180139</v>
       </c>
       <c r="G7">
         <v>8.0047558987705172E-2</v>
@@ -810,22 +810,22 @@
         <v>8921964</v>
       </c>
       <c r="C8">
-        <v>46984153191.316574</v>
+        <v>47165166540.988541</v>
       </c>
       <c r="D8">
-        <v>2526273.1055335524</v>
+        <v>2528628.1009751223</v>
       </c>
       <c r="E8">
-        <v>92270520.515770108</v>
+        <v>92359293.071044385</v>
       </c>
       <c r="F8">
-        <v>5266.1222564131149</v>
+        <v>5286.4107657224959</v>
       </c>
       <c r="G8">
-        <v>0.28315212945642376</v>
+        <v>0.28341608428089626</v>
       </c>
       <c r="H8">
-        <v>10.341951672946687</v>
+        <v>10.351901562373978</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -851,22 +851,22 @@
         <v>7744214</v>
       </c>
       <c r="C9">
-        <v>21835454139.081749</v>
+        <v>21972273651.400116</v>
       </c>
       <c r="D9">
-        <v>1173664.9002297672</v>
+        <v>1177336.5170392073</v>
       </c>
       <c r="E9">
-        <v>33987440.317857385</v>
+        <v>33743964.852051541</v>
       </c>
       <c r="F9">
-        <v>2819.5829995247741</v>
+        <v>2837.2503202261864</v>
       </c>
       <c r="G9">
-        <v>0.15155377940611753</v>
+        <v>0.1520278903758609</v>
       </c>
       <c r="H9">
-        <v>4.3887527278891545</v>
+        <v>4.3573130665102404</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -892,16 +892,16 @@
         <v>2014725</v>
       </c>
       <c r="C10">
-        <v>2724781438.0184259</v>
+        <v>2725800951.7334266</v>
       </c>
       <c r="E10">
-        <v>344844921.15552992</v>
+        <v>295384898.90312731</v>
       </c>
       <c r="F10">
-        <v>1352.4334278963263</v>
+        <v>1352.9394590990962</v>
       </c>
       <c r="H10">
-        <v>171.16227830375357</v>
+        <v>146.61301115692083</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -927,22 +927,22 @@
         <v>9164672</v>
       </c>
       <c r="C11">
-        <v>21379975608.869728</v>
+        <v>21343552476.579674</v>
       </c>
       <c r="D11">
-        <v>1150805.9386912002</v>
+        <v>1145122.4987554362</v>
       </c>
       <c r="E11">
-        <v>41499531.945118748</v>
+        <v>42191510.909001902</v>
       </c>
       <c r="F11">
-        <v>2332.8686077221014</v>
+        <v>2328.8943103015222</v>
       </c>
       <c r="G11">
-        <v>0.12556979002534957</v>
+        <v>0.12494964345209912</v>
       </c>
       <c r="H11">
-        <v>4.5282070045844245</v>
+        <v>4.6037120487238283</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -968,22 +968,22 @@
         <v>3900879</v>
       </c>
       <c r="C12">
-        <v>8835596139.380764</v>
+        <v>8270587995.3031025</v>
       </c>
       <c r="D12">
-        <v>494828.85715203505</v>
+        <v>450107.06426380656</v>
       </c>
       <c r="E12">
-        <v>17957507.018266249</v>
+        <v>17890710.71209925</v>
       </c>
       <c r="F12">
-        <v>2265.0269694037588</v>
+        <v>2120.1857312936654</v>
       </c>
       <c r="G12">
-        <v>0.12685060396696105</v>
+        <v>0.11538606151685468</v>
       </c>
       <c r="H12">
-        <v>4.6034514319122044</v>
+        <v>4.5863280332712835</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1009,16 +1009,16 @@
         <v>9744872</v>
       </c>
       <c r="C13">
-        <v>53276950363.877907</v>
+        <v>53492679802.303589</v>
       </c>
       <c r="E13">
-        <v>2163489552.1940532</v>
+        <v>2059255465.6211224</v>
       </c>
       <c r="F13">
-        <v>5467.1780567131009</v>
+        <v>5489.3157962776313</v>
       </c>
       <c r="H13">
-        <v>222.01313184965932</v>
+        <v>211.31683059778746</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1044,22 +1044,22 @@
         <v>2258981</v>
       </c>
       <c r="C14">
-        <v>13513032352.299244</v>
+        <v>13531680395.927164</v>
       </c>
       <c r="D14">
-        <v>754083.06039184961</v>
+        <v>754835.58477789757</v>
       </c>
       <c r="E14">
-        <v>16784826.369958706</v>
+        <v>16681566.711594814</v>
       </c>
       <c r="F14">
-        <v>5981.9150104844812</v>
+        <v>5990.1700793088403</v>
       </c>
       <c r="G14">
-        <v>0.33381558339439316</v>
+        <v>0.33414870898776822</v>
       </c>
       <c r="H14">
-        <v>7.4302645174787685</v>
+        <v>7.3845537928804248</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1085,22 +1085,22 @@
         <v>12851943</v>
       </c>
       <c r="C15">
-        <v>49118155546.854935</v>
+        <v>49088018425.203873</v>
       </c>
       <c r="D15">
-        <v>2660304.6896230523</v>
+        <v>2654786.4093342964</v>
       </c>
       <c r="E15">
-        <v>99232791.713345349</v>
+        <v>99143190.654371977</v>
       </c>
       <c r="F15">
-        <v>3821.8466691655053</v>
+        <v>3819.5017224402472</v>
       </c>
       <c r="G15">
-        <v>0.20699630317556283</v>
+        <v>0.20656692994470147</v>
       </c>
       <c r="H15">
-        <v>7.7212287444276217</v>
+        <v>7.7142569535495129</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1126,22 +1126,22 @@
         <v>1157290</v>
       </c>
       <c r="C16">
-        <v>7479975603.1750002</v>
+        <v>7469294374.84202</v>
       </c>
       <c r="D16">
-        <v>410773.06568020553</v>
+        <v>408678.60251389042</v>
       </c>
       <c r="E16">
-        <v>12133453.292192545</v>
+        <v>15381292.756044278</v>
       </c>
       <c r="F16">
-        <v>6463.3545638301548</v>
+        <v>6454.1250463082024</v>
       </c>
       <c r="G16">
-        <v>0.35494393426038895</v>
+        <v>0.35313413449860487</v>
       </c>
       <c r="H16">
-        <v>10.484367178660962</v>
+        <v>13.290785158468731</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1167,16 +1167,16 @@
         <v>2981276</v>
       </c>
       <c r="C17">
-        <v>3411547088.4047937</v>
+        <v>3456705506.3836575</v>
       </c>
       <c r="E17">
-        <v>610520336.86680019</v>
+        <v>592994525.50538635</v>
       </c>
       <c r="F17">
-        <v>1144.3244732808348</v>
+        <v>1159.4718189069572</v>
       </c>
       <c r="H17">
-        <v>204.78490983954526</v>
+        <v>198.90628224471212</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -1202,16 +1202,16 @@
         <v>1265697</v>
       </c>
       <c r="C18">
-        <v>1520143824.8907695</v>
+        <v>1527314314.6308203</v>
       </c>
       <c r="E18">
-        <v>191969157.16131839</v>
+        <v>188275720.71873254</v>
       </c>
       <c r="F18">
-        <v>1201.0329683097689</v>
+        <v>1206.6982181602866</v>
       </c>
       <c r="H18">
-        <v>151.67070567546449</v>
+        <v>148.75260091375151</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -1237,16 +1237,16 @@
         <v>1796131</v>
       </c>
       <c r="C19">
-        <v>1475809598.0331714</v>
+        <v>1466549872.5235019</v>
       </c>
       <c r="E19">
-        <v>1007399964.0421307</v>
+        <v>987202691.1960479</v>
       </c>
       <c r="F19">
-        <v>821.6603343704727</v>
+        <v>816.50496123250582</v>
       </c>
       <c r="H19">
-        <v>560.87221034664549</v>
+        <v>549.62733297072873</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -1275,13 +1275,13 @@
         <v>2466599396.6861267</v>
       </c>
       <c r="E20">
-        <v>289205715.4884001</v>
+        <v>267296191.5877637</v>
       </c>
       <c r="F20">
         <v>1039.8672348513392</v>
       </c>
       <c r="H20">
-        <v>121.92314166303761</v>
+        <v>112.68654002189838</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -1307,16 +1307,16 @@
         <v>4881045</v>
       </c>
       <c r="C21">
-        <v>4340127685.1381111</v>
+        <v>4404243924.2620392</v>
       </c>
       <c r="E21">
-        <v>877690866.95737708</v>
+        <v>845813240.06744075</v>
       </c>
       <c r="F21">
-        <v>889.18001885623062</v>
+        <v>902.31577956401532</v>
       </c>
       <c r="H21">
-        <v>179.81618013302011</v>
+        <v>173.28527806390653</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1342,16 +1342,16 @@
         <v>2219933</v>
       </c>
       <c r="C22">
-        <v>2514475225.7446508</v>
+        <v>2497257144.9289165</v>
       </c>
       <c r="E22">
-        <v>394747930.21328562</v>
+        <v>370353748.36265945</v>
       </c>
       <c r="F22">
-        <v>1132.6806825902631</v>
+        <v>1124.924556249633</v>
       </c>
       <c r="H22">
-        <v>177.81974961104035</v>
+        <v>166.83104776705397</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -1377,22 +1377,22 @@
         <v>1056327</v>
       </c>
       <c r="C23">
-        <v>1818634221.5633607</v>
+        <v>1850866915.7476006</v>
       </c>
       <c r="D23">
-        <v>105618.98824328117</v>
+        <v>107407.98622454359</v>
       </c>
       <c r="E23">
-        <v>4114085.1724842004</v>
+        <v>4172291.8777323002</v>
       </c>
       <c r="F23">
-        <v>1721.658370526703</v>
+        <v>1752.1723062532724</v>
       </c>
       <c r="G23">
-        <v>9.9987019401455393E-2</v>
+        <v>0.10168062183825993</v>
       </c>
       <c r="H23">
-        <v>3.8947079573694512</v>
+        <v>3.9498108802788341</v>
       </c>
       <c r="I23" t="s">
         <v>16</v>
@@ -1418,22 +1418,22 @@
         <v>1066912</v>
       </c>
       <c r="C24">
-        <v>4854237326.7975483</v>
+        <v>4783468571.0279751</v>
       </c>
       <c r="D24">
-        <v>265599.80986861262</v>
+        <v>263195.82531060057</v>
       </c>
       <c r="E24">
-        <v>3976507.3445474878</v>
+        <v>7317601.229988643</v>
       </c>
       <c r="F24">
-        <v>4549.8010396335858</v>
+        <v>4483.4705871036931</v>
       </c>
       <c r="G24">
-        <v>0.24894256496188311</v>
+        <v>0.24668934767872192</v>
       </c>
       <c r="H24">
-        <v>3.7271183982816649</v>
+        <v>6.8586736581729735</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
@@ -1459,22 +1459,22 @@
         <v>4489538</v>
       </c>
       <c r="C25">
-        <v>20593147028.446655</v>
+        <v>20333988577.790474</v>
       </c>
       <c r="D25">
-        <v>1093004.1971683661</v>
+        <v>1085329.2823945817</v>
       </c>
       <c r="E25">
-        <v>36619741.760059819</v>
+        <v>36235429.303873554</v>
       </c>
       <c r="F25">
-        <v>4586.9189721629837</v>
+        <v>4529.1940012069117</v>
       </c>
       <c r="G25">
-        <v>0.24345582934555091</v>
+        <v>0.24174631830593296</v>
       </c>
       <c r="H25">
-        <v>8.1566837746021577</v>
+        <v>8.0710819919273558</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1500,16 +1500,16 @@
         <v>2992958</v>
       </c>
       <c r="C26">
-        <v>12124007101.260954</v>
+        <v>11970845499.812359</v>
       </c>
       <c r="E26">
-        <v>354056172.25400591</v>
+        <v>351729878.83625013</v>
       </c>
       <c r="F26">
-        <v>4050.84438246743</v>
+        <v>3999.670392906402</v>
       </c>
       <c r="H26">
-        <v>118.2964051797606</v>
+        <v>117.51914956248973</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1535,16 +1535,16 @@
         <v>229494</v>
       </c>
       <c r="C27">
-        <v>2879110309.1363811</v>
+        <v>2873990191.3786931</v>
       </c>
       <c r="E27">
-        <v>548310920.46745026</v>
+        <v>540694123.3489635</v>
       </c>
       <c r="F27">
-        <v>12545.470945368425</v>
+        <v>12523.160480791188</v>
       </c>
       <c r="H27">
-        <v>2389.2168007331356</v>
+        <v>2356.0272745647535</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1570,22 +1570,22 @@
         <v>6529869</v>
       </c>
       <c r="C28">
-        <v>52531343350.976913</v>
+        <v>52456806971.763428</v>
       </c>
       <c r="D28">
-        <v>2850544.4207862997</v>
+        <v>2823066.1380097992</v>
       </c>
       <c r="E28">
-        <v>103514418.52829477</v>
+        <v>101461226.68924181</v>
       </c>
       <c r="F28">
-        <v>8044.7775217201006</v>
+        <v>8033.3628395551932</v>
       </c>
       <c r="G28">
-        <v>0.4365392966974222</v>
+        <v>0.43233120572706729</v>
       </c>
       <c r="H28">
-        <v>15.852449494514326</v>
+        <v>15.53801870898816</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1611,22 +1611,22 @@
         <v>1441562</v>
       </c>
       <c r="C29">
-        <v>3737069265.4910836</v>
+        <v>3748570265.9031715</v>
       </c>
       <c r="D29">
-        <v>204686.11203426821</v>
+        <v>204810.59024930157</v>
       </c>
       <c r="E29">
-        <v>6848267.8724621683</v>
+        <v>6827505.9797880286</v>
       </c>
       <c r="F29">
-        <v>2592.3749831717842</v>
+        <v>2600.3531349350023</v>
       </c>
       <c r="G29">
-        <v>0.14198911460920044</v>
+        <v>0.14207546414882022</v>
       </c>
       <c r="H29">
-        <v>4.7505885091741931</v>
+        <v>4.7361861507087646</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -1652,16 +1652,16 @@
         <v>1650341</v>
       </c>
       <c r="C30">
-        <v>3740129645.0210371</v>
+        <v>3726515723.0853968</v>
       </c>
       <c r="E30">
-        <v>425760156.64676511</v>
+        <v>368016770.79774249</v>
       </c>
       <c r="F30">
-        <v>2266.2768755190818</v>
+        <v>2258.027718565676</v>
       </c>
       <c r="H30">
-        <v>257.98314205777183</v>
+        <v>222.99438164460707</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -1690,7 +1690,7 @@
         <v>17618775425.398262</v>
       </c>
       <c r="D31">
-        <v>1001771.10858335</v>
+        <v>1123156.7189226472</v>
       </c>
       <c r="E31">
         <v>27461256.78923342</v>
@@ -1699,7 +1699,7 @@
         <v>3534.8921161808921</v>
       </c>
       <c r="G31">
-        <v>0.20098745278541572</v>
+        <v>0.22534130409721814</v>
       </c>
       <c r="H31">
         <v>5.509609934907604</v>
@@ -1728,16 +1728,16 @@
         <v>2093626</v>
       </c>
       <c r="C32">
-        <v>7217295294.4501209</v>
+        <v>7332187550.6209698</v>
       </c>
       <c r="E32">
-        <v>1069282512.4822758</v>
+        <v>988318752.52384675</v>
       </c>
       <c r="F32">
-        <v>3447.2705700302349</v>
+        <v>3502.1477334638421</v>
       </c>
       <c r="H32">
-        <v>510.73234306522556</v>
+        <v>472.06079429843095</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>10855.626528652858</v>
       </c>
       <c r="E33">
-        <v>142867.81315380899</v>
+        <v>272450.74517261999</v>
       </c>
       <c r="F33">
         <v>2492.8202765253423</v>
@@ -1778,7 +1778,7 @@
         <v>0.16141235508152463</v>
       </c>
       <c r="H33">
-        <v>2.1243020958427601</v>
+        <v>4.0510712399652062</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -1804,16 +1804,16 @@
         <v>245567</v>
       </c>
       <c r="C34">
-        <v>198683476.22475338</v>
+        <v>199431423.14097902</v>
       </c>
       <c r="E34">
-        <v>25281905.838807549</v>
+        <v>23442697.911787689</v>
       </c>
       <c r="F34">
-        <v>809.08052069192263</v>
+        <v>812.12631640643497</v>
       </c>
       <c r="H34">
-        <v>102.95318930804036</v>
+        <v>95.463551339502814</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -1839,16 +1839,16 @@
         <v>717925</v>
       </c>
       <c r="C35">
-        <v>756071188.11787689</v>
+        <v>759718359.54945791</v>
       </c>
       <c r="E35">
-        <v>226463120.45367485</v>
+        <v>218471340.96321055</v>
       </c>
       <c r="F35">
-        <v>1053.133945910613</v>
+        <v>1058.2141025169174</v>
       </c>
       <c r="H35">
-        <v>315.44119574283508</v>
+        <v>304.30942084926778</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -1874,16 +1874,16 @@
         <v>1081826</v>
       </c>
       <c r="C36">
-        <v>1217976352.3944149</v>
+        <v>1240902706.6982441</v>
       </c>
       <c r="E36">
-        <v>142859647.33560005</v>
+        <v>150199061.71746653</v>
       </c>
       <c r="F36">
-        <v>1125.8523573979687</v>
+        <v>1147.0446325917885</v>
       </c>
       <c r="H36">
-        <v>132.05418185142531</v>
+        <v>138.83846544404233</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -1909,13 +1909,13 @@
         <v>250729</v>
       </c>
       <c r="C37">
-        <v>210449438.57059634</v>
+        <v>206834876.68540317</v>
       </c>
       <c r="E37">
         <v>148938817.39775997</v>
       </c>
       <c r="F37">
-        <v>839.35020907272929</v>
+        <v>824.93399919994567</v>
       </c>
       <c r="H37">
         <v>594.02309823658197</v>
@@ -1944,16 +1944,16 @@
         <v>750815</v>
       </c>
       <c r="C38">
-        <v>1070250300.5342373</v>
+        <v>1068168288.8890224</v>
       </c>
       <c r="E38">
-        <v>7292997.2899277518</v>
+        <v>6962793.207994638</v>
       </c>
       <c r="F38">
-        <v>1425.4514101799209</v>
+        <v>1422.6784079820227</v>
       </c>
       <c r="H38">
-        <v>9.7134411138932375</v>
+        <v>9.2736469143459281</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -1979,16 +1979,16 @@
         <v>384251</v>
       </c>
       <c r="C39">
-        <v>445111960.11425626</v>
+        <v>447042711.97035843</v>
       </c>
       <c r="E39">
-        <v>54976976.306481838</v>
+        <v>54890555.663870595</v>
       </c>
       <c r="F39">
-        <v>1158.3885536127591</v>
+        <v>1163.4132688538441</v>
       </c>
       <c r="H39">
-        <v>143.07568830395195</v>
+        <v>142.85078155651019</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -2014,16 +2014,16 @@
         <v>1245893</v>
       </c>
       <c r="C40">
-        <v>6824018838.4323959</v>
+        <v>6864737570.0919342</v>
       </c>
       <c r="E40">
-        <v>795810875.15004575</v>
+        <v>793622831.16816247</v>
       </c>
       <c r="F40">
-        <v>5477.2109951917182</v>
+        <v>5509.8933617027578</v>
       </c>
       <c r="H40">
-        <v>638.74736847389443</v>
+        <v>636.99116310001136</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -2049,22 +2049,22 @@
         <v>827980</v>
       </c>
       <c r="C41">
-        <v>5753510707.9115887</v>
+        <v>5753124097.5693321</v>
       </c>
       <c r="D41">
-        <v>310859.68234417401</v>
+        <v>313573.52196090628</v>
       </c>
       <c r="E41">
-        <v>10601388.079409312</v>
+        <v>10694663.26472136</v>
       </c>
       <c r="F41">
-        <v>6948.8522765182606</v>
+        <v>6948.3853445365003</v>
       </c>
       <c r="G41">
-        <v>0.37544346764918723</v>
+        <v>0.3787211308979761</v>
       </c>
       <c r="H41">
-        <v>12.803918064940351</v>
+        <v>12.916571976039711</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -2090,22 +2090,22 @@
         <v>2177256</v>
       </c>
       <c r="C42">
-        <v>11307868213.547211</v>
+        <v>11190598469.691425</v>
       </c>
       <c r="D42">
-        <v>592524.20780932344</v>
+        <v>584211.33657097653</v>
       </c>
       <c r="E42">
-        <v>9272422.4377941191</v>
+        <v>9057426.5150538553</v>
       </c>
       <c r="F42">
-        <v>5193.6328174303853</v>
+        <v>5139.7715609425004</v>
       </c>
       <c r="G42">
-        <v>0.27214264551771744</v>
+        <v>0.26832459599191671</v>
       </c>
       <c r="H42">
-        <v>4.258765362361669</v>
+        <v>4.160019085975124</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -2131,22 +2131,22 @@
         <v>2300225</v>
       </c>
       <c r="C43">
-        <v>24674431761.019588</v>
+        <v>25272296266.940968</v>
       </c>
       <c r="D43">
-        <v>1332585.3505162932</v>
+        <v>1358025.3552846813</v>
       </c>
       <c r="E43">
-        <v>47489110.553214565</v>
+        <v>48418629.55642724</v>
       </c>
       <c r="F43">
-        <v>10726.964432183629</v>
+        <v>10986.880095182414</v>
       </c>
       <c r="G43">
-        <v>0.57932826159018924</v>
+        <v>0.5903880512926698</v>
       </c>
       <c r="H43">
-        <v>20.645419710339013</v>
+        <v>21.049518875947889</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
@@ -2172,22 +2172,22 @@
         <v>1488285</v>
       </c>
       <c r="C44">
-        <v>7447276809.5687475</v>
+        <v>7473220580.2195177</v>
       </c>
       <c r="D44">
-        <v>403439.41293560673</v>
+        <v>404332.64818848472</v>
       </c>
       <c r="E44">
-        <v>12963663.271162</v>
+        <v>13286701.345431294</v>
       </c>
       <c r="F44">
-        <v>5003.9319146324442</v>
+        <v>5021.3639055822769</v>
       </c>
       <c r="G44">
-        <v>0.27107671778967518</v>
+        <v>0.27167689534496736</v>
       </c>
       <c r="H44">
-        <v>8.7104709589641764</v>
+        <v>8.9275248661588975</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
@@ -2213,16 +2213,16 @@
         <v>48329</v>
       </c>
       <c r="C45">
-        <v>176571371.65063319</v>
+        <v>179022210.86207873</v>
       </c>
       <c r="E45">
-        <v>28680018.618777841</v>
+        <v>28776907.387949288</v>
       </c>
       <c r="F45">
-        <v>3653.5283504859026</v>
+        <v>3704.2399152078196</v>
       </c>
       <c r="H45">
-        <v>593.43289988987647</v>
+        <v>595.43767485255819</v>
       </c>
       <c r="I45" t="s">
         <v>20</v>
@@ -2248,16 +2248,16 @@
         <v>1336530</v>
       </c>
       <c r="C46">
-        <v>2579157675.9409599</v>
+        <v>2596527297.2654991</v>
       </c>
       <c r="E46">
-        <v>397029302.30741221</v>
+        <v>359889250.31108928</v>
       </c>
       <c r="F46">
-        <v>1929.7417012270282</v>
+        <v>1942.7377591715103</v>
       </c>
       <c r="H46">
-        <v>297.05977591779629</v>
+        <v>269.2713596485595</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2283,22 +2283,22 @@
         <v>4238250</v>
       </c>
       <c r="C47">
-        <v>23206963907.69796</v>
+        <v>23438672061.672489</v>
       </c>
       <c r="D47">
-        <v>1245240.9705770409</v>
+        <v>1256967.9167340761</v>
       </c>
       <c r="E47">
-        <v>40884495.926684424</v>
+        <v>40909182.495422229</v>
       </c>
       <c r="F47">
-        <v>5475.6005208984734</v>
+        <v>5530.2712349843659</v>
       </c>
       <c r="G47">
-        <v>0.29381017414665034</v>
+        <v>0.29657710534632842</v>
       </c>
       <c r="H47">
-        <v>9.646551271558879</v>
+        <v>9.6523759795722839</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -2324,16 +2324,16 @@
         <v>1825199</v>
       </c>
       <c r="C48">
-        <v>1418876659.3625424</v>
+        <v>1445420650.1292064</v>
       </c>
       <c r="E48">
-        <v>244478227.6880281</v>
+        <v>231211939.24813265</v>
       </c>
       <c r="F48">
-        <v>777.38189609053165</v>
+        <v>791.92496277348732</v>
       </c>
       <c r="H48">
-        <v>133.94606707982422</v>
+        <v>126.677660489696</v>
       </c>
       <c r="I48" t="s">
         <v>23</v>
@@ -2359,16 +2359,16 @@
         <v>7101778</v>
       </c>
       <c r="C49">
-        <v>6505475571.0736856</v>
+        <v>6727007253.5105085</v>
       </c>
       <c r="E49">
-        <v>1083536013.0341229</v>
+        <v>1062824026.8675784</v>
       </c>
       <c r="F49">
-        <v>916.03476919071329</v>
+        <v>947.22860296541353</v>
       </c>
       <c r="H49">
-        <v>152.57249846927391</v>
+        <v>149.65604766406079</v>
       </c>
       <c r="I49" t="s">
         <v>23</v>
@@ -2394,16 +2394,16 @@
         <v>992174</v>
       </c>
       <c r="C50">
-        <v>1316446708.1543112</v>
+        <v>1311106091.2369776</v>
       </c>
       <c r="E50">
-        <v>166331761.61261761</v>
+        <v>155838285.71373361</v>
       </c>
       <c r="F50">
-        <v>1326.8304835183258</v>
+        <v>1321.4477412600791</v>
       </c>
       <c r="H50">
-        <v>167.6437415338616</v>
+        <v>157.06749593693604</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
@@ -2429,16 +2429,16 @@
         <v>1769518</v>
       </c>
       <c r="C51">
-        <v>1975197843.3004501</v>
+        <v>1925502246.0301332</v>
       </c>
       <c r="E51">
-        <v>392609559.06948942</v>
+        <v>365412852.50498283</v>
       </c>
       <c r="F51">
-        <v>1116.234953982073</v>
+        <v>1088.150697551612</v>
       </c>
       <c r="H51">
-        <v>221.87373006066591</v>
+        <v>206.50417373826252</v>
       </c>
       <c r="I51" t="s">
         <v>23</v>
@@ -2464,22 +2464,22 @@
         <v>16149545</v>
       </c>
       <c r="C52">
-        <v>41293144706.365189</v>
+        <v>41239125967.339584</v>
       </c>
       <c r="D52">
-        <v>2223879.8183022039</v>
+        <v>2213588.6478221295</v>
       </c>
       <c r="E52">
-        <v>81298872.997909099</v>
+        <v>80857474.355393857</v>
       </c>
       <c r="F52">
-        <v>2556.9231025620347</v>
+        <v>2553.5781947627374</v>
       </c>
       <c r="G52">
-        <v>0.13770541636326</v>
+        <v>0.13706817423166595</v>
       </c>
       <c r="H52">
-        <v>5.0341277725105638</v>
+        <v>5.0067958171820841</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
@@ -2505,16 +2505,16 @@
         <v>1806150</v>
       </c>
       <c r="C53">
-        <v>3502057746.6888599</v>
+        <v>3485844399.2180147</v>
       </c>
       <c r="E53">
-        <v>660533363.68742251</v>
+        <v>621193261.40749085</v>
       </c>
       <c r="F53">
-        <v>1938.9628473210198</v>
+        <v>1929.9861026038893</v>
       </c>
       <c r="H53">
-        <v>365.7134588419691</v>
+        <v>343.9322655413398</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
@@ -2540,16 +2540,16 @@
         <v>5446539</v>
       </c>
       <c r="C54">
-        <v>34044201682.866802</v>
+        <v>33384812827.421848</v>
       </c>
       <c r="E54">
-        <v>6887893254.0590611</v>
+        <v>6756343731.6628542</v>
       </c>
       <c r="F54">
-        <v>6250.6119359223903</v>
+        <v>6129.5462728572857</v>
       </c>
       <c r="H54">
-        <v>1264.6367269304528</v>
+        <v>1240.4838617079313</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
@@ -2575,16 +2575,16 @@
         <v>2101351</v>
       </c>
       <c r="C55">
-        <v>3868387201.5317173</v>
+        <v>3893642514.2965918</v>
       </c>
       <c r="E55">
-        <v>443535982.16043127</v>
+        <v>419618667.1243121</v>
       </c>
       <c r="F55">
-        <v>1840.9048281470905</v>
+        <v>1852.9234355881485</v>
       </c>
       <c r="H55">
-        <v>211.07182101440037</v>
+        <v>199.68994571792723</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
@@ -2613,7 +2613,7 @@
         <v>335427299.71135944</v>
       </c>
       <c r="D56">
-        <v>20843.380496407706</v>
+        <v>20629.331577249039</v>
       </c>
       <c r="E56">
         <v>491415.29596222768</v>
@@ -2622,7 +2622,7 @@
         <v>1632.9886503934113</v>
       </c>
       <c r="G56">
-        <v>0.10147356466141712</v>
+        <v>0.10043149248686285</v>
       </c>
       <c r="H56">
         <v>2.3923979998842673</v>
@@ -2651,16 +2651,16 @@
         <v>500876</v>
       </c>
       <c r="C57">
-        <v>588492863.02537346</v>
+        <v>597385801.15770984</v>
       </c>
       <c r="E57">
-        <v>117342884.39450823</v>
+        <v>113418494.0260421</v>
       </c>
       <c r="F57">
-        <v>1174.9272535026103</v>
+        <v>1192.6820234104043</v>
       </c>
       <c r="H57">
-        <v>234.27531843112513</v>
+        <v>226.44026470831523</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
@@ -2686,16 +2686,16 @@
         <v>869762</v>
       </c>
       <c r="C58">
-        <v>976391996.81484115</v>
+        <v>994354404.31126797</v>
       </c>
       <c r="E58">
-        <v>106520776.28801239</v>
+        <v>106307059.01640002</v>
       </c>
       <c r="F58">
-        <v>1122.596752691933</v>
+        <v>1143.2488477437137</v>
       </c>
       <c r="H58">
-        <v>122.47117750374514</v>
+        <v>122.22545824765858</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -2721,16 +2721,16 @@
         <v>296202</v>
       </c>
       <c r="C59">
-        <v>249656899.75864169</v>
+        <v>242098857.04692</v>
       </c>
       <c r="E59">
-        <v>39505772.50656902</v>
+        <v>36368069.793191999</v>
       </c>
       <c r="F59">
-        <v>842.86027696856092</v>
+        <v>817.34376218567058</v>
       </c>
       <c r="H59">
-        <v>133.37442862157926</v>
+        <v>122.78131070415459</v>
       </c>
       <c r="I59" t="s">
         <v>24</v>
@@ -2756,16 +2756,16 @@
         <v>1615868</v>
       </c>
       <c r="C60">
-        <v>1391378754.1950951</v>
+        <v>1376705267.3093872</v>
       </c>
       <c r="E60">
-        <v>283060437.69147652</v>
+        <v>271344968.69019115</v>
       </c>
       <c r="F60">
-        <v>861.07203942097681</v>
+        <v>851.99116964342829</v>
       </c>
       <c r="H60">
-        <v>175.17547082526329</v>
+        <v>167.92520718907184</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -2791,16 +2791,16 @@
         <v>1420063</v>
       </c>
       <c r="C61">
-        <v>1624375855.5952795</v>
+        <v>1675909303.0307131</v>
       </c>
       <c r="E61">
-        <v>323301149.04858088</v>
+        <v>318291312.16623044</v>
       </c>
       <c r="F61">
-        <v>1143.8759094457637</v>
+        <v>1180.1654595822249</v>
       </c>
       <c r="H61">
-        <v>227.66676481858963</v>
+        <v>224.13886719549092</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
@@ -2826,16 +2826,16 @@
         <v>2037047</v>
       </c>
       <c r="C62">
-        <v>1805029792.9304912</v>
+        <v>1792563861.0395324</v>
       </c>
       <c r="E62">
-        <v>260685670.68185407</v>
+        <v>239810839.06435636</v>
       </c>
       <c r="F62">
-        <v>886.1012008709132</v>
+        <v>879.98159150944105</v>
       </c>
       <c r="H62">
-        <v>127.97233970637598</v>
+        <v>117.7247452142029</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
@@ -2861,13 +2861,13 @@
         <v>233500</v>
       </c>
       <c r="C63">
-        <v>101956609.65503483</v>
+        <v>103383468.94915494</v>
       </c>
       <c r="E63">
         <v>13050815.69684455</v>
       </c>
       <c r="F63">
-        <v>436.64500922927118</v>
+        <v>442.75575567089913</v>
       </c>
       <c r="H63">
         <v>55.892144311968096</v>
@@ -2896,16 +2896,16 @@
         <v>16042082</v>
       </c>
       <c r="C64">
-        <v>16642079605.428772</v>
+        <v>16751342482.000801</v>
       </c>
       <c r="E64">
-        <v>3426325102.8574486</v>
+        <v>3355556366.7098646</v>
       </c>
       <c r="F64">
-        <v>1037.4014797723121</v>
+        <v>1044.212495734706</v>
       </c>
       <c r="H64">
-        <v>213.58356744825568</v>
+        <v>209.17212408650352</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -2931,16 +2931,16 @@
         <v>2119428</v>
       </c>
       <c r="C65">
-        <v>2347135952.1547871</v>
+        <v>2333915779.3683033</v>
       </c>
       <c r="E65">
-        <v>458542127.6396026</v>
+        <v>449430193.61059439</v>
       </c>
       <c r="F65">
-        <v>1107.4383994902337</v>
+        <v>1101.2007859518244</v>
       </c>
       <c r="H65">
-        <v>216.35183060693856</v>
+        <v>212.05258853360169</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -2966,22 +2966,22 @@
         <v>4495381</v>
       </c>
       <c r="C66">
-        <v>8460563136.9483929</v>
+        <v>8629310069.9598694</v>
       </c>
       <c r="D66">
-        <v>449639.67232464184</v>
+        <v>464489.58591147873</v>
       </c>
       <c r="E66">
-        <v>14934114.113568194</v>
+        <v>15374952.875029996</v>
       </c>
       <c r="F66">
-        <v>1882.0569684634945</v>
+        <v>1919.5948174270143</v>
       </c>
       <c r="G66">
-        <v>0.10002259482002566</v>
+        <v>0.10332596634444972</v>
       </c>
       <c r="H66">
-        <v>3.322101978356939</v>
+        <v>3.4201668056678614</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3042,16 +3042,16 @@
         <v>6594728</v>
       </c>
       <c r="C68">
-        <v>6846508222.6204042</v>
+        <v>6909665163.4713612</v>
       </c>
       <c r="E68">
-        <v>1247058516.531033</v>
+        <v>1154267398.9358191</v>
       </c>
       <c r="F68">
-        <v>1038.1790155136655</v>
+        <v>1047.7558988742767</v>
       </c>
       <c r="H68">
-        <v>189.09931031742826</v>
+        <v>175.02881073121122</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3077,16 +3077,16 @@
         <v>7672769</v>
       </c>
       <c r="C69">
-        <v>7811096821.7408695</v>
+        <v>7994873401.2145519</v>
       </c>
       <c r="E69">
-        <v>1422465910.1913402</v>
+        <v>1426530969.1666131</v>
       </c>
       <c r="F69">
-        <v>1018.0284095273648</v>
+        <v>1041.9802031332563</v>
       </c>
       <c r="H69">
-        <v>185.39146821588662</v>
+        <v>185.92127159915975</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3112,16 +3112,16 @@
         <v>306727</v>
       </c>
       <c r="C70">
-        <v>149037286.83848372</v>
+        <v>148424605.75192791</v>
       </c>
       <c r="E70">
-        <v>137572880.15860036</v>
+        <v>137007328.38639498</v>
       </c>
       <c r="F70">
-        <v>485.89555806461027</v>
+        <v>483.89807793877912</v>
       </c>
       <c r="H70">
-        <v>448.51897667502487</v>
+        <v>446.67514886656534</v>
       </c>
       <c r="I70" t="s">
         <v>10</v>
@@ -3147,16 +3147,16 @@
         <v>3095082</v>
       </c>
       <c r="C71">
-        <v>3617472130.1394033</v>
+        <v>3544641959.9051905</v>
       </c>
       <c r="E71">
-        <v>752028173.67191768</v>
+        <v>737404902.68164706</v>
       </c>
       <c r="F71">
-        <v>1168.7807076321089</v>
+        <v>1145.2497736425694</v>
       </c>
       <c r="H71">
-        <v>242.97520184341403</v>
+        <v>238.2505221773275</v>
       </c>
       <c r="I71" t="s">
         <v>10</v>
@@ -3182,22 +3182,22 @@
         <v>134547</v>
       </c>
       <c r="C72">
-        <v>736563008.32821262</v>
+        <v>730501907.89701748</v>
       </c>
       <c r="D72">
-        <v>40201.684324322523</v>
+        <v>39763.544122286716</v>
       </c>
       <c r="E72">
-        <v>870039.77577240707</v>
+        <v>783767.0170886534</v>
       </c>
       <c r="F72">
-        <v>5474.3919100999101</v>
+        <v>5429.3437081244283</v>
       </c>
       <c r="G72">
-        <v>0.29879287033023794</v>
+        <v>0.29553646028738445</v>
       </c>
       <c r="H72">
-        <v>6.4664375703093127</v>
+        <v>5.8252284858722483</v>
       </c>
       <c r="I72" t="s">
         <v>27</v>
@@ -3223,22 +3223,22 @@
         <v>531521</v>
       </c>
       <c r="C73">
-        <v>3073447921.3334341</v>
+        <v>3107929882.4681911</v>
       </c>
       <c r="D73">
-        <v>164474.06045281945</v>
+        <v>165361.28319528868</v>
       </c>
       <c r="E73">
-        <v>5421960.7207616679</v>
+        <v>5396303.956573749</v>
       </c>
       <c r="F73">
-        <v>5782.3640483319268</v>
+        <v>5847.2381758541824</v>
       </c>
       <c r="G73">
-        <v>0.30944038044182537</v>
+        <v>0.31110959528464288</v>
       </c>
       <c r="H73">
-        <v>10.200840081128813</v>
+        <v>10.152569619213068</v>
       </c>
       <c r="I73" t="s">
         <v>28</v>
@@ -3264,22 +3264,22 @@
         <v>1438500</v>
       </c>
       <c r="C74">
-        <v>9556607188.7228622</v>
+        <v>9691444192.5479088</v>
       </c>
       <c r="D74">
-        <v>514897.55471163453</v>
+        <v>522492.71715450345</v>
       </c>
       <c r="E74">
-        <v>17631101.578240752</v>
+        <v>17476024.651721567</v>
       </c>
       <c r="F74">
-        <v>6643.4530335230193</v>
+        <v>6737.1874817851294</v>
       </c>
       <c r="G74">
-        <v>0.35794060112035764</v>
+        <v>0.363220519398334</v>
       </c>
       <c r="H74">
-        <v>12.256587819423533</v>
+        <v>12.14878321287561</v>
       </c>
       <c r="I74" t="s">
         <v>29</v>
@@ -3305,22 +3305,22 @@
         <v>4871389</v>
       </c>
       <c r="C75">
-        <v>24588402480.44014</v>
+        <v>24968555821.711536</v>
       </c>
       <c r="D75">
-        <v>1308902.510007537</v>
+        <v>1336146.3063091377</v>
       </c>
       <c r="E75">
-        <v>44038354.137601778</v>
+        <v>43283172.872251511</v>
       </c>
       <c r="F75">
-        <v>5047.5136517408364</v>
+        <v>5125.5516284393507</v>
       </c>
       <c r="G75">
-        <v>0.26869184743972141</v>
+        <v>0.2742844610252102</v>
       </c>
       <c r="H75">
-        <v>9.0402047829893633</v>
+        <v>8.8851809765657208</v>
       </c>
       <c r="I75" t="s">
         <v>29</v>
@@ -3346,22 +3346,22 @@
         <v>1656996</v>
       </c>
       <c r="C76">
-        <v>8644082530.2094154</v>
+        <v>8661643337.6331825</v>
       </c>
       <c r="D76">
-        <v>468772.16039244714</v>
+        <v>469276.46910951554</v>
       </c>
       <c r="E76">
-        <v>17594383.633846045</v>
+        <v>17692197.096368648</v>
       </c>
       <c r="F76">
-        <v>5216.7190085005732</v>
+        <v>5227.3169866633252</v>
       </c>
       <c r="G76">
-        <v>0.28290482318149662</v>
+        <v>0.28320917437912679</v>
       </c>
       <c r="H76">
-        <v>10.618241464581715</v>
+        <v>10.677272061229267</v>
       </c>
       <c r="I76" t="s">
         <v>29</v>
@@ -3387,22 +3387,22 @@
         <v>967351</v>
       </c>
       <c r="C77">
-        <v>6581762757.1930408</v>
+        <v>6540344287.2977095</v>
       </c>
       <c r="D77">
-        <v>351759.12113272341</v>
+        <v>348876.10298312013</v>
       </c>
       <c r="E77">
-        <v>4000912.3094509467</v>
+        <v>3764836.7824022206</v>
       </c>
       <c r="F77">
-        <v>6803.9033992760033</v>
+        <v>6761.0870173263993</v>
       </c>
       <c r="G77">
-        <v>0.36363132010275834</v>
+        <v>0.36065099739713935</v>
       </c>
       <c r="H77">
-        <v>4.1359468377568707</v>
+        <v>3.8919035411161209</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
@@ -3428,22 +3428,22 @@
         <v>7658910</v>
       </c>
       <c r="C78">
-        <v>35014036610.331238</v>
+        <v>34849090934.366158</v>
       </c>
       <c r="D78">
-        <v>1902214.4321338332</v>
+        <v>1888991.2783132931</v>
       </c>
       <c r="E78">
-        <v>72411317.923643947</v>
+        <v>71587525.360736728</v>
       </c>
       <c r="F78">
-        <v>4571.6735945886867</v>
+        <v>4550.1371519401791</v>
       </c>
       <c r="G78">
-        <v>0.2483662077415498</v>
+        <v>0.24663970177391994</v>
       </c>
       <c r="H78">
-        <v>9.454520019642997</v>
+        <v>9.3469599930978085</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -3469,16 +3469,16 @@
         <v>500630</v>
       </c>
       <c r="C79">
-        <v>2716744085.6717839</v>
+        <v>2668830887.3280163</v>
       </c>
       <c r="E79">
-        <v>379821197.2752043</v>
+        <v>370830652.42778182</v>
       </c>
       <c r="F79">
-        <v>5426.6505915981543</v>
+        <v>5330.9447842279051</v>
       </c>
       <c r="H79">
-        <v>758.68644962388248</v>
+        <v>740.72798759119871</v>
       </c>
       <c r="I79" t="s">
         <v>30</v>
@@ -3504,22 +3504,22 @@
         <v>3581670</v>
       </c>
       <c r="C80">
-        <v>20838156609.76384</v>
+        <v>20541106322.99263</v>
       </c>
       <c r="D80">
-        <v>1116968.8837351217</v>
+        <v>1066678.151772955</v>
       </c>
       <c r="E80">
-        <v>36654366.332384057</v>
+        <v>33227543.3549079</v>
       </c>
       <c r="F80">
-        <v>5818.0001534937164</v>
+        <v>5735.0639011948697</v>
       </c>
       <c r="G80">
-        <v>0.31185700629458374</v>
+        <v>0.29781586571988899</v>
       </c>
       <c r="H80">
-        <v>10.233875910506567</v>
+        <v>9.2771091013152809</v>
       </c>
       <c r="I80" t="s">
         <v>30</v>
@@ -3545,7 +3545,7 @@
         <v>4902363</v>
       </c>
       <c r="C81">
-        <v>34404070479.962875</v>
+        <v>38504882448.305428</v>
       </c>
       <c r="D81">
         <v>1943223.2736284421</v>
@@ -3554,7 +3554,7 @@
         <v>59950586.986435667</v>
       </c>
       <c r="F81">
-        <v>7017.8545489109792</v>
+        <v>7854.3515542005816</v>
       </c>
       <c r="G81">
         <v>0.39638502363624278</v>
@@ -3586,22 +3586,22 @@
         <v>6114392</v>
       </c>
       <c r="C82">
-        <v>31716424416.555084</v>
+        <v>31804742952.707085</v>
       </c>
       <c r="D82">
-        <v>1714193.6017541802</v>
+        <v>1737884.2536454792</v>
       </c>
       <c r="E82">
-        <v>59958900.952920035</v>
+        <v>61643092.555606171</v>
       </c>
       <c r="F82">
-        <v>5187.1755060118958</v>
+        <v>5201.6198753215504</v>
       </c>
       <c r="G82">
-        <v>0.28035389320053083</v>
+        <v>0.28422846517617439</v>
       </c>
       <c r="H82">
-        <v>9.8061918426100316</v>
+        <v>10.081638952099599</v>
       </c>
       <c r="I82" t="s">
         <v>31</v>
@@ -3627,22 +3627,22 @@
         <v>6233147</v>
       </c>
       <c r="C83">
-        <v>26310298246.521679</v>
+        <v>26416304118.477699</v>
       </c>
       <c r="D83">
-        <v>1417454.3155515371</v>
+        <v>1426544.7793504712</v>
       </c>
       <c r="E83">
-        <v>51973094.464100577</v>
+        <v>53012647.248738773</v>
       </c>
       <c r="F83">
-        <v>4221.0296414510485</v>
+        <v>4238.0364394546923</v>
       </c>
       <c r="G83">
-        <v>0.22740588591148853</v>
+        <v>0.22886429268401198</v>
       </c>
       <c r="H83">
-        <v>8.3381788467527844</v>
+        <v>8.5049570062664621</v>
       </c>
       <c r="I83" t="s">
         <v>31</v>
@@ -3668,16 +3668,16 @@
         <v>2753681</v>
       </c>
       <c r="C84">
-        <v>11543291563.87421</v>
+        <v>11313711287.944427</v>
       </c>
       <c r="E84">
-        <v>1327858648.7055898</v>
+        <v>1324106101.3839788</v>
       </c>
       <c r="F84">
-        <v>4191.9494537944702</v>
+        <v>4108.5773144908317</v>
       </c>
       <c r="H84">
-        <v>482.21222745321256</v>
+        <v>480.84948887833372</v>
       </c>
       <c r="I84" t="s">
         <v>31</v>
@@ -3703,22 +3703,22 @@
         <v>5168266</v>
       </c>
       <c r="C85">
-        <v>17726892811.435299</v>
+        <v>17677907394.639282</v>
       </c>
       <c r="D85">
-        <v>938524.46217883343</v>
+        <v>937740.26356720435</v>
       </c>
       <c r="E85">
-        <v>30581848.604801103</v>
+        <v>30556455.983138844</v>
       </c>
       <c r="F85">
-        <v>3429.9497764695739</v>
+        <v>3420.4716619924911</v>
       </c>
       <c r="G85">
-        <v>0.18159368387363062</v>
+        <v>0.18144195046601788</v>
       </c>
       <c r="H85">
-        <v>5.9172358010986867</v>
+        <v>5.9123226209987729</v>
       </c>
       <c r="I85" t="s">
         <v>31</v>
@@ -3744,22 +3744,22 @@
         <v>9849064</v>
       </c>
       <c r="C86">
-        <v>52679032610.176147</v>
+        <v>52147585006.132858</v>
       </c>
       <c r="D86">
-        <v>2833142.1553922305</v>
+        <v>2805859.0563013176</v>
       </c>
       <c r="E86">
-        <v>100547085.62843174</v>
+        <v>99807490.715359315</v>
       </c>
       <c r="F86">
-        <v>5348.6333940134964</v>
+        <v>5294.6741950435953</v>
       </c>
       <c r="G86">
-        <v>0.28765597983648294</v>
+        <v>0.28488585882895245</v>
       </c>
       <c r="H86">
-        <v>10.208796046855998</v>
+        <v>10.13370313314639</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
@@ -3785,22 +3785,22 @@
         <v>6246911</v>
       </c>
       <c r="C87">
-        <v>30214565734.935837</v>
+        <v>30035589163.120358</v>
       </c>
       <c r="D87">
-        <v>1628175.9401158546</v>
+        <v>1618800.6104301754</v>
       </c>
       <c r="E87">
-        <v>59606078.308213517</v>
+        <v>58132267.983666748</v>
       </c>
       <c r="F87">
-        <v>4836.7210185859603</v>
+        <v>4808.0706069160187</v>
       </c>
       <c r="G87">
-        <v>0.26063696763341987</v>
+        <v>0.25913617313103632</v>
       </c>
       <c r="H87">
-        <v>9.541688413395601</v>
+        <v>9.3057621572752911</v>
       </c>
       <c r="I87" t="s">
         <v>31</v>
@@ -3826,22 +3826,22 @@
         <v>3681044</v>
       </c>
       <c r="C88">
-        <v>16741949751.500454</v>
+        <v>16287921286.987217</v>
       </c>
       <c r="D88">
-        <v>868806.51704382617</v>
+        <v>836792.50013261382</v>
       </c>
       <c r="E88">
-        <v>30956463.060682964</v>
+        <v>30393162.598968979</v>
       </c>
       <c r="F88">
-        <v>4548.1525761442826</v>
+        <v>4424.810267681456</v>
       </c>
       <c r="G88">
-        <v>0.23602176910784717</v>
+        <v>0.22732477529000303</v>
       </c>
       <c r="H88">
-        <v>8.40969655909654</v>
+        <v>8.2566691946548261</v>
       </c>
       <c r="I88" t="s">
         <v>31</v>
@@ -3867,16 +3867,16 @@
         <v>4626240</v>
       </c>
       <c r="C89">
-        <v>4855709755.4840012</v>
+        <v>4949916620.7859049</v>
       </c>
       <c r="E89">
-        <v>895976949.1395731</v>
+        <v>933845451.84661663</v>
       </c>
       <c r="F89">
-        <v>1049.6017836264441</v>
+        <v>1069.9653759394032</v>
       </c>
       <c r="H89">
-        <v>193.67282050640978</v>
+        <v>201.85841025251966</v>
       </c>
       <c r="I89" t="s">
         <v>14</v>
@@ -3902,16 +3902,16 @@
         <v>6322841</v>
       </c>
       <c r="C90">
-        <v>6836220987.3682289</v>
+        <v>7046098602.0218496</v>
       </c>
       <c r="E90">
-        <v>1240431848.7094047</v>
+        <v>1197294607.089335</v>
       </c>
       <c r="F90">
-        <v>1081.1945116709765</v>
+        <v>1114.3880736557901</v>
       </c>
       <c r="H90">
-        <v>196.18267305937388</v>
+        <v>189.36022700702659</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -3937,16 +3937,16 @@
         <v>9036684</v>
       </c>
       <c r="C91">
-        <v>81965650504.212875</v>
+        <v>82053892780.295288</v>
       </c>
       <c r="E91">
-        <v>8534910120.2143631</v>
+        <v>8526226965.1197357</v>
       </c>
       <c r="F91">
-        <v>9070.3238604130529</v>
+        <v>9080.0887560409647</v>
       </c>
       <c r="H91">
-        <v>944.47367200339909</v>
+        <v>943.51279353352788</v>
       </c>
       <c r="I91" t="s">
         <v>32</v>
@@ -3972,16 +3972,16 @@
         <v>916991</v>
       </c>
       <c r="C92">
-        <v>8501830719.1826706</v>
+        <v>8697526307.6366558</v>
       </c>
       <c r="E92">
-        <v>1669993962.7366586</v>
+        <v>1644030181.9432619</v>
       </c>
       <c r="F92">
-        <v>9271.4440154621698</v>
+        <v>9484.8546034112187</v>
       </c>
       <c r="H92">
-        <v>1821.1672336333274</v>
+        <v>1792.8531271771062</v>
       </c>
       <c r="I92" t="s">
         <v>32</v>
@@ -4007,16 +4007,16 @@
         <v>317344</v>
       </c>
       <c r="C93">
-        <v>2073957162.5499389</v>
+        <v>2106556398.5663023</v>
       </c>
       <c r="E93">
-        <v>390245527.82463384</v>
+        <v>391220611.58720756</v>
       </c>
       <c r="F93">
-        <v>6535.3596177962681</v>
+        <v>6638.0848497728093</v>
       </c>
       <c r="H93">
-        <v>1229.7239835151565</v>
+        <v>1232.7966231824375</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
@@ -4042,22 +4042,22 @@
         <v>4078252</v>
       </c>
       <c r="C94">
-        <v>22844686207.410019</v>
+        <v>22592578151.843788</v>
       </c>
       <c r="D94">
-        <v>1212295.9184340225</v>
+        <v>1206607.2842896339</v>
       </c>
       <c r="E94">
-        <v>40497268.731210262</v>
+        <v>40032645.159782432</v>
       </c>
       <c r="F94">
-        <v>5601.5876918370959</v>
+        <v>5539.7700171161041</v>
       </c>
       <c r="G94">
-        <v>0.29725870751342059</v>
+        <v>0.29586383683245515</v>
       </c>
       <c r="H94">
-        <v>9.9300555069206773</v>
+        <v>9.8161283706309543</v>
       </c>
       <c r="I94" t="s">
         <v>32</v>
@@ -4083,22 +4083,22 @@
         <v>3399679</v>
       </c>
       <c r="C95">
-        <v>17630089017.298977</v>
+        <v>17672031822.874939</v>
       </c>
       <c r="D95">
-        <v>975062.95053621416</v>
+        <v>963242.49503951147</v>
       </c>
       <c r="E95">
-        <v>14530349.072163157</v>
+        <v>11544132.300828867</v>
       </c>
       <c r="F95">
-        <v>5185.8099006697321</v>
+        <v>5198.1471847415414</v>
       </c>
       <c r="G95">
-        <v>0.28681029901241095</v>
+        <v>0.28333336619119376</v>
       </c>
       <c r="H95">
-        <v>4.2740355992913326</v>
+        <v>3.3956536193060778</v>
       </c>
       <c r="I95" t="s">
         <v>32</v>
@@ -4124,22 +4124,22 @@
         <v>3734928</v>
       </c>
       <c r="C96">
-        <v>18431519924.103409</v>
+        <v>18566869048.173409</v>
       </c>
       <c r="D96">
-        <v>970220.846209571</v>
+        <v>983628.19174977986</v>
       </c>
       <c r="E96">
-        <v>12718222.992852774</v>
+        <v>15460596.442555193</v>
       </c>
       <c r="F96">
-        <v>4934.9063553844708</v>
+        <v>4971.1451059226338</v>
       </c>
       <c r="G96">
-        <v>0.25976962506628537</v>
+        <v>0.26335934501274988</v>
       </c>
       <c r="H96">
-        <v>3.4052123609485312</v>
+        <v>4.1394630478968253</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -4165,16 +4165,16 @@
         <v>984434</v>
       </c>
       <c r="C97">
-        <v>1129935685.3088884</v>
+        <v>1134412525.4587009</v>
       </c>
       <c r="E97">
-        <v>139289898.27399671</v>
+        <v>122446922.6044364</v>
       </c>
       <c r="F97">
-        <v>1147.8023771109981</v>
+        <v>1152.3500056465957</v>
       </c>
       <c r="H97">
-        <v>141.49236848178415</v>
+        <v>124.38306946370848</v>
       </c>
       <c r="I97" t="s">
         <v>33</v>
@@ -4200,22 +4200,22 @@
         <v>3857821</v>
       </c>
       <c r="C98">
-        <v>20712406050.16449</v>
+        <v>20604730624.334023</v>
       </c>
       <c r="D98">
-        <v>1116449.5926056323</v>
+        <v>1115774.4754967894</v>
       </c>
       <c r="E98">
-        <v>41279819.168496922</v>
+        <v>41278226.796595536</v>
       </c>
       <c r="F98">
-        <v>5368.9391110070919</v>
+        <v>5341.0281670233071</v>
       </c>
       <c r="G98">
-        <v>0.28939901374522881</v>
+        <v>0.28922401415119814</v>
       </c>
       <c r="H98">
-        <v>10.700294069760343</v>
+        <v>10.699881305170855</v>
       </c>
       <c r="I98" t="s">
         <v>33</v>
@@ -4244,13 +4244,13 @@
         <v>1254194545.9763114</v>
       </c>
       <c r="E99">
-        <v>216040372.12146264</v>
+        <v>209290795.14918676</v>
       </c>
       <c r="F99">
         <v>3190.1658068705397</v>
       </c>
       <c r="H99">
-        <v>549.5196979261101</v>
+        <v>532.35149245362197</v>
       </c>
       <c r="I99" t="s">
         <v>34</v>
@@ -4276,22 +4276,22 @@
         <v>2485399</v>
       </c>
       <c r="C100">
-        <v>14467151871.691341</v>
+        <v>14463873644.275688</v>
       </c>
       <c r="D100">
-        <v>773133.73928161256</v>
+        <v>767620.42082623322</v>
       </c>
       <c r="E100">
-        <v>22957852.759071112</v>
+        <v>21599762.548174575</v>
       </c>
       <c r="F100">
-        <v>5820.85688120553</v>
+        <v>5819.5378867842501</v>
       </c>
       <c r="G100">
-        <v>0.31107027052059349</v>
+        <v>0.30885198747816073</v>
       </c>
       <c r="H100">
-        <v>9.2370894005634945</v>
+        <v>8.6906619613891287</v>
       </c>
       <c r="I100" t="s">
         <v>34</v>
@@ -4317,16 +4317,16 @@
         <v>261201</v>
       </c>
       <c r="C101">
-        <v>463549279.11262214</v>
+        <v>454117091.57326138</v>
       </c>
       <c r="E101">
-        <v>74779252.292520002</v>
+        <v>75058957.551032722</v>
       </c>
       <c r="F101">
-        <v>1774.6841670308388</v>
+        <v>1738.5733269522757</v>
       </c>
       <c r="H101">
-        <v>286.29006892209446</v>
+        <v>287.36091190704752</v>
       </c>
       <c r="I101" t="s">
         <v>34</v>
@@ -4352,22 +4352,22 @@
         <v>14072154</v>
       </c>
       <c r="C102">
-        <v>59014741656.556229</v>
+        <v>58529872610.941666</v>
       </c>
       <c r="D102">
-        <v>3175936.9669580348</v>
+        <v>3133817.9168014778</v>
       </c>
       <c r="E102">
-        <v>112737204.41218135</v>
+        <v>113468467.01397368</v>
       </c>
       <c r="F102">
-        <v>4193.724831078187</v>
+        <v>4159.2689087215549</v>
       </c>
       <c r="G102">
-        <v>0.22568946921402613</v>
+        <v>0.22269639152623527</v>
       </c>
       <c r="H102">
-        <v>8.0113680117614798</v>
+        <v>8.0633332334178327</v>
       </c>
       <c r="I102" t="s">
         <v>35</v>
@@ -4393,16 +4393,16 @@
         <v>543145</v>
       </c>
       <c r="C103">
-        <v>904537209.48560238</v>
+        <v>937225645.65279019</v>
       </c>
       <c r="E103">
-        <v>130671915.47291347</v>
+        <v>131314692.5835264</v>
       </c>
       <c r="F103">
-        <v>1665.3696701352353</v>
+        <v>1725.5532972830279</v>
       </c>
       <c r="H103">
-        <v>240.58385048727959</v>
+        <v>241.76728605349658</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -4428,22 +4428,22 @@
         <v>7296430</v>
       </c>
       <c r="C104">
-        <v>32167649620.630161</v>
+        <v>31947411078.619793</v>
       </c>
       <c r="D104">
-        <v>1741146.5919774268</v>
+        <v>1729024.8770000853</v>
       </c>
       <c r="E104">
-        <v>63948908.719351187</v>
+        <v>64449170.917796329</v>
       </c>
       <c r="F104">
-        <v>4408.6833726397927</v>
+        <v>4378.4989479265605</v>
       </c>
       <c r="G104">
-        <v>0.23862993162100188</v>
+        <v>0.23696861026557992</v>
       </c>
       <c r="H104">
-        <v>8.7644106390866749</v>
+        <v>8.8329732372949969</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -4469,19 +4469,19 @@
         <v>11269955</v>
       </c>
       <c r="C105">
-        <v>23674031314.164902</v>
+        <v>50127538350.192825</v>
       </c>
       <c r="D105">
-        <v>1532914.8212880685</v>
+        <v>2178275.7067344799</v>
       </c>
       <c r="E105">
         <v>62233078.422057107</v>
       </c>
       <c r="F105">
-        <v>2100.6322841719334</v>
+        <v>4447.8916153784839</v>
       </c>
       <c r="G105">
-        <v>0.13601782982168684</v>
+        <v>0.19328166853678475</v>
       </c>
       <c r="H105">
         <v>5.5220343312867808</v>
@@ -4510,22 +4510,22 @@
         <v>5367819</v>
       </c>
       <c r="C106">
-        <v>21968818773.75399</v>
+        <v>21935904065.080479</v>
       </c>
       <c r="D106">
-        <v>1182358.638743279</v>
+        <v>1176980.4356601038</v>
       </c>
       <c r="E106">
-        <v>41075396.600942031</v>
+        <v>41980091.909992188</v>
       </c>
       <c r="F106">
-        <v>4092.6899311906736</v>
+        <v>4086.5580722972363</v>
       </c>
       <c r="G106">
-        <v>0.22026797825025005</v>
+        <v>0.21926604374329756</v>
       </c>
       <c r="H106">
-        <v>7.6521575338032122</v>
+        <v>7.8206981103483901</v>
       </c>
       <c r="I106" t="s">
         <v>35</v>
@@ -4551,22 +4551,22 @@
         <v>9846148</v>
       </c>
       <c r="C107">
-        <v>65289362718.751709</v>
+        <v>65651413371.848007</v>
       </c>
       <c r="D107">
-        <v>3512450.4824072733</v>
+        <v>3507487.5595305767</v>
       </c>
       <c r="E107">
-        <v>127518358.56633882</v>
+        <v>127926502.44336167</v>
       </c>
       <c r="F107">
-        <v>6630.9548382526555</v>
+        <v>6667.7256295404059</v>
       </c>
       <c r="G107">
-        <v>0.3567334639299829</v>
+        <v>0.35622941677604036</v>
       </c>
       <c r="H107">
-        <v>12.951090981604057</v>
+        <v>12.992543118726397</v>
       </c>
       <c r="I107" t="s">
         <v>35</v>
@@ -4592,22 +4592,22 @@
         <v>5178344</v>
       </c>
       <c r="C108">
-        <v>6080123007.3331776</v>
+        <v>6055109133.3037968</v>
       </c>
       <c r="D108">
-        <v>352255.82852949807</v>
+        <v>348199.9087503886</v>
       </c>
       <c r="E108">
-        <v>12460423.672869258</v>
+        <v>12373195.861787563</v>
       </c>
       <c r="F108">
-        <v>1174.1442838353685</v>
+        <v>1169.3138063643121</v>
       </c>
       <c r="G108">
-        <v>6.8024802625993572E-2</v>
+        <v>6.7241556132691963E-2</v>
       </c>
       <c r="H108">
-        <v>2.4062564543547627</v>
+        <v>2.3894117234752197</v>
       </c>
       <c r="I108" t="s">
         <v>36</v>
@@ -4633,16 +4633,16 @@
         <v>3896653</v>
       </c>
       <c r="C109">
-        <v>4080488460.5406857</v>
+        <v>4115947643.7327304</v>
       </c>
       <c r="E109">
-        <v>748002726.52014709</v>
+        <v>727108354.96352363</v>
       </c>
       <c r="F109">
-        <v>1047.1777857922391</v>
+        <v>1056.2776936341857</v>
       </c>
       <c r="H109">
-        <v>191.96031222696686</v>
+        <v>186.59817924858172</v>
       </c>
       <c r="I109" t="s">
         <v>36</v>
@@ -4668,16 +4668,16 @@
         <v>12685</v>
       </c>
       <c r="C110">
-        <v>11943187.896710923</v>
+        <v>11733040.498061748</v>
       </c>
       <c r="E110">
-        <v>1490681.401511003</v>
+        <v>1470616.4980982819</v>
       </c>
       <c r="F110">
-        <v>941.5205279236045</v>
+        <v>924.95392180226634</v>
       </c>
       <c r="H110">
-        <v>117.5152858897125</v>
+        <v>115.93350398882789</v>
       </c>
       <c r="I110" t="s">
         <v>36</v>
@@ -4703,16 +4703,16 @@
         <v>1522254</v>
       </c>
       <c r="C111">
-        <v>2070767813.149663</v>
+        <v>2075061360.1643276</v>
       </c>
       <c r="E111">
-        <v>372094968.12201822</v>
+        <v>362384467.00754398</v>
       </c>
       <c r="F111">
-        <v>1360.3300192672596</v>
+        <v>1363.1505387171442</v>
       </c>
       <c r="H111">
-        <v>244.436847018972</v>
+        <v>238.05781887092692</v>
       </c>
       <c r="I111" t="s">
         <v>37</v>
@@ -4738,16 +4738,16 @@
         <v>4899321</v>
       </c>
       <c r="C112">
-        <v>2370230814.6796365</v>
+        <v>2382796238.1820059</v>
       </c>
       <c r="E112">
-        <v>278600249.27537477</v>
+        <v>268469331.11990654</v>
       </c>
       <c r="F112">
-        <v>483.78761356515247</v>
+        <v>486.35234110645246</v>
       </c>
       <c r="H112">
-        <v>56.865073604153466</v>
+        <v>54.7972527458206</v>
       </c>
       <c r="I112" t="s">
         <v>37</v>
@@ -4773,22 +4773,22 @@
         <v>214384</v>
       </c>
       <c r="C113">
-        <v>1801063018.748395</v>
+        <v>1765599070.0349221</v>
       </c>
       <c r="D113">
-        <v>98064.064335892239</v>
+        <v>95923.073900619842</v>
       </c>
       <c r="E113">
-        <v>1153861.6375156825</v>
+        <v>1160864.9603071313</v>
       </c>
       <c r="F113">
-        <v>8401.1074462105153</v>
+        <v>8235.6848926921884</v>
       </c>
       <c r="G113">
-        <v>0.45742249578276473</v>
+        <v>0.44743578765495484</v>
       </c>
       <c r="H113">
-        <v>5.3822189972930934</v>
+        <v>5.4148861869688565</v>
       </c>
       <c r="I113" t="s">
         <v>23</v>
@@ -4814,22 +4814,22 @@
         <v>17815891</v>
       </c>
       <c r="C114">
-        <v>21439940424.828026</v>
+        <v>20808754147.598839</v>
       </c>
       <c r="D114">
-        <v>1156183.121586612</v>
+        <v>1115154.4318327329</v>
       </c>
       <c r="E114">
-        <v>41283306.401102938</v>
+        <v>39873786.184496999</v>
       </c>
       <c r="F114">
-        <v>1203.4166814799228</v>
+        <v>1167.9884069563986</v>
       </c>
       <c r="G114">
-        <v>6.4896171714713111E-2</v>
+        <v>6.2593245088484933E-2</v>
       </c>
       <c r="H114">
-        <v>2.3172181734330852</v>
+        <v>2.2381022753505282</v>
       </c>
       <c r="I114" t="s">
         <v>9</v>
@@ -4855,22 +4855,22 @@
         <v>7047532</v>
       </c>
       <c r="C115">
-        <v>31555945273.133736</v>
+        <v>31551248931.637199</v>
       </c>
       <c r="D115">
-        <v>1669447.9910271517</v>
+        <v>1675447.7263068666</v>
       </c>
       <c r="E115">
-        <v>55884699.495718613</v>
+        <v>55117749.678540722</v>
       </c>
       <c r="F115">
-        <v>4477.5880795055255</v>
+        <v>4476.9216984949053</v>
       </c>
       <c r="G115">
-        <v>0.23688405970021159</v>
+        <v>0.23773538400490649</v>
       </c>
       <c r="H115">
-        <v>7.9296836815666261</v>
+        <v>7.8208583768815414</v>
       </c>
       <c r="I115" t="s">
         <v>35</v>
@@ -4896,16 +4896,16 @@
         <v>6223129</v>
       </c>
       <c r="C116">
-        <v>6793111771.8972645</v>
+        <v>6797579904.0951548</v>
       </c>
       <c r="E116">
-        <v>1231530981.6111565</v>
+        <v>1169762237.3230693</v>
       </c>
       <c r="F116">
-        <v>1091.5910262983884</v>
+        <v>1092.3090143391137</v>
       </c>
       <c r="H116">
-        <v>197.89578226823781</v>
+        <v>187.97010914012378</v>
       </c>
       <c r="I116" t="s">
         <v>38</v>
@@ -4937,7 +4937,7 @@
         <v>156061.68130127474</v>
       </c>
       <c r="E117">
-        <v>3148626.2169114891</v>
+        <v>3516939.1267356579</v>
       </c>
       <c r="F117">
         <v>1207.452173173072</v>
@@ -4946,7 +4946,7 @@
         <v>7.3296199356974262E-2</v>
       </c>
       <c r="H117">
-        <v>1.4787892387870558</v>
+        <v>1.6517717175039441</v>
       </c>
       <c r="I117" t="s">
         <v>16</v>
@@ -4972,16 +4972,16 @@
         <v>4998069</v>
       </c>
       <c r="C118">
-        <v>4452885899.1464701</v>
+        <v>4490032254.8848228</v>
       </c>
       <c r="E118">
-        <v>772704984.64037561</v>
+        <v>769986601.00690114</v>
       </c>
       <c r="F118">
-        <v>890.92125361744115</v>
+        <v>898.35339505813613</v>
       </c>
       <c r="H118">
-        <v>154.60070371985171</v>
+        <v>154.05681694408403</v>
       </c>
       <c r="I118" t="s">
         <v>16</v>
@@ -5007,22 +5007,22 @@
         <v>5936999</v>
       </c>
       <c r="C119">
-        <v>28224291247.476944</v>
+        <v>27891064534.874908</v>
       </c>
       <c r="D119">
-        <v>1495095.2671928862</v>
+        <v>1485974.511117442</v>
       </c>
       <c r="E119">
-        <v>18418613.990140706</v>
+        <v>40836722.113402143</v>
       </c>
       <c r="F119">
-        <v>4753.9659763252348</v>
+        <v>4697.8388466757206</v>
       </c>
       <c r="G119">
-        <v>0.25182676756268385</v>
+        <v>0.25029051059591589</v>
       </c>
       <c r="H119">
-        <v>3.1023441287661839</v>
+        <v>6.8783441117982571</v>
       </c>
       <c r="I119" t="s">
         <v>31</v>
@@ -5054,7 +5054,7 @@
         <v>2912286.3224935019</v>
       </c>
       <c r="E120">
-        <v>99687862.924653471</v>
+        <v>110865184.11362399</v>
       </c>
       <c r="F120">
         <v>6089.6131676719833</v>
@@ -5063,7 +5063,7 @@
         <v>0.32966171594392746</v>
       </c>
       <c r="H120">
-        <v>11.284354734182431</v>
+        <v>12.549592583343351</v>
       </c>
       <c r="I120" t="s">
         <v>30</v>
@@ -5089,22 +5089,22 @@
         <v>4469578</v>
       </c>
       <c r="C121">
-        <v>11438462277.687107</v>
+        <v>11453394610.491039</v>
       </c>
       <c r="D121">
         <v>611565.14624633687</v>
       </c>
       <c r="E121">
-        <v>23471420.83497183</v>
+        <v>23434128.247685619</v>
       </c>
       <c r="F121">
-        <v>2559.1817119394955</v>
+        <v>2562.5225939654792</v>
       </c>
       <c r="G121">
         <v>0.13682838653813331</v>
       </c>
       <c r="H121">
-        <v>5.2513729114855652</v>
+        <v>5.2430292630949991</v>
       </c>
       <c r="I121" t="s">
         <v>15</v>
@@ -5133,13 +5133,13 @@
         <v>3088209608.0306726</v>
       </c>
       <c r="E122">
-        <v>335330563.77330059</v>
+        <v>380691049.71561331</v>
       </c>
       <c r="F122">
         <v>1231.1520967754905</v>
       </c>
       <c r="H122">
-        <v>133.68358340341837</v>
+        <v>151.76708953376999</v>
       </c>
       <c r="I122" t="s">
         <v>21</v>
@@ -5165,16 +5165,16 @@
         <v>1204962</v>
       </c>
       <c r="C123">
-        <v>1553075820.6798222</v>
+        <v>1574810759.4612119</v>
       </c>
       <c r="E123">
-        <v>168702490.65846244</v>
+        <v>191523037.85176781</v>
       </c>
       <c r="F123">
-        <v>1288.9002480408694</v>
+        <v>1306.9381104642403</v>
       </c>
       <c r="H123">
-        <v>140.00648207865677</v>
+        <v>158.94529275758723</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
@@ -5200,22 +5200,22 @@
         <v>11346108</v>
       </c>
       <c r="C124">
-        <v>15330154787.608282</v>
+        <v>15535577936.77359</v>
       </c>
       <c r="D124">
-        <v>882599.92541021015</v>
+        <v>900071.43977187364</v>
       </c>
       <c r="E124">
-        <v>31059255.814430695</v>
+        <v>32528072.823919203</v>
       </c>
       <c r="F124">
-        <v>1351.1377458779946</v>
+        <v>1369.2429101480077</v>
       </c>
       <c r="G124">
-        <v>7.7788782321674549E-2</v>
+        <v>7.9328650826510166E-2</v>
       </c>
       <c r="H124">
-        <v>2.7374369972884707</v>
+        <v>2.8668925788401807</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
@@ -5241,22 +5241,22 @@
         <v>614883</v>
       </c>
       <c r="C125">
-        <v>3338165863.7022338</v>
+        <v>3350916612.5813112</v>
       </c>
       <c r="D125">
-        <v>165503.44370790521</v>
+        <v>166007.6145713944</v>
       </c>
       <c r="E125">
-        <v>2307951.7246571379</v>
+        <v>2665551.5215987503</v>
       </c>
       <c r="F125">
-        <v>5428.9447971439022</v>
+        <v>5449.6816672136183</v>
       </c>
       <c r="G125">
-        <v>0.26916249710579931</v>
+        <v>0.269982443117462</v>
       </c>
       <c r="H125">
-        <v>3.7534811088567057</v>
+        <v>4.3350548341696715</v>
       </c>
       <c r="I125" t="s">
         <v>28</v>
@@ -5282,22 +5282,22 @@
         <v>4882435</v>
       </c>
       <c r="C126">
-        <v>14122344046.865009</v>
+        <v>14240852840.476206</v>
       </c>
       <c r="D126">
-        <v>765961.01486682298</v>
+        <v>763971.80185561313</v>
       </c>
       <c r="E126">
-        <v>28269293.606069162</v>
+        <v>28335860.302446555</v>
       </c>
       <c r="F126">
-        <v>2892.4796841872976</v>
+        <v>2916.7521616726499</v>
       </c>
       <c r="G126">
-        <v>0.15688094462431612</v>
+        <v>0.15647352230098571</v>
       </c>
       <c r="H126">
-        <v>5.789998966923096</v>
+        <v>5.8036328804063047</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -5323,22 +5323,22 @@
         <v>4906656</v>
       </c>
       <c r="C127">
-        <v>21635776257.947403</v>
+        <v>21551796642.652214</v>
       </c>
       <c r="D127">
-        <v>1153039.6928726588</v>
+        <v>1144457.0986090377</v>
       </c>
       <c r="E127">
-        <v>22111471.7217246</v>
+        <v>24473176.201482914</v>
       </c>
       <c r="F127">
-        <v>4409.4748557770099</v>
+        <v>4392.3594078435935</v>
       </c>
       <c r="G127">
-        <v>0.23499501348222879</v>
+        <v>0.23324583965312373</v>
       </c>
       <c r="H127">
-        <v>4.5064238702946771</v>
+        <v>4.9877505579121335</v>
       </c>
       <c r="I127" t="s">
         <v>32</v>
@@ -5364,16 +5364,16 @@
         <v>5621453</v>
       </c>
       <c r="C128">
-        <v>5378454615.0862808</v>
+        <v>5452563338.0343895</v>
       </c>
       <c r="E128">
-        <v>1025977020.2783096</v>
+        <v>1013325142.858845</v>
       </c>
       <c r="F128">
-        <v>956.77302915923724</v>
+        <v>969.95622627003911</v>
       </c>
       <c r="H128">
-        <v>182.51100209826706</v>
+        <v>180.26036024117695</v>
       </c>
       <c r="I128" t="s">
         <v>14</v>
@@ -5434,13 +5434,13 @@
         <v>2383346</v>
       </c>
       <c r="C130">
-        <v>2612349872.8048306</v>
+        <v>2611246893.4207964</v>
       </c>
       <c r="E130">
         <v>320624381.33412009</v>
       </c>
       <c r="F130">
-        <v>1096.085030375292</v>
+        <v>1095.6222442821129</v>
       </c>
       <c r="H130">
         <v>134.52699747922463</v>
@@ -5469,22 +5469,22 @@
         <v>14585886</v>
       </c>
       <c r="C131">
-        <v>146535040911.60257</v>
+        <v>146625212808.10345</v>
       </c>
       <c r="D131">
-        <v>7752293.984656034</v>
+        <v>7766688.5301814042</v>
       </c>
       <c r="E131">
-        <v>280758806.80322933</v>
+        <v>275914017.59500515</v>
       </c>
       <c r="F131">
-        <v>10046.358576476092</v>
+        <v>10052.54071011548</v>
       </c>
       <c r="G131">
-        <v>0.53149284072671588</v>
+        <v>0.5324797225332355</v>
       </c>
       <c r="H131">
-        <v>19.248663180504039</v>
+        <v>18.9165072039508</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -5551,19 +5551,19 @@
         <v>1131899</v>
       </c>
       <c r="C133">
-        <v>2090378378.7495551</v>
+        <v>2291179570.7231746</v>
       </c>
       <c r="D133">
-        <v>120178.51792175425</v>
+        <v>120621.13265553108</v>
       </c>
       <c r="E133">
         <v>1990865.5133692876</v>
       </c>
       <c r="F133">
-        <v>1846.7887848205141</v>
+        <v>2024.1908250852546</v>
       </c>
       <c r="G133">
-        <v>0.10617424162558166</v>
+        <v>0.10656527892994966</v>
       </c>
       <c r="H133">
         <v>1.7588720489807728</v>
@@ -5592,16 +5592,16 @@
         <v>3041196</v>
       </c>
       <c r="C134">
-        <v>2002929173.720124</v>
+        <v>1976458744.1114879</v>
       </c>
       <c r="E134">
-        <v>1848857698.8185761</v>
+        <v>1824423456.1029119</v>
       </c>
       <c r="F134">
-        <v>658.59917404867167</v>
+        <v>649.89522020661866</v>
       </c>
       <c r="H134">
-        <v>607.93769912185076</v>
+        <v>599.9032801907249</v>
       </c>
       <c r="I134" t="s">
         <v>38</v>
@@ -5627,16 +5627,16 @@
         <v>6130440</v>
       </c>
       <c r="C135">
-        <v>4244634512.4187679</v>
+        <v>4188538021.0652165</v>
       </c>
       <c r="E135">
-        <v>3918124165.3096318</v>
+        <v>3866342788.6755838</v>
       </c>
       <c r="F135">
-        <v>692.38660070382684</v>
+        <v>683.23611699408468</v>
       </c>
       <c r="H135">
-        <v>639.12609295737855</v>
+        <v>630.67949260992418</v>
       </c>
       <c r="I135" t="s">
         <v>11</v>
@@ -5662,22 +5662,22 @@
         <v>9975515</v>
       </c>
       <c r="C136">
-        <v>28274292592.101906</v>
+        <v>27856127405.400986</v>
       </c>
       <c r="D136">
-        <v>1550369.1747000248</v>
+        <v>1526955.3468176289</v>
       </c>
       <c r="E136">
-        <v>58111477.057491228</v>
+        <v>57022516.655294813</v>
       </c>
       <c r="F136">
-        <v>2834.3692122263269</v>
+        <v>2792.4500544985381</v>
       </c>
       <c r="G136">
-        <v>0.15541745711374549</v>
+        <v>0.15307032737834878</v>
       </c>
       <c r="H136">
-        <v>5.8254112251338626</v>
+        <v>5.7162478985089802</v>
       </c>
       <c r="I136" t="s">
         <v>11</v>
@@ -5703,22 +5703,22 @@
         <v>2161126</v>
       </c>
       <c r="C137">
-        <v>5355233638.1048985</v>
+        <v>5376472977.0508986</v>
       </c>
       <c r="D137">
-        <v>283856.86575047311</v>
+        <v>282841.00141234341</v>
       </c>
       <c r="E137">
-        <v>6966547.0134818647</v>
+        <v>7137539.4713745853</v>
       </c>
       <c r="F137">
-        <v>2477.9830690597855</v>
+        <v>2487.8109730996243</v>
       </c>
       <c r="G137">
-        <v>0.13134674505349206</v>
+        <v>0.13087668253139492</v>
       </c>
       <c r="H137">
-        <v>3.2235728104154338</v>
+        <v>3.3026947393972335</v>
       </c>
       <c r="I137" t="s">
         <v>11</v>
@@ -5744,16 +5744,16 @@
         <v>7465222</v>
       </c>
       <c r="C138">
-        <v>7991965371.0339737</v>
+        <v>8141046755.1777763</v>
       </c>
       <c r="E138">
-        <v>1412386652.4017484</v>
+        <v>1411396606.6005249</v>
       </c>
       <c r="F138">
-        <v>1070.559639222246</v>
+        <v>1090.5297598889592</v>
       </c>
       <c r="H138">
-        <v>189.19553261801838</v>
+        <v>189.06291153840098</v>
       </c>
       <c r="I138" t="s">
         <v>26</v>
@@ -5779,19 +5779,19 @@
         <v>6659324</v>
       </c>
       <c r="C139">
-        <v>8973227264.2761803</v>
+        <v>9067252174.15411</v>
       </c>
       <c r="D139">
-        <v>545218.57866687886</v>
+        <v>547814.85761291161</v>
       </c>
       <c r="E139">
         <v>17108730.129270419</v>
       </c>
       <c r="F139">
-        <v>1347.4681911071125</v>
+        <v>1361.5874785720157</v>
       </c>
       <c r="G139">
-        <v>8.187296168002621E-2</v>
+        <v>8.2262832926121576E-2</v>
       </c>
       <c r="H139">
         <v>2.5691391692715988</v>
@@ -5820,22 +5820,22 @@
         <v>8727176</v>
       </c>
       <c r="C140">
-        <v>11420363327.756954</v>
+        <v>11290198675.85006</v>
       </c>
       <c r="D140">
-        <v>659900.16843034641</v>
+        <v>659662.07301539928</v>
       </c>
       <c r="E140">
-        <v>23231976.8148522</v>
+        <v>22271055.296176083</v>
       </c>
       <c r="F140">
-        <v>1308.5978015977853</v>
+        <v>1293.6829365936999</v>
       </c>
       <c r="G140">
-        <v>7.5614399025566395E-2</v>
+        <v>7.5587116956894101E-2</v>
       </c>
       <c r="H140">
-        <v>2.6620268474993742</v>
+        <v>2.551920036467247</v>
       </c>
       <c r="I140" t="s">
         <v>11</v>
@@ -5861,19 +5861,19 @@
         <v>2169628</v>
       </c>
       <c r="C141">
-        <v>9552183661.590416</v>
+        <v>8583208452.164484</v>
       </c>
       <c r="D141">
-        <v>498605.50510753528</v>
+        <v>487490.09575800417</v>
       </c>
       <c r="E141">
         <v>16567851.772160821</v>
       </c>
       <c r="F141">
-        <v>4402.6827002557193</v>
+        <v>3956.0737841530827</v>
       </c>
       <c r="G141">
-        <v>0.22981151842967332</v>
+        <v>0.22468833171308822</v>
       </c>
       <c r="H141">
         <v>7.6362638075102369</v>
@@ -5902,16 +5902,16 @@
         <v>2006853</v>
       </c>
       <c r="C142">
-        <v>2226530619.1388664</v>
+        <v>2227363705.5917497</v>
       </c>
       <c r="E142">
-        <v>274572498.24467212</v>
+        <v>235105353.98384598</v>
       </c>
       <c r="F142">
-        <v>1109.4637320914219</v>
+        <v>1109.8788529063911</v>
       </c>
       <c r="H142">
-        <v>136.81744414995623</v>
+        <v>117.15125820568122</v>
       </c>
       <c r="I142" t="s">
         <v>11</v>
@@ -5978,22 +5978,22 @@
         <v>3910602</v>
       </c>
       <c r="C144">
-        <v>24792729851.972942</v>
+        <v>24137162461.745937</v>
       </c>
       <c r="D144">
-        <v>1337997.0903333472</v>
+        <v>1310318.0040793526</v>
       </c>
       <c r="E144">
-        <v>45934767.773794636</v>
+        <v>46572322.219610982</v>
       </c>
       <c r="F144">
-        <v>6339.8755107200741</v>
+        <v>6172.2370268684817</v>
       </c>
       <c r="G144">
-        <v>0.34214606608735615</v>
+        <v>0.33506810564699563</v>
       </c>
       <c r="H144">
-        <v>11.746213952172745</v>
+        <v>11.909246254057811</v>
       </c>
       <c r="I144" t="s">
         <v>12</v>
@@ -6019,22 +6019,22 @@
         <v>7463219</v>
       </c>
       <c r="C145">
-        <v>35834019372.331161</v>
+        <v>36114649935.972176</v>
       </c>
       <c r="D145">
-        <v>1936279.8686418175</v>
+        <v>1926960.0936788397</v>
       </c>
       <c r="E145">
-        <v>46358504.773161486</v>
+        <v>43747437.657347538</v>
       </c>
       <c r="F145">
-        <v>4801.4160340640083</v>
+        <v>4839.0178468529703</v>
       </c>
       <c r="G145">
-        <v>0.25944299217828359</v>
+        <v>0.25819423142732911</v>
       </c>
       <c r="H145">
-        <v>6.211596467042102</v>
+        <v>5.8617384344942227</v>
       </c>
       <c r="I145" t="s">
         <v>35</v>
@@ -6060,22 +6060,22 @@
         <v>2584028</v>
       </c>
       <c r="C146">
-        <v>12279647784.181658</v>
+        <v>12337454419.71706</v>
       </c>
       <c r="D146">
-        <v>647276.83387540583</v>
+        <v>651001.19157366978</v>
       </c>
       <c r="E146">
-        <v>22690263.462570846</v>
+        <v>22735919.126683772</v>
       </c>
       <c r="F146">
-        <v>4752.1341812788633</v>
+        <v>4774.5049278556817</v>
       </c>
       <c r="G146">
-        <v>0.25049141645346173</v>
+        <v>0.25193271573437659</v>
       </c>
       <c r="H146">
-        <v>8.7809665617287607</v>
+        <v>8.7986349709383074</v>
       </c>
       <c r="I146" t="s">
         <v>20</v>
@@ -6101,16 +6101,16 @@
         <v>5184267</v>
       </c>
       <c r="C147">
-        <v>5949295704.5179186</v>
+        <v>5977148880.1886787</v>
       </c>
       <c r="E147">
-        <v>1060347726.6602242</v>
+        <v>1079655954.6293058</v>
       </c>
       <c r="F147">
-        <v>1147.5673811780757</v>
+        <v>1152.9400164360129</v>
       </c>
       <c r="H147">
-        <v>204.53185120678086</v>
+        <v>208.25624039604941</v>
       </c>
       <c r="I147" t="s">
         <v>38</v>
@@ -6136,19 +6136,19 @@
         <v>4104611</v>
       </c>
       <c r="C148">
-        <v>13054643231.897621</v>
+        <v>11730377900.769905</v>
       </c>
       <c r="D148">
-        <v>681427.1179491987</v>
+        <v>666236.06754905742</v>
       </c>
       <c r="E148">
         <v>9354949.0672551934</v>
       </c>
       <c r="F148">
-        <v>3180.4824456928127</v>
+        <v>2857.853740773463</v>
       </c>
       <c r="G148">
-        <v>0.16601502991372355</v>
+        <v>0.1623140579092775</v>
       </c>
       <c r="H148">
         <v>2.2791317051129067</v>
@@ -6177,22 +6177,22 @@
         <v>5491581</v>
       </c>
       <c r="C149">
-        <v>18072968705.220818</v>
+        <v>18080180048.928005</v>
       </c>
       <c r="D149">
-        <v>973817.17997875251</v>
+        <v>975247.57714710501</v>
       </c>
       <c r="E149">
-        <v>34256209.97788544</v>
+        <v>34119551.408353955</v>
       </c>
       <c r="F149">
-        <v>3291.0319824511039</v>
+        <v>3292.3451459475891</v>
       </c>
       <c r="G149">
-        <v>0.17732911159441195</v>
+        <v>0.17758958251678433</v>
       </c>
       <c r="H149">
-        <v>6.2379504149871305</v>
+        <v>6.2130653100362085</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -6218,16 +6218,16 @@
         <v>1299004</v>
       </c>
       <c r="C150">
-        <v>1490096982.5134335</v>
+        <v>1490654522.3913691</v>
       </c>
       <c r="E150">
-        <v>183756579.67542344</v>
+        <v>174777391.20240006</v>
       </c>
       <c r="F150">
-        <v>1147.1073087638172</v>
+        <v>1147.5365144305708</v>
       </c>
       <c r="H150">
-        <v>141.45959494768564</v>
+        <v>134.54723095725652</v>
       </c>
       <c r="I150" t="s">
         <v>26</v>
@@ -6253,22 +6253,22 @@
         <v>3250811</v>
       </c>
       <c r="C151">
-        <v>10993926098.211102</v>
+        <v>11430428734.411934</v>
       </c>
       <c r="D151">
-        <v>599109.33953055029</v>
+        <v>617566.48656140699</v>
       </c>
       <c r="E151">
-        <v>12652308.959237993</v>
+        <v>12713272.236616379</v>
       </c>
       <c r="F151">
-        <v>3381.9025769911268</v>
+        <v>3516.1775736614445</v>
       </c>
       <c r="G151">
-        <v>0.18429534646294427</v>
+        <v>0.18997305182042479</v>
       </c>
       <c r="H151">
-        <v>3.8920469259018722</v>
+        <v>3.9108001777453003</v>
       </c>
       <c r="I151" t="s">
         <v>20</v>
@@ -6294,7 +6294,7 @@
         <v>4583206</v>
       </c>
       <c r="C152">
-        <v>18615214200.146648</v>
+        <v>18544380470.442627</v>
       </c>
       <c r="D152">
         <v>1081499.1944933967</v>
@@ -6303,7 +6303,7 @@
         <v>65988593.098840229</v>
       </c>
       <c r="F152">
-        <v>4061.6141190569765</v>
+        <v>4046.1590577518505</v>
       </c>
       <c r="G152">
         <v>0.2359700162928301</v>
@@ -6335,22 +6335,22 @@
         <v>12498933</v>
       </c>
       <c r="C153">
-        <v>70606037388.87085</v>
+        <v>70130177611.739685</v>
       </c>
       <c r="D153">
-        <v>3801022.7188326744</v>
+        <v>3770096.1778332042</v>
       </c>
       <c r="E153">
-        <v>138907114.52808464</v>
+        <v>139439140.63018888</v>
       </c>
       <c r="F153">
-        <v>5648.9651867780103</v>
+        <v>5610.8931547788661</v>
       </c>
       <c r="G153">
-        <v>0.30410777614638584</v>
+        <v>0.30163344165723621</v>
       </c>
       <c r="H153">
-        <v>11.113517812127213</v>
+        <v>11.156083533705548</v>
       </c>
       <c r="I153" t="s">
         <v>29</v>
@@ -6376,22 +6376,22 @@
         <v>13439341</v>
       </c>
       <c r="C154">
-        <v>15474385100.253639</v>
+        <v>15538691216.952995</v>
       </c>
       <c r="D154">
-        <v>875362.31392698595</v>
+        <v>896057.76476757927</v>
       </c>
       <c r="E154">
-        <v>28339818.538424507</v>
+        <v>29005573.521986548</v>
       </c>
       <c r="F154">
-        <v>1151.4243964978371</v>
+        <v>1156.2093124174016</v>
       </c>
       <c r="G154">
-        <v>6.5134318262107194E-2</v>
+        <v>6.6674233860691476E-2</v>
       </c>
       <c r="H154">
-        <v>2.1087208471326466</v>
+        <v>2.1582586171439919</v>
       </c>
       <c r="I154" t="s">
         <v>37</v>
@@ -6417,22 +6417,22 @@
         <v>14171621</v>
       </c>
       <c r="C155">
-        <v>78445526166.17334</v>
+        <v>78458473909.25531</v>
       </c>
       <c r="D155">
-        <v>4225124.75097208</v>
+        <v>4208422.6648895573</v>
       </c>
       <c r="E155">
-        <v>142039339.81839362</v>
+        <v>141942013.28385779</v>
       </c>
       <c r="F155">
-        <v>5535.3954333222246</v>
+        <v>5536.3090721418039</v>
       </c>
       <c r="G155">
-        <v>0.29813983530691934</v>
+        <v>0.29696127668737105</v>
       </c>
       <c r="H155">
-        <v>10.022801189672911</v>
+        <v>10.015933483110915</v>
       </c>
       <c r="I155" t="s">
         <v>31</v>
@@ -6458,22 +6458,22 @@
         <v>1940463</v>
       </c>
       <c r="C156">
-        <v>10313941649.003101</v>
+        <v>10247569454.784153</v>
       </c>
       <c r="D156">
-        <v>550710.43923667539</v>
+        <v>550269.883050462</v>
       </c>
       <c r="E156">
-        <v>9452846.2859752327</v>
+        <v>9130246.9677386675</v>
       </c>
       <c r="F156">
-        <v>5315.1962438877217</v>
+        <v>5280.9919358339503</v>
       </c>
       <c r="G156">
-        <v>0.2838036279159537</v>
+        <v>0.28357659128283408</v>
       </c>
       <c r="H156">
-        <v>4.8714385618150065</v>
+        <v>4.7051899303097597</v>
       </c>
       <c r="I156" t="s">
         <v>32</v>
@@ -6499,16 +6499,16 @@
         <v>166824</v>
       </c>
       <c r="C157">
-        <v>424878087.91946936</v>
+        <v>427933615.80421412</v>
       </c>
       <c r="E157">
-        <v>84414985.408611715</v>
+        <v>84210568.583888099</v>
       </c>
       <c r="F157">
-        <v>2546.8642876292943</v>
+        <v>2565.1801647497614</v>
       </c>
       <c r="H157">
-        <v>506.01223690003667</v>
+        <v>504.78689267664186</v>
       </c>
       <c r="I157" t="s">
         <v>36</v>
@@ -6534,16 +6534,16 @@
         <v>97358</v>
       </c>
       <c r="C158">
-        <v>14189541.854279999</v>
+        <v>34671837.052631997</v>
       </c>
       <c r="E158">
-        <v>13098038.634719998</v>
+        <v>32004772.663967997</v>
       </c>
       <c r="F158">
-        <v>145.74602861891162</v>
+        <v>356.12725253838408</v>
       </c>
       <c r="H158">
-        <v>134.53479564822612</v>
+        <v>328.73284849696989</v>
       </c>
       <c r="I158" t="s">
         <v>22</v>
@@ -6604,16 +6604,16 @@
         <v>334348.61</v>
       </c>
       <c r="C160">
-        <v>1321865867.8149805</v>
+        <v>1320983250.5161543</v>
       </c>
       <c r="E160">
-        <v>151807978.92392591</v>
+        <v>137757814.33286089</v>
       </c>
       <c r="F160">
-        <v>3953.5557447509063</v>
+        <v>3950.9159332714271</v>
       </c>
       <c r="H160">
-        <v>454.04100505734391</v>
+        <v>412.01850467648393</v>
       </c>
       <c r="I160" t="s">
         <v>35</v>
@@ -6680,7 +6680,7 @@
         <v>1010209.2640425027</v>
       </c>
       <c r="E162">
-        <v>37897296.776849344</v>
+        <v>38092344.214238651</v>
       </c>
       <c r="F162">
         <v>1672.5958938903891</v>
@@ -6689,7 +6689,7 @@
         <v>9.0953820970137836E-2</v>
       </c>
       <c r="H162">
-        <v>3.4120692305873712</v>
+        <v>3.4296302551517277</v>
       </c>
       <c r="I162" t="s">
         <v>16</v>

--- a/r_map/data_boot_cq_remov_As.xlsx
+++ b/r_map/data_boot_cq_remov_As.xlsx
@@ -594,16 +594,16 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>24084085054.395599</v>
+        <v>24489996600.256199</v>
       </c>
       <c r="E2">
-        <v>22231463127.134399</v>
+        <v>22606150707.928799</v>
       </c>
       <c r="F2">
-        <v>10909.38639420578</v>
+        <v>11093.252457029472</v>
       </c>
       <c r="H2">
-        <v>10070.20282542072</v>
+        <v>10239.925344950281</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -629,16 +629,16 @@
         <v>505392</v>
       </c>
       <c r="C3">
-        <v>1067922008.2181365</v>
+        <v>1064403666.0361398</v>
       </c>
       <c r="E3">
-        <v>985774161.43212605</v>
+        <v>982526460.95643663</v>
       </c>
       <c r="F3">
-        <v>2113.0568117780585</v>
+        <v>2106.0952014201648</v>
       </c>
       <c r="H3">
-        <v>1950.5139801028231</v>
+        <v>1944.0878782339978</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -664,16 +664,16 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>16552545721.731565</v>
+        <v>16695116825.836149</v>
       </c>
       <c r="E4">
-        <v>3347001011.9341197</v>
+        <v>3415474812.5422392</v>
       </c>
       <c r="F4">
-        <v>6071.2451810645771</v>
+        <v>6123.5382931517161</v>
       </c>
       <c r="H4">
-        <v>1227.6337492936136</v>
+        <v>1252.7489937375803</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -699,16 +699,16 @@
         <v>541762</v>
       </c>
       <c r="C5">
-        <v>381062162.22547197</v>
+        <v>386165673.32670599</v>
       </c>
       <c r="E5">
-        <v>351749688.20812798</v>
+        <v>356460621.53234392</v>
       </c>
       <c r="F5">
-        <v>703.37558231376875</v>
+        <v>712.79579100547107</v>
       </c>
       <c r="H5">
-        <v>649.26976828963268</v>
+        <v>657.9653455435116</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -737,13 +737,13 @@
         <v>432021780.16881657</v>
       </c>
       <c r="E6">
-        <v>53340214.985781841</v>
+        <v>46049106.462545462</v>
       </c>
       <c r="F6">
         <v>1332.8164204849004</v>
       </c>
       <c r="H6">
-        <v>164.55817199184875</v>
+        <v>142.06460891382622</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -810,22 +810,22 @@
         <v>8921964</v>
       </c>
       <c r="C8">
-        <v>47165166540.988541</v>
+        <v>46792899440.812332</v>
       </c>
       <c r="D8">
-        <v>2528628.1009751223</v>
+        <v>2513916.3805485684</v>
       </c>
       <c r="E8">
-        <v>92359293.071044385</v>
+        <v>91692104.01712352</v>
       </c>
       <c r="F8">
-        <v>5286.4107657224959</v>
+        <v>5244.6859728208192</v>
       </c>
       <c r="G8">
-        <v>0.28341608428089626</v>
+        <v>0.28176715132997271</v>
       </c>
       <c r="H8">
-        <v>10.351901562373978</v>
+        <v>10.277121048361494</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -851,22 +851,22 @@
         <v>7744214</v>
       </c>
       <c r="C9">
-        <v>21972273651.400116</v>
+        <v>21784161853.381332</v>
       </c>
       <c r="D9">
-        <v>1177336.5170392073</v>
+        <v>1173109.896345186</v>
       </c>
       <c r="E9">
-        <v>33743964.852051541</v>
+        <v>33984087.793017775</v>
       </c>
       <c r="F9">
-        <v>2837.2503202261864</v>
+        <v>2812.9596952487791</v>
       </c>
       <c r="G9">
-        <v>0.1520278903758609</v>
+        <v>0.15148211249652788</v>
       </c>
       <c r="H9">
-        <v>4.3573130665102404</v>
+        <v>4.3883198208388583</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -895,13 +895,13 @@
         <v>2725800951.7334266</v>
       </c>
       <c r="E10">
-        <v>295384898.90312731</v>
+        <v>290542523.51127279</v>
       </c>
       <c r="F10">
         <v>1352.9394590990962</v>
       </c>
       <c r="H10">
-        <v>146.61301115692083</v>
+        <v>144.2095191707418</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -927,22 +927,22 @@
         <v>9164672</v>
       </c>
       <c r="C11">
-        <v>21343552476.579674</v>
+        <v>21544833433.989388</v>
       </c>
       <c r="D11">
-        <v>1145122.4987554362</v>
+        <v>1150546.950597795</v>
       </c>
       <c r="E11">
-        <v>42191510.909001902</v>
+        <v>41209642.098474637</v>
       </c>
       <c r="F11">
-        <v>2328.8943103015222</v>
+        <v>2350.8570120119289</v>
       </c>
       <c r="G11">
-        <v>0.12494964345209912</v>
+        <v>0.1255415306295517</v>
       </c>
       <c r="H11">
-        <v>4.6037120487238283</v>
+        <v>4.4965757747221762</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>3900879</v>
       </c>
       <c r="C12">
-        <v>8270587995.3031025</v>
+        <v>8256298781.1743488</v>
       </c>
       <c r="D12">
-        <v>450107.06426380656</v>
+        <v>445348.69476852019</v>
       </c>
       <c r="E12">
         <v>17890710.71209925</v>
       </c>
       <c r="F12">
-        <v>2120.1857312936654</v>
+        <v>2116.522655835864</v>
       </c>
       <c r="G12">
-        <v>0.11538606151685468</v>
+        <v>0.11416624170309313</v>
       </c>
       <c r="H12">
         <v>4.5863280332712835</v>
@@ -1009,16 +1009,16 @@
         <v>9744872</v>
       </c>
       <c r="C13">
-        <v>53492679802.303589</v>
+        <v>53392914693.218559</v>
       </c>
       <c r="E13">
-        <v>2059255465.6211224</v>
+        <v>2068114844.4619861</v>
       </c>
       <c r="F13">
-        <v>5489.3157962776313</v>
+        <v>5479.078092890144</v>
       </c>
       <c r="H13">
-        <v>211.31683059778746</v>
+        <v>212.22596299489476</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1044,22 +1044,22 @@
         <v>2258981</v>
       </c>
       <c r="C14">
-        <v>13531680395.927164</v>
+        <v>13526427942.052128</v>
       </c>
       <c r="D14">
-        <v>754835.58477789757</v>
+        <v>756325.87087792146</v>
       </c>
       <c r="E14">
-        <v>16681566.711594814</v>
+        <v>29952375.22545905</v>
       </c>
       <c r="F14">
-        <v>5990.1700793088403</v>
+        <v>5987.8449363018672</v>
       </c>
       <c r="G14">
-        <v>0.33414870898776822</v>
+        <v>0.33480842507215486</v>
       </c>
       <c r="H14">
-        <v>7.3845537928804248</v>
+        <v>13.259241766734227</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1085,22 +1085,22 @@
         <v>12851943</v>
       </c>
       <c r="C15">
-        <v>49088018425.203873</v>
+        <v>48803596110.329269</v>
       </c>
       <c r="D15">
-        <v>2654786.4093342964</v>
+        <v>2638777.1500995876</v>
       </c>
       <c r="E15">
-        <v>99143190.654371977</v>
+        <v>98127301.468019545</v>
       </c>
       <c r="F15">
-        <v>3819.5017224402472</v>
+        <v>3797.3710364517856</v>
       </c>
       <c r="G15">
-        <v>0.20656692994470147</v>
+        <v>0.20532126154773545</v>
       </c>
       <c r="H15">
-        <v>7.7142569535495129</v>
+        <v>7.6352113815023559</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1126,22 +1126,22 @@
         <v>1157290</v>
       </c>
       <c r="C16">
-        <v>7469294374.84202</v>
+        <v>7511221436.8078976</v>
       </c>
       <c r="D16">
-        <v>408678.60251389042</v>
+        <v>412470.81961736432</v>
       </c>
       <c r="E16">
-        <v>15381292.756044278</v>
+        <v>12398810.798662223</v>
       </c>
       <c r="F16">
-        <v>6454.1250463082024</v>
+        <v>6490.3537028816427</v>
       </c>
       <c r="G16">
-        <v>0.35313413449860487</v>
+        <v>0.3564109424754075</v>
       </c>
       <c r="H16">
-        <v>13.290785158468731</v>
+        <v>10.713659323645953</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1167,16 +1167,16 @@
         <v>2981276</v>
       </c>
       <c r="C17">
-        <v>3456705506.3836575</v>
+        <v>3453224787.2175846</v>
       </c>
       <c r="E17">
-        <v>592994525.50538635</v>
+        <v>607119127.88716745</v>
       </c>
       <c r="F17">
-        <v>1159.4718189069572</v>
+        <v>1158.3042922619659</v>
       </c>
       <c r="H17">
-        <v>198.90628224471212</v>
+        <v>203.64405304546358</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -1202,16 +1202,16 @@
         <v>1265697</v>
       </c>
       <c r="C18">
-        <v>1527314314.6308203</v>
+        <v>1555481430.9353902</v>
       </c>
       <c r="E18">
-        <v>188275720.71873254</v>
+        <v>179075706.30720007</v>
       </c>
       <c r="F18">
-        <v>1206.6982181602866</v>
+        <v>1228.9524514440582</v>
       </c>
       <c r="H18">
-        <v>148.75260091375151</v>
+        <v>141.48386723457517</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -1237,16 +1237,16 @@
         <v>1796131</v>
       </c>
       <c r="C19">
-        <v>1466549872.5235019</v>
+        <v>1475809598.0331714</v>
       </c>
       <c r="E19">
-        <v>987202691.1960479</v>
+        <v>1007399964.0421307</v>
       </c>
       <c r="F19">
-        <v>816.50496123250582</v>
+        <v>821.6603343704727</v>
       </c>
       <c r="H19">
-        <v>549.62733297072873</v>
+        <v>560.87221034664549</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -1272,13 +1272,13 @@
         <v>2372033</v>
       </c>
       <c r="C20">
-        <v>2466599396.6861267</v>
+        <v>2476372139.8220057</v>
       </c>
       <c r="E20">
         <v>267296191.5877637</v>
       </c>
       <c r="F20">
-        <v>1039.8672348513392</v>
+        <v>1043.9872210133694</v>
       </c>
       <c r="H20">
         <v>112.68654002189838</v>
@@ -1307,16 +1307,16 @@
         <v>4881045</v>
       </c>
       <c r="C21">
-        <v>4404243924.2620392</v>
+        <v>4451605629.5937185</v>
       </c>
       <c r="E21">
-        <v>845813240.06744075</v>
+        <v>878317342.40708661</v>
       </c>
       <c r="F21">
-        <v>902.31577956401532</v>
+        <v>912.01896921534603</v>
       </c>
       <c r="H21">
-        <v>173.28527806390653</v>
+        <v>179.94452876527191</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -1342,16 +1342,16 @@
         <v>2219933</v>
       </c>
       <c r="C22">
-        <v>2497257144.9289165</v>
+        <v>2497373125.1473665</v>
       </c>
       <c r="E22">
-        <v>370353748.36265945</v>
+        <v>385529621.68322295</v>
       </c>
       <c r="F22">
-        <v>1124.924556249633</v>
+        <v>1124.9768011680383</v>
       </c>
       <c r="H22">
-        <v>166.83104776705397</v>
+        <v>173.66723305758461</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -1377,7 +1377,7 @@
         <v>1056327</v>
       </c>
       <c r="C23">
-        <v>1850866915.7476006</v>
+        <v>1819572174.5542016</v>
       </c>
       <c r="D23">
         <v>107407.98622454359</v>
@@ -1386,7 +1386,7 @@
         <v>4172291.8777323002</v>
       </c>
       <c r="F23">
-        <v>1752.1723062532724</v>
+        <v>1722.5463086281063</v>
       </c>
       <c r="G23">
         <v>0.10168062183825993</v>
@@ -1418,22 +1418,22 @@
         <v>1066912</v>
       </c>
       <c r="C24">
-        <v>4783468571.0279751</v>
+        <v>4783345373.3237896</v>
       </c>
       <c r="D24">
-        <v>263195.82531060057</v>
+        <v>263709.42790217476</v>
       </c>
       <c r="E24">
-        <v>7317601.229988643</v>
+        <v>8000925.9035675367</v>
       </c>
       <c r="F24">
-        <v>4483.4705871036931</v>
+        <v>4483.3551158144155</v>
       </c>
       <c r="G24">
-        <v>0.24668934767872192</v>
+        <v>0.24717073938822953</v>
       </c>
       <c r="H24">
-        <v>6.8586736581729735</v>
+        <v>7.4991432316512858</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
@@ -1459,22 +1459,22 @@
         <v>4489538</v>
       </c>
       <c r="C25">
-        <v>20333988577.790474</v>
+        <v>20641604641.679642</v>
       </c>
       <c r="D25">
-        <v>1085329.2823945817</v>
+        <v>1107709.1369018322</v>
       </c>
       <c r="E25">
-        <v>36235429.303873554</v>
+        <v>36670940.48189272</v>
       </c>
       <c r="F25">
-        <v>4529.1940012069117</v>
+        <v>4597.7124242360005</v>
       </c>
       <c r="G25">
-        <v>0.24174631830593296</v>
+        <v>0.24673120862365622</v>
       </c>
       <c r="H25">
-        <v>8.0710819919273558</v>
+        <v>8.1680877813914741</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1503,13 +1503,13 @@
         <v>11970845499.812359</v>
       </c>
       <c r="E26">
-        <v>351729878.83625013</v>
+        <v>364885089.91303986</v>
       </c>
       <c r="F26">
         <v>3999.670392906402</v>
       </c>
       <c r="H26">
-        <v>117.51914956248973</v>
+        <v>121.91453736171368</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1538,13 +1538,13 @@
         <v>2873990191.3786931</v>
       </c>
       <c r="E27">
-        <v>540694123.3489635</v>
+        <v>537048913.61971426</v>
       </c>
       <c r="F27">
         <v>12523.160480791188</v>
       </c>
       <c r="H27">
-        <v>2356.0272745647535</v>
+        <v>2340.1435925109777</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1570,22 +1570,22 @@
         <v>6529869</v>
       </c>
       <c r="C28">
-        <v>52456806971.763428</v>
+        <v>52658524924.199966</v>
       </c>
       <c r="D28">
-        <v>2823066.1380097992</v>
+        <v>2831085.7968436782</v>
       </c>
       <c r="E28">
-        <v>101461226.68924181</v>
+        <v>101663403.00501882</v>
       </c>
       <c r="F28">
-        <v>8033.3628395551932</v>
+        <v>8064.2544167731339</v>
       </c>
       <c r="G28">
-        <v>0.43233120572706729</v>
+        <v>0.4335593557609928</v>
       </c>
       <c r="H28">
-        <v>15.53801870898816</v>
+        <v>15.568980481081446</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1611,22 +1611,22 @@
         <v>1441562</v>
       </c>
       <c r="C29">
-        <v>3748570265.9031715</v>
+        <v>3957418149.832819</v>
       </c>
       <c r="D29">
-        <v>204810.59024930157</v>
+        <v>204444.41470190609</v>
       </c>
       <c r="E29">
-        <v>6827505.9797880286</v>
+        <v>6813151.3831430636</v>
       </c>
       <c r="F29">
-        <v>2600.3531349350023</v>
+        <v>2745.2292373361806</v>
       </c>
       <c r="G29">
-        <v>0.14207546414882022</v>
+        <v>0.14182145110783032</v>
       </c>
       <c r="H29">
-        <v>4.7361861507087646</v>
+        <v>4.7262284821208276</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -1652,16 +1652,16 @@
         <v>1650341</v>
       </c>
       <c r="C30">
-        <v>3726515723.0853968</v>
+        <v>3652662052.6035676</v>
       </c>
       <c r="E30">
-        <v>368016770.79774249</v>
+        <v>386051923.54400325</v>
       </c>
       <c r="F30">
-        <v>2258.027718565676</v>
+        <v>2213.27716672104</v>
       </c>
       <c r="H30">
-        <v>222.99438164460707</v>
+        <v>233.92251876672955</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -1690,7 +1690,7 @@
         <v>17618775425.398262</v>
       </c>
       <c r="D31">
-        <v>1123156.7189226472</v>
+        <v>1001771.10858335</v>
       </c>
       <c r="E31">
         <v>27461256.78923342</v>
@@ -1699,7 +1699,7 @@
         <v>3534.8921161808921</v>
       </c>
       <c r="G31">
-        <v>0.22534130409721814</v>
+        <v>0.20098745278541572</v>
       </c>
       <c r="H31">
         <v>5.509609934907604</v>
@@ -1728,16 +1728,16 @@
         <v>2093626</v>
       </c>
       <c r="C32">
-        <v>7332187550.6209698</v>
+        <v>7333268464.4968204</v>
       </c>
       <c r="E32">
-        <v>988318752.52384675</v>
+        <v>989118636.36655855</v>
       </c>
       <c r="F32">
-        <v>3502.1477334638421</v>
+        <v>3502.6640214139584</v>
       </c>
       <c r="H32">
-        <v>472.06079429843095</v>
+        <v>472.44285099944238</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>10855.626528652858</v>
       </c>
       <c r="E33">
-        <v>272450.74517261999</v>
+        <v>142867.81315380899</v>
       </c>
       <c r="F33">
         <v>2492.8202765253423</v>
@@ -1778,7 +1778,7 @@
         <v>0.16141235508152463</v>
       </c>
       <c r="H33">
-        <v>4.0510712399652062</v>
+        <v>2.1243020958427601</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -1804,16 +1804,16 @@
         <v>245567</v>
       </c>
       <c r="C34">
-        <v>199431423.14097902</v>
+        <v>195962861.44996679</v>
       </c>
       <c r="E34">
-        <v>23442697.911787689</v>
+        <v>23151629.179194972</v>
       </c>
       <c r="F34">
-        <v>812.12631640643497</v>
+        <v>798.00161035467625</v>
       </c>
       <c r="H34">
-        <v>95.463551339502814</v>
+        <v>94.278258801854363</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -1842,13 +1842,13 @@
         <v>759718359.54945791</v>
       </c>
       <c r="E35">
-        <v>218471340.96321055</v>
+        <v>218725648.1850158</v>
       </c>
       <c r="F35">
         <v>1058.2141025169174</v>
       </c>
       <c r="H35">
-        <v>304.30942084926778</v>
+        <v>304.66364618172622</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -1874,16 +1874,16 @@
         <v>1081826</v>
       </c>
       <c r="C36">
-        <v>1240902706.6982441</v>
+        <v>1218432074.6694152</v>
       </c>
       <c r="E36">
-        <v>150199061.71746653</v>
+        <v>150435537.72460911</v>
       </c>
       <c r="F36">
-        <v>1147.0446325917885</v>
+        <v>1126.2736102380745</v>
       </c>
       <c r="H36">
-        <v>138.83846544404233</v>
+        <v>139.0570551314251</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -1909,16 +1909,16 @@
         <v>250729</v>
       </c>
       <c r="C37">
-        <v>206834876.68540317</v>
+        <v>209233470.48696238</v>
       </c>
       <c r="E37">
-        <v>148938817.39775997</v>
+        <v>144642505.35743999</v>
       </c>
       <c r="F37">
-        <v>824.93399919994567</v>
+        <v>834.50047855239075</v>
       </c>
       <c r="H37">
-        <v>594.02309823658197</v>
+        <v>576.88781655668072</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -1944,13 +1944,13 @@
         <v>750815</v>
       </c>
       <c r="C38">
-        <v>1068168288.8890224</v>
+        <v>1071185994.6574724</v>
       </c>
       <c r="E38">
         <v>6962793.207994638</v>
       </c>
       <c r="F38">
-        <v>1422.6784079820227</v>
+        <v>1426.6976480990288</v>
       </c>
       <c r="H38">
         <v>9.2736469143459281</v>
@@ -1979,16 +1979,16 @@
         <v>384251</v>
       </c>
       <c r="C39">
-        <v>447042711.97035843</v>
+        <v>445278504.75586146</v>
       </c>
       <c r="E39">
-        <v>54890555.663870595</v>
+        <v>48253173.448854558</v>
       </c>
       <c r="F39">
-        <v>1163.4132688538441</v>
+        <v>1158.8219803093848</v>
       </c>
       <c r="H39">
-        <v>142.85078155651019</v>
+        <v>125.57722282792903</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -2014,16 +2014,16 @@
         <v>1245893</v>
       </c>
       <c r="C40">
-        <v>6864737570.0919342</v>
+        <v>6869043625.123291</v>
       </c>
       <c r="E40">
-        <v>793622831.16816247</v>
+        <v>837703239.33825016</v>
       </c>
       <c r="F40">
-        <v>5509.8933617027578</v>
+        <v>5513.3495614176272</v>
       </c>
       <c r="H40">
-        <v>636.99116310001136</v>
+        <v>672.37173604655482</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -2049,22 +2049,22 @@
         <v>827980</v>
       </c>
       <c r="C41">
-        <v>5753124097.5693321</v>
+        <v>5729991978.6079082</v>
       </c>
       <c r="D41">
-        <v>313573.52196090628</v>
+        <v>308405.71364815813</v>
       </c>
       <c r="E41">
-        <v>10694663.26472136</v>
+        <v>10683232.709778557</v>
       </c>
       <c r="F41">
-        <v>6948.3853445365003</v>
+        <v>6920.4473279643335</v>
       </c>
       <c r="G41">
-        <v>0.3787211308979761</v>
+        <v>0.37247966575057145</v>
       </c>
       <c r="H41">
-        <v>12.916571976039711</v>
+        <v>12.902766624530251</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -2090,22 +2090,22 @@
         <v>2177256</v>
       </c>
       <c r="C42">
-        <v>11190598469.691425</v>
+        <v>11317198653.203259</v>
       </c>
       <c r="D42">
-        <v>584211.33657097653</v>
+        <v>591692.07258807123</v>
       </c>
       <c r="E42">
-        <v>9057426.5150538553</v>
+        <v>8730124.7591729704</v>
       </c>
       <c r="F42">
-        <v>5139.7715609425004</v>
+        <v>5197.9182297365387</v>
       </c>
       <c r="G42">
-        <v>0.26832459599191671</v>
+        <v>0.2717604510393225</v>
       </c>
       <c r="H42">
-        <v>4.160019085975124</v>
+        <v>4.0096914461014093</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -2131,22 +2131,22 @@
         <v>2300225</v>
       </c>
       <c r="C43">
-        <v>25272296266.940968</v>
+        <v>24853341782.411163</v>
       </c>
       <c r="D43">
-        <v>1358025.3552846813</v>
+        <v>1331214.5355124227</v>
       </c>
       <c r="E43">
-        <v>48418629.55642724</v>
+        <v>47861704.482322343</v>
       </c>
       <c r="F43">
-        <v>10986.880095182414</v>
+        <v>10804.743789155915</v>
       </c>
       <c r="G43">
-        <v>0.5903880512926698</v>
+        <v>0.57873231336605024</v>
       </c>
       <c r="H43">
-        <v>21.049518875947889</v>
+        <v>20.807401224802941</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
@@ -2172,22 +2172,22 @@
         <v>1488285</v>
       </c>
       <c r="C44">
-        <v>7473220580.2195177</v>
+        <v>7546898230.5114403</v>
       </c>
       <c r="D44">
-        <v>404332.64818848472</v>
+        <v>406410.43134602427</v>
       </c>
       <c r="E44">
-        <v>13286701.345431294</v>
+        <v>13072663.988330644</v>
       </c>
       <c r="F44">
-        <v>5021.3639055822769</v>
+        <v>5070.8689736921624</v>
       </c>
       <c r="G44">
-        <v>0.27167689534496736</v>
+        <v>0.27307298759714993</v>
       </c>
       <c r="H44">
-        <v>8.9275248661588975</v>
+        <v>8.7837101014460579</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
@@ -2213,16 +2213,16 @@
         <v>48329</v>
       </c>
       <c r="C45">
-        <v>179022210.86207873</v>
+        <v>176393038.35173696</v>
       </c>
       <c r="E45">
-        <v>28776907.387949288</v>
+        <v>28499052.961971123</v>
       </c>
       <c r="F45">
-        <v>3704.2399152078196</v>
+        <v>3649.8383651997137</v>
       </c>
       <c r="H45">
-        <v>595.43767485255819</v>
+        <v>589.68844714293948</v>
       </c>
       <c r="I45" t="s">
         <v>20</v>
@@ -2248,16 +2248,16 @@
         <v>1336530</v>
       </c>
       <c r="C46">
-        <v>2596527297.2654991</v>
+        <v>2611721519.3241863</v>
       </c>
       <c r="E46">
-        <v>359889250.31108928</v>
+        <v>364104164.88919008</v>
       </c>
       <c r="F46">
-        <v>1942.7377591715103</v>
+        <v>1954.1061699506831</v>
       </c>
       <c r="H46">
-        <v>269.2713596485595</v>
+        <v>272.42498476591629</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2283,22 +2283,22 @@
         <v>4238250</v>
       </c>
       <c r="C47">
-        <v>23438672061.672489</v>
+        <v>23588494151.957512</v>
       </c>
       <c r="D47">
-        <v>1256967.9167340761</v>
+        <v>1263487.7970551956</v>
       </c>
       <c r="E47">
-        <v>40909182.495422229</v>
+        <v>41456553.622950301</v>
       </c>
       <c r="F47">
-        <v>5530.2712349843659</v>
+        <v>5565.6212238441603</v>
       </c>
       <c r="G47">
-        <v>0.29657710534632842</v>
+        <v>0.2981154478983532</v>
       </c>
       <c r="H47">
-        <v>9.6523759795722839</v>
+        <v>9.7815262485578476</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -2324,16 +2324,16 @@
         <v>1825199</v>
       </c>
       <c r="C48">
-        <v>1445420650.1292064</v>
+        <v>1452848163.5803692</v>
       </c>
       <c r="E48">
-        <v>231211939.24813265</v>
+        <v>238203670.48760289</v>
       </c>
       <c r="F48">
-        <v>791.92496277348732</v>
+        <v>795.99438942294466</v>
       </c>
       <c r="H48">
-        <v>126.677660489696</v>
+        <v>130.50832840013771</v>
       </c>
       <c r="I48" t="s">
         <v>23</v>
@@ -2359,16 +2359,16 @@
         <v>7101778</v>
       </c>
       <c r="C49">
-        <v>6727007253.5105085</v>
+        <v>6640991260.8969269</v>
       </c>
       <c r="E49">
-        <v>1062824026.8675784</v>
+        <v>1035510420.7218255</v>
       </c>
       <c r="F49">
-        <v>947.22860296541353</v>
+        <v>935.11670751985298</v>
       </c>
       <c r="H49">
-        <v>149.65604766406079</v>
+        <v>145.81002401396177</v>
       </c>
       <c r="I49" t="s">
         <v>23</v>
@@ -2394,16 +2394,16 @@
         <v>992174</v>
       </c>
       <c r="C50">
-        <v>1311106091.2369776</v>
+        <v>1262441723.3042908</v>
       </c>
       <c r="E50">
-        <v>155838285.71373361</v>
+        <v>145994069.66887155</v>
       </c>
       <c r="F50">
-        <v>1321.4477412600791</v>
+        <v>1272.3995219631747</v>
       </c>
       <c r="H50">
-        <v>157.06749593693604</v>
+        <v>147.14563138005184</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
@@ -2429,16 +2429,16 @@
         <v>1769518</v>
       </c>
       <c r="C51">
-        <v>1925502246.0301332</v>
+        <v>1924911193.9643822</v>
       </c>
       <c r="E51">
-        <v>365412852.50498283</v>
+        <v>374315169.42319262</v>
       </c>
       <c r="F51">
-        <v>1088.150697551612</v>
+        <v>1087.8166788720896</v>
       </c>
       <c r="H51">
-        <v>206.50417373826252</v>
+        <v>211.53510132318098</v>
       </c>
       <c r="I51" t="s">
         <v>23</v>
@@ -2464,22 +2464,22 @@
         <v>16149545</v>
       </c>
       <c r="C52">
-        <v>41239125967.339584</v>
+        <v>41323369052.987656</v>
       </c>
       <c r="D52">
-        <v>2213588.6478221295</v>
+        <v>2223614.6916434523</v>
       </c>
       <c r="E52">
-        <v>80857474.355393857</v>
+        <v>81742873.504515424</v>
       </c>
       <c r="F52">
-        <v>2553.5781947627374</v>
+        <v>2558.7946318603808</v>
       </c>
       <c r="G52">
-        <v>0.13706817423166595</v>
+        <v>0.13768899938936063</v>
       </c>
       <c r="H52">
-        <v>5.0067958171820841</v>
+        <v>5.0616208385137433</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
@@ -2505,16 +2505,16 @@
         <v>1806150</v>
       </c>
       <c r="C53">
-        <v>3485844399.2180147</v>
+        <v>3490156013.5056229</v>
       </c>
       <c r="E53">
-        <v>621193261.40749085</v>
+        <v>629798549.12257349</v>
       </c>
       <c r="F53">
-        <v>1929.9861026038893</v>
+        <v>1932.3732876591773</v>
       </c>
       <c r="H53">
-        <v>343.9322655413398</v>
+        <v>348.69670244585086</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
@@ -2540,16 +2540,16 @@
         <v>5446539</v>
       </c>
       <c r="C54">
-        <v>33384812827.421848</v>
+        <v>33243273010.595436</v>
       </c>
       <c r="E54">
-        <v>6756343731.6628542</v>
+        <v>6570449177.0224743</v>
       </c>
       <c r="F54">
-        <v>6129.5462728572857</v>
+        <v>6103.559161257348</v>
       </c>
       <c r="H54">
-        <v>1240.4838617079313</v>
+        <v>1206.353094510564</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
@@ -2575,16 +2575,16 @@
         <v>2101351</v>
       </c>
       <c r="C55">
-        <v>3893642514.2965918</v>
+        <v>3870491746.6758318</v>
       </c>
       <c r="E55">
-        <v>419618667.1243121</v>
+        <v>458979752.53187871</v>
       </c>
       <c r="F55">
-        <v>1852.9234355881485</v>
+        <v>1841.9063481902031</v>
       </c>
       <c r="H55">
-        <v>199.68994571792723</v>
+        <v>218.42126923673325</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
@@ -2613,7 +2613,7 @@
         <v>335427299.71135944</v>
       </c>
       <c r="D56">
-        <v>20629.331577249039</v>
+        <v>20843.380496407706</v>
       </c>
       <c r="E56">
         <v>491415.29596222768</v>
@@ -2622,7 +2622,7 @@
         <v>1632.9886503934113</v>
       </c>
       <c r="G56">
-        <v>0.10043149248686285</v>
+        <v>0.10147356466141712</v>
       </c>
       <c r="H56">
         <v>2.3923979998842673</v>
@@ -2651,16 +2651,16 @@
         <v>500876</v>
       </c>
       <c r="C57">
-        <v>597385801.15770984</v>
+        <v>592479094.42275906</v>
       </c>
       <c r="E57">
-        <v>113418494.0260421</v>
+        <v>114915277.84759404</v>
       </c>
       <c r="F57">
-        <v>1192.6820234104043</v>
+        <v>1182.8857729712722</v>
       </c>
       <c r="H57">
-        <v>226.44026470831523</v>
+        <v>229.42859679360566</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
@@ -2686,16 +2686,16 @@
         <v>869762</v>
       </c>
       <c r="C58">
-        <v>994354404.31126797</v>
+        <v>999089425.28417861</v>
       </c>
       <c r="E58">
-        <v>106307059.01640002</v>
+        <v>104564320.34400003</v>
       </c>
       <c r="F58">
-        <v>1143.2488477437137</v>
+        <v>1148.6928898758265</v>
       </c>
       <c r="H58">
-        <v>122.22545824765858</v>
+        <v>120.22176221081172</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -2756,13 +2756,13 @@
         <v>1615868</v>
       </c>
       <c r="C60">
-        <v>1376705267.3093872</v>
+        <v>1379079582.1570895</v>
       </c>
       <c r="E60">
         <v>271344968.69019115</v>
       </c>
       <c r="F60">
-        <v>851.99116964342829</v>
+        <v>853.46054390401287</v>
       </c>
       <c r="H60">
         <v>167.92520718907184</v>
@@ -2791,16 +2791,16 @@
         <v>1420063</v>
       </c>
       <c r="C61">
-        <v>1675909303.0307131</v>
+        <v>1657651426.6561434</v>
       </c>
       <c r="E61">
-        <v>318291312.16623044</v>
+        <v>320464621.5114491</v>
       </c>
       <c r="F61">
-        <v>1180.1654595822249</v>
+        <v>1167.3083705836596</v>
       </c>
       <c r="H61">
-        <v>224.13886719549092</v>
+        <v>225.66929883494541</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
@@ -2826,16 +2826,16 @@
         <v>2037047</v>
       </c>
       <c r="C62">
-        <v>1792563861.0395324</v>
+        <v>1792791688.2216315</v>
       </c>
       <c r="E62">
-        <v>239810839.06435636</v>
+        <v>249104741.49709928</v>
       </c>
       <c r="F62">
-        <v>879.98159150944105</v>
+        <v>880.09343339728116</v>
       </c>
       <c r="H62">
-        <v>117.7247452142029</v>
+        <v>122.28718409398472</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
@@ -2861,16 +2861,16 @@
         <v>233500</v>
       </c>
       <c r="C63">
-        <v>103383468.94915494</v>
+        <v>108642531.42007363</v>
       </c>
       <c r="E63">
-        <v>13050815.69684455</v>
+        <v>13491556.189420912</v>
       </c>
       <c r="F63">
-        <v>442.75575567089913</v>
+        <v>465.27850715234956</v>
       </c>
       <c r="H63">
-        <v>55.892144311968096</v>
+        <v>57.779683894736245</v>
       </c>
       <c r="I63" t="s">
         <v>26</v>
@@ -2896,16 +2896,16 @@
         <v>16042082</v>
       </c>
       <c r="C64">
-        <v>16751342482.000801</v>
+        <v>16593312563.508049</v>
       </c>
       <c r="E64">
-        <v>3355556366.7098646</v>
+        <v>3308273876.0329723</v>
       </c>
       <c r="F64">
-        <v>1044.212495734706</v>
+        <v>1034.3615350867829</v>
       </c>
       <c r="H64">
-        <v>209.17212408650352</v>
+        <v>206.22472045916311</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -2931,16 +2931,16 @@
         <v>2119428</v>
       </c>
       <c r="C65">
-        <v>2333915779.3683033</v>
+        <v>2387037998.0693507</v>
       </c>
       <c r="E65">
-        <v>449430193.61059439</v>
+        <v>454876547.31497413</v>
       </c>
       <c r="F65">
-        <v>1101.2007859518244</v>
+        <v>1126.2651989448809</v>
       </c>
       <c r="H65">
-        <v>212.05258853360169</v>
+        <v>214.62231664155337</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -2966,22 +2966,22 @@
         <v>4495381</v>
       </c>
       <c r="C66">
-        <v>8629310069.9598694</v>
+        <v>8498466398.8455076</v>
       </c>
       <c r="D66">
-        <v>464489.58591147873</v>
+        <v>455150.65394512261</v>
       </c>
       <c r="E66">
-        <v>15374952.875029996</v>
+        <v>14942248.839058546</v>
       </c>
       <c r="F66">
-        <v>1919.5948174270143</v>
+        <v>1890.488570122423</v>
       </c>
       <c r="G66">
-        <v>0.10332596634444972</v>
+        <v>0.1012485157420745</v>
       </c>
       <c r="H66">
-        <v>3.4201668056678614</v>
+        <v>3.3239115525599603</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3042,16 +3042,16 @@
         <v>6594728</v>
       </c>
       <c r="C68">
-        <v>6909665163.4713612</v>
+        <v>6853213794.7086449</v>
       </c>
       <c r="E68">
-        <v>1154267398.9358191</v>
+        <v>1165054944.7202663</v>
       </c>
       <c r="F68">
-        <v>1047.7558988742767</v>
+        <v>1039.1958234985043</v>
       </c>
       <c r="H68">
-        <v>175.02881073121122</v>
+        <v>176.66459400907306</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3077,16 +3077,16 @@
         <v>7672769</v>
       </c>
       <c r="C69">
-        <v>7994873401.2145519</v>
+        <v>8027033799.419981</v>
       </c>
       <c r="E69">
-        <v>1426530969.1666131</v>
+        <v>1433370570.4947736</v>
       </c>
       <c r="F69">
-        <v>1041.9802031332563</v>
+        <v>1046.1717014313842</v>
       </c>
       <c r="H69">
-        <v>185.92127159915975</v>
+        <v>186.8126839860256</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3112,16 +3112,16 @@
         <v>306727</v>
       </c>
       <c r="C70">
-        <v>148424605.75192791</v>
+        <v>148460082.78541085</v>
       </c>
       <c r="E70">
-        <v>137007328.38639498</v>
+        <v>137040076.41730234</v>
       </c>
       <c r="F70">
-        <v>483.89807793877912</v>
+        <v>484.0137411620459</v>
       </c>
       <c r="H70">
-        <v>446.67514886656534</v>
+        <v>446.78191491881165</v>
       </c>
       <c r="I70" t="s">
         <v>10</v>
@@ -3147,16 +3147,16 @@
         <v>3095082</v>
       </c>
       <c r="C71">
-        <v>3544641959.9051905</v>
+        <v>3620155522.1083002</v>
       </c>
       <c r="E71">
-        <v>737404902.68164706</v>
+        <v>740855393.14294648</v>
       </c>
       <c r="F71">
-        <v>1145.2497736425694</v>
+        <v>1169.6476933755876</v>
       </c>
       <c r="H71">
-        <v>238.2505221773275</v>
+        <v>239.36535224040796</v>
       </c>
       <c r="I71" t="s">
         <v>10</v>
@@ -3182,22 +3182,22 @@
         <v>134547</v>
       </c>
       <c r="C72">
-        <v>730501907.89701748</v>
+        <v>734105918.78363085</v>
       </c>
       <c r="D72">
-        <v>39763.544122286716</v>
+        <v>40201.684324322523</v>
       </c>
       <c r="E72">
-        <v>783767.0170886534</v>
+        <v>850028.29028394958</v>
       </c>
       <c r="F72">
-        <v>5429.3437081244283</v>
+        <v>5456.1299678449232</v>
       </c>
       <c r="G72">
-        <v>0.29553646028738445</v>
+        <v>0.29879287033023794</v>
       </c>
       <c r="H72">
-        <v>5.8252284858722483</v>
+        <v>6.3177052649553653</v>
       </c>
       <c r="I72" t="s">
         <v>27</v>
@@ -3223,22 +3223,22 @@
         <v>531521</v>
       </c>
       <c r="C73">
-        <v>3107929882.4681911</v>
+        <v>3090617833.4185128</v>
       </c>
       <c r="D73">
-        <v>165361.28319528868</v>
+        <v>167427.12120602158</v>
       </c>
       <c r="E73">
-        <v>5396303.956573749</v>
+        <v>5440037.6823242381</v>
       </c>
       <c r="F73">
-        <v>5847.2381758541824</v>
+        <v>5814.6674043330604</v>
       </c>
       <c r="G73">
-        <v>0.31110959528464288</v>
+        <v>0.31499624888954825</v>
       </c>
       <c r="H73">
-        <v>10.152569619213068</v>
+        <v>10.234849953857399</v>
       </c>
       <c r="I73" t="s">
         <v>28</v>
@@ -3264,22 +3264,22 @@
         <v>1438500</v>
       </c>
       <c r="C74">
-        <v>9691444192.5479088</v>
+        <v>9487808336.2581596</v>
       </c>
       <c r="D74">
-        <v>522492.71715450345</v>
+        <v>514924.05627434654</v>
       </c>
       <c r="E74">
-        <v>17476024.651721567</v>
+        <v>17651246.005232722</v>
       </c>
       <c r="F74">
-        <v>6737.1874817851294</v>
+        <v>6595.6262330609388</v>
       </c>
       <c r="G74">
-        <v>0.363220519398334</v>
+        <v>0.35795902417403302</v>
       </c>
       <c r="H74">
-        <v>12.14878321287561</v>
+        <v>12.270591592097826</v>
       </c>
       <c r="I74" t="s">
         <v>29</v>
@@ -3305,22 +3305,22 @@
         <v>4871389</v>
       </c>
       <c r="C75">
-        <v>24968555821.711536</v>
+        <v>24565420776.181534</v>
       </c>
       <c r="D75">
-        <v>1336146.3063091377</v>
+        <v>1311959.4437370128</v>
       </c>
       <c r="E75">
-        <v>43283172.872251511</v>
+        <v>44147585.836821184</v>
       </c>
       <c r="F75">
-        <v>5125.5516284393507</v>
+        <v>5042.795961517656</v>
       </c>
       <c r="G75">
-        <v>0.2742844610252102</v>
+        <v>0.26931937559020902</v>
       </c>
       <c r="H75">
-        <v>8.8851809765657208</v>
+        <v>9.0626278945945771</v>
       </c>
       <c r="I75" t="s">
         <v>29</v>
@@ -3346,22 +3346,22 @@
         <v>1656996</v>
       </c>
       <c r="C76">
-        <v>8661643337.6331825</v>
+        <v>8644975135.1264191</v>
       </c>
       <c r="D76">
-        <v>469276.46910951554</v>
+        <v>466722.13124276488</v>
       </c>
       <c r="E76">
-        <v>17692197.096368648</v>
+        <v>17458157.455905475</v>
       </c>
       <c r="F76">
-        <v>5227.3169866633252</v>
+        <v>5217.2576971377221</v>
       </c>
       <c r="G76">
-        <v>0.28320917437912679</v>
+        <v>0.28166762698447367</v>
       </c>
       <c r="H76">
-        <v>10.677272061229267</v>
+        <v>10.536028726626663</v>
       </c>
       <c r="I76" t="s">
         <v>29</v>
@@ -3387,22 +3387,22 @@
         <v>967351</v>
       </c>
       <c r="C77">
-        <v>6540344287.2977095</v>
+        <v>6558933080.8941069</v>
       </c>
       <c r="D77">
-        <v>348876.10298312013</v>
+        <v>351611.49830091372</v>
       </c>
       <c r="E77">
-        <v>3764836.7824022206</v>
+        <v>4080397.1592935342</v>
       </c>
       <c r="F77">
-        <v>6761.0870173263993</v>
+        <v>6780.3032000733001</v>
       </c>
       <c r="G77">
-        <v>0.36065099739713935</v>
+        <v>0.36347871486245809</v>
       </c>
       <c r="H77">
-        <v>3.8919035411161209</v>
+        <v>4.2181143755405586</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
@@ -3428,22 +3428,22 @@
         <v>7658910</v>
       </c>
       <c r="C78">
-        <v>34849090934.366158</v>
+        <v>34544595359.319397</v>
       </c>
       <c r="D78">
-        <v>1888991.2783132931</v>
+        <v>1875371.0734675978</v>
       </c>
       <c r="E78">
-        <v>71587525.360736728</v>
+        <v>71281092.829448938</v>
       </c>
       <c r="F78">
-        <v>4550.1371519401791</v>
+        <v>4510.3801140527039</v>
       </c>
       <c r="G78">
-        <v>0.24663970177391994</v>
+        <v>0.24486135409184834</v>
       </c>
       <c r="H78">
-        <v>9.3469599930978085</v>
+        <v>9.306950052872919</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -3469,16 +3469,16 @@
         <v>500630</v>
       </c>
       <c r="C79">
-        <v>2668830887.3280163</v>
+        <v>2635422020.5322065</v>
       </c>
       <c r="E79">
-        <v>370830652.42778182</v>
+        <v>365982394.75107121</v>
       </c>
       <c r="F79">
-        <v>5330.9447842279051</v>
+        <v>5264.2111350342702</v>
       </c>
       <c r="H79">
-        <v>740.72798759119871</v>
+        <v>731.04367447230732</v>
       </c>
       <c r="I79" t="s">
         <v>30</v>
@@ -3504,22 +3504,22 @@
         <v>3581670</v>
       </c>
       <c r="C80">
-        <v>20541106322.99263</v>
+        <v>20654862044.130875</v>
       </c>
       <c r="D80">
-        <v>1066678.151772955</v>
+        <v>1088947.4190375598</v>
       </c>
       <c r="E80">
-        <v>33227543.3549079</v>
+        <v>34228093.86286816</v>
       </c>
       <c r="F80">
-        <v>5735.0639011948697</v>
+        <v>5766.8244266308393</v>
       </c>
       <c r="G80">
-        <v>0.29781586571988899</v>
+        <v>0.30403343106359876</v>
       </c>
       <c r="H80">
-        <v>9.2771091013152809</v>
+        <v>9.5564621706824369</v>
       </c>
       <c r="I80" t="s">
         <v>30</v>
@@ -3586,22 +3586,22 @@
         <v>6114392</v>
       </c>
       <c r="C82">
-        <v>31804742952.707085</v>
+        <v>31635494237.889412</v>
       </c>
       <c r="D82">
-        <v>1737884.2536454792</v>
+        <v>1721292.5851834579</v>
       </c>
       <c r="E82">
-        <v>61643092.555606171</v>
+        <v>60693204.517227612</v>
       </c>
       <c r="F82">
-        <v>5201.6198753215504</v>
+        <v>5173.9394919215865</v>
       </c>
       <c r="G82">
-        <v>0.28422846517617439</v>
+        <v>0.28151492170987041</v>
       </c>
       <c r="H82">
-        <v>10.081638952099599</v>
+        <v>9.9262861323296931</v>
       </c>
       <c r="I82" t="s">
         <v>31</v>
@@ -3627,22 +3627,22 @@
         <v>6233147</v>
       </c>
       <c r="C83">
-        <v>26416304118.477699</v>
+        <v>26367415818.41082</v>
       </c>
       <c r="D83">
-        <v>1426544.7793504712</v>
+        <v>1428098.6672663814</v>
       </c>
       <c r="E83">
-        <v>53012647.248738773</v>
+        <v>52680920.29199706</v>
       </c>
       <c r="F83">
-        <v>4238.0364394546923</v>
+        <v>4230.19316220375</v>
       </c>
       <c r="G83">
-        <v>0.22886429268401198</v>
+        <v>0.22911358696760745</v>
       </c>
       <c r="H83">
-        <v>8.5049570062664621</v>
+        <v>8.4517371870095577</v>
       </c>
       <c r="I83" t="s">
         <v>31</v>
@@ -3668,16 +3668,16 @@
         <v>2753681</v>
       </c>
       <c r="C84">
-        <v>11313711287.944427</v>
+        <v>11437396970.378136</v>
       </c>
       <c r="E84">
-        <v>1324106101.3839788</v>
+        <v>1300314039.863884</v>
       </c>
       <c r="F84">
-        <v>4108.5773144908317</v>
+        <v>4153.4938035226796</v>
       </c>
       <c r="H84">
-        <v>480.84948887833372</v>
+        <v>472.20939530173752</v>
       </c>
       <c r="I84" t="s">
         <v>31</v>
@@ -3703,22 +3703,22 @@
         <v>5168266</v>
       </c>
       <c r="C85">
-        <v>17677907394.639282</v>
+        <v>17881642194.368938</v>
       </c>
       <c r="D85">
-        <v>937740.26356720435</v>
+        <v>944491.10491384612</v>
       </c>
       <c r="E85">
-        <v>30556455.983138844</v>
+        <v>31176434.861021161</v>
       </c>
       <c r="F85">
-        <v>3420.4716619924911</v>
+        <v>3459.8920013731758</v>
       </c>
       <c r="G85">
-        <v>0.18144195046601788</v>
+        <v>0.18274816058497106</v>
       </c>
       <c r="H85">
-        <v>5.9123226209987729</v>
+        <v>6.0322813998004676</v>
       </c>
       <c r="I85" t="s">
         <v>31</v>
@@ -3744,22 +3744,22 @@
         <v>9849064</v>
       </c>
       <c r="C86">
-        <v>52147585006.132858</v>
+        <v>52822821282.466522</v>
       </c>
       <c r="D86">
-        <v>2805859.0563013176</v>
+        <v>2847115.6997426669</v>
       </c>
       <c r="E86">
-        <v>99807490.715359315</v>
+        <v>100631847.85891131</v>
       </c>
       <c r="F86">
-        <v>5294.6741950435953</v>
+        <v>5363.2326160604216</v>
       </c>
       <c r="G86">
-        <v>0.28488585882895245</v>
+        <v>0.28907474859973159</v>
       </c>
       <c r="H86">
-        <v>10.13370313314639</v>
+        <v>10.217402167242625</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
@@ -3785,22 +3785,22 @@
         <v>6246911</v>
       </c>
       <c r="C87">
-        <v>30035589163.120358</v>
+        <v>30425784094.951523</v>
       </c>
       <c r="D87">
-        <v>1618800.6104301754</v>
+        <v>1633182.2256828856</v>
       </c>
       <c r="E87">
-        <v>58132267.983666748</v>
+        <v>60063231.836836092</v>
       </c>
       <c r="F87">
-        <v>4808.0706069160187</v>
+        <v>4870.5326672577094</v>
       </c>
       <c r="G87">
-        <v>0.25913617313103632</v>
+        <v>0.26143836940895837</v>
       </c>
       <c r="H87">
-        <v>9.3057621572752911</v>
+        <v>9.6148691468208991</v>
       </c>
       <c r="I87" t="s">
         <v>31</v>
@@ -3826,22 +3826,22 @@
         <v>3681044</v>
       </c>
       <c r="C88">
-        <v>16287921286.987217</v>
+        <v>16472738806.95776</v>
       </c>
       <c r="D88">
-        <v>836792.50013261382</v>
+        <v>835927.16664469312</v>
       </c>
       <c r="E88">
-        <v>30393162.598968979</v>
+        <v>30604512.125774756</v>
       </c>
       <c r="F88">
-        <v>4424.810267681456</v>
+        <v>4475.018176082046</v>
       </c>
       <c r="G88">
-        <v>0.22732477529000303</v>
+        <v>0.22708969701114501</v>
       </c>
       <c r="H88">
-        <v>8.2566691946548261</v>
+        <v>8.3140848427171079</v>
       </c>
       <c r="I88" t="s">
         <v>31</v>
@@ -3867,16 +3867,16 @@
         <v>4626240</v>
       </c>
       <c r="C89">
-        <v>4949916620.7859049</v>
+        <v>4870474390.8155861</v>
       </c>
       <c r="E89">
-        <v>933845451.84661663</v>
+        <v>895335631.5217967</v>
       </c>
       <c r="F89">
-        <v>1069.9653759394032</v>
+        <v>1052.7932815451827</v>
       </c>
       <c r="H89">
-        <v>201.85841025251966</v>
+        <v>193.53419440448329</v>
       </c>
       <c r="I89" t="s">
         <v>14</v>
@@ -3902,16 +3902,16 @@
         <v>6322841</v>
       </c>
       <c r="C90">
-        <v>7046098602.0218496</v>
+        <v>6836220987.3682289</v>
       </c>
       <c r="E90">
-        <v>1197294607.089335</v>
+        <v>1147106954.2016745</v>
       </c>
       <c r="F90">
-        <v>1114.3880736557901</v>
+        <v>1081.1945116709765</v>
       </c>
       <c r="H90">
-        <v>189.36022700702659</v>
+        <v>181.42271080384188</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -3937,16 +3937,16 @@
         <v>9036684</v>
       </c>
       <c r="C91">
-        <v>82053892780.295288</v>
+        <v>82303537815.805603</v>
       </c>
       <c r="E91">
-        <v>8526226965.1197357</v>
+        <v>8527263608.4027729</v>
       </c>
       <c r="F91">
-        <v>9080.0887560409647</v>
+        <v>9107.7144908249102</v>
       </c>
       <c r="H91">
-        <v>943.51279353352788</v>
+        <v>943.62750854215699</v>
       </c>
       <c r="I91" t="s">
         <v>32</v>
@@ -3972,16 +3972,16 @@
         <v>916991</v>
       </c>
       <c r="C92">
-        <v>8697526307.6366558</v>
+        <v>8495972103.3315926</v>
       </c>
       <c r="E92">
-        <v>1644030181.9432619</v>
+        <v>1631884722.8534508</v>
       </c>
       <c r="F92">
-        <v>9484.8546034112187</v>
+        <v>9265.0550586991503</v>
       </c>
       <c r="H92">
-        <v>1792.8531271771062</v>
+        <v>1779.60822173113</v>
       </c>
       <c r="I92" t="s">
         <v>32</v>
@@ -4007,16 +4007,16 @@
         <v>317344</v>
       </c>
       <c r="C93">
-        <v>2106556398.5663023</v>
+        <v>2100449710.859055</v>
       </c>
       <c r="E93">
-        <v>391220611.58720756</v>
+        <v>399203579.01554155</v>
       </c>
       <c r="F93">
-        <v>6638.0848497728093</v>
+        <v>6618.8417328169271</v>
       </c>
       <c r="H93">
-        <v>1232.7966231824375</v>
+        <v>1257.9521875804853</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
@@ -4042,22 +4042,22 @@
         <v>4078252</v>
       </c>
       <c r="C94">
-        <v>22592578151.843788</v>
+        <v>22612142938.095116</v>
       </c>
       <c r="D94">
-        <v>1206607.2842896339</v>
+        <v>1198858.1543142733</v>
       </c>
       <c r="E94">
-        <v>40032645.159782432</v>
+        <v>40088073.491488911</v>
       </c>
       <c r="F94">
-        <v>5539.7700171161041</v>
+        <v>5544.567363197546</v>
       </c>
       <c r="G94">
-        <v>0.29586383683245515</v>
+        <v>0.29396372620286171</v>
       </c>
       <c r="H94">
-        <v>9.8161283706309543</v>
+        <v>9.8297195689449577</v>
       </c>
       <c r="I94" t="s">
         <v>32</v>
@@ -4083,22 +4083,22 @@
         <v>3399679</v>
       </c>
       <c r="C95">
-        <v>17672031822.874939</v>
+        <v>17557633161.803688</v>
       </c>
       <c r="D95">
-        <v>963242.49503951147</v>
+        <v>974670.54434581241</v>
       </c>
       <c r="E95">
-        <v>11544132.300828867</v>
+        <v>14490718.853361756</v>
       </c>
       <c r="F95">
-        <v>5198.1471847415414</v>
+        <v>5164.4973427796231</v>
       </c>
       <c r="G95">
-        <v>0.28333336619119376</v>
+        <v>0.28669487452956954</v>
       </c>
       <c r="H95">
-        <v>3.3956536193060778</v>
+        <v>4.2623785520226338</v>
       </c>
       <c r="I95" t="s">
         <v>32</v>
@@ -4124,22 +4124,22 @@
         <v>3734928</v>
       </c>
       <c r="C96">
-        <v>18566869048.173409</v>
+        <v>18309168793.659142</v>
       </c>
       <c r="D96">
-        <v>983628.19174977986</v>
+        <v>974071.61647393787</v>
       </c>
       <c r="E96">
-        <v>15460596.442555193</v>
+        <v>11709695.200701537</v>
       </c>
       <c r="F96">
-        <v>4971.1451059226338</v>
+        <v>4902.1477237738291</v>
       </c>
       <c r="G96">
-        <v>0.26335934501274988</v>
+        <v>0.26080064099600786</v>
       </c>
       <c r="H96">
-        <v>4.1394630478968253</v>
+        <v>3.1351863277422045</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -4165,13 +4165,13 @@
         <v>984434</v>
       </c>
       <c r="C97">
-        <v>1134412525.4587009</v>
+        <v>1129935685.3088884</v>
       </c>
       <c r="E97">
         <v>122446922.6044364</v>
       </c>
       <c r="F97">
-        <v>1152.3500056465957</v>
+        <v>1147.8023771109981</v>
       </c>
       <c r="H97">
         <v>124.38306946370848</v>
@@ -4200,22 +4200,22 @@
         <v>3857821</v>
       </c>
       <c r="C98">
-        <v>20604730624.334023</v>
+        <v>20217226472.667526</v>
       </c>
       <c r="D98">
-        <v>1115774.4754967894</v>
+        <v>1096273.3649266246</v>
       </c>
       <c r="E98">
-        <v>41278226.796595536</v>
+        <v>40424673.655641302</v>
       </c>
       <c r="F98">
-        <v>5341.0281670233071</v>
+        <v>5240.5817876639494</v>
       </c>
       <c r="G98">
-        <v>0.28922401415119814</v>
+        <v>0.28416905940597675</v>
       </c>
       <c r="H98">
-        <v>10.699881305170855</v>
+        <v>10.478628649603312</v>
       </c>
       <c r="I98" t="s">
         <v>33</v>
@@ -4244,13 +4244,13 @@
         <v>1254194545.9763114</v>
       </c>
       <c r="E99">
-        <v>209290795.14918676</v>
+        <v>207983417.62787086</v>
       </c>
       <c r="F99">
         <v>3190.1658068705397</v>
       </c>
       <c r="H99">
-        <v>532.35149245362197</v>
+        <v>529.02605057655944</v>
       </c>
       <c r="I99" t="s">
         <v>34</v>
@@ -4276,22 +4276,22 @@
         <v>2485399</v>
       </c>
       <c r="C100">
-        <v>14463873644.275688</v>
+        <v>14574004943.308626</v>
       </c>
       <c r="D100">
-        <v>767620.42082623322</v>
+        <v>780913.01797771908</v>
       </c>
       <c r="E100">
-        <v>21599762.548174575</v>
+        <v>21639918.820788123</v>
       </c>
       <c r="F100">
-        <v>5819.5378867842501</v>
+        <v>5863.8492022040027</v>
       </c>
       <c r="G100">
-        <v>0.30885198747816073</v>
+        <v>0.3142002624036298</v>
       </c>
       <c r="H100">
-        <v>8.6906619613891287</v>
+        <v>8.7068188330276648</v>
       </c>
       <c r="I100" t="s">
         <v>34</v>
@@ -4317,16 +4317,16 @@
         <v>261201</v>
       </c>
       <c r="C101">
-        <v>454117091.57326138</v>
+        <v>451267294.77967322</v>
       </c>
       <c r="E101">
-        <v>75058957.551032722</v>
+        <v>73692767.079367891</v>
       </c>
       <c r="F101">
-        <v>1738.5733269522757</v>
+        <v>1727.6629675218442</v>
       </c>
       <c r="H101">
-        <v>287.36091190704752</v>
+        <v>282.13049367869149</v>
       </c>
       <c r="I101" t="s">
         <v>34</v>
@@ -4352,22 +4352,22 @@
         <v>14072154</v>
       </c>
       <c r="C102">
-        <v>58529872610.941666</v>
+        <v>59251372717.045059</v>
       </c>
       <c r="D102">
-        <v>3133817.9168014778</v>
+        <v>3176413.4940072023</v>
       </c>
       <c r="E102">
-        <v>113468467.01397368</v>
+        <v>112274104.13882339</v>
       </c>
       <c r="F102">
-        <v>4159.2689087215549</v>
+        <v>4210.5403847232665</v>
       </c>
       <c r="G102">
-        <v>0.22269639152623527</v>
+        <v>0.22572333233470881</v>
       </c>
       <c r="H102">
-        <v>8.0633332334178327</v>
+        <v>7.9784590290031918</v>
       </c>
       <c r="I102" t="s">
         <v>35</v>
@@ -4393,16 +4393,16 @@
         <v>543145</v>
       </c>
       <c r="C103">
-        <v>937225645.65279019</v>
+        <v>909637100.43715906</v>
       </c>
       <c r="E103">
-        <v>131314692.5835264</v>
+        <v>131479841.05870774</v>
       </c>
       <c r="F103">
-        <v>1725.5532972830279</v>
+        <v>1674.7592271624687</v>
       </c>
       <c r="H103">
-        <v>241.76728605349658</v>
+        <v>242.07134569720375</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -4428,22 +4428,22 @@
         <v>7296430</v>
       </c>
       <c r="C104">
-        <v>31947411078.619793</v>
+        <v>31840794115.400566</v>
       </c>
       <c r="D104">
-        <v>1729024.8770000853</v>
+        <v>1720049.0081303755</v>
       </c>
       <c r="E104">
-        <v>64449170.917796329</v>
+        <v>63579559.958945036</v>
       </c>
       <c r="F104">
-        <v>4378.4989479265605</v>
+        <v>4363.8867385009607</v>
       </c>
       <c r="G104">
-        <v>0.23696861026557992</v>
+        <v>0.23573843758254043</v>
       </c>
       <c r="H104">
-        <v>8.8329732372949969</v>
+        <v>8.7137901629899872</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -4469,19 +4469,19 @@
         <v>11269955</v>
       </c>
       <c r="C105">
-        <v>50127538350.192825</v>
+        <v>23674031314.164902</v>
       </c>
       <c r="D105">
-        <v>2178275.7067344799</v>
+        <v>1532914.8212880685</v>
       </c>
       <c r="E105">
         <v>62233078.422057107</v>
       </c>
       <c r="F105">
-        <v>4447.8916153784839</v>
+        <v>2100.6322841719334</v>
       </c>
       <c r="G105">
-        <v>0.19328166853678475</v>
+        <v>0.13601782982168684</v>
       </c>
       <c r="H105">
         <v>5.5220343312867808</v>
@@ -4510,22 +4510,22 @@
         <v>5367819</v>
       </c>
       <c r="C106">
-        <v>21935904065.080479</v>
+        <v>21367290039.988956</v>
       </c>
       <c r="D106">
-        <v>1176980.4356601038</v>
+        <v>1152157.4797304422</v>
       </c>
       <c r="E106">
-        <v>41980091.909992188</v>
+        <v>40347212.674162969</v>
       </c>
       <c r="F106">
-        <v>4086.5580722972363</v>
+        <v>3980.6278937477132</v>
       </c>
       <c r="G106">
-        <v>0.21926604374329756</v>
+        <v>0.21464164118246948</v>
       </c>
       <c r="H106">
-        <v>7.8206981103483901</v>
+        <v>7.5165002162261754</v>
       </c>
       <c r="I106" t="s">
         <v>35</v>
@@ -4551,22 +4551,22 @@
         <v>9846148</v>
       </c>
       <c r="C107">
-        <v>65651413371.848007</v>
+        <v>64751543928.953117</v>
       </c>
       <c r="D107">
-        <v>3507487.5595305767</v>
+        <v>3471704.768468041</v>
       </c>
       <c r="E107">
-        <v>127926502.44336167</v>
+        <v>125064165.26713824</v>
       </c>
       <c r="F107">
-        <v>6667.7256295404059</v>
+        <v>6576.3325849817738</v>
       </c>
       <c r="G107">
-        <v>0.35622941677604036</v>
+        <v>0.35259522490095019</v>
       </c>
       <c r="H107">
-        <v>12.992543118726397</v>
+        <v>12.701836826659344</v>
       </c>
       <c r="I107" t="s">
         <v>35</v>
@@ -4592,22 +4592,22 @@
         <v>5178344</v>
       </c>
       <c r="C108">
-        <v>6055109133.3037968</v>
+        <v>6168763447.6665649</v>
       </c>
       <c r="D108">
-        <v>348199.9087503886</v>
+        <v>359752.9139138445</v>
       </c>
       <c r="E108">
-        <v>12373195.861787563</v>
+        <v>12882517.553766755</v>
       </c>
       <c r="F108">
-        <v>1169.3138063643121</v>
+        <v>1191.2618102749768</v>
       </c>
       <c r="G108">
-        <v>6.7241556132691963E-2</v>
+        <v>6.9472579248084809E-2</v>
       </c>
       <c r="H108">
-        <v>2.3894117234752197</v>
+        <v>2.4877678180064429</v>
       </c>
       <c r="I108" t="s">
         <v>36</v>
@@ -4633,16 +4633,16 @@
         <v>3896653</v>
       </c>
       <c r="C109">
-        <v>4115947643.7327304</v>
+        <v>4202198108.4142833</v>
       </c>
       <c r="E109">
-        <v>727108354.96352363</v>
+        <v>727895999.88177586</v>
       </c>
       <c r="F109">
-        <v>1056.2776936341857</v>
+        <v>1078.4121933398442</v>
       </c>
       <c r="H109">
-        <v>186.59817924858172</v>
+        <v>186.80031295621546</v>
       </c>
       <c r="I109" t="s">
         <v>36</v>
@@ -4668,16 +4668,16 @@
         <v>12685</v>
       </c>
       <c r="C110">
-        <v>11733040.498061748</v>
+        <v>11969413.938737301</v>
       </c>
       <c r="E110">
-        <v>1470616.4980982819</v>
+        <v>1440640.9737680266</v>
       </c>
       <c r="F110">
-        <v>924.95392180226634</v>
+        <v>943.5880125137802</v>
       </c>
       <c r="H110">
-        <v>115.93350398882789</v>
+        <v>113.57043545668321</v>
       </c>
       <c r="I110" t="s">
         <v>36</v>
@@ -4703,16 +4703,16 @@
         <v>1522254</v>
       </c>
       <c r="C111">
-        <v>2075061360.1643276</v>
+        <v>2102852360.5236712</v>
       </c>
       <c r="E111">
-        <v>362384467.00754398</v>
+        <v>369529530.52269113</v>
       </c>
       <c r="F111">
-        <v>1363.1505387171442</v>
+        <v>1381.4070191463916</v>
       </c>
       <c r="H111">
-        <v>238.05781887092692</v>
+        <v>242.75155823055229</v>
       </c>
       <c r="I111" t="s">
         <v>37</v>
@@ -4741,13 +4741,13 @@
         <v>2382796238.1820059</v>
       </c>
       <c r="E112">
-        <v>268469331.11990654</v>
+        <v>272516722.56718874</v>
       </c>
       <c r="F112">
         <v>486.35234110645246</v>
       </c>
       <c r="H112">
-        <v>54.7972527458206</v>
+        <v>55.623365475989168</v>
       </c>
       <c r="I112" t="s">
         <v>37</v>
@@ -4773,22 +4773,22 @@
         <v>214384</v>
       </c>
       <c r="C113">
-        <v>1765599070.0349221</v>
+        <v>1768172297.0904531</v>
       </c>
       <c r="D113">
-        <v>95923.073900619842</v>
+        <v>95329.298664062691</v>
       </c>
       <c r="E113">
-        <v>1160864.9603071313</v>
+        <v>1124980.9661242373</v>
       </c>
       <c r="F113">
-        <v>8235.6848926921884</v>
+        <v>8247.6877802935524</v>
       </c>
       <c r="G113">
-        <v>0.44743578765495484</v>
+        <v>0.44466610691125591</v>
       </c>
       <c r="H113">
-        <v>5.4148861869688565</v>
+        <v>5.2475043199316991</v>
       </c>
       <c r="I113" t="s">
         <v>23</v>
@@ -4814,22 +4814,22 @@
         <v>17815891</v>
       </c>
       <c r="C114">
-        <v>20808754147.598839</v>
+        <v>20791303397.678978</v>
       </c>
       <c r="D114">
-        <v>1115154.4318327329</v>
+        <v>1115229.7306077764</v>
       </c>
       <c r="E114">
-        <v>39873786.184496999</v>
+        <v>40619606.970262103</v>
       </c>
       <c r="F114">
-        <v>1167.9884069563986</v>
+        <v>1167.0089022030377</v>
       </c>
       <c r="G114">
-        <v>6.2593245088484933E-2</v>
+        <v>6.2597471583530476E-2</v>
       </c>
       <c r="H114">
-        <v>2.2381022753505282</v>
+        <v>2.2799649464773948</v>
       </c>
       <c r="I114" t="s">
         <v>9</v>
@@ -4855,22 +4855,22 @@
         <v>7047532</v>
       </c>
       <c r="C115">
-        <v>31551248931.637199</v>
+        <v>31276630382.081257</v>
       </c>
       <c r="D115">
-        <v>1675447.7263068666</v>
+        <v>1670980.4498084495</v>
       </c>
       <c r="E115">
-        <v>55117749.678540722</v>
+        <v>54273663.907323487</v>
       </c>
       <c r="F115">
-        <v>4476.9216984949053</v>
+        <v>4437.9550716593067</v>
       </c>
       <c r="G115">
-        <v>0.23773538400490649</v>
+        <v>0.23710150586169026</v>
       </c>
       <c r="H115">
-        <v>7.8208583768815414</v>
+        <v>7.701087970558131</v>
       </c>
       <c r="I115" t="s">
         <v>35</v>
@@ -4896,16 +4896,16 @@
         <v>6223129</v>
       </c>
       <c r="C116">
-        <v>6797579904.0951548</v>
+        <v>6978667731.8964291</v>
       </c>
       <c r="E116">
-        <v>1169762237.3230693</v>
+        <v>1207116314.7636905</v>
       </c>
       <c r="F116">
-        <v>1092.3090143391137</v>
+        <v>1121.408174552774</v>
       </c>
       <c r="H116">
-        <v>187.97010914012378</v>
+        <v>193.9725682632789</v>
       </c>
       <c r="I116" t="s">
         <v>38</v>
@@ -4931,22 +4931,22 @@
         <v>2129192</v>
       </c>
       <c r="C117">
-        <v>2570897507.5027194</v>
+        <v>2546611132.2940063</v>
       </c>
       <c r="D117">
-        <v>156061.68130127474</v>
+        <v>156010.79083798052</v>
       </c>
       <c r="E117">
-        <v>3516939.1267356579</v>
+        <v>3539397.2309932294</v>
       </c>
       <c r="F117">
-        <v>1207.452173173072</v>
+        <v>1196.04579215684</v>
       </c>
       <c r="G117">
-        <v>7.3296199356974262E-2</v>
+        <v>7.3272298053900495E-2</v>
       </c>
       <c r="H117">
-        <v>1.6517717175039441</v>
+        <v>1.6623194296208277</v>
       </c>
       <c r="I117" t="s">
         <v>16</v>
@@ -4972,16 +4972,16 @@
         <v>4998069</v>
       </c>
       <c r="C118">
-        <v>4490032254.8848228</v>
+        <v>4445136855.7396097</v>
       </c>
       <c r="E118">
-        <v>769986601.00690114</v>
+        <v>739652487.25537252</v>
       </c>
       <c r="F118">
-        <v>898.35339505813613</v>
+        <v>889.37084616871232</v>
       </c>
       <c r="H118">
-        <v>154.05681694408403</v>
+        <v>147.98765028161327</v>
       </c>
       <c r="I118" t="s">
         <v>16</v>
@@ -5007,22 +5007,22 @@
         <v>5936999</v>
       </c>
       <c r="C119">
-        <v>27891064534.874908</v>
+        <v>28277359765.1633</v>
       </c>
       <c r="D119">
-        <v>1485974.511117442</v>
+        <v>1497208.6164817205</v>
       </c>
       <c r="E119">
-        <v>40836722.113402143</v>
+        <v>15453041.902800141</v>
       </c>
       <c r="F119">
-        <v>4697.8388466757206</v>
+        <v>4762.9045861660579</v>
       </c>
       <c r="G119">
-        <v>0.25029051059591589</v>
+        <v>0.25218273011023257</v>
       </c>
       <c r="H119">
-        <v>6.8783441117982571</v>
+        <v>2.6028372082933044</v>
       </c>
       <c r="I119" t="s">
         <v>31</v>
@@ -5054,7 +5054,7 @@
         <v>2912286.3224935019</v>
       </c>
       <c r="E120">
-        <v>110865184.11362399</v>
+        <v>99687862.924653471</v>
       </c>
       <c r="F120">
         <v>6089.6131676719833</v>
@@ -5063,7 +5063,7 @@
         <v>0.32966171594392746</v>
       </c>
       <c r="H120">
-        <v>12.549592583343351</v>
+        <v>11.284354734182431</v>
       </c>
       <c r="I120" t="s">
         <v>30</v>
@@ -5089,22 +5089,22 @@
         <v>4469578</v>
       </c>
       <c r="C121">
-        <v>11453394610.491039</v>
+        <v>11434825092.026379</v>
       </c>
       <c r="D121">
-        <v>611565.14624633687</v>
+        <v>607056.61007253022</v>
       </c>
       <c r="E121">
-        <v>23434128.247685619</v>
+        <v>22385207.035526067</v>
       </c>
       <c r="F121">
-        <v>2562.5225939654792</v>
+        <v>2558.367947046987</v>
       </c>
       <c r="G121">
-        <v>0.13682838653813331</v>
+        <v>0.13581967024012787</v>
       </c>
       <c r="H121">
-        <v>5.2430292630949991</v>
+        <v>5.0083491183118554</v>
       </c>
       <c r="I121" t="s">
         <v>15</v>
@@ -5133,13 +5133,13 @@
         <v>3088209608.0306726</v>
       </c>
       <c r="E122">
-        <v>380691049.71561331</v>
+        <v>334657775.46218193</v>
       </c>
       <c r="F122">
         <v>1231.1520967754905</v>
       </c>
       <c r="H122">
-        <v>151.76708953376999</v>
+        <v>133.41536820916281</v>
       </c>
       <c r="I122" t="s">
         <v>21</v>
@@ -5165,16 +5165,16 @@
         <v>1204962</v>
       </c>
       <c r="C123">
-        <v>1574810759.4612119</v>
+        <v>1553656924.9392414</v>
       </c>
       <c r="E123">
-        <v>191523037.85176781</v>
+        <v>175264180.07569098</v>
       </c>
       <c r="F123">
-        <v>1306.9381104642403</v>
+        <v>1289.3825074477381</v>
       </c>
       <c r="H123">
-        <v>158.94529275758723</v>
+        <v>145.45203921425818</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
@@ -5200,22 +5200,22 @@
         <v>11346108</v>
       </c>
       <c r="C124">
-        <v>15535577936.77359</v>
+        <v>15348729524.664711</v>
       </c>
       <c r="D124">
-        <v>900071.43977187364</v>
+        <v>890976.237584944</v>
       </c>
       <c r="E124">
-        <v>32528072.823919203</v>
+        <v>31712610.205231484</v>
       </c>
       <c r="F124">
-        <v>1369.2429101480077</v>
+        <v>1352.7748479623772</v>
       </c>
       <c r="G124">
-        <v>7.9328650826510166E-2</v>
+        <v>7.8527036547241039E-2</v>
       </c>
       <c r="H124">
-        <v>2.8668925788401807</v>
+        <v>2.7950210067832497</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
@@ -5247,7 +5247,7 @@
         <v>166007.6145713944</v>
       </c>
       <c r="E125">
-        <v>2665551.5215987503</v>
+        <v>2307951.7246571379</v>
       </c>
       <c r="F125">
         <v>5449.6816672136183</v>
@@ -5256,7 +5256,7 @@
         <v>0.269982443117462</v>
       </c>
       <c r="H125">
-        <v>4.3350548341696715</v>
+        <v>3.7534811088567057</v>
       </c>
       <c r="I125" t="s">
         <v>28</v>
@@ -5282,22 +5282,22 @@
         <v>4882435</v>
       </c>
       <c r="C126">
-        <v>14240852840.476206</v>
+        <v>14188397546.644491</v>
       </c>
       <c r="D126">
-        <v>763971.80185561313</v>
+        <v>767496.70050947159</v>
       </c>
       <c r="E126">
-        <v>28335860.302446555</v>
+        <v>28367745.774446502</v>
       </c>
       <c r="F126">
-        <v>2916.7521616726499</v>
+        <v>2906.0084868809295</v>
       </c>
       <c r="G126">
-        <v>0.15647352230098571</v>
+        <v>0.15719547736108552</v>
       </c>
       <c r="H126">
-        <v>5.8036328804063047</v>
+        <v>5.8101635299694729</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -5323,22 +5323,22 @@
         <v>4906656</v>
       </c>
       <c r="C127">
-        <v>21551796642.652214</v>
+        <v>21510143179.794708</v>
       </c>
       <c r="D127">
-        <v>1144457.0986090377</v>
+        <v>1151022.4960646876</v>
       </c>
       <c r="E127">
-        <v>24473176.201482914</v>
+        <v>26938271.25323401</v>
       </c>
       <c r="F127">
-        <v>4392.3594078435935</v>
+        <v>4383.8702325564927</v>
       </c>
       <c r="G127">
-        <v>0.23324583965312373</v>
+        <v>0.23458389910861643</v>
       </c>
       <c r="H127">
-        <v>4.9877505579121335</v>
+        <v>5.4901487394335389</v>
       </c>
       <c r="I127" t="s">
         <v>32</v>
@@ -5364,16 +5364,16 @@
         <v>5621453</v>
       </c>
       <c r="C128">
-        <v>5452563338.0343895</v>
+        <v>5501660764.7951031</v>
       </c>
       <c r="E128">
-        <v>1013325142.858845</v>
+        <v>981248422.79496741</v>
       </c>
       <c r="F128">
-        <v>969.95622627003911</v>
+        <v>978.69016512191843</v>
       </c>
       <c r="H128">
-        <v>180.26036024117695</v>
+        <v>174.5542340734624</v>
       </c>
       <c r="I128" t="s">
         <v>14</v>
@@ -5399,16 +5399,16 @@
         <v>4776449</v>
       </c>
       <c r="C129">
-        <v>5305072294.2163801</v>
+        <v>5410995948.0123682</v>
       </c>
       <c r="E129">
-        <v>653969061.96089768</v>
+        <v>622013137.04520023</v>
       </c>
       <c r="F129">
-        <v>1110.6728647613279</v>
+        <v>1132.8490994067702</v>
       </c>
       <c r="H129">
-        <v>136.9153239071322</v>
+        <v>130.22501382202557</v>
       </c>
       <c r="I129" t="s">
         <v>10</v>
@@ -5434,16 +5434,16 @@
         <v>2383346</v>
       </c>
       <c r="C130">
-        <v>2611246893.4207964</v>
+        <v>2600941881.2041764</v>
       </c>
       <c r="E130">
-        <v>320624381.33412009</v>
+        <v>274537723.73895293</v>
       </c>
       <c r="F130">
-        <v>1095.6222442821129</v>
+        <v>1091.2984859118972</v>
       </c>
       <c r="H130">
-        <v>134.52699747922463</v>
+        <v>115.19004111822326</v>
       </c>
       <c r="I130" t="s">
         <v>39</v>
@@ -5469,22 +5469,22 @@
         <v>14585886</v>
       </c>
       <c r="C131">
-        <v>146625212808.10345</v>
+        <v>147534337801.79388</v>
       </c>
       <c r="D131">
-        <v>7766688.5301814042</v>
+        <v>7804160.0061536226</v>
       </c>
       <c r="E131">
-        <v>275914017.59500515</v>
+        <v>276054926.53172398</v>
       </c>
       <c r="F131">
-        <v>10052.54071011548</v>
+        <v>10114.869799599002</v>
       </c>
       <c r="G131">
-        <v>0.5324797225332355</v>
+        <v>0.53504874548955228</v>
       </c>
       <c r="H131">
-        <v>18.9165072039508</v>
+        <v>18.926167840042353</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -5510,22 +5510,22 @@
         <v>2184313</v>
       </c>
       <c r="C132">
-        <v>2900844442.3442383</v>
+        <v>2928509049.4982243</v>
       </c>
       <c r="D132">
-        <v>177711.87355975038</v>
+        <v>178608.37987524411</v>
       </c>
       <c r="E132">
-        <v>4006144.9470944591</v>
+        <v>4128938.6619479293</v>
       </c>
       <c r="F132">
-        <v>1328.0351498820171</v>
+        <v>1340.7002794463176</v>
       </c>
       <c r="G132">
-        <v>8.1358245617615413E-2</v>
+        <v>8.1768675036610644E-2</v>
       </c>
       <c r="H132">
-        <v>1.8340526046836965</v>
+        <v>1.8902687764747677</v>
       </c>
       <c r="I132" t="s">
         <v>11</v>
@@ -5551,22 +5551,22 @@
         <v>1131899</v>
       </c>
       <c r="C133">
-        <v>2291179570.7231746</v>
+        <v>2090378378.7495551</v>
       </c>
       <c r="D133">
-        <v>120621.13265553108</v>
+        <v>120178.51792175425</v>
       </c>
       <c r="E133">
-        <v>1990865.5133692876</v>
+        <v>3106625.8735267706</v>
       </c>
       <c r="F133">
-        <v>2024.1908250852546</v>
+        <v>1846.7887848205141</v>
       </c>
       <c r="G133">
-        <v>0.10656527892994966</v>
+        <v>0.10617424162558166</v>
       </c>
       <c r="H133">
-        <v>1.7588720489807728</v>
+        <v>2.7446140278653579</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -5592,16 +5592,16 @@
         <v>3041196</v>
       </c>
       <c r="C134">
-        <v>1976458744.1114879</v>
+        <v>2002929173.720124</v>
       </c>
       <c r="E134">
-        <v>1824423456.1029119</v>
+        <v>1848857698.8185761</v>
       </c>
       <c r="F134">
-        <v>649.89522020661866</v>
+        <v>658.59917404867167</v>
       </c>
       <c r="H134">
-        <v>599.9032801907249</v>
+        <v>607.93769912185076</v>
       </c>
       <c r="I134" t="s">
         <v>38</v>
@@ -5662,22 +5662,22 @@
         <v>9975515</v>
       </c>
       <c r="C136">
-        <v>27856127405.400986</v>
+        <v>28102138351.202431</v>
       </c>
       <c r="D136">
-        <v>1526955.3468176289</v>
+        <v>1555296.6203911132</v>
       </c>
       <c r="E136">
-        <v>57022516.655294813</v>
+        <v>57737469.38077531</v>
       </c>
       <c r="F136">
-        <v>2792.4500544985381</v>
+        <v>2817.1115327080788</v>
       </c>
       <c r="G136">
-        <v>0.15307032737834878</v>
+        <v>0.15591141112926132</v>
       </c>
       <c r="H136">
-        <v>5.7162478985089802</v>
+        <v>5.7879186569089729</v>
       </c>
       <c r="I136" t="s">
         <v>11</v>
@@ -5703,22 +5703,22 @@
         <v>2161126</v>
       </c>
       <c r="C137">
-        <v>5376472977.0508986</v>
+        <v>5375976620.770298</v>
       </c>
       <c r="D137">
-        <v>282841.00141234341</v>
+        <v>280947.3438665166</v>
       </c>
       <c r="E137">
-        <v>7137539.4713745853</v>
+        <v>6434807.4180273507</v>
       </c>
       <c r="F137">
-        <v>2487.8109730996243</v>
+        <v>2487.5812982539187</v>
       </c>
       <c r="G137">
-        <v>0.13087668253139492</v>
+        <v>0.13000044600199923</v>
       </c>
       <c r="H137">
-        <v>3.3026947393972335</v>
+        <v>2.9775253354165141</v>
       </c>
       <c r="I137" t="s">
         <v>11</v>
@@ -5744,16 +5744,16 @@
         <v>7465222</v>
       </c>
       <c r="C138">
-        <v>8141046755.1777763</v>
+        <v>8040436531.9909592</v>
       </c>
       <c r="E138">
-        <v>1411396606.6005249</v>
+        <v>1409349735.0201974</v>
       </c>
       <c r="F138">
-        <v>1090.5297598889592</v>
+        <v>1077.0525688306334</v>
       </c>
       <c r="H138">
-        <v>189.06291153840098</v>
+        <v>188.78872390133841</v>
       </c>
       <c r="I138" t="s">
         <v>26</v>
@@ -5779,22 +5779,22 @@
         <v>6659324</v>
       </c>
       <c r="C139">
-        <v>9067252174.15411</v>
+        <v>8981596994.2914848</v>
       </c>
       <c r="D139">
         <v>547814.85761291161</v>
       </c>
       <c r="E139">
-        <v>17108730.129270419</v>
+        <v>17174113.738967519</v>
       </c>
       <c r="F139">
-        <v>1361.5874785720157</v>
+        <v>1348.7250348971584</v>
       </c>
       <c r="G139">
         <v>8.2262832926121576E-2</v>
       </c>
       <c r="H139">
-        <v>2.5691391692715988</v>
+        <v>2.5789575246627914</v>
       </c>
       <c r="I139" t="s">
         <v>36</v>
@@ -5820,22 +5820,22 @@
         <v>8727176</v>
       </c>
       <c r="C140">
-        <v>11290198675.85006</v>
+        <v>11420363327.756954</v>
       </c>
       <c r="D140">
-        <v>659662.07301539928</v>
+        <v>659900.16843034641</v>
       </c>
       <c r="E140">
-        <v>22271055.296176083</v>
+        <v>23919427.711029597</v>
       </c>
       <c r="F140">
-        <v>1293.6829365936999</v>
+        <v>1308.5978015977853</v>
       </c>
       <c r="G140">
-        <v>7.5587116956894101E-2</v>
+        <v>7.5614399025566395E-2</v>
       </c>
       <c r="H140">
-        <v>2.551920036467247</v>
+        <v>2.7407981357348121</v>
       </c>
       <c r="I140" t="s">
         <v>11</v>
@@ -5905,13 +5905,13 @@
         <v>2227363705.5917497</v>
       </c>
       <c r="E142">
-        <v>235105353.98384598</v>
+        <v>275004789.94685459</v>
       </c>
       <c r="F142">
         <v>1109.8788529063911</v>
       </c>
       <c r="H142">
-        <v>117.15125820568122</v>
+        <v>137.03285190637013</v>
       </c>
       <c r="I142" t="s">
         <v>11</v>
@@ -5937,19 +5937,19 @@
         <v>5178428</v>
       </c>
       <c r="C143">
-        <v>19980480085.140694</v>
+        <v>18816877343.144329</v>
       </c>
       <c r="D143">
-        <v>1115698.2819154211</v>
+        <v>1103732.8629141673</v>
       </c>
       <c r="E143">
         <v>34784653.65595942</v>
       </c>
       <c r="F143">
-        <v>3858.4064672021495</v>
+        <v>3633.7045418309049</v>
       </c>
       <c r="G143">
-        <v>0.21545115272731824</v>
+        <v>0.21314052506169195</v>
       </c>
       <c r="H143">
         <v>6.7172226119508505</v>
@@ -5978,22 +5978,22 @@
         <v>3910602</v>
       </c>
       <c r="C144">
-        <v>24137162461.745937</v>
+        <v>24683489495.479115</v>
       </c>
       <c r="D144">
-        <v>1310318.0040793526</v>
+        <v>1332561.6365911453</v>
       </c>
       <c r="E144">
-        <v>46572322.219610982</v>
+        <v>46134931.224729419</v>
       </c>
       <c r="F144">
-        <v>6172.2370268684817</v>
+        <v>6311.9411015181586</v>
       </c>
       <c r="G144">
-        <v>0.33506810564699563</v>
+        <v>0.34075613846439634</v>
       </c>
       <c r="H144">
-        <v>11.909246254057811</v>
+        <v>11.797398769992299</v>
       </c>
       <c r="I144" t="s">
         <v>12</v>
@@ -6019,22 +6019,22 @@
         <v>7463219</v>
       </c>
       <c r="C145">
-        <v>36114649935.972176</v>
+        <v>36153851543.962112</v>
       </c>
       <c r="D145">
-        <v>1926960.0936788397</v>
+        <v>1933878.3568729642</v>
       </c>
       <c r="E145">
-        <v>43747437.657347538</v>
+        <v>42464456.673304446</v>
       </c>
       <c r="F145">
-        <v>4839.0178468529703</v>
+        <v>4844.2704875687168</v>
       </c>
       <c r="G145">
-        <v>0.25819423142732911</v>
+        <v>0.25912121255894593</v>
       </c>
       <c r="H145">
-        <v>5.8617384344942227</v>
+        <v>5.6898312475226103</v>
       </c>
       <c r="I145" t="s">
         <v>35</v>
@@ -6060,22 +6060,22 @@
         <v>2584028</v>
       </c>
       <c r="C146">
-        <v>12337454419.71706</v>
+        <v>12331541918.530838</v>
       </c>
       <c r="D146">
-        <v>651001.19157366978</v>
+        <v>647726.89256207761</v>
       </c>
       <c r="E146">
-        <v>22735919.126683772</v>
+        <v>22250078.339433193</v>
       </c>
       <c r="F146">
-        <v>4774.5049278556817</v>
+        <v>4772.2168329951674</v>
       </c>
       <c r="G146">
-        <v>0.25193271573437659</v>
+        <v>0.25066558588454835</v>
       </c>
       <c r="H146">
-        <v>8.7986349709383074</v>
+        <v>8.6106181277575899</v>
       </c>
       <c r="I146" t="s">
         <v>20</v>
@@ -6101,16 +6101,16 @@
         <v>5184267</v>
       </c>
       <c r="C147">
-        <v>5977148880.1886787</v>
+        <v>5927296836.063343</v>
       </c>
       <c r="E147">
-        <v>1079655954.6293058</v>
+        <v>1072145762.6568449</v>
       </c>
       <c r="F147">
-        <v>1152.9400164360129</v>
+        <v>1143.3239908483383</v>
       </c>
       <c r="H147">
-        <v>208.25624039604941</v>
+        <v>206.80758970493704</v>
       </c>
       <c r="I147" t="s">
         <v>38</v>
@@ -6142,7 +6142,7 @@
         <v>666236.06754905742</v>
       </c>
       <c r="E148">
-        <v>9354949.0672551934</v>
+        <v>22642717.274608072</v>
       </c>
       <c r="F148">
         <v>2857.853740773463</v>
@@ -6151,7 +6151,7 @@
         <v>0.1623140579092775</v>
       </c>
       <c r="H148">
-        <v>2.2791317051129067</v>
+        <v>5.5164100263357652</v>
       </c>
       <c r="I148" t="s">
         <v>11</v>
@@ -6177,22 +6177,22 @@
         <v>5491581</v>
       </c>
       <c r="C149">
-        <v>18080180048.928005</v>
+        <v>17970619105.13818</v>
       </c>
       <c r="D149">
-        <v>975247.57714710501</v>
+        <v>966305.67906167998</v>
       </c>
       <c r="E149">
-        <v>34119551.408353955</v>
+        <v>33382272.622331116</v>
       </c>
       <c r="F149">
-        <v>3292.3451459475891</v>
+        <v>3272.3944352524677</v>
       </c>
       <c r="G149">
-        <v>0.17758958251678433</v>
+        <v>0.17596129039372815</v>
       </c>
       <c r="H149">
-        <v>6.2130653100362085</v>
+        <v>6.0788091120446222</v>
       </c>
       <c r="I149" t="s">
         <v>17</v>
@@ -6221,13 +6221,13 @@
         <v>1490654522.3913691</v>
       </c>
       <c r="E150">
-        <v>174777391.20240006</v>
+        <v>161536679.74767277</v>
       </c>
       <c r="F150">
         <v>1147.5365144305708</v>
       </c>
       <c r="H150">
-        <v>134.54723095725652</v>
+        <v>124.35425891504011</v>
       </c>
       <c r="I150" t="s">
         <v>26</v>
@@ -6253,22 +6253,22 @@
         <v>3250811</v>
       </c>
       <c r="C151">
-        <v>11430428734.411934</v>
+        <v>10226518753.765198</v>
       </c>
       <c r="D151">
-        <v>617566.48656140699</v>
+        <v>573126.45152054587</v>
       </c>
       <c r="E151">
-        <v>12713272.236616379</v>
+        <v>12507838.493962234</v>
       </c>
       <c r="F151">
-        <v>3516.1775736614445</v>
+        <v>3145.8361478920788</v>
       </c>
       <c r="G151">
-        <v>0.18997305182042479</v>
+        <v>0.1763026061867472</v>
       </c>
       <c r="H151">
-        <v>3.9108001777453003</v>
+        <v>3.8476055648766518</v>
       </c>
       <c r="I151" t="s">
         <v>20</v>
@@ -6294,22 +6294,22 @@
         <v>4583206</v>
       </c>
       <c r="C152">
-        <v>18544380470.442627</v>
+        <v>18615214200.146648</v>
       </c>
       <c r="D152">
-        <v>1081499.1944933967</v>
+        <v>876813.02018039604</v>
       </c>
       <c r="E152">
-        <v>65988593.098840229</v>
+        <v>3385378.456294965</v>
       </c>
       <c r="F152">
-        <v>4046.1590577518505</v>
+        <v>4061.6141190569765</v>
       </c>
       <c r="G152">
-        <v>0.2359700162928301</v>
+        <v>0.19130997388736096</v>
       </c>
       <c r="H152">
-        <v>14.397911221716901</v>
+        <v>0.73864854782764833</v>
       </c>
       <c r="I152" t="s">
         <v>11</v>
@@ -6335,22 +6335,22 @@
         <v>12498933</v>
       </c>
       <c r="C153">
-        <v>70130177611.739685</v>
+        <v>70751145818.678345</v>
       </c>
       <c r="D153">
-        <v>3770096.1778332042</v>
+        <v>3801789.546693502</v>
       </c>
       <c r="E153">
-        <v>139439140.63018888</v>
+        <v>140806834.14877334</v>
       </c>
       <c r="F153">
-        <v>5610.8931547788661</v>
+        <v>5660.5748521636488</v>
       </c>
       <c r="G153">
-        <v>0.30163344165723621</v>
+        <v>0.30416912761221315</v>
       </c>
       <c r="H153">
-        <v>11.156083533705548</v>
+        <v>11.265508355695109</v>
       </c>
       <c r="I153" t="s">
         <v>29</v>
@@ -6376,22 +6376,22 @@
         <v>13439341</v>
       </c>
       <c r="C154">
-        <v>15538691216.952995</v>
+        <v>15179951011.781172</v>
       </c>
       <c r="D154">
-        <v>896057.76476757927</v>
+        <v>829901.84480830259</v>
       </c>
       <c r="E154">
-        <v>29005573.521986548</v>
+        <v>28116293.687446728</v>
       </c>
       <c r="F154">
-        <v>1156.2093124174016</v>
+        <v>1129.5160240209079</v>
       </c>
       <c r="G154">
-        <v>6.6674233860691476E-2</v>
+        <v>6.1751677021090731E-2</v>
       </c>
       <c r="H154">
-        <v>2.1582586171439919</v>
+        <v>2.0920887182970302</v>
       </c>
       <c r="I154" t="s">
         <v>37</v>
@@ -6417,22 +6417,22 @@
         <v>14171621</v>
       </c>
       <c r="C155">
-        <v>78458473909.25531</v>
+        <v>79337497904.338455</v>
       </c>
       <c r="D155">
-        <v>4208422.6648895573</v>
+        <v>4272000.3159768172</v>
       </c>
       <c r="E155">
-        <v>141942013.28385779</v>
+        <v>143726525.33927959</v>
       </c>
       <c r="F155">
-        <v>5536.3090721418039</v>
+        <v>5598.3361327782095</v>
       </c>
       <c r="G155">
-        <v>0.29696127668737105</v>
+        <v>0.30144754195563211</v>
       </c>
       <c r="H155">
-        <v>10.015933483110915</v>
+        <v>10.141855002986574</v>
       </c>
       <c r="I155" t="s">
         <v>31</v>
@@ -6458,22 +6458,22 @@
         <v>1940463</v>
       </c>
       <c r="C156">
-        <v>10247569454.784153</v>
+        <v>10418693209.484459</v>
       </c>
       <c r="D156">
-        <v>550269.883050462</v>
+        <v>555793.05143970135</v>
       </c>
       <c r="E156">
-        <v>9130246.9677386675</v>
+        <v>10176827.835570175</v>
       </c>
       <c r="F156">
-        <v>5280.9919358339503</v>
+        <v>5369.1790101045262</v>
       </c>
       <c r="G156">
-        <v>0.28357659128283408</v>
+        <v>0.28642290599702303</v>
       </c>
       <c r="H156">
-        <v>4.7051899303097597</v>
+        <v>5.2445358842555478</v>
       </c>
       <c r="I156" t="s">
         <v>32</v>
@@ -6499,16 +6499,16 @@
         <v>166824</v>
       </c>
       <c r="C157">
-        <v>427933615.80421412</v>
+        <v>423243963.01646668</v>
       </c>
       <c r="E157">
-        <v>84210568.583888099</v>
+        <v>83341407.504733786</v>
       </c>
       <c r="F157">
-        <v>2565.1801647497614</v>
+        <v>2537.0687851656039</v>
       </c>
       <c r="H157">
-        <v>504.78689267664186</v>
+        <v>499.57684448720681</v>
       </c>
       <c r="I157" t="s">
         <v>36</v>
@@ -6534,16 +6534,16 @@
         <v>97358</v>
       </c>
       <c r="C158">
-        <v>34671837.052631997</v>
+        <v>14189541.854279999</v>
       </c>
       <c r="E158">
-        <v>32004772.663967997</v>
+        <v>13098038.634719998</v>
       </c>
       <c r="F158">
-        <v>356.12725253838408</v>
+        <v>145.74602861891162</v>
       </c>
       <c r="H158">
-        <v>328.73284849696989</v>
+        <v>134.53479564822612</v>
       </c>
       <c r="I158" t="s">
         <v>22</v>
@@ -6604,16 +6604,16 @@
         <v>334348.61</v>
       </c>
       <c r="C160">
-        <v>1320983250.5161543</v>
+        <v>1346990316.7086997</v>
       </c>
       <c r="E160">
-        <v>137757814.33286089</v>
+        <v>135319369.82411471</v>
       </c>
       <c r="F160">
-        <v>3950.9159332714271</v>
+        <v>4028.700214152826</v>
       </c>
       <c r="H160">
-        <v>412.01850467648393</v>
+        <v>404.72538475369981</v>
       </c>
       <c r="I160" t="s">
         <v>35</v>
@@ -6674,22 +6674,22 @@
         <v>11106837</v>
       </c>
       <c r="C162">
-        <v>18577249960.309849</v>
+        <v>18263142973.661293</v>
       </c>
       <c r="D162">
-        <v>1010209.2640425027</v>
+        <v>1004547.349931256</v>
       </c>
       <c r="E162">
-        <v>38092344.214238651</v>
+        <v>37897296.776849344</v>
       </c>
       <c r="F162">
-        <v>1672.5958938903891</v>
+        <v>1644.3153864292142</v>
       </c>
       <c r="G162">
-        <v>9.0953820970137836E-2</v>
+        <v>9.0444052607529579E-2</v>
       </c>
       <c r="H162">
-        <v>3.4296302551517277</v>
+        <v>3.4120692305873712</v>
       </c>
       <c r="I162" t="s">
         <v>16</v>

--- a/r_map/data_boot_cq_remov_As.xlsx
+++ b/r_map/data_boot_cq_remov_As.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19905" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
   <si>
     <t>Plant_Code</t>
   </si>
@@ -70,6 +70,9 @@
     <t>FL</t>
   </si>
   <si>
+    <t>AZ</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>KY</t>
-  </si>
-  <si>
-    <t>LA</t>
   </si>
   <si>
     <t>MD</t>
@@ -145,6 +145,12 @@
     <t>AR</t>
   </si>
   <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>FRCC</t>
   </si>
   <si>
+    <t>AZNM</t>
+  </si>
+  <si>
     <t>SPSO</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t>SRMV</t>
+  </si>
+  <si>
+    <t>RMPA</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,16 +586,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -594,16 +606,22 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>24489996600.256199</v>
+        <v>24084085054.395599</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>22606150707.928799</v>
+        <v>22231463127.134399</v>
       </c>
       <c r="F2">
-        <v>11093.252457029472</v>
+        <v>10909.38639420578</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10239.925344950281</v>
+        <v>10070.20282542072</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -618,7 +636,7 @@
         <v>-87.781099999999995</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -626,19 +644,25 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>505392</v>
+        <v>5806845</v>
       </c>
       <c r="C3">
-        <v>1064403666.0361398</v>
+        <v>24848805861.799637</v>
+      </c>
+      <c r="D3">
+        <v>9753303.2126712948</v>
       </c>
       <c r="E3">
-        <v>982526460.95643663</v>
+        <v>1293615167.7923987</v>
       </c>
       <c r="F3">
-        <v>2106.0952014201648</v>
+        <v>4279.2266474823482</v>
+      </c>
+      <c r="G3">
+        <v>1.6796217589192226</v>
       </c>
       <c r="H3">
-        <v>1944.0878782339978</v>
+        <v>222.77418594648191</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -653,7 +677,7 @@
         <v>-86.458055999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -664,16 +688,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>16695116825.836149</v>
+        <v>17240020679.628044</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3415474812.5422392</v>
+        <v>2531464729.7876897</v>
       </c>
       <c r="F4">
-        <v>6123.5382931517161</v>
+        <v>6323.4015016329486</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1252.7489937375803</v>
+        <v>928.50630350958977</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -688,39 +718,45 @@
         <v>-87.848600000000005</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>541762</v>
+        <v>1657543</v>
       </c>
       <c r="C5">
-        <v>386165673.32670599</v>
+        <v>13648429531.319494</v>
+      </c>
+      <c r="D5">
+        <v>5560470.1081746873</v>
       </c>
       <c r="E5">
-        <v>356460621.53234392</v>
+        <v>166159385.7409434</v>
       </c>
       <c r="F5">
-        <v>712.79579100547107</v>
+        <v>8234.1330097134705</v>
+      </c>
+      <c r="G5">
+        <v>3.3546460684125163</v>
       </c>
       <c r="H5">
-        <v>657.9653455435116</v>
+        <v>100.24438928036462</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>68801</v>
+        <v>36548</v>
       </c>
       <c r="K5">
-        <v>40.854765</v>
+        <v>31.488019000000001</v>
       </c>
       <c r="L5">
-        <v>-98.348222000000007</v>
+        <v>-87.910747000000001</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
@@ -728,309 +764,327 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>324142</v>
+        <v>541762</v>
       </c>
       <c r="C6">
-        <v>432021780.16881657</v>
+        <v>381062162.22547197</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>46049106.462545462</v>
+        <v>351749688.20812798</v>
       </c>
       <c r="F6">
-        <v>1332.8164204849004</v>
+        <v>703.37558231376875</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>142.06460891382622</v>
+        <v>649.26976828963268</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6">
-        <v>68902</v>
+        <v>68801</v>
       </c>
       <c r="K6">
-        <v>40.580871999999999</v>
+        <v>40.854765</v>
       </c>
       <c r="L6">
-        <v>-98.312437000000003</v>
+        <v>-98.348222000000007</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>2081937</v>
+        <v>324142</v>
       </c>
       <c r="C7">
-        <v>2720343030.30162</v>
+        <v>440098985.31362391</v>
       </c>
       <c r="D7">
-        <v>166653.97481618595</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3756867.5955610601</v>
+        <v>41814891.123314433</v>
       </c>
       <c r="F7">
-        <v>1306.6404172180139</v>
+        <v>1357.7351448242557</v>
       </c>
       <c r="G7">
-        <v>8.0047558987705172E-2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.804505897902319</v>
+        <v>129.0017681242</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>76373</v>
+        <v>68902</v>
       </c>
       <c r="K7">
-        <v>34.082500000000003</v>
+        <v>40.580871999999999</v>
       </c>
       <c r="L7">
-        <v>-99.175299999999993</v>
+        <v>-98.312437000000003</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>8921964</v>
+        <v>2081937</v>
       </c>
       <c r="C8">
-        <v>46792899440.812332</v>
+        <v>2720017157.5384912</v>
       </c>
       <c r="D8">
-        <v>2513916.3805485684</v>
+        <v>201265.78030415569</v>
       </c>
       <c r="E8">
-        <v>91692104.01712352</v>
+        <v>3290161.0767286243</v>
       </c>
       <c r="F8">
-        <v>5244.6859728208192</v>
+        <v>1306.483893383177</v>
       </c>
       <c r="G8">
-        <v>0.28176715132997271</v>
+        <v>9.6672368234079945E-2</v>
       </c>
       <c r="H8">
-        <v>10.277121048361494</v>
+        <v>1.5803365215799634</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8">
-        <v>29436</v>
+        <v>76373</v>
       </c>
       <c r="K8">
-        <v>33.371505999999997</v>
+        <v>34.082500000000003</v>
       </c>
       <c r="L8">
-        <v>-80.113235000000003</v>
+        <v>-99.175299999999993</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B9">
-        <v>7744214</v>
+        <v>8921964</v>
       </c>
       <c r="C9">
-        <v>21784161853.381332</v>
+        <v>46912652861.323288</v>
       </c>
       <c r="D9">
-        <v>1173109.896345186</v>
+        <v>4441238.4020669907</v>
       </c>
       <c r="E9">
-        <v>33984087.793017775</v>
+        <v>105510875.43098941</v>
       </c>
       <c r="F9">
-        <v>2812.9596952487791</v>
+        <v>5258.108288861431</v>
       </c>
       <c r="G9">
-        <v>0.15148211249652788</v>
+        <v>0.49778707939944511</v>
       </c>
       <c r="H9">
-        <v>4.3883198208388583</v>
+        <v>11.82596964423858</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>32708</v>
+        <v>29436</v>
       </c>
       <c r="K9">
-        <v>29.733056000000001</v>
+        <v>33.371505999999997</v>
       </c>
       <c r="L9">
-        <v>-81.632778000000002</v>
+        <v>-80.113235000000003</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>2014725</v>
+        <v>7744214</v>
       </c>
       <c r="C10">
-        <v>2725800951.7334266</v>
+        <v>21721492877.21735</v>
+      </c>
+      <c r="D10">
+        <v>1907581.9562802452</v>
       </c>
       <c r="E10">
-        <v>290542523.51127279</v>
+        <v>40882532.297458507</v>
       </c>
       <c r="F10">
-        <v>1352.9394590990962</v>
+        <v>2804.8673341435751</v>
+      </c>
+      <c r="G10">
+        <v>0.24632350762520833</v>
       </c>
       <c r="H10">
-        <v>144.2095191707418</v>
+        <v>5.2791067366499052</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>74337</v>
+        <v>32708</v>
       </c>
       <c r="K10">
-        <v>36.190277999999999</v>
+        <v>29.733056000000001</v>
       </c>
       <c r="L10">
-        <v>-95.289400000000001</v>
+        <v>-81.632778000000002</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="B11">
-        <v>9164672</v>
+        <v>1912394</v>
       </c>
       <c r="C11">
-        <v>21544833433.989388</v>
+        <v>1538224257.9399877</v>
       </c>
       <c r="D11">
-        <v>1150546.950597795</v>
+        <v>628955.06591951568</v>
       </c>
       <c r="E11">
-        <v>41209642.098474637</v>
+        <v>18487969.233076029</v>
       </c>
       <c r="F11">
-        <v>2350.8570120119289</v>
+        <v>804.34484627121174</v>
       </c>
       <c r="G11">
-        <v>0.1255415306295517</v>
+        <v>0.32888362226586976</v>
       </c>
       <c r="H11">
-        <v>4.4965757747221762</v>
+        <v>9.6674478340112078</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>75846</v>
+        <v>85606</v>
       </c>
       <c r="K11">
-        <v>31.421900000000001</v>
+        <v>32.060299999999998</v>
       </c>
       <c r="L11">
-        <v>-96.252499999999998</v>
+        <v>-109.8931</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>564</v>
+        <v>165</v>
       </c>
       <c r="B12">
-        <v>3900879</v>
+        <v>2014725</v>
       </c>
       <c r="C12">
-        <v>8256298781.1743488</v>
+        <v>2756861292.5125194</v>
       </c>
       <c r="D12">
-        <v>445348.69476852019</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>17890710.71209925</v>
+        <v>261749759.4313058</v>
       </c>
       <c r="F12">
-        <v>2116.522655835864</v>
+        <v>1368.356124291166</v>
       </c>
       <c r="G12">
-        <v>0.11416624170309313</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4.5863280332712835</v>
+        <v>129.91835582092136</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12">
-        <v>32831</v>
+        <v>74337</v>
       </c>
       <c r="K12">
-        <v>28.482199999999999</v>
+        <v>36.190277999999999</v>
       </c>
       <c r="L12">
-        <v>-81.1678</v>
+        <v>-95.289400000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>628</v>
+        <v>298</v>
       </c>
       <c r="B13">
-        <v>9744872</v>
+        <v>9164672</v>
       </c>
       <c r="C13">
-        <v>53392914693.218559</v>
+        <v>21207090579.679779</v>
+      </c>
+      <c r="D13">
+        <v>1919160.0053293156</v>
       </c>
       <c r="E13">
-        <v>2068114844.4619861</v>
+        <v>38658900.801836133</v>
       </c>
       <c r="F13">
-        <v>5479.078092890144</v>
+        <v>2314.0043178500855</v>
+      </c>
+      <c r="G13">
+        <v>0.20940847695687481</v>
       </c>
       <c r="H13">
-        <v>212.22596299489476</v>
+        <v>4.2182525246769478</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>34428</v>
+        <v>75846</v>
       </c>
       <c r="K13">
-        <v>28.965599999999998</v>
+        <v>31.421900000000001</v>
       </c>
       <c r="L13">
-        <v>-82.697699999999998</v>
+        <v>-96.252499999999998</v>
       </c>
       <c r="M13" t="s">
         <v>50</v>
@@ -1038,2178 +1092,2418 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>641</v>
+        <v>564</v>
       </c>
       <c r="B14">
-        <v>2258981</v>
+        <v>3900879</v>
       </c>
       <c r="C14">
-        <v>13526427942.052128</v>
+        <v>8270406561.6793118</v>
       </c>
       <c r="D14">
-        <v>756325.87087792146</v>
+        <v>834080.03483464732</v>
       </c>
       <c r="E14">
-        <v>29952375.22545905</v>
+        <v>17295457.629900899</v>
       </c>
       <c r="F14">
-        <v>5987.8449363018672</v>
+        <v>2120.1392203345226</v>
       </c>
       <c r="G14">
-        <v>0.33480842507215486</v>
+        <v>0.21381848420180358</v>
       </c>
       <c r="H14">
-        <v>13.259241766734227</v>
+        <v>4.4337334303117064</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14">
-        <v>32514</v>
+        <v>32831</v>
       </c>
       <c r="K14">
-        <v>30.566099999999999</v>
+        <v>28.482199999999999</v>
       </c>
       <c r="L14">
-        <v>-87.224400000000003</v>
+        <v>-81.1678</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>703</v>
+        <v>628</v>
       </c>
       <c r="B15">
-        <v>12851943</v>
+        <v>9744872</v>
       </c>
       <c r="C15">
-        <v>48803596110.329269</v>
+        <v>54132432620.484505</v>
       </c>
       <c r="D15">
-        <v>2638777.1500995876</v>
+        <v>3433316.5085753491</v>
       </c>
       <c r="E15">
-        <v>98127301.468019545</v>
+        <v>1531036885.1428409</v>
       </c>
       <c r="F15">
-        <v>3797.3710364517856</v>
+        <v>5554.9659985769449</v>
       </c>
       <c r="G15">
-        <v>0.20532126154773545</v>
+        <v>0.35232032894586496</v>
       </c>
       <c r="H15">
-        <v>7.6352113815023559</v>
+        <v>157.11205700216902</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15">
-        <v>30120</v>
+        <v>34428</v>
       </c>
       <c r="K15">
-        <v>34.125599999999999</v>
+        <v>28.965599999999998</v>
       </c>
       <c r="L15">
-        <v>-84.922200000000004</v>
+        <v>-82.697699999999998</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="B16">
-        <v>1157290</v>
+        <v>2476429</v>
       </c>
       <c r="C16">
-        <v>7511221436.8078976</v>
+        <v>14970673134.667683</v>
       </c>
       <c r="D16">
-        <v>412470.81961736432</v>
+        <v>1071581.5784364399</v>
       </c>
       <c r="E16">
-        <v>12398810.798662223</v>
+        <v>25411701.962227881</v>
       </c>
       <c r="F16">
-        <v>6490.3537028816427</v>
+        <v>6045.2664440077551</v>
       </c>
       <c r="G16">
-        <v>0.3564109424754075</v>
+        <v>0.43271241712822767</v>
       </c>
       <c r="H16">
-        <v>10.713659323645953</v>
+        <v>10.261429648186109</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16">
-        <v>30129</v>
+        <v>32514</v>
       </c>
       <c r="K16">
-        <v>34.252800000000001</v>
+        <v>30.566099999999999</v>
       </c>
       <c r="L16">
-        <v>-85.345600000000005</v>
+        <v>-87.224400000000003</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>856</v>
+        <v>703</v>
       </c>
       <c r="B17">
-        <v>2981276</v>
+        <v>12851943</v>
       </c>
       <c r="C17">
-        <v>3453224787.2175846</v>
+        <v>49011587245.287018</v>
+      </c>
+      <c r="D17">
+        <v>5189640.8401566632</v>
       </c>
       <c r="E17">
-        <v>607119127.88716745</v>
+        <v>124614017.69209345</v>
       </c>
       <c r="F17">
-        <v>1158.3042922619659</v>
+        <v>3813.554669927109</v>
+      </c>
+      <c r="G17">
+        <v>0.40380204301844969</v>
       </c>
       <c r="H17">
-        <v>203.64405304546358</v>
+        <v>9.6961228113207056</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
       </c>
       <c r="J17">
-        <v>61607</v>
+        <v>30120</v>
       </c>
       <c r="K17">
-        <v>40.595799999999997</v>
+        <v>34.125599999999999</v>
       </c>
       <c r="L17">
-        <v>-89.6631</v>
+        <v>-84.922200000000004</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>874</v>
+        <v>708</v>
       </c>
       <c r="B18">
-        <v>1265697</v>
+        <v>1157290</v>
       </c>
       <c r="C18">
-        <v>1555481430.9353902</v>
+        <v>7419084090.8090725</v>
+      </c>
+      <c r="D18">
+        <v>522172.66617227689</v>
       </c>
       <c r="E18">
-        <v>179075706.30720007</v>
+        <v>12712192.74621059</v>
       </c>
       <c r="F18">
-        <v>1228.9524514440582</v>
+        <v>6410.738959819123</v>
+      </c>
+      <c r="G18">
+        <v>0.45120295360046048</v>
       </c>
       <c r="H18">
-        <v>141.48386723457517</v>
+        <v>10.984448795211737</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
       </c>
       <c r="J18">
-        <v>60436</v>
+        <v>30129</v>
       </c>
       <c r="K18">
-        <v>41.493099999999998</v>
+        <v>34.252800000000001</v>
       </c>
       <c r="L18">
-        <v>-88.115300000000005</v>
+        <v>-85.345600000000005</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>883</v>
+        <v>856</v>
       </c>
       <c r="B19">
-        <v>1796131</v>
+        <v>2981276</v>
       </c>
       <c r="C19">
-        <v>1475809598.0331714</v>
+        <v>3524071446.3765345</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1007399964.0421307</v>
+        <v>455396967.57100022</v>
       </c>
       <c r="F19">
-        <v>821.6603343704727</v>
+        <v>1182.0681635569917</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>560.87221034664549</v>
+        <v>152.75236763419429</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>60087</v>
+        <v>61607</v>
       </c>
       <c r="K19">
-        <v>42.383299999999998</v>
+        <v>40.595799999999997</v>
       </c>
       <c r="L19">
-        <v>-87.813299999999998</v>
+        <v>-89.6631</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B20">
-        <v>2372033</v>
+        <v>1265697</v>
       </c>
       <c r="C20">
-        <v>2476372139.8220057</v>
+        <v>1539334771.4166911</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>267296191.5877637</v>
+        <v>145159852.83992732</v>
       </c>
       <c r="F20">
-        <v>1043.9872210133694</v>
+        <v>1216.1953227484075</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>112.68654002189838</v>
+        <v>114.68768025832985</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20">
-        <v>60446</v>
+        <v>60436</v>
       </c>
       <c r="K20">
-        <v>41.633400000000002</v>
+        <v>41.493099999999998</v>
       </c>
       <c r="L20">
-        <v>-88.062899999999999</v>
+        <v>-88.115300000000005</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="B21">
-        <v>4881045</v>
+        <v>5057931</v>
       </c>
       <c r="C21">
-        <v>4451605629.5937185</v>
+        <v>5410726867.8278637</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>878317342.40708661</v>
+        <v>684020011.54538369</v>
       </c>
       <c r="F21">
-        <v>912.01896921534603</v>
+        <v>1069.7510242484254</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>179.94452876527191</v>
+        <v>135.23711801236189</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21">
-        <v>62953</v>
+        <v>62540</v>
       </c>
       <c r="K21">
-        <v>37.209400000000002</v>
+        <v>39.590555999999999</v>
       </c>
       <c r="L21">
-        <v>-88.858889000000005</v>
+        <v>-89.496388999999994</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="B22">
-        <v>2219933</v>
+        <v>1796131</v>
       </c>
       <c r="C22">
-        <v>2497373125.1473665</v>
+        <v>1495501203.3772511</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>385529621.68322295</v>
+        <v>955572838.52955389</v>
       </c>
       <c r="F22">
-        <v>1124.9768011680383</v>
+        <v>832.62368022001237</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>173.66723305758461</v>
+        <v>532.01734090083289</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22">
-        <v>62002</v>
+        <v>60087</v>
       </c>
       <c r="K22">
-        <v>38.863900000000001</v>
+        <v>42.383299999999998</v>
       </c>
       <c r="L22">
-        <v>-90.134699999999995</v>
+        <v>-87.813299999999998</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>963</v>
+        <v>884</v>
       </c>
       <c r="B23">
-        <v>1056327</v>
+        <v>2372033</v>
       </c>
       <c r="C23">
-        <v>1819572174.5542016</v>
+        <v>2466599396.6861267</v>
       </c>
       <c r="D23">
-        <v>107407.98622454359</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4172291.8777323002</v>
+        <v>236859480.98499981</v>
       </c>
       <c r="F23">
-        <v>1722.5463086281063</v>
+        <v>1039.8672348513392</v>
       </c>
       <c r="G23">
-        <v>0.10168062183825993</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3.9498108802788341</v>
+        <v>99.85505302202786</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23">
-        <v>62703</v>
+        <v>60446</v>
       </c>
       <c r="K23">
-        <v>39.754803000000003</v>
+        <v>41.633400000000002</v>
       </c>
       <c r="L23">
-        <v>-89.602389000000002</v>
+        <v>-88.062899999999999</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>976</v>
+        <v>887</v>
       </c>
       <c r="B24">
-        <v>1066912</v>
+        <v>4881045</v>
       </c>
       <c r="C24">
-        <v>4783345373.3237896</v>
+        <v>4571407071.5807114</v>
       </c>
       <c r="D24">
-        <v>263709.42790217476</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>8000925.9035675367</v>
+        <v>663531487.39228797</v>
       </c>
       <c r="F24">
-        <v>4483.3551158144155</v>
+        <v>936.56318914919052</v>
       </c>
       <c r="G24">
-        <v>0.24717073938822953</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>7.4991432316512858</v>
+        <v>135.94045688828683</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24">
-        <v>62959</v>
+        <v>62953</v>
       </c>
       <c r="K24">
-        <v>37.619746999999997</v>
+        <v>37.209400000000002</v>
       </c>
       <c r="L24">
-        <v>-88.953113999999999</v>
+        <v>-88.858889000000005</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>983</v>
+        <v>898</v>
       </c>
       <c r="B25">
-        <v>4489538</v>
+        <v>2219933</v>
       </c>
       <c r="C25">
-        <v>20641604641.679642</v>
+        <v>2521161987.8811321</v>
       </c>
       <c r="D25">
-        <v>1107709.1369018322</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>36670940.48189272</v>
+        <v>293180266.7900461</v>
       </c>
       <c r="F25">
-        <v>4597.7124242360005</v>
+        <v>1135.6928285138029</v>
       </c>
       <c r="G25">
-        <v>0.24673120862365622</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>8.1680877813914741</v>
+        <v>132.06716904971731</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
       </c>
       <c r="J25">
-        <v>47250</v>
+        <v>62002</v>
       </c>
       <c r="K25">
-        <v>38.7378</v>
+        <v>38.863900000000001</v>
       </c>
       <c r="L25">
-        <v>-85.420599999999993</v>
+        <v>-90.134699999999995</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>990</v>
+        <v>963</v>
       </c>
       <c r="B26">
-        <v>2992958</v>
+        <v>1056327</v>
       </c>
       <c r="C26">
-        <v>11970845499.812359</v>
+        <v>1819578859.4151711</v>
+      </c>
+      <c r="D26">
+        <v>208180.67291392258</v>
       </c>
       <c r="E26">
-        <v>364885089.91303986</v>
+        <v>4788813.9578204751</v>
       </c>
       <c r="F26">
-        <v>3999.670392906402</v>
+        <v>1722.5526370292259</v>
+      </c>
+      <c r="G26">
+        <v>0.19707976120455367</v>
       </c>
       <c r="H26">
-        <v>121.91453736171368</v>
+        <v>4.5334578760369428</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
       </c>
       <c r="J26">
-        <v>46217</v>
+        <v>62703</v>
       </c>
       <c r="K26">
-        <v>39.711319000000003</v>
+        <v>39.754803000000003</v>
       </c>
       <c r="L26">
-        <v>-86.196866999999997</v>
+        <v>-89.602389000000002</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="B27">
-        <v>229494</v>
+        <v>1066912</v>
       </c>
       <c r="C27">
-        <v>2873990191.3786931</v>
+        <v>4840901898.0654192</v>
+      </c>
+      <c r="D27">
+        <v>309182.43741092517</v>
       </c>
       <c r="E27">
-        <v>537048913.61971426</v>
+        <v>5669178.3241263917</v>
       </c>
       <c r="F27">
-        <v>12523.160480791188</v>
+        <v>4537.3019499878337</v>
+      </c>
+      <c r="G27">
+        <v>0.28979188293966618</v>
       </c>
       <c r="H27">
-        <v>2340.1435925109777</v>
+        <v>5.3136325433835143</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
       </c>
       <c r="J27">
-        <v>46151</v>
+        <v>62959</v>
       </c>
       <c r="K27">
-        <v>39.485169999999997</v>
+        <v>37.619746999999997</v>
       </c>
       <c r="L27">
-        <v>-86.418300000000002</v>
+        <v>-88.953113999999999</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="B28">
-        <v>6529869</v>
+        <v>5225154</v>
       </c>
       <c r="C28">
-        <v>52658524924.199966</v>
+        <v>24060867823.189323</v>
       </c>
       <c r="D28">
-        <v>2831085.7968436782</v>
+        <v>3477207.9975156547</v>
       </c>
       <c r="E28">
-        <v>101663403.00501882</v>
+        <v>94246050.001032233</v>
       </c>
       <c r="F28">
-        <v>8064.2544167731339</v>
+        <v>4604.8150586928768</v>
       </c>
       <c r="G28">
-        <v>0.4335593557609928</v>
+        <v>0.66547473959918779</v>
       </c>
       <c r="H28">
-        <v>15.568980481081446</v>
+        <v>18.036989914753178</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28">
-        <v>47567</v>
+        <v>47250</v>
       </c>
       <c r="K28">
-        <v>38.528100000000002</v>
+        <v>38.7378</v>
       </c>
       <c r="L28">
-        <v>-87.252499999999998</v>
+        <v>-85.420599999999993</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B29">
-        <v>1441562</v>
+        <v>2992958</v>
       </c>
       <c r="C29">
-        <v>3957418149.832819</v>
+        <v>12019023117.419701</v>
       </c>
       <c r="D29">
-        <v>204444.41470190609</v>
+        <v>525692.38420990668</v>
       </c>
       <c r="E29">
-        <v>6813151.3831430636</v>
+        <v>266246265.22831821</v>
       </c>
       <c r="F29">
-        <v>2745.2292373361806</v>
+        <v>4015.767383778757</v>
       </c>
       <c r="G29">
-        <v>0.14182145110783032</v>
+        <v>0.17564308761095435</v>
       </c>
       <c r="H29">
-        <v>4.7262284821208276</v>
+        <v>88.957568141055845</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J29">
-        <v>46304</v>
+        <v>46217</v>
       </c>
       <c r="K29">
-        <v>41.645000000000003</v>
+        <v>39.711319000000003</v>
       </c>
       <c r="L29">
-        <v>-87.122500000000002</v>
+        <v>-86.196866999999997</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B30">
-        <v>1650341</v>
+        <v>229494</v>
       </c>
       <c r="C30">
-        <v>3652662052.6035676</v>
+        <v>3105601870.911622</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>386051923.54400325</v>
+        <v>380881586.18639243</v>
       </c>
       <c r="F30">
-        <v>2213.27716672104</v>
+        <v>13532.388083834967</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>233.92251876672955</v>
+        <v>1659.658144380212</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>46360</v>
+        <v>46151</v>
       </c>
       <c r="K30">
-        <v>41.720799999999997</v>
+        <v>39.485169999999997</v>
       </c>
       <c r="L30">
-        <v>-86.908600000000007</v>
+        <v>-86.418300000000002</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B31">
-        <v>4984247</v>
+        <v>6529869</v>
       </c>
       <c r="C31">
-        <v>17618775425.398262</v>
+        <v>52474728189.242859</v>
       </c>
       <c r="D31">
-        <v>1001771.10858335</v>
+        <v>4877072.8810217977</v>
       </c>
       <c r="E31">
-        <v>27461256.78923342</v>
+        <v>105796677.14547075</v>
       </c>
       <c r="F31">
-        <v>3534.8921161808921</v>
+        <v>8036.1073383314215</v>
       </c>
       <c r="G31">
-        <v>0.20098745278541572</v>
+        <v>0.74688678762495808</v>
       </c>
       <c r="H31">
-        <v>5.509609934907604</v>
+        <v>16.201960122855567</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J31">
-        <v>47928</v>
+        <v>47567</v>
       </c>
       <c r="K31">
-        <v>39.924199999999999</v>
+        <v>38.528100000000002</v>
       </c>
       <c r="L31">
-        <v>-87.424400000000006</v>
+        <v>-87.252499999999998</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="B32">
-        <v>2093626</v>
+        <v>1441562</v>
       </c>
       <c r="C32">
-        <v>7333268464.4968204</v>
+        <v>3961519755.9139986</v>
+      </c>
+      <c r="D32">
+        <v>380694.19309046504</v>
       </c>
       <c r="E32">
-        <v>989118636.36655855</v>
+        <v>7202828.938778311</v>
       </c>
       <c r="F32">
-        <v>3502.6640214139584</v>
+        <v>2748.0744885852973</v>
+      </c>
+      <c r="G32">
+        <v>0.26408450908838121</v>
       </c>
       <c r="H32">
-        <v>472.44285099944238</v>
+        <v>4.9965446777719666</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32">
-        <v>47885</v>
+        <v>46304</v>
       </c>
       <c r="K32">
-        <v>39.53</v>
+        <v>41.645000000000003</v>
       </c>
       <c r="L32">
-        <v>-87.424700000000001</v>
+        <v>-87.122500000000002</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="B33">
-        <v>67254</v>
+        <v>1650341</v>
       </c>
       <c r="C33">
-        <v>167652134.87743536</v>
+        <v>3894144084.6370182</v>
       </c>
       <c r="D33">
-        <v>10855.626528652858</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>142867.81315380899</v>
+        <v>324756951.59974903</v>
       </c>
       <c r="F33">
-        <v>2492.8202765253423</v>
+        <v>2359.5996734232613</v>
       </c>
       <c r="G33">
-        <v>0.16141235508152463</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2.1243020958427601</v>
+        <v>196.78172668542382</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33">
-        <v>47630</v>
+        <v>46360</v>
       </c>
       <c r="K33">
-        <v>37.911099999999998</v>
+        <v>41.720799999999997</v>
       </c>
       <c r="L33">
-        <v>-87.327500000000001</v>
+        <v>-86.908600000000007</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1073</v>
+        <v>1001</v>
       </c>
       <c r="B34">
-        <v>245567</v>
+        <v>4984247</v>
       </c>
       <c r="C34">
-        <v>195962861.44996679</v>
+        <v>17617999238.462601</v>
+      </c>
+      <c r="D34">
+        <v>1530576.6802044092</v>
       </c>
       <c r="E34">
-        <v>23151629.179194972</v>
+        <v>29033451.749841087</v>
       </c>
       <c r="F34">
-        <v>798.00161035467625</v>
+        <v>3534.7363881570477</v>
+      </c>
+      <c r="G34">
+        <v>0.30708283120888857</v>
       </c>
       <c r="H34">
-        <v>94.278258801854363</v>
+        <v>5.8250427295920701</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
       </c>
       <c r="J34">
-        <v>52404</v>
+        <v>47928</v>
       </c>
       <c r="K34">
-        <v>41.944038999999997</v>
+        <v>39.924199999999999</v>
       </c>
       <c r="L34">
-        <v>-91.639167</v>
+        <v>-87.424400000000006</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1091</v>
+        <v>1010</v>
       </c>
       <c r="B35">
-        <v>717925</v>
+        <v>2093626</v>
       </c>
       <c r="C35">
-        <v>759718359.54945791</v>
+        <v>7466174228.5676155</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>218725648.1850158</v>
+        <v>810651148.52153456</v>
       </c>
       <c r="F35">
-        <v>1058.2141025169174</v>
+        <v>3566.14516086809</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>304.66364618172622</v>
+        <v>387.19959941342654</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
       </c>
       <c r="J35">
-        <v>51052</v>
+        <v>47885</v>
       </c>
       <c r="K35">
-        <v>42.299793999999999</v>
+        <v>39.53</v>
       </c>
       <c r="L35">
-        <v>-96.361706999999996</v>
+        <v>-87.424700000000001</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1104</v>
+        <v>1012</v>
       </c>
       <c r="B36">
-        <v>1081826</v>
+        <v>67254</v>
       </c>
       <c r="C36">
-        <v>1218432074.6694152</v>
+        <v>167355064.27704313</v>
+      </c>
+      <c r="D36">
+        <v>10855.626528652854</v>
       </c>
       <c r="E36">
-        <v>150435537.72460911</v>
+        <v>173616.32428321111</v>
       </c>
       <c r="F36">
-        <v>1126.2736102380745</v>
+        <v>2488.4031325578126</v>
+      </c>
+      <c r="G36">
+        <v>0.16141235508152457</v>
       </c>
       <c r="H36">
-        <v>139.0570551314251</v>
+        <v>2.5815018330985682</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
       <c r="J36">
-        <v>52601</v>
+        <v>47630</v>
       </c>
       <c r="K36">
-        <v>40.741199999999999</v>
+        <v>37.911099999999998</v>
       </c>
       <c r="L36">
-        <v>-91.116667000000007</v>
+        <v>-87.327500000000001</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1122</v>
+        <v>1073</v>
       </c>
       <c r="B37">
-        <v>250729</v>
+        <v>245567</v>
       </c>
       <c r="C37">
-        <v>209233470.48696238</v>
+        <v>203758068.09289023</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>144642505.35743999</v>
+        <v>19682213.496183638</v>
       </c>
       <c r="F37">
-        <v>834.50047855239075</v>
+        <v>829.74531632055709</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>576.88781655668072</v>
+        <v>80.150075116703945</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37">
-        <v>50010</v>
+        <v>52404</v>
       </c>
       <c r="K37">
-        <v>42.025799999999997</v>
+        <v>41.944038999999997</v>
       </c>
       <c r="L37">
-        <v>-93.608900000000006</v>
+        <v>-91.639167</v>
       </c>
       <c r="M37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1167</v>
+        <v>1091</v>
       </c>
       <c r="B38">
-        <v>750815</v>
+        <v>717925</v>
       </c>
       <c r="C38">
-        <v>1071185994.6574724</v>
+        <v>757604556.72355044</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>6962793.207994638</v>
+        <v>210506271.50434884</v>
       </c>
       <c r="F38">
-        <v>1426.6976480990288</v>
+        <v>1055.2697798844592</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>9.2736469143459281</v>
+        <v>293.21485044308088</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38">
-        <v>52761</v>
+        <v>51052</v>
       </c>
       <c r="K38">
-        <v>41.3917</v>
+        <v>42.299793999999999</v>
       </c>
       <c r="L38">
-        <v>-91.056899999999999</v>
+        <v>-96.361706999999996</v>
       </c>
       <c r="M38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1252</v>
+        <v>1104</v>
       </c>
       <c r="B39">
-        <v>384251</v>
+        <v>1081826</v>
       </c>
       <c r="C39">
-        <v>445278504.75586146</v>
+        <v>1235021651.2162621</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>48253173.448854558</v>
+        <v>120131976.16857277</v>
       </c>
       <c r="F39">
-        <v>1158.8219803093848</v>
+        <v>1141.6084021055717</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>125.57722282792903</v>
+        <v>111.04556201142584</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
       </c>
       <c r="J39">
-        <v>66542</v>
+        <v>52601</v>
       </c>
       <c r="K39">
-        <v>39.053899999999999</v>
+        <v>40.741199999999999</v>
       </c>
       <c r="L39">
-        <v>-95.568888999999999</v>
+        <v>-91.116667000000007</v>
       </c>
       <c r="M39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1353</v>
+        <v>1122</v>
       </c>
       <c r="B40">
-        <v>1245893</v>
+        <v>250729</v>
       </c>
       <c r="C40">
-        <v>6869043625.123291</v>
+        <v>212810980.56553876</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>837703239.33825016</v>
+        <v>142109041.81342679</v>
       </c>
       <c r="F40">
-        <v>5513.3495614176272</v>
+        <v>848.76891211442944</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>672.37173604655482</v>
+        <v>566.78342678121317</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40">
-        <v>41230</v>
+        <v>50010</v>
       </c>
       <c r="K40">
-        <v>38.170699999999997</v>
+        <v>42.025799999999997</v>
       </c>
       <c r="L40">
-        <v>-82.617599999999996</v>
+        <v>-93.608900000000006</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1355</v>
+        <v>1167</v>
       </c>
       <c r="B41">
-        <v>827980</v>
+        <v>750815</v>
       </c>
       <c r="C41">
-        <v>5729991978.6079082</v>
+        <v>1067240254.9639516</v>
       </c>
       <c r="D41">
-        <v>308405.71364815813</v>
+        <v>77264.92509570712</v>
       </c>
       <c r="E41">
-        <v>10683232.709778557</v>
+        <v>6257148.321538223</v>
       </c>
       <c r="F41">
-        <v>6920.4473279643335</v>
+        <v>1421.4423725737386</v>
       </c>
       <c r="G41">
-        <v>0.37247966575057145</v>
+        <v>0.1029080733545642</v>
       </c>
       <c r="H41">
-        <v>12.902766624530251</v>
+        <v>8.3338083569697243</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41">
-        <v>40330</v>
+        <v>52761</v>
       </c>
       <c r="K41">
-        <v>37.788310000000003</v>
+        <v>41.3917</v>
       </c>
       <c r="L41">
-        <v>-84.712569999999999</v>
+        <v>-91.056899999999999</v>
       </c>
       <c r="M41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1364</v>
+        <v>1252</v>
       </c>
       <c r="B42">
-        <v>2177256</v>
+        <v>384251</v>
       </c>
       <c r="C42">
-        <v>11317198653.203259</v>
+        <v>450352427.0063203</v>
       </c>
       <c r="D42">
-        <v>591692.07258807123</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>8730124.7591729704</v>
+        <v>42758639.960727632</v>
       </c>
       <c r="F42">
-        <v>5197.9182297365387</v>
+        <v>1172.026688300929</v>
       </c>
       <c r="G42">
-        <v>0.2717604510393225</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4.0096914461014093</v>
+        <v>111.2778885695226</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
       </c>
       <c r="J42">
-        <v>40272</v>
+        <v>66542</v>
       </c>
       <c r="K42">
-        <v>38.052500000000002</v>
+        <v>39.053899999999999</v>
       </c>
       <c r="L42">
-        <v>-85.910300000000007</v>
+        <v>-95.568888999999999</v>
       </c>
       <c r="M42" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="B43">
-        <v>2300225</v>
+        <v>1245893</v>
       </c>
       <c r="C43">
-        <v>24853341782.411163</v>
+        <v>7284538513.9928951</v>
       </c>
       <c r="D43">
-        <v>1331214.5355124227</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>47861704.482322343</v>
+        <v>587589524.27822614</v>
       </c>
       <c r="F43">
-        <v>10804.743789155915</v>
+        <v>5846.8411926167773</v>
       </c>
       <c r="G43">
-        <v>0.57873231336605024</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>20.807401224802941</v>
+        <v>471.62117796490247</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J43">
-        <v>42303</v>
+        <v>41230</v>
       </c>
       <c r="K43">
-        <v>37.794199999999996</v>
+        <v>38.170699999999997</v>
       </c>
       <c r="L43">
-        <v>-87.0608</v>
+        <v>-82.617599999999996</v>
       </c>
       <c r="M43" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1382</v>
+        <v>1355</v>
       </c>
       <c r="B44">
-        <v>1488285</v>
+        <v>827980</v>
       </c>
       <c r="C44">
-        <v>7546898230.5114403</v>
+        <v>5731504715.5161533</v>
       </c>
       <c r="D44">
-        <v>406410.43134602427</v>
+        <v>492744.7544703047</v>
       </c>
       <c r="E44">
-        <v>13072663.988330644</v>
+        <v>9888453.257332243</v>
       </c>
       <c r="F44">
-        <v>5070.8689736921624</v>
+        <v>6922.2743490376015</v>
       </c>
       <c r="G44">
-        <v>0.27307298759714993</v>
+        <v>0.59511673527175146</v>
       </c>
       <c r="H44">
-        <v>8.7837101014460579</v>
+        <v>11.942864872741179</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44">
-        <v>42452</v>
+        <v>40330</v>
       </c>
       <c r="K44">
-        <v>37.646900000000002</v>
+        <v>37.788310000000003</v>
       </c>
       <c r="L44">
-        <v>-87.502799999999993</v>
+        <v>-84.712569999999999</v>
       </c>
       <c r="M44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="B45">
-        <v>48329</v>
+        <v>2177256</v>
       </c>
       <c r="C45">
-        <v>176393038.35173696</v>
+        <v>10926224500.206062</v>
+      </c>
+      <c r="D45">
+        <v>653316.509638833</v>
       </c>
       <c r="E45">
-        <v>28499052.961971123</v>
+        <v>10127502.333417699</v>
       </c>
       <c r="F45">
-        <v>3649.8383651997137</v>
+        <v>5018.3462579531588</v>
+      </c>
+      <c r="G45">
+        <v>0.30006416775924971</v>
       </c>
       <c r="H45">
-        <v>589.68844714293948</v>
+        <v>4.6514981855223727</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45">
-        <v>40391</v>
+        <v>40272</v>
       </c>
       <c r="K45">
-        <v>37.880600000000001</v>
+        <v>38.052500000000002</v>
       </c>
       <c r="L45">
-        <v>-84.261899999999997</v>
+        <v>-85.910300000000007</v>
       </c>
       <c r="M45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1554</v>
+        <v>1374</v>
       </c>
       <c r="B46">
-        <v>1336530</v>
+        <v>2300225</v>
       </c>
       <c r="C46">
-        <v>2611721519.3241863</v>
+        <v>24716535630.921284</v>
+      </c>
+      <c r="D46">
+        <v>2204975.8664297718</v>
       </c>
       <c r="E46">
-        <v>364104164.88919008</v>
+        <v>45144680.598982617</v>
       </c>
       <c r="F46">
-        <v>1954.1061699506831</v>
+        <v>10745.268671943521</v>
+      </c>
+      <c r="G46">
+        <v>0.95859138407319788</v>
       </c>
       <c r="H46">
-        <v>272.42498476591629</v>
+        <v>19.626202045009776</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46">
-        <v>21226</v>
+        <v>42303</v>
       </c>
       <c r="K46">
-        <v>39.178100000000001</v>
+        <v>37.794199999999996</v>
       </c>
       <c r="L46">
-        <v>-76.526799999999994</v>
+        <v>-87.0608</v>
       </c>
       <c r="M46" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1573</v>
+        <v>1382</v>
       </c>
       <c r="B47">
-        <v>4238250</v>
+        <v>1488285</v>
       </c>
       <c r="C47">
-        <v>23588494151.957512</v>
+        <v>7474599313.6034164</v>
       </c>
       <c r="D47">
-        <v>1263487.7970551956</v>
+        <v>620861.23839134513</v>
       </c>
       <c r="E47">
-        <v>41456553.622950301</v>
+        <v>13048243.715049721</v>
       </c>
       <c r="F47">
-        <v>5565.6212238441603</v>
+        <v>5022.2902962829139</v>
       </c>
       <c r="G47">
-        <v>0.2981154478983532</v>
+        <v>0.41716555524737875</v>
       </c>
       <c r="H47">
-        <v>9.7815262485578476</v>
+        <v>8.7673017701916791</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47">
-        <v>20664</v>
+        <v>42452</v>
       </c>
       <c r="K47">
-        <v>38.359200000000001</v>
+        <v>37.646900000000002</v>
       </c>
       <c r="L47">
-        <v>-76.976699999999994</v>
+        <v>-87.502799999999993</v>
       </c>
       <c r="M47" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1695</v>
+        <v>1385</v>
       </c>
       <c r="B48">
-        <v>1825199</v>
+        <v>48329</v>
       </c>
       <c r="C48">
-        <v>1452848163.5803692</v>
+        <v>183747195.89415294</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>238203670.48760289</v>
+        <v>20786191.67263088</v>
       </c>
       <c r="F48">
-        <v>795.99438942294466</v>
+        <v>3802.0069915403365</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>130.50832840013771</v>
+        <v>430.09769853774918</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J48">
-        <v>49445</v>
+        <v>40391</v>
       </c>
       <c r="K48">
-        <v>43.258768000000003</v>
+        <v>37.880600000000001</v>
       </c>
       <c r="L48">
-        <v>-86.242267999999996</v>
+        <v>-84.261899999999997</v>
       </c>
       <c r="M48" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1710</v>
+        <v>1554</v>
       </c>
       <c r="B49">
-        <v>7101778</v>
+        <v>1336530</v>
       </c>
       <c r="C49">
-        <v>6640991260.8969269</v>
+        <v>2664608307.5506134</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1035510420.7218255</v>
+        <v>293214244.16337234</v>
       </c>
       <c r="F49">
-        <v>935.11670751985298</v>
+        <v>1993.6763915143044</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>145.81002401396177</v>
+        <v>219.38470828441734</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J49">
-        <v>49460</v>
+        <v>21226</v>
       </c>
       <c r="K49">
-        <v>42.910296000000002</v>
+        <v>39.178100000000001</v>
       </c>
       <c r="L49">
-        <v>-86.200739999999996</v>
+        <v>-76.526799999999994</v>
       </c>
       <c r="M49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1720</v>
+        <v>1573</v>
       </c>
       <c r="B50">
-        <v>992174</v>
+        <v>4238250</v>
       </c>
       <c r="C50">
-        <v>1262441723.3042908</v>
+        <v>23262842526.001053</v>
+      </c>
+      <c r="D50">
+        <v>1919265.1514900667</v>
       </c>
       <c r="E50">
-        <v>145994069.66887155</v>
+        <v>40072892.269888923</v>
       </c>
       <c r="F50">
-        <v>1272.3995219631747</v>
+        <v>5488.7848819680421</v>
+      </c>
+      <c r="G50">
+        <v>0.45284378021354721</v>
       </c>
       <c r="H50">
-        <v>147.14563138005184</v>
+        <v>9.4550562779187004</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J50">
-        <v>48732</v>
+        <v>20664</v>
       </c>
       <c r="K50">
-        <v>43.639927</v>
+        <v>38.359200000000001</v>
       </c>
       <c r="L50">
-        <v>-83.844712000000001</v>
+        <v>-76.976699999999994</v>
       </c>
       <c r="M50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1723</v>
+        <v>1695</v>
       </c>
       <c r="B51">
-        <v>1769518</v>
+        <v>1825199</v>
       </c>
       <c r="C51">
-        <v>1924911193.9643822</v>
+        <v>1536159482.069401</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>374315169.42319262</v>
+        <v>179852563.78947508</v>
       </c>
       <c r="F51">
-        <v>1087.8166788720896</v>
+        <v>841.63944976377979</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>211.53510132318098</v>
+        <v>98.538605264124669</v>
       </c>
       <c r="I51" t="s">
         <v>23</v>
       </c>
       <c r="J51">
-        <v>48133</v>
+        <v>49445</v>
       </c>
       <c r="K51">
-        <v>41.792113999999998</v>
+        <v>43.258768000000003</v>
       </c>
       <c r="L51">
-        <v>-83.449479999999994</v>
+        <v>-86.242267999999996</v>
       </c>
       <c r="M51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="B52">
-        <v>16149545</v>
+        <v>7101778</v>
       </c>
       <c r="C52">
-        <v>41323369052.987656</v>
+        <v>6977245259.9996481</v>
       </c>
       <c r="D52">
-        <v>2223614.6916434523</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>81742873.504515424</v>
+        <v>764423729.64515257</v>
       </c>
       <c r="F52">
-        <v>2558.7946318603808</v>
+        <v>982.46456873189334</v>
       </c>
       <c r="G52">
-        <v>0.13768899938936063</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>5.0616208385137433</v>
+        <v>107.63835896379084</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
       </c>
       <c r="J52">
-        <v>48161</v>
+        <v>49460</v>
       </c>
       <c r="K52">
-        <v>41.890599999999999</v>
+        <v>42.910296000000002</v>
       </c>
       <c r="L52">
-        <v>-83.346400000000003</v>
+        <v>-86.200739999999996</v>
       </c>
       <c r="M52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="B53">
-        <v>1806150</v>
+        <v>992174</v>
       </c>
       <c r="C53">
-        <v>3490156013.5056229</v>
+        <v>1406395429.0692234</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>629798549.12257349</v>
+        <v>121905996.36264944</v>
       </c>
       <c r="F53">
-        <v>1932.3732876591773</v>
+        <v>1417.4886956009968</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>348.69670244585086</v>
+        <v>122.86755787054432</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
       </c>
       <c r="J53">
-        <v>48218</v>
+        <v>48732</v>
       </c>
       <c r="K53">
-        <v>42.273899999999998</v>
+        <v>43.639927</v>
       </c>
       <c r="L53">
-        <v>-83.111900000000006</v>
+        <v>-83.844712000000001</v>
       </c>
       <c r="M53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1743</v>
+        <v>1723</v>
       </c>
       <c r="B54">
-        <v>5446539</v>
+        <v>1769518</v>
       </c>
       <c r="C54">
-        <v>33243273010.595436</v>
+        <v>2013159396.9882984</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>6570449177.0224743</v>
+        <v>284948924.25902259</v>
       </c>
       <c r="F54">
-        <v>6103.559161257348</v>
+        <v>1137.6880014717558</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1206.353094510564</v>
+        <v>161.0319444385548</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
       </c>
       <c r="J54">
-        <v>48054</v>
+        <v>48133</v>
       </c>
       <c r="K54">
-        <v>42.764200000000002</v>
+        <v>41.792113999999998</v>
       </c>
       <c r="L54">
-        <v>-82.471900000000005</v>
+        <v>-83.449479999999994</v>
       </c>
       <c r="M54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="B55">
-        <v>2101351</v>
+        <v>16149545</v>
       </c>
       <c r="C55">
-        <v>3870491746.6758318</v>
+        <v>41491232670.091644</v>
+      </c>
+      <c r="D55">
+        <v>4346885.4054082576</v>
       </c>
       <c r="E55">
-        <v>458979752.53187871</v>
+        <v>109040797.09108296</v>
       </c>
       <c r="F55">
-        <v>1841.9063481902031</v>
+        <v>2569.1889567224116</v>
+      </c>
+      <c r="G55">
+        <v>0.26916457432133578</v>
       </c>
       <c r="H55">
-        <v>218.42126923673325</v>
+        <v>6.7519423668643892</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
       </c>
       <c r="J55">
-        <v>48183</v>
+        <v>48161</v>
       </c>
       <c r="K55">
-        <v>42.121699999999997</v>
+        <v>41.890599999999999</v>
       </c>
       <c r="L55">
-        <v>-83.180800000000005</v>
+        <v>-83.346400000000003</v>
       </c>
       <c r="M55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1825</v>
+        <v>1740</v>
       </c>
       <c r="B56">
-        <v>205407</v>
+        <v>1806150</v>
       </c>
       <c r="C56">
-        <v>335427299.71135944</v>
+        <v>3665270793.8005743</v>
       </c>
       <c r="D56">
-        <v>20843.380496407706</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>491415.29596222768</v>
+        <v>446660371.97117949</v>
       </c>
       <c r="F56">
-        <v>1632.9886503934113</v>
+        <v>2029.3280147277769</v>
       </c>
       <c r="G56">
-        <v>0.10147356466141712</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>2.3923979998842673</v>
+        <v>247.29971041783875</v>
       </c>
       <c r="I56" t="s">
         <v>23</v>
       </c>
       <c r="J56">
-        <v>49417</v>
+        <v>48218</v>
       </c>
       <c r="K56">
-        <v>43.070599999999999</v>
+        <v>42.273899999999998</v>
       </c>
       <c r="L56">
-        <v>-86.234999999999999</v>
+        <v>-83.111900000000006</v>
       </c>
       <c r="M56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1831</v>
+        <v>1743</v>
       </c>
       <c r="B57">
-        <v>500876</v>
+        <v>5446539</v>
       </c>
       <c r="C57">
-        <v>592479094.42275906</v>
+        <v>35760458648.719818</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>114915277.84759404</v>
+        <v>5083690726.6233463</v>
       </c>
       <c r="F57">
-        <v>1182.8857729712722</v>
+        <v>6565.7215800198655</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>229.42859679360566</v>
+        <v>933.38002842233323</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
       </c>
       <c r="J57">
-        <v>48910</v>
+        <v>48054</v>
       </c>
       <c r="K57">
-        <v>42.718389999999999</v>
+        <v>42.764200000000002</v>
       </c>
       <c r="L57">
-        <v>-84.558080000000004</v>
+        <v>-82.471900000000005</v>
       </c>
       <c r="M57" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1832</v>
+        <v>1745</v>
       </c>
       <c r="B58">
-        <v>869762</v>
+        <v>2101351</v>
       </c>
       <c r="C58">
-        <v>999089425.28417861</v>
+        <v>4142825311.85185</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>104564320.34400003</v>
+        <v>340563942.02366662</v>
       </c>
       <c r="F58">
-        <v>1148.6928898758265</v>
+        <v>1971.5056227407272</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>120.22176221081172</v>
+        <v>162.0690413089801</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
       </c>
       <c r="J58">
-        <v>48917</v>
+        <v>48183</v>
       </c>
       <c r="K58">
-        <v>42.692222000000001</v>
+        <v>42.121699999999997</v>
       </c>
       <c r="L58">
-        <v>-84.657222000000004</v>
+        <v>-83.180800000000005</v>
       </c>
       <c r="M58" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1943</v>
+        <v>1825</v>
       </c>
       <c r="B59">
-        <v>296202</v>
+        <v>205407</v>
       </c>
       <c r="C59">
-        <v>242098857.04692</v>
+        <v>330666585.89536315</v>
+      </c>
+      <c r="D59">
+        <v>27331.60574730705</v>
       </c>
       <c r="E59">
-        <v>36368069.793191999</v>
+        <v>512997.13194747537</v>
       </c>
       <c r="F59">
-        <v>817.34376218567058</v>
+        <v>1609.8116709526118</v>
+      </c>
+      <c r="G59">
+        <v>0.13306073185094497</v>
       </c>
       <c r="H59">
-        <v>122.78131070415459</v>
+        <v>2.4974666488847768</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J59">
-        <v>56537</v>
+        <v>49417</v>
       </c>
       <c r="K59">
-        <v>46.290641000000001</v>
+        <v>43.070599999999999</v>
       </c>
       <c r="L59">
-        <v>-96.043251999999995</v>
+        <v>-86.234999999999999</v>
       </c>
       <c r="M59" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2049</v>
+        <v>1831</v>
       </c>
       <c r="B60">
-        <v>1615868</v>
+        <v>500876</v>
       </c>
       <c r="C60">
-        <v>1379079582.1570895</v>
+        <v>615693395.89841795</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>271344968.69019115</v>
+        <v>87907371.707840189</v>
       </c>
       <c r="F60">
-        <v>853.46054390401287</v>
+        <v>1229.2331752737564</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>167.92520718907184</v>
+        <v>175.50725470543645</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J60">
-        <v>39501</v>
+        <v>48910</v>
       </c>
       <c r="K60">
-        <v>30.4392</v>
+        <v>42.718389999999999</v>
       </c>
       <c r="L60">
-        <v>-89.028599999999997</v>
+        <v>-84.558080000000004</v>
       </c>
       <c r="M60" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2080</v>
+        <v>1832</v>
       </c>
       <c r="B61">
-        <v>1420063</v>
+        <v>869762</v>
       </c>
       <c r="C61">
-        <v>1657651426.6561434</v>
+        <v>999089425.28417861</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>320464621.5114491</v>
+        <v>94201996.197909668</v>
       </c>
       <c r="F61">
-        <v>1167.3083705836596</v>
+        <v>1148.6928898758265</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>225.66929883494541</v>
+        <v>108.30778557572033</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J61">
-        <v>64735</v>
+        <v>48917</v>
       </c>
       <c r="K61">
-        <v>38.311399999999999</v>
+        <v>42.692222000000001</v>
       </c>
       <c r="L61">
-        <v>-93.934799999999996</v>
+        <v>-84.657222000000004</v>
       </c>
       <c r="M61" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2094</v>
+        <v>1943</v>
       </c>
       <c r="B62">
-        <v>2037047</v>
+        <v>296202</v>
       </c>
       <c r="C62">
-        <v>1792791688.2216315</v>
+        <v>252048722.42043003</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>249104741.49709928</v>
+        <v>28850403.91887825</v>
       </c>
       <c r="F62">
-        <v>880.09343339728116</v>
+        <v>850.93524831172658</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>122.28718409398472</v>
+        <v>97.401111129831165</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J62">
-        <v>64088</v>
+        <v>56537</v>
       </c>
       <c r="K62">
-        <v>39.178319000000002</v>
+        <v>46.290641000000001</v>
       </c>
       <c r="L62">
-        <v>-94.184444999999997</v>
+        <v>-96.043251999999995</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2098</v>
+        <v>2049</v>
       </c>
       <c r="B63">
-        <v>233500</v>
+        <v>1615868</v>
       </c>
       <c r="C63">
-        <v>108642531.42007363</v>
+        <v>1455107490.9141955</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>13491556.189420912</v>
+        <v>199432094.44696307</v>
       </c>
       <c r="F63">
-        <v>465.27850715234956</v>
+        <v>900.51136040456004</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>57.779683894736245</v>
+        <v>123.42103095485712</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J63">
-        <v>64504</v>
+        <v>39501</v>
       </c>
       <c r="K63">
-        <v>39.724600000000002</v>
+        <v>30.4392</v>
       </c>
       <c r="L63">
-        <v>-94.877300000000005</v>
+        <v>-89.028599999999997</v>
       </c>
       <c r="M63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2103</v>
+        <v>2080</v>
       </c>
       <c r="B64">
-        <v>16042082</v>
+        <v>1420063</v>
       </c>
       <c r="C64">
-        <v>16593312563.508049</v>
+        <v>1679226595.3390548</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>3308273876.0329723</v>
+        <v>237148675.24977505</v>
       </c>
       <c r="F64">
-        <v>1034.3615350867829</v>
+        <v>1182.5014772859054</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>206.22472045916311</v>
+        <v>166.99870023356362</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
       </c>
       <c r="J64">
-        <v>63055</v>
+        <v>64735</v>
       </c>
       <c r="K64">
-        <v>38.562244</v>
+        <v>38.311399999999999</v>
       </c>
       <c r="L64">
-        <v>-90.837686000000005</v>
+        <v>-93.934799999999996</v>
       </c>
       <c r="M64" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2104</v>
+        <v>2094</v>
       </c>
       <c r="B65">
-        <v>2119428</v>
+        <v>2037047</v>
       </c>
       <c r="C65">
-        <v>2387037998.0693507</v>
+        <v>1937134954.9186149</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>454876547.31497413</v>
+        <v>189852327.07922351</v>
       </c>
       <c r="F65">
-        <v>1126.2651989448809</v>
+        <v>950.95250866505035</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>214.62231664155337</v>
+        <v>93.199777461798135</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
       </c>
       <c r="J65">
-        <v>63129</v>
+        <v>64088</v>
       </c>
       <c r="K65">
-        <v>38.401699999999998</v>
+        <v>39.178319000000002</v>
       </c>
       <c r="L65">
-        <v>-90.335800000000006</v>
+        <v>-94.184444999999997</v>
       </c>
       <c r="M65" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="B66">
-        <v>4495381</v>
+        <v>233500</v>
       </c>
       <c r="C66">
-        <v>8498466398.8455076</v>
+        <v>118348616.48992199</v>
       </c>
       <c r="D66">
-        <v>455150.65394512261</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>14942248.839058546</v>
+        <v>11187095.552819559</v>
       </c>
       <c r="F66">
-        <v>1890.488570122423</v>
+        <v>506.84632329731045</v>
       </c>
       <c r="G66">
-        <v>0.1012485157420745</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>3.3239115525599603</v>
+        <v>47.910473459612675</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
       </c>
       <c r="J66">
-        <v>63386</v>
+        <v>64504</v>
       </c>
       <c r="K66">
-        <v>38.915478999999998</v>
+        <v>39.724600000000002</v>
       </c>
       <c r="L66">
-        <v>-90.290246999999994</v>
+        <v>-94.877300000000005</v>
       </c>
       <c r="M66" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2161</v>
+        <v>2103</v>
       </c>
       <c r="B67">
-        <v>856</v>
+        <v>16042082</v>
       </c>
       <c r="C67">
+        <v>16606907182.92445</v>
+      </c>
+      <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2481065049.0294352</v>
       </c>
       <c r="F67">
+        <v>1035.2089699407129</v>
+      </c>
+      <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>154.65979098158428</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
       </c>
       <c r="J67">
-        <v>65804</v>
+        <v>63055</v>
       </c>
       <c r="K67">
-        <v>37.108611000000003</v>
+        <v>38.562244</v>
       </c>
       <c r="L67">
-        <v>-93.261944</v>
+        <v>-90.837686000000005</v>
       </c>
       <c r="M67" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2167</v>
+        <v>2104</v>
       </c>
       <c r="B68">
-        <v>6594728</v>
+        <v>2119428</v>
       </c>
       <c r="C68">
-        <v>6853213794.7086449</v>
+        <v>2427928211.3508844</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1165054944.7202663</v>
+        <v>352952360.6665749</v>
       </c>
       <c r="F68">
-        <v>1039.1958234985043</v>
+        <v>1145.5582408795603</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>176.66459400907306</v>
+        <v>166.53189476904848</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
       </c>
       <c r="J68">
-        <v>63869</v>
+        <v>63129</v>
       </c>
       <c r="K68">
-        <v>36.514699999999998</v>
+        <v>38.401699999999998</v>
       </c>
       <c r="L68">
-        <v>-89.561700000000002</v>
+        <v>-90.335800000000006</v>
       </c>
       <c r="M68" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2168</v>
+        <v>2107</v>
       </c>
       <c r="B69">
-        <v>7672769</v>
+        <v>4495381</v>
       </c>
       <c r="C69">
-        <v>8027033799.419981</v>
+        <v>8594388485.1356544</v>
+      </c>
+      <c r="D69">
+        <v>755617.32830290217</v>
       </c>
       <c r="E69">
-        <v>1433370570.4947736</v>
+        <v>15655249.15408593</v>
       </c>
       <c r="F69">
-        <v>1046.1717014313842</v>
+        <v>1911.8264914888537</v>
+      </c>
+      <c r="G69">
+        <v>0.16808749431981457</v>
       </c>
       <c r="H69">
-        <v>186.8126839860256</v>
+        <v>3.4825188686088966</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
       </c>
       <c r="J69">
-        <v>65244</v>
+        <v>63386</v>
       </c>
       <c r="K69">
-        <v>39.552199999999999</v>
+        <v>38.915478999999998</v>
       </c>
       <c r="L69">
-        <v>-92.638099999999994</v>
+        <v>-90.290246999999994</v>
       </c>
       <c r="M69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2240</v>
+        <v>2161</v>
       </c>
       <c r="B70">
-        <v>306727</v>
+        <v>856</v>
       </c>
       <c r="C70">
-        <v>148460082.78541085</v>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>137040076.41730234</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>484.0137411620459</v>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>446.78191491881165</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J70">
-        <v>68025</v>
+        <v>65804</v>
       </c>
       <c r="K70">
-        <v>41.428100000000001</v>
+        <v>37.108611000000003</v>
       </c>
       <c r="L70">
-        <v>-96.462299999999999</v>
+        <v>-93.261944</v>
       </c>
       <c r="M70" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2291</v>
+        <v>2167</v>
       </c>
       <c r="B71">
-        <v>3095082</v>
+        <v>6594728</v>
       </c>
       <c r="C71">
-        <v>3620155522.1083002</v>
+        <v>7014177635.0173931</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>740855393.14294648</v>
+        <v>880079746.41488171</v>
       </c>
       <c r="F71">
-        <v>1169.6476933755876</v>
+        <v>1063.6037809318887</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>239.36535224040796</v>
+        <v>133.45201597622855</v>
       </c>
       <c r="I71" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J71">
-        <v>68112</v>
+        <v>63869</v>
       </c>
       <c r="K71">
-        <v>41.329090000000001</v>
+        <v>36.514699999999998</v>
       </c>
       <c r="L71">
-        <v>-95.944659999999999</v>
+        <v>-89.561700000000002</v>
       </c>
       <c r="M71" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2378</v>
+        <v>2168</v>
       </c>
       <c r="B72">
-        <v>134547</v>
+        <v>7672769</v>
       </c>
       <c r="C72">
-        <v>734105918.78363085</v>
+        <v>8055190700.6698856</v>
       </c>
       <c r="D72">
-        <v>40201.684324322523</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>850028.29028394958</v>
+        <v>1079677971.0510817</v>
       </c>
       <c r="F72">
-        <v>5456.1299678449232</v>
+        <v>1049.8414197885909</v>
       </c>
       <c r="G72">
-        <v>0.29879287033023794</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>6.3177052649553653</v>
+        <v>140.71555797536479</v>
       </c>
       <c r="I72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J72">
-        <v>8223</v>
+        <v>65244</v>
       </c>
       <c r="K72">
-        <v>39.290799999999997</v>
+        <v>39.552199999999999</v>
       </c>
       <c r="L72">
-        <v>-74.636399999999995</v>
+        <v>-92.638099999999994</v>
       </c>
       <c r="M72" t="s">
         <v>55</v>
@@ -3217,2210 +3511,2336 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2535</v>
+        <v>2240</v>
       </c>
       <c r="B73">
-        <v>531521</v>
+        <v>306727</v>
       </c>
       <c r="C73">
-        <v>3090617833.4185128</v>
+        <v>150729490.25008398</v>
       </c>
       <c r="D73">
-        <v>167427.12120602158</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>5440037.6823242381</v>
+        <v>139134914.07700062</v>
       </c>
       <c r="F73">
-        <v>5814.6674043330604</v>
+        <v>491.41252726393174</v>
       </c>
       <c r="G73">
-        <v>0.31499624888954825</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>10.234849953857399</v>
+        <v>453.61156362824471</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J73">
-        <v>14882</v>
+        <v>68025</v>
       </c>
       <c r="K73">
-        <v>42.602800000000002</v>
+        <v>41.428100000000001</v>
       </c>
       <c r="L73">
-        <v>-76.633600000000001</v>
+        <v>-96.462299999999999</v>
       </c>
       <c r="M73" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2706</v>
+        <v>2291</v>
       </c>
       <c r="B74">
-        <v>1438500</v>
+        <v>3095082</v>
       </c>
       <c r="C74">
-        <v>9487808336.2581596</v>
+        <v>3667569239.988409</v>
       </c>
       <c r="D74">
-        <v>514924.05627434654</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>17651246.005232722</v>
+        <v>548293311.21516562</v>
       </c>
       <c r="F74">
-        <v>6595.6262330609388</v>
+        <v>1184.9667440114381</v>
       </c>
       <c r="G74">
-        <v>0.35795902417403302</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>12.270591592097826</v>
+        <v>177.1498497342447</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J74">
-        <v>28704</v>
+        <v>68112</v>
       </c>
       <c r="K74">
-        <v>35.473100000000002</v>
+        <v>41.329090000000001</v>
       </c>
       <c r="L74">
-        <v>-82.541700000000006</v>
+        <v>-95.944659999999999</v>
       </c>
       <c r="M74" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2712</v>
+        <v>2378</v>
       </c>
       <c r="B75">
-        <v>4871389</v>
+        <v>134547</v>
       </c>
       <c r="C75">
-        <v>24565420776.181534</v>
+        <v>724691596.38477933</v>
       </c>
       <c r="D75">
-        <v>1311959.4437370128</v>
+        <v>46933.899137096858</v>
       </c>
       <c r="E75">
-        <v>44147585.836821184</v>
+        <v>798943.48129002505</v>
       </c>
       <c r="F75">
-        <v>5042.795961517656</v>
+        <v>5386.1594564336574</v>
       </c>
       <c r="G75">
-        <v>0.26931937559020902</v>
+        <v>0.34882902730716298</v>
       </c>
       <c r="H75">
-        <v>9.0626278945945771</v>
+        <v>5.9380252349738383</v>
       </c>
       <c r="I75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J75">
-        <v>27573</v>
+        <v>8223</v>
       </c>
       <c r="K75">
-        <v>36.4833</v>
+        <v>39.290799999999997</v>
       </c>
       <c r="L75">
-        <v>-79.073099999999997</v>
+        <v>-74.636399999999995</v>
       </c>
       <c r="M75" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2718</v>
+        <v>2535</v>
       </c>
       <c r="B76">
-        <v>1656996</v>
+        <v>531521</v>
       </c>
       <c r="C76">
-        <v>8644975135.1264191</v>
+        <v>3076027864.5210338</v>
       </c>
       <c r="D76">
-        <v>466722.13124276488</v>
+        <v>255660.45947527117</v>
       </c>
       <c r="E76">
-        <v>17458157.455905475</v>
+        <v>5259493.391712782</v>
       </c>
       <c r="F76">
-        <v>5217.2576971377221</v>
+        <v>5787.2179359254551</v>
       </c>
       <c r="G76">
-        <v>0.28166762698447367</v>
+        <v>0.48099785234312692</v>
       </c>
       <c r="H76">
-        <v>10.536028726626663</v>
+        <v>9.8951751515232367</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J76">
-        <v>28012</v>
+        <v>14882</v>
       </c>
       <c r="K76">
-        <v>35.189700000000002</v>
+        <v>42.602800000000002</v>
       </c>
       <c r="L76">
-        <v>-81.012200000000007</v>
+        <v>-76.633600000000001</v>
       </c>
       <c r="M76" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2721</v>
+        <v>2706</v>
       </c>
       <c r="B77">
-        <v>967351</v>
+        <v>1438500</v>
       </c>
       <c r="C77">
-        <v>6558933080.8941069</v>
+        <v>9569102447.7911644</v>
       </c>
       <c r="D77">
-        <v>351611.49830091372</v>
+        <v>903800.45642015862</v>
       </c>
       <c r="E77">
-        <v>4080397.1592935342</v>
+        <v>18453994.586155385</v>
       </c>
       <c r="F77">
-        <v>6780.3032000733001</v>
+        <v>6652.1393450060232</v>
       </c>
       <c r="G77">
-        <v>0.36347871486245809</v>
+        <v>0.62829367842902928</v>
       </c>
       <c r="H77">
-        <v>4.2181143755405586</v>
+        <v>12.828637181894603</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
       </c>
       <c r="J77">
-        <v>28024</v>
+        <v>28704</v>
       </c>
       <c r="K77">
-        <v>35.22</v>
+        <v>35.473100000000002</v>
       </c>
       <c r="L77">
-        <v>-81.759399999999999</v>
+        <v>-82.541700000000006</v>
       </c>
       <c r="M77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2727</v>
+        <v>2712</v>
       </c>
       <c r="B78">
-        <v>7658910</v>
+        <v>4871389</v>
       </c>
       <c r="C78">
-        <v>34544595359.319397</v>
+        <v>24791356550.97422</v>
       </c>
       <c r="D78">
-        <v>1875371.0734675978</v>
+        <v>1957086.468507237</v>
       </c>
       <c r="E78">
-        <v>71281092.829448938</v>
+        <v>41627341.950210556</v>
       </c>
       <c r="F78">
-        <v>4510.3801140527039</v>
+        <v>5089.1761160880851</v>
       </c>
       <c r="G78">
-        <v>0.24486135409184834</v>
+        <v>0.40175121890434884</v>
       </c>
       <c r="H78">
-        <v>9.306950052872919</v>
+        <v>8.5452715745366596</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
       </c>
       <c r="J78">
-        <v>28682</v>
+        <v>27573</v>
       </c>
       <c r="K78">
-        <v>35.597499999999997</v>
+        <v>36.4833</v>
       </c>
       <c r="L78">
-        <v>-80.965800000000002</v>
+        <v>-79.073099999999997</v>
       </c>
       <c r="M78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2790</v>
+        <v>2718</v>
       </c>
       <c r="B79">
-        <v>500630</v>
+        <v>1656996</v>
       </c>
       <c r="C79">
-        <v>2635422020.5322065</v>
+        <v>8568201282.4145031</v>
+      </c>
+      <c r="D79">
+        <v>952597.59340436116</v>
       </c>
       <c r="E79">
-        <v>365982394.75107121</v>
+        <v>24663995.879340224</v>
       </c>
       <c r="F79">
-        <v>5264.2111350342702</v>
+        <v>5170.9245420112675</v>
+      </c>
+      <c r="G79">
+        <v>0.57489432286158881</v>
       </c>
       <c r="H79">
-        <v>731.04367447230732</v>
+        <v>14.884764887386705</v>
       </c>
       <c r="I79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J79">
-        <v>58554</v>
+        <v>28012</v>
       </c>
       <c r="K79">
-        <v>46.866900000000001</v>
+        <v>35.189700000000002</v>
       </c>
       <c r="L79">
-        <v>-100.8836</v>
+        <v>-81.012200000000007</v>
       </c>
       <c r="M79" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2817</v>
+        <v>2721</v>
       </c>
       <c r="B80">
-        <v>3581670</v>
+        <v>967351</v>
       </c>
       <c r="C80">
-        <v>20654862044.130875</v>
+        <v>6589027218.211895</v>
       </c>
       <c r="D80">
-        <v>1088947.4190375598</v>
+        <v>387315.12793148926</v>
       </c>
       <c r="E80">
-        <v>34228093.86286816</v>
+        <v>7027618.9124254249</v>
       </c>
       <c r="F80">
-        <v>5766.8244266308393</v>
+        <v>6811.4130426410829</v>
       </c>
       <c r="G80">
-        <v>0.30403343106359876</v>
+        <v>0.40038737534926755</v>
       </c>
       <c r="H80">
-        <v>9.5564621706824369</v>
+        <v>7.2648076162896658</v>
       </c>
       <c r="I80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J80">
-        <v>58571</v>
+        <v>28024</v>
       </c>
       <c r="K80">
-        <v>47.280768999999999</v>
+        <v>35.22</v>
       </c>
       <c r="L80">
-        <v>-101.321213</v>
+        <v>-81.759399999999999</v>
       </c>
       <c r="M80" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2823</v>
+        <v>2727</v>
       </c>
       <c r="B81">
-        <v>4902363</v>
+        <v>7658910</v>
       </c>
       <c r="C81">
-        <v>38504882448.305428</v>
+        <v>34628749694.624512</v>
       </c>
       <c r="D81">
-        <v>1943223.2736284421</v>
+        <v>3726058.4319256032</v>
       </c>
       <c r="E81">
-        <v>59950586.986435667</v>
+        <v>91910505.170392543</v>
       </c>
       <c r="F81">
-        <v>7854.3515542005816</v>
+        <v>4521.3678832398491</v>
       </c>
       <c r="G81">
-        <v>0.39638502363624278</v>
+        <v>0.48649983247297635</v>
       </c>
       <c r="H81">
-        <v>12.228916338189494</v>
+        <v>12.000468104520426</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J81">
-        <v>58530</v>
+        <v>28682</v>
       </c>
       <c r="K81">
-        <v>47.065854000000002</v>
+        <v>35.597499999999997</v>
       </c>
       <c r="L81">
-        <v>-101.213093</v>
+        <v>-80.965800000000002</v>
       </c>
       <c r="M81" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2828</v>
+        <v>2790</v>
       </c>
       <c r="B82">
-        <v>6114392</v>
+        <v>500630</v>
       </c>
       <c r="C82">
-        <v>31635494237.889412</v>
+        <v>2741164945.7724667</v>
       </c>
       <c r="D82">
-        <v>1721292.5851834579</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>60693204.517227612</v>
+        <v>283603303.07665217</v>
       </c>
       <c r="F82">
-        <v>5173.9394919215865</v>
+        <v>5475.4308486756017</v>
       </c>
       <c r="G82">
-        <v>0.28151492170987041</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>9.9262861323296931</v>
+        <v>566.49282519356041</v>
       </c>
       <c r="I82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J82">
-        <v>43913</v>
+        <v>58554</v>
       </c>
       <c r="K82">
-        <v>40.252200000000002</v>
+        <v>46.866900000000001</v>
       </c>
       <c r="L82">
-        <v>-80.648600000000002</v>
+        <v>-100.8836</v>
       </c>
       <c r="M82" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2832</v>
+        <v>2817</v>
       </c>
       <c r="B83">
-        <v>6233147</v>
+        <v>3581670</v>
       </c>
       <c r="C83">
-        <v>26367415818.41082</v>
+        <v>20757942671.24279</v>
       </c>
       <c r="D83">
-        <v>1428098.6672663814</v>
+        <v>1611603.6171635389</v>
       </c>
       <c r="E83">
-        <v>52680920.29199706</v>
+        <v>33293629.346645191</v>
       </c>
       <c r="F83">
-        <v>4230.19316220375</v>
+        <v>5795.6044725624615</v>
       </c>
       <c r="G83">
-        <v>0.22911358696760745</v>
+        <v>0.44995871120553788</v>
       </c>
       <c r="H83">
-        <v>8.4517371870095577</v>
+        <v>9.2955602684348886</v>
       </c>
       <c r="I83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J83">
-        <v>45100</v>
+        <v>58571</v>
       </c>
       <c r="K83">
-        <v>39.1128</v>
+        <v>47.280768999999999</v>
       </c>
       <c r="L83">
-        <v>-84.803600000000003</v>
+        <v>-101.321213</v>
       </c>
       <c r="M83" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2836</v>
+        <v>2823</v>
       </c>
       <c r="B84">
-        <v>2753681</v>
+        <v>4902363</v>
       </c>
       <c r="C84">
-        <v>11437396970.378136</v>
+        <v>37812385867.834686</v>
+      </c>
+      <c r="D84">
+        <v>2810037.1488264212</v>
       </c>
       <c r="E84">
-        <v>1300314039.863884</v>
+        <v>59150291.883191548</v>
       </c>
       <c r="F84">
-        <v>4153.4938035226796</v>
+        <v>7713.0938422623312</v>
+      </c>
+      <c r="G84">
+        <v>0.57320054610938054</v>
       </c>
       <c r="H84">
-        <v>472.20939530173752</v>
+        <v>12.065669531854649</v>
       </c>
       <c r="I84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J84">
-        <v>44012</v>
+        <v>58530</v>
       </c>
       <c r="K84">
-        <v>41.504452999999998</v>
+        <v>47.065854000000002</v>
       </c>
       <c r="L84">
-        <v>-82.054619000000002</v>
+        <v>-101.213093</v>
       </c>
       <c r="M84" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2840</v>
+        <v>2828</v>
       </c>
       <c r="B85">
-        <v>5168266</v>
+        <v>8835500</v>
       </c>
       <c r="C85">
-        <v>17881642194.368938</v>
+        <v>46985045291.046921</v>
       </c>
       <c r="D85">
-        <v>944491.10491384612</v>
+        <v>9816114.5003988221</v>
       </c>
       <c r="E85">
-        <v>31176434.861021161</v>
+        <v>262191113.20282036</v>
       </c>
       <c r="F85">
-        <v>3459.8920013731758</v>
+        <v>5317.7573754792511</v>
       </c>
       <c r="G85">
-        <v>0.18274816058497106</v>
+        <v>1.1109857393920912</v>
       </c>
       <c r="H85">
-        <v>6.0322813998004676</v>
+        <v>29.674734107047748</v>
       </c>
       <c r="I85" t="s">
         <v>31</v>
       </c>
       <c r="J85">
-        <v>43811</v>
+        <v>43913</v>
       </c>
       <c r="K85">
-        <v>40.184199999999997</v>
+        <v>40.252200000000002</v>
       </c>
       <c r="L85">
-        <v>-81.881100000000004</v>
+        <v>-80.648600000000002</v>
       </c>
       <c r="M85" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2850</v>
+        <v>2832</v>
       </c>
       <c r="B86">
-        <v>9849064</v>
+        <v>6233147</v>
       </c>
       <c r="C86">
-        <v>52822821282.466522</v>
+        <v>26105485457.446541</v>
       </c>
       <c r="D86">
-        <v>2847115.6997426669</v>
+        <v>2261583.8807222852</v>
       </c>
       <c r="E86">
-        <v>100631847.85891131</v>
+        <v>45765243.326930955</v>
       </c>
       <c r="F86">
-        <v>5363.2326160604216</v>
+        <v>4188.1709925093273</v>
       </c>
       <c r="G86">
-        <v>0.28907474859973159</v>
+        <v>0.36283178957953099</v>
       </c>
       <c r="H86">
-        <v>10.217402167242625</v>
+        <v>7.3422371278795371</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
       </c>
       <c r="J86">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="K86">
-        <v>38.636099999999999</v>
+        <v>39.1128</v>
       </c>
       <c r="L86">
-        <v>-83.693899999999999</v>
+        <v>-84.803600000000003</v>
       </c>
       <c r="M86" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2866</v>
+        <v>2836</v>
       </c>
       <c r="B87">
-        <v>6246911</v>
+        <v>2753681</v>
       </c>
       <c r="C87">
-        <v>30425784094.951523</v>
+        <v>12003612547.581455</v>
       </c>
       <c r="D87">
-        <v>1633182.2256828856</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>60063231.836836092</v>
+        <v>1064042734.5347054</v>
       </c>
       <c r="F87">
-        <v>4870.5326672577094</v>
+        <v>4359.1151435411193</v>
       </c>
       <c r="G87">
-        <v>0.26143836940895837</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>9.6148691468208991</v>
+        <v>386.40740686183523</v>
       </c>
       <c r="I87" t="s">
         <v>31</v>
       </c>
       <c r="J87">
-        <v>43961</v>
+        <v>44012</v>
       </c>
       <c r="K87">
-        <v>40.531700000000001</v>
+        <v>41.504452999999998</v>
       </c>
       <c r="L87">
-        <v>-80.631900000000002</v>
+        <v>-82.054619000000002</v>
       </c>
       <c r="M87" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2876</v>
+        <v>2840</v>
       </c>
       <c r="B88">
-        <v>3681044</v>
+        <v>5168266</v>
       </c>
       <c r="C88">
-        <v>16472738806.95776</v>
+        <v>17628325996.690018</v>
       </c>
       <c r="D88">
-        <v>835927.16664469312</v>
+        <v>1568416.3339512744</v>
       </c>
       <c r="E88">
-        <v>30604512.125774756</v>
+        <v>35607618.391276628</v>
       </c>
       <c r="F88">
-        <v>4475.018176082046</v>
+        <v>3410.8782320201822</v>
       </c>
       <c r="G88">
-        <v>0.22708969701114501</v>
+        <v>0.30347051292469746</v>
       </c>
       <c r="H88">
-        <v>8.3140848427171079</v>
+        <v>6.8896644234790978</v>
       </c>
       <c r="I88" t="s">
         <v>31</v>
       </c>
       <c r="J88">
-        <v>45620</v>
+        <v>43811</v>
       </c>
       <c r="K88">
-        <v>38.914400000000001</v>
+        <v>40.184199999999997</v>
       </c>
       <c r="L88">
-        <v>-82.128900000000002</v>
+        <v>-81.881100000000004</v>
       </c>
       <c r="M88" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2952</v>
+        <v>2850</v>
       </c>
       <c r="B89">
-        <v>4626240</v>
+        <v>9849064</v>
       </c>
       <c r="C89">
-        <v>4870474390.8155861</v>
+        <v>52402132508.306389</v>
+      </c>
+      <c r="D89">
+        <v>5397996.0899799801</v>
       </c>
       <c r="E89">
-        <v>895335631.5217967</v>
+        <v>131513291.85467273</v>
       </c>
       <c r="F89">
-        <v>1052.7932815451827</v>
+        <v>5320.5190369670036</v>
+      </c>
+      <c r="G89">
+        <v>0.54807198836153148</v>
       </c>
       <c r="H89">
-        <v>193.53419440448329</v>
+        <v>13.352872095731406</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J89">
-        <v>74434</v>
+        <v>45101</v>
       </c>
       <c r="K89">
-        <v>35.76135</v>
+        <v>38.636099999999999</v>
       </c>
       <c r="L89">
-        <v>-95.287319999999994</v>
+        <v>-83.693899999999999</v>
       </c>
       <c r="M89" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2963</v>
+        <v>2866</v>
       </c>
       <c r="B90">
-        <v>6322841</v>
+        <v>6246911</v>
       </c>
       <c r="C90">
-        <v>6836220987.3682289</v>
+        <v>30256534506.602531</v>
+      </c>
+      <c r="D90">
+        <v>2930429.1720634894</v>
       </c>
       <c r="E90">
-        <v>1147106954.2016745</v>
+        <v>66301204.84307681</v>
       </c>
       <c r="F90">
-        <v>1081.1945116709765</v>
+        <v>4843.439342517051</v>
+      </c>
+      <c r="G90">
+        <v>0.46910051576907197</v>
       </c>
       <c r="H90">
-        <v>181.42271080384188</v>
+        <v>10.613438360667665</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J90">
-        <v>74053</v>
+        <v>43961</v>
       </c>
       <c r="K90">
-        <v>36.431699999999999</v>
+        <v>40.531700000000001</v>
       </c>
       <c r="L90">
-        <v>-95.700800000000001</v>
+        <v>-80.631900000000002</v>
       </c>
       <c r="M90" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>3122</v>
+        <v>2876</v>
       </c>
       <c r="B91">
-        <v>9036684</v>
+        <v>3681044</v>
       </c>
       <c r="C91">
-        <v>82303537815.805603</v>
+        <v>15532220128.403711</v>
+      </c>
+      <c r="D91">
+        <v>1686089.5712922211</v>
       </c>
       <c r="E91">
-        <v>8527263608.4027729</v>
+        <v>46261051.587936223</v>
       </c>
       <c r="F91">
-        <v>9107.7144908249102</v>
+        <v>4219.5149333731715</v>
+      </c>
+      <c r="G91">
+        <v>0.45804656811823519</v>
       </c>
       <c r="H91">
-        <v>943.62750854215699</v>
+        <v>12.567372622532147</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J91">
-        <v>15748</v>
+        <v>45620</v>
       </c>
       <c r="K91">
-        <v>40.512824999999999</v>
+        <v>38.914400000000001</v>
       </c>
       <c r="L91">
-        <v>-79.196106999999998</v>
+        <v>-82.128900000000002</v>
       </c>
       <c r="M91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>3131</v>
+        <v>2952</v>
       </c>
       <c r="B92">
-        <v>916991</v>
+        <v>4626240</v>
       </c>
       <c r="C92">
-        <v>8495972103.3315926</v>
+        <v>5012634075.225359</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>1631884722.8534508</v>
+        <v>664511298.77986848</v>
       </c>
       <c r="F92">
-        <v>9265.0550586991503</v>
+        <v>1083.522271915283</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1779.60822173113</v>
+        <v>143.63960771163374</v>
       </c>
       <c r="I92" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J92">
-        <v>16873</v>
+        <v>74434</v>
       </c>
       <c r="K92">
-        <v>41.067549999999997</v>
+        <v>35.76135</v>
       </c>
       <c r="L92">
-        <v>-78.366228000000007</v>
+        <v>-95.287319999999994</v>
       </c>
       <c r="M92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>3138</v>
+        <v>2963</v>
       </c>
       <c r="B93">
-        <v>317344</v>
+        <v>6322841</v>
       </c>
       <c r="C93">
-        <v>2100449710.859055</v>
+        <v>7108402644.3168173</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>399203579.01554155</v>
+        <v>891585501.08876276</v>
       </c>
       <c r="F93">
-        <v>6618.8417328169271</v>
+        <v>1124.2418786613198</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1257.9521875804853</v>
+        <v>141.01026755041963</v>
       </c>
       <c r="I93" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J93">
-        <v>16160</v>
+        <v>74053</v>
       </c>
       <c r="K93">
-        <v>40.937939</v>
+        <v>36.431699999999999</v>
       </c>
       <c r="L93">
-        <v>-80.369006999999996</v>
+        <v>-95.700800000000001</v>
       </c>
       <c r="M93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>3140</v>
+        <v>3122</v>
       </c>
       <c r="B94">
-        <v>4078252</v>
+        <v>9036684</v>
       </c>
       <c r="C94">
-        <v>22612142938.095116</v>
+        <v>84870585470.501099</v>
       </c>
       <c r="D94">
-        <v>1198858.1543142733</v>
+        <v>1909199.8719902118</v>
       </c>
       <c r="E94">
-        <v>40088073.491488911</v>
+        <v>5755189048.2889557</v>
       </c>
       <c r="F94">
-        <v>5544.567363197546</v>
+        <v>9391.7841401227597</v>
       </c>
       <c r="G94">
-        <v>0.29396372620286171</v>
+        <v>0.21127217372990045</v>
       </c>
       <c r="H94">
-        <v>9.8297195689449577</v>
+        <v>636.86956944482677</v>
       </c>
       <c r="I94" t="s">
         <v>32</v>
       </c>
       <c r="J94">
-        <v>17370</v>
+        <v>15748</v>
       </c>
       <c r="K94">
-        <v>40.096111000000001</v>
+        <v>40.512824999999999</v>
       </c>
       <c r="L94">
-        <v>-76.696200000000005</v>
+        <v>-79.196106999999998</v>
       </c>
       <c r="M94" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>3149</v>
+        <v>3131</v>
       </c>
       <c r="B95">
-        <v>3399679</v>
+        <v>916991</v>
       </c>
       <c r="C95">
-        <v>17557633161.803688</v>
+        <v>9052197673.6278152</v>
       </c>
       <c r="D95">
-        <v>974670.54434581241</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>14490718.853361756</v>
+        <v>1238400208.2182565</v>
       </c>
       <c r="F95">
-        <v>5164.4973427796231</v>
+        <v>9871.6319719907988</v>
       </c>
       <c r="G95">
-        <v>0.28669487452956954</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>4.2623785520226338</v>
+        <v>1350.5042123840435</v>
       </c>
       <c r="I95" t="s">
         <v>32</v>
       </c>
       <c r="J95">
-        <v>17884</v>
+        <v>16873</v>
       </c>
       <c r="K95">
-        <v>41.071399999999997</v>
+        <v>41.067549999999997</v>
       </c>
       <c r="L95">
-        <v>-76.667199999999994</v>
+        <v>-78.366228000000007</v>
       </c>
       <c r="M95" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3298</v>
+        <v>3138</v>
       </c>
       <c r="B96">
-        <v>3734928</v>
+        <v>317344</v>
       </c>
       <c r="C96">
-        <v>18309168793.659142</v>
+        <v>2217793848.3178482</v>
       </c>
       <c r="D96">
-        <v>974071.61647393787</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>11709695.200701537</v>
+        <v>288797051.00571108</v>
       </c>
       <c r="F96">
-        <v>4902.1477237738291</v>
+        <v>6988.611249362988</v>
       </c>
       <c r="G96">
-        <v>0.26080064099600786</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>3.1351863277422045</v>
+        <v>910.04415084485936</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J96">
-        <v>29445</v>
+        <v>16160</v>
       </c>
       <c r="K96">
-        <v>33.015799999999999</v>
+        <v>40.937939</v>
       </c>
       <c r="L96">
-        <v>-79.929699999999997</v>
+        <v>-80.369006999999996</v>
       </c>
       <c r="M96" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3403</v>
+        <v>3140</v>
       </c>
       <c r="B97">
-        <v>984434</v>
+        <v>4078252</v>
       </c>
       <c r="C97">
-        <v>1129935685.3088884</v>
+        <v>22764277560.040169</v>
+      </c>
+      <c r="D97">
+        <v>1876564.1398410229</v>
       </c>
       <c r="E97">
-        <v>122446922.6044364</v>
+        <v>39507862.10890203</v>
       </c>
       <c r="F97">
-        <v>1147.8023771109981</v>
+        <v>5581.8712428854724</v>
+      </c>
+      <c r="G97">
+        <v>0.46013932926190509</v>
       </c>
       <c r="H97">
-        <v>124.38306946370848</v>
+        <v>9.6874499439715915</v>
       </c>
       <c r="I97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J97">
-        <v>37066</v>
+        <v>17370</v>
       </c>
       <c r="K97">
-        <v>36.315600000000003</v>
+        <v>40.096111000000001</v>
       </c>
       <c r="L97">
-        <v>-86.400599999999997</v>
+        <v>-76.696200000000005</v>
       </c>
       <c r="M97" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3407</v>
+        <v>3149</v>
       </c>
       <c r="B98">
-        <v>3857821</v>
+        <v>3399679</v>
       </c>
       <c r="C98">
-        <v>20217226472.667526</v>
+        <v>17233011899.192116</v>
       </c>
       <c r="D98">
-        <v>1096273.3649266246</v>
+        <v>1129018.1168945953</v>
       </c>
       <c r="E98">
-        <v>40424673.655641302</v>
+        <v>19853307.354211554</v>
       </c>
       <c r="F98">
-        <v>5240.5817876639494</v>
+        <v>5069.0114858467859</v>
       </c>
       <c r="G98">
-        <v>0.28416905940597675</v>
+        <v>0.3320955057505709</v>
       </c>
       <c r="H98">
-        <v>10.478628649603312</v>
+        <v>5.8397593873455556</v>
       </c>
       <c r="I98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J98">
-        <v>37763</v>
+        <v>17884</v>
       </c>
       <c r="K98">
-        <v>35.8992</v>
+        <v>41.071399999999997</v>
       </c>
       <c r="L98">
-        <v>-84.519400000000005</v>
+        <v>-76.667199999999994</v>
       </c>
       <c r="M98" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3775</v>
+        <v>3298</v>
       </c>
       <c r="B99">
-        <v>393144</v>
+        <v>3734928</v>
       </c>
       <c r="C99">
-        <v>1254194545.9763114</v>
+        <v>18147200991.723488</v>
+      </c>
+      <c r="D99">
+        <v>1091548.1293579992</v>
       </c>
       <c r="E99">
-        <v>207983417.62787086</v>
+        <v>19087937.487060115</v>
       </c>
       <c r="F99">
-        <v>3190.1658068705397</v>
+        <v>4858.7820144654688</v>
+      </c>
+      <c r="G99">
+        <v>0.29225412895723807</v>
       </c>
       <c r="H99">
-        <v>529.02605057655944</v>
+        <v>5.1106574175084809</v>
       </c>
       <c r="I99" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J99">
-        <v>24225</v>
+        <v>29445</v>
       </c>
       <c r="K99">
-        <v>36.933300000000003</v>
+        <v>33.015799999999999</v>
       </c>
       <c r="L99">
-        <v>-82.199700000000007</v>
+        <v>-79.929699999999997</v>
       </c>
       <c r="M99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3797</v>
+        <v>3403</v>
       </c>
       <c r="B100">
-        <v>2485399</v>
+        <v>2911161</v>
       </c>
       <c r="C100">
-        <v>14574004943.308626</v>
+        <v>3289728498.4412637</v>
       </c>
       <c r="D100">
-        <v>780913.01797771908</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>21639918.820788123</v>
+        <v>446772344.87342477</v>
       </c>
       <c r="F100">
-        <v>5863.8492022040027</v>
+        <v>1130.0400419081129</v>
       </c>
       <c r="G100">
-        <v>0.3142002624036298</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>8.7068188330276648</v>
+        <v>153.46878612121583</v>
       </c>
       <c r="I100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J100">
-        <v>23831</v>
+        <v>37066</v>
       </c>
       <c r="K100">
-        <v>37.382199999999997</v>
+        <v>36.315600000000003</v>
       </c>
       <c r="L100">
-        <v>-77.383300000000006</v>
+        <v>-86.400599999999997</v>
       </c>
       <c r="M100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3809</v>
+        <v>3407</v>
       </c>
       <c r="B101">
-        <v>261201</v>
+        <v>3857821</v>
       </c>
       <c r="C101">
-        <v>451267294.77967322</v>
+        <v>20359094762.969246</v>
+      </c>
+      <c r="D101">
+        <v>2262418.515183148</v>
       </c>
       <c r="E101">
-        <v>73692767.079367891</v>
+        <v>65220430.482156068</v>
       </c>
       <c r="F101">
-        <v>1727.6629675218442</v>
+        <v>5277.355990070364</v>
+      </c>
+      <c r="G101">
+        <v>0.58644984181047999</v>
       </c>
       <c r="H101">
-        <v>282.13049367869149</v>
+        <v>16.906028165162684</v>
       </c>
       <c r="I101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J101">
-        <v>23690</v>
+        <v>37763</v>
       </c>
       <c r="K101">
-        <v>37.214399999999998</v>
+        <v>35.8992</v>
       </c>
       <c r="L101">
-        <v>-76.461100000000002</v>
+        <v>-84.519400000000005</v>
       </c>
       <c r="M101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3935</v>
+        <v>3775</v>
       </c>
       <c r="B102">
-        <v>14072154</v>
+        <v>393144</v>
       </c>
       <c r="C102">
-        <v>59251372717.045059</v>
+        <v>1349613880.644938</v>
       </c>
       <c r="D102">
-        <v>3176413.4940072023</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>112274104.13882339</v>
+        <v>151083395.02668741</v>
       </c>
       <c r="F102">
-        <v>4210.5403847232665</v>
+        <v>3432.8741647969655</v>
       </c>
       <c r="G102">
-        <v>0.22572333233470881</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>7.9784590290031918</v>
+        <v>384.2953091658207</v>
       </c>
       <c r="I102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J102">
-        <v>25213</v>
+        <v>24225</v>
       </c>
       <c r="K102">
-        <v>38.473100000000002</v>
+        <v>36.933300000000003</v>
       </c>
       <c r="L102">
-        <v>-81.823300000000003</v>
+        <v>-82.199700000000007</v>
       </c>
       <c r="M102" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3936</v>
+        <v>3797</v>
       </c>
       <c r="B103">
-        <v>543145</v>
+        <v>2485399</v>
       </c>
       <c r="C103">
-        <v>909637100.43715906</v>
+        <v>14328606253.290318</v>
+      </c>
+      <c r="D103">
+        <v>1083412.3865369305</v>
       </c>
       <c r="E103">
-        <v>131479841.05870774</v>
+        <v>23507086.072776705</v>
       </c>
       <c r="F103">
-        <v>1674.7592271624687</v>
+        <v>5765.1130676765861</v>
+      </c>
+      <c r="G103">
+        <v>0.43591084833337845</v>
       </c>
       <c r="H103">
-        <v>242.07134569720375</v>
+        <v>9.458073360766905</v>
       </c>
       <c r="I103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J103">
-        <v>25086</v>
+        <v>23831</v>
       </c>
       <c r="K103">
-        <v>38.205599999999997</v>
+        <v>37.382199999999997</v>
       </c>
       <c r="L103">
-        <v>-81.421099999999996</v>
+        <v>-77.383300000000006</v>
       </c>
       <c r="M103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3943</v>
+        <v>3809</v>
       </c>
       <c r="B104">
-        <v>7296430</v>
+        <v>261201</v>
       </c>
       <c r="C104">
-        <v>31840794115.400566</v>
+        <v>475776895.47541422</v>
       </c>
       <c r="D104">
-        <v>1720049.0081303755</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>63579559.958945036</v>
+        <v>60584014.607588679</v>
       </c>
       <c r="F104">
-        <v>4363.8867385009607</v>
+        <v>1821.4972204371891</v>
       </c>
       <c r="G104">
-        <v>0.23573843758254043</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>8.7137901629899872</v>
+        <v>231.9440377624461</v>
       </c>
       <c r="I104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J104">
-        <v>26541</v>
+        <v>23690</v>
       </c>
       <c r="K104">
-        <v>39.710833000000001</v>
+        <v>37.214399999999998</v>
       </c>
       <c r="L104">
-        <v>-79.927499999999995</v>
+        <v>-76.461100000000002</v>
       </c>
       <c r="M104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>3944</v>
+        <v>3935</v>
       </c>
       <c r="B105">
-        <v>11269955</v>
+        <v>14072154</v>
       </c>
       <c r="C105">
-        <v>23674031314.164902</v>
+        <v>59022427043.543617</v>
       </c>
       <c r="D105">
-        <v>1532914.8212880685</v>
+        <v>5899252.04558283</v>
       </c>
       <c r="E105">
-        <v>62233078.422057107</v>
+        <v>131062679.21676224</v>
       </c>
       <c r="F105">
-        <v>2100.6322841719334</v>
+        <v>4194.2709725564127</v>
       </c>
       <c r="G105">
-        <v>0.13601782982168684</v>
+        <v>0.41921457408601626</v>
       </c>
       <c r="H105">
-        <v>5.5220343312867808</v>
+        <v>9.313618882849223</v>
       </c>
       <c r="I105" t="s">
         <v>35</v>
       </c>
       <c r="J105">
-        <v>26366</v>
+        <v>25213</v>
       </c>
       <c r="K105">
-        <v>39.384166999999998</v>
+        <v>38.473100000000002</v>
       </c>
       <c r="L105">
-        <v>-80.332499999999996</v>
+        <v>-81.823300000000003</v>
       </c>
       <c r="M105" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>3948</v>
+        <v>3936</v>
       </c>
       <c r="B106">
-        <v>5367819</v>
+        <v>543145</v>
       </c>
       <c r="C106">
-        <v>21367290039.988956</v>
+        <v>935619527.95403028</v>
       </c>
       <c r="D106">
-        <v>1152157.4797304422</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>40347212.674162969</v>
+        <v>106795475.7207669</v>
       </c>
       <c r="F106">
-        <v>3980.6278937477132</v>
+        <v>1722.5962274420831</v>
       </c>
       <c r="G106">
-        <v>0.21464164118246948</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>7.5165002162261754</v>
+        <v>196.62424531343731</v>
       </c>
       <c r="I106" t="s">
         <v>35</v>
       </c>
       <c r="J106">
-        <v>26041</v>
+        <v>25086</v>
       </c>
       <c r="K106">
-        <v>39.829700000000003</v>
+        <v>38.205599999999997</v>
       </c>
       <c r="L106">
-        <v>-80.815299999999993</v>
+        <v>-81.421099999999996</v>
       </c>
       <c r="M106" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3954</v>
+        <v>3943</v>
       </c>
       <c r="B107">
-        <v>9846148</v>
+        <v>7296430</v>
       </c>
       <c r="C107">
-        <v>64751543928.953117</v>
+        <v>31982855689.560349</v>
       </c>
       <c r="D107">
-        <v>3471704.768468041</v>
+        <v>2948288.6801588237</v>
       </c>
       <c r="E107">
-        <v>125064165.26713824</v>
+        <v>59263426.303288028</v>
       </c>
       <c r="F107">
-        <v>6576.3325849817738</v>
+        <v>4383.3567497475269</v>
       </c>
       <c r="G107">
-        <v>0.35259522490095019</v>
+        <v>0.40407276985578205</v>
       </c>
       <c r="H107">
-        <v>12.701836826659344</v>
+        <v>8.1222496896822172</v>
       </c>
       <c r="I107" t="s">
         <v>35</v>
       </c>
       <c r="J107">
-        <v>26739</v>
+        <v>26541</v>
       </c>
       <c r="K107">
-        <v>39.200800000000001</v>
+        <v>39.710833000000001</v>
       </c>
       <c r="L107">
-        <v>-79.263599999999997</v>
+        <v>-79.927499999999995</v>
       </c>
       <c r="M107" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>4041</v>
+        <v>3944</v>
       </c>
       <c r="B108">
-        <v>5178344</v>
+        <v>11269955</v>
       </c>
       <c r="C108">
-        <v>6168763447.6665649</v>
+        <v>23665393468.028191</v>
       </c>
       <c r="D108">
-        <v>359752.9139138445</v>
+        <v>3448588.1660545473</v>
       </c>
       <c r="E108">
-        <v>12882517.553766755</v>
+        <v>81856115.531511545</v>
       </c>
       <c r="F108">
-        <v>1191.2618102749768</v>
+        <v>2099.8658351367144</v>
       </c>
       <c r="G108">
-        <v>6.9472579248084809E-2</v>
+        <v>0.30599839715904342</v>
       </c>
       <c r="H108">
-        <v>2.4877678180064429</v>
+        <v>7.2632158275265111</v>
       </c>
       <c r="I108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J108">
-        <v>53154</v>
+        <v>26366</v>
       </c>
       <c r="K108">
-        <v>42.845700000000001</v>
+        <v>39.384166999999998</v>
       </c>
       <c r="L108">
-        <v>-87.829400000000007</v>
+        <v>-80.332499999999996</v>
       </c>
       <c r="M108" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4050</v>
+        <v>3948</v>
       </c>
       <c r="B109">
-        <v>3896653</v>
+        <v>5367819</v>
       </c>
       <c r="C109">
-        <v>4202198108.4142833</v>
+        <v>21563258399.936886</v>
+      </c>
+      <c r="D109">
+        <v>1898146.7411536493</v>
       </c>
       <c r="E109">
-        <v>727895999.88177586</v>
+        <v>38657312.981883563</v>
       </c>
       <c r="F109">
-        <v>1078.4121933398442</v>
+        <v>4017.1358981994149</v>
+      </c>
+      <c r="G109">
+        <v>0.35361601073986459</v>
       </c>
       <c r="H109">
-        <v>186.80031295621546</v>
+        <v>7.2016796732310766</v>
       </c>
       <c r="I109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J109">
-        <v>53081</v>
+        <v>26041</v>
       </c>
       <c r="K109">
-        <v>43.715142</v>
+        <v>39.829700000000003</v>
       </c>
       <c r="L109">
-        <v>-87.705862999999994</v>
+        <v>-80.815299999999993</v>
       </c>
       <c r="M109" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4078</v>
+        <v>3954</v>
       </c>
       <c r="B110">
-        <v>12685</v>
+        <v>9846148</v>
       </c>
       <c r="C110">
-        <v>11969413.938737301</v>
+        <v>64535334810.330643</v>
+      </c>
+      <c r="D110">
+        <v>6439315.7370962147</v>
       </c>
       <c r="E110">
-        <v>1440640.9737680266</v>
+        <v>142437144.05484477</v>
       </c>
       <c r="F110">
-        <v>943.5880125137802</v>
+        <v>6554.3738333336696</v>
+      </c>
+      <c r="G110">
+        <v>0.65399339285741132</v>
       </c>
       <c r="H110">
-        <v>113.57043545668321</v>
+        <v>14.466281032424535</v>
       </c>
       <c r="I110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J110">
-        <v>54474</v>
+        <v>26739</v>
       </c>
       <c r="K110">
-        <v>44.860599999999998</v>
+        <v>39.200800000000001</v>
       </c>
       <c r="L110">
-        <v>-89.655299999999997</v>
+        <v>-79.263599999999997</v>
       </c>
       <c r="M110" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>4158</v>
+        <v>4041</v>
       </c>
       <c r="B111">
-        <v>1522254</v>
+        <v>5178344</v>
       </c>
       <c r="C111">
-        <v>2102852360.5236712</v>
+        <v>6057531898.2351208</v>
+      </c>
+      <c r="D111">
+        <v>701110.02293437242</v>
       </c>
       <c r="E111">
-        <v>369529530.52269113</v>
+        <v>17897965.611260481</v>
       </c>
       <c r="F111">
-        <v>1381.4070191463916</v>
+        <v>1169.7816711742441</v>
+      </c>
+      <c r="G111">
+        <v>0.13539270912368362</v>
       </c>
       <c r="H111">
-        <v>242.75155823055229</v>
+        <v>3.456310668287097</v>
       </c>
       <c r="I111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J111">
-        <v>82637</v>
+        <v>53154</v>
       </c>
       <c r="K111">
-        <v>42.837800000000001</v>
+        <v>42.845700000000001</v>
       </c>
       <c r="L111">
-        <v>-105.7769</v>
+        <v>-87.829400000000007</v>
       </c>
       <c r="M111" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4162</v>
+        <v>4050</v>
       </c>
       <c r="B112">
-        <v>4899321</v>
+        <v>3896653</v>
       </c>
       <c r="C112">
-        <v>2382796238.1820059</v>
+        <v>4236640932.3068376</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>272516722.56718874</v>
+        <v>540019379.31054473</v>
       </c>
       <c r="F112">
-        <v>486.35234110645246</v>
+        <v>1087.2512723885952</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>55.623365475989168</v>
+        <v>138.58544225276017</v>
       </c>
       <c r="I112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J112">
-        <v>83101</v>
+        <v>53081</v>
       </c>
       <c r="K112">
-        <v>41.758099999999999</v>
+        <v>43.715142</v>
       </c>
       <c r="L112">
-        <v>-110.59829999999999</v>
+        <v>-87.705862999999994</v>
       </c>
       <c r="M112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>4259</v>
+        <v>4072</v>
       </c>
       <c r="B113">
-        <v>214384</v>
+        <v>419820</v>
       </c>
       <c r="C113">
-        <v>1768172297.0904531</v>
+        <v>422404493.95530474</v>
       </c>
       <c r="D113">
-        <v>95329.298664062691</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>1124980.9661242373</v>
+        <v>44837567.467595048</v>
       </c>
       <c r="F113">
-        <v>8247.6877802935524</v>
+        <v>1006.1561954058996</v>
       </c>
       <c r="G113">
-        <v>0.44466610691125591</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>5.2475043199316991</v>
+        <v>106.80188525462114</v>
       </c>
       <c r="I113" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J113">
-        <v>49252</v>
+        <v>54303</v>
       </c>
       <c r="K113">
-        <v>42.031700000000001</v>
+        <v>44.54</v>
       </c>
       <c r="L113">
-        <v>-84.754999999999995</v>
+        <v>-88.008600000000001</v>
       </c>
       <c r="M113" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>6002</v>
+        <v>4078</v>
       </c>
       <c r="B114">
-        <v>17815891</v>
+        <v>12685</v>
       </c>
       <c r="C114">
-        <v>20791303397.678978</v>
+        <v>12343448.244169127</v>
       </c>
       <c r="D114">
-        <v>1115229.7306077764</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>40619606.970262103</v>
+        <v>1155865.8510185026</v>
       </c>
       <c r="F114">
-        <v>1167.0089022030377</v>
+        <v>973.07435902003363</v>
       </c>
       <c r="G114">
-        <v>6.2597471583530476E-2</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>2.2799649464773948</v>
+        <v>91.120681988056973</v>
       </c>
       <c r="I114" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J114">
-        <v>35073</v>
+        <v>54474</v>
       </c>
       <c r="K114">
-        <v>33.631900000000002</v>
+        <v>44.860599999999998</v>
       </c>
       <c r="L114">
-        <v>-87.059700000000007</v>
+        <v>-89.655299999999997</v>
       </c>
       <c r="M114" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>6004</v>
+        <v>4158</v>
       </c>
       <c r="B115">
-        <v>7047532</v>
+        <v>1522254</v>
       </c>
       <c r="C115">
-        <v>31276630382.081257</v>
+        <v>2111296088.8485372</v>
       </c>
       <c r="D115">
-        <v>1670980.4498084495</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>54273663.907323487</v>
+        <v>273205417.64958364</v>
       </c>
       <c r="F115">
-        <v>4437.9550716593067</v>
+        <v>1386.9538781626045</v>
       </c>
       <c r="G115">
-        <v>0.23710150586169026</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>7.701087970558131</v>
+        <v>179.4742649055832</v>
       </c>
       <c r="I115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J115">
-        <v>26134</v>
+        <v>82637</v>
       </c>
       <c r="K115">
-        <v>39.366667</v>
+        <v>42.837800000000001</v>
       </c>
       <c r="L115">
-        <v>-81.294443999999999</v>
+        <v>-105.7769</v>
       </c>
       <c r="M115" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6009</v>
+        <v>4162</v>
       </c>
       <c r="B116">
-        <v>6223129</v>
+        <v>4899321</v>
       </c>
       <c r="C116">
-        <v>6978667731.8964291</v>
+        <v>2455257637.5714936</v>
+      </c>
+      <c r="D116">
+        <v>69263.647322932797</v>
       </c>
       <c r="E116">
-        <v>1207116314.7636905</v>
+        <v>163141449.59776625</v>
       </c>
       <c r="F116">
-        <v>1121.408174552774</v>
+        <v>501.14243128210904</v>
+      </c>
+      <c r="G116">
+        <v>1.4137397268505738E-2</v>
       </c>
       <c r="H116">
-        <v>193.9725682632789</v>
+        <v>33.298787647873297</v>
       </c>
       <c r="I116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J116">
-        <v>72132</v>
+        <v>83101</v>
       </c>
       <c r="K116">
-        <v>34.422800000000002</v>
+        <v>41.758099999999999</v>
       </c>
       <c r="L116">
-        <v>-92.140600000000006</v>
+        <v>-110.59829999999999</v>
       </c>
       <c r="M116" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6016</v>
+        <v>4259</v>
       </c>
       <c r="B117">
-        <v>2129192</v>
+        <v>214384</v>
       </c>
       <c r="C117">
-        <v>2546611132.2940063</v>
+        <v>1816395439.6137619</v>
       </c>
       <c r="D117">
-        <v>156010.79083798052</v>
+        <v>109552.12367386839</v>
       </c>
       <c r="E117">
-        <v>3539397.2309932294</v>
+        <v>1716544.1093935063</v>
       </c>
       <c r="F117">
-        <v>1196.04579215684</v>
+        <v>8472.6259404328775</v>
       </c>
       <c r="G117">
-        <v>7.3272298053900495E-2</v>
+        <v>0.51100886108043686</v>
       </c>
       <c r="H117">
-        <v>1.6623194296208277</v>
+        <v>8.0068666943125724</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J117">
-        <v>61520</v>
+        <v>49252</v>
       </c>
       <c r="K117">
-        <v>40.466299999999997</v>
+        <v>42.031700000000001</v>
       </c>
       <c r="L117">
-        <v>-89.984099999999998</v>
+        <v>-84.754999999999995</v>
       </c>
       <c r="M117" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6017</v>
+        <v>4941</v>
       </c>
       <c r="B118">
-        <v>4998069</v>
+        <v>13572760</v>
       </c>
       <c r="C118">
-        <v>4445136855.7396097</v>
+        <v>6339900705.5328321</v>
+      </c>
+      <c r="D118">
+        <v>2605314.6281875512</v>
       </c>
       <c r="E118">
-        <v>739652487.25537252</v>
+        <v>99360138.041039288</v>
       </c>
       <c r="F118">
-        <v>889.37084616871232</v>
+        <v>467.1047528677168</v>
+      </c>
+      <c r="G118">
+        <v>0.19195172007664993</v>
       </c>
       <c r="H118">
-        <v>147.98765028161327</v>
+        <v>7.3205551443508385</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J118">
-        <v>62448</v>
+        <v>86040</v>
       </c>
       <c r="K118">
-        <v>38.936100000000003</v>
+        <v>36.904699999999998</v>
       </c>
       <c r="L118">
-        <v>-88.278099999999995</v>
+        <v>-111.3886</v>
       </c>
       <c r="M118" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6019</v>
+        <v>6002</v>
       </c>
       <c r="B119">
-        <v>5936999</v>
+        <v>17815891</v>
       </c>
       <c r="C119">
-        <v>28277359765.1633</v>
+        <v>20946249870.705563</v>
       </c>
       <c r="D119">
-        <v>1497208.6164817205</v>
+        <v>2218373.6110139862</v>
       </c>
       <c r="E119">
-        <v>15453041.902800141</v>
+        <v>57729205.726334259</v>
       </c>
       <c r="F119">
-        <v>4762.9045861660579</v>
+        <v>1175.7059958834257</v>
       </c>
       <c r="G119">
-        <v>0.25218273011023257</v>
+        <v>0.12451656843960182</v>
       </c>
       <c r="H119">
-        <v>2.6028372082933044</v>
+        <v>3.2403209991761996</v>
       </c>
       <c r="I119" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J119">
-        <v>45200</v>
+        <v>35073</v>
       </c>
       <c r="K119">
-        <v>38.8675</v>
+        <v>33.631900000000002</v>
       </c>
       <c r="L119">
-        <v>-84.228899999999996</v>
+        <v>-87.059700000000007</v>
       </c>
       <c r="M119" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6030</v>
+        <v>6004</v>
       </c>
       <c r="B120">
-        <v>8834166</v>
+        <v>7047532</v>
       </c>
       <c r="C120">
-        <v>53796653599.000137</v>
+        <v>31773843271.705666</v>
       </c>
       <c r="D120">
-        <v>2912286.3224935019</v>
+        <v>2902012.345465167</v>
       </c>
       <c r="E120">
-        <v>99687862.924653471</v>
+        <v>61624154.063743249</v>
       </c>
       <c r="F120">
-        <v>6089.6131676719833</v>
+        <v>4508.5064206456482</v>
       </c>
       <c r="G120">
-        <v>0.32966171594392746</v>
+        <v>0.41177710799541839</v>
       </c>
       <c r="H120">
-        <v>11.284354734182431</v>
+        <v>8.7440758074944895</v>
       </c>
       <c r="I120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J120">
-        <v>58576</v>
+        <v>26134</v>
       </c>
       <c r="K120">
-        <v>47.377743000000002</v>
+        <v>39.366667</v>
       </c>
       <c r="L120">
-        <v>-101.15705800000001</v>
+        <v>-81.294443999999999</v>
       </c>
       <c r="M120" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>6052</v>
+        <v>6009</v>
       </c>
       <c r="B121">
-        <v>4469578</v>
+        <v>6223129</v>
       </c>
       <c r="C121">
-        <v>11434825092.026379</v>
+        <v>6850745494.5754423</v>
       </c>
       <c r="D121">
-        <v>607056.61007253022</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>22385207.035526067</v>
+        <v>868601711.34248912</v>
       </c>
       <c r="F121">
-        <v>2558.367947046987</v>
+        <v>1100.8522392152634</v>
       </c>
       <c r="G121">
-        <v>0.13581967024012787</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>5.0083491183118554</v>
+        <v>139.57636284616456</v>
       </c>
       <c r="I121" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J121">
-        <v>30170</v>
+        <v>72132</v>
       </c>
       <c r="K121">
-        <v>33.413420000000002</v>
+        <v>34.422800000000002</v>
       </c>
       <c r="L121">
-        <v>-85.032329000000004</v>
+        <v>-92.140600000000006</v>
       </c>
       <c r="M121" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6055</v>
+        <v>6016</v>
       </c>
       <c r="B122">
-        <v>2508390</v>
+        <v>2129192</v>
       </c>
       <c r="C122">
-        <v>3088209608.0306726</v>
+        <v>2570897507.5027194</v>
+      </c>
+      <c r="D122">
+        <v>192244.36033715081</v>
       </c>
       <c r="E122">
-        <v>334657775.46218193</v>
+        <v>3101999.3953710911</v>
       </c>
       <c r="F122">
-        <v>1231.1520967754905</v>
+        <v>1207.452173173072</v>
+      </c>
+      <c r="G122">
+        <v>9.0289819019210488E-2</v>
       </c>
       <c r="H122">
-        <v>133.41536820916281</v>
+        <v>1.4568904050790588</v>
       </c>
       <c r="I122" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J122">
-        <v>70760</v>
+        <v>61520</v>
       </c>
       <c r="K122">
-        <v>30.726099999999999</v>
+        <v>40.466299999999997</v>
       </c>
       <c r="L122">
-        <v>-91.369200000000006</v>
+        <v>-89.984099999999998</v>
       </c>
       <c r="M122" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6064</v>
+        <v>6017</v>
       </c>
       <c r="B123">
-        <v>1204962</v>
+        <v>4998069</v>
       </c>
       <c r="C123">
-        <v>1553656924.9392414</v>
+        <v>4724558001.4931955</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>175264180.07569098</v>
+        <v>549318727.4184289</v>
       </c>
       <c r="F123">
-        <v>1289.3825074477381</v>
+        <v>945.27666614710506</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>145.45203921425818</v>
+        <v>109.90619125474836</v>
       </c>
       <c r="I123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J123">
-        <v>66104</v>
+        <v>62448</v>
       </c>
       <c r="K123">
-        <v>39.168100000000003</v>
+        <v>38.936100000000003</v>
       </c>
       <c r="L123">
-        <v>-94.697500000000005</v>
+        <v>-88.278099999999995</v>
       </c>
       <c r="M123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6068</v>
+        <v>6018</v>
       </c>
       <c r="B124">
-        <v>11346108</v>
+        <v>4031692</v>
       </c>
       <c r="C124">
-        <v>15348729524.664711</v>
+        <v>32139842212.693409</v>
       </c>
       <c r="D124">
-        <v>890976.237584944</v>
+        <v>13136218.618804492</v>
       </c>
       <c r="E124">
-        <v>31712610.205231484</v>
+        <v>186734047.44818258</v>
       </c>
       <c r="F124">
-        <v>1352.7748479623772</v>
+        <v>7971.7999819166271</v>
       </c>
       <c r="G124">
-        <v>7.8527036547241039E-2</v>
+        <v>3.2582396221746333</v>
       </c>
       <c r="H124">
-        <v>2.7950210067832497</v>
+        <v>46.316545869124582</v>
       </c>
       <c r="I124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J124">
-        <v>66536</v>
+        <v>41091</v>
       </c>
       <c r="K124">
-        <v>39.286453000000002</v>
+        <v>38.903599999999997</v>
       </c>
       <c r="L124">
-        <v>-96.117231000000004</v>
+        <v>-84.851399999999998</v>
       </c>
       <c r="M124" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>6082</v>
+        <v>6019</v>
       </c>
       <c r="B125">
-        <v>614883</v>
+        <v>5936999</v>
       </c>
       <c r="C125">
-        <v>3350916612.5813112</v>
+        <v>27759462154.519753</v>
       </c>
       <c r="D125">
-        <v>166007.6145713944</v>
+        <v>1626836.0049457252</v>
       </c>
       <c r="E125">
-        <v>2307951.7246571379</v>
+        <v>31109541.778826527</v>
       </c>
       <c r="F125">
-        <v>5449.6816672136183</v>
+        <v>4675.6723648630814</v>
       </c>
       <c r="G125">
-        <v>0.269982443117462</v>
+        <v>0.27401655364026928</v>
       </c>
       <c r="H125">
-        <v>3.7534811088567057</v>
+        <v>5.2399439142277986</v>
       </c>
       <c r="I125" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J125">
-        <v>14012</v>
+        <v>45200</v>
       </c>
       <c r="K125">
-        <v>43.358888999999998</v>
+        <v>38.8675</v>
       </c>
       <c r="L125">
-        <v>-78.604721999999995</v>
+        <v>-84.228899999999996</v>
       </c>
       <c r="M125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6085</v>
+        <v>6030</v>
       </c>
       <c r="B126">
-        <v>4882435</v>
+        <v>8834166</v>
       </c>
       <c r="C126">
-        <v>14188397546.644491</v>
+        <v>53821160042.738579</v>
       </c>
       <c r="D126">
-        <v>767496.70050947159</v>
+        <v>4285356.549898088</v>
       </c>
       <c r="E126">
-        <v>28367745.774446502</v>
+        <v>85896571.184369326</v>
       </c>
       <c r="F126">
-        <v>2906.0084868809295</v>
+        <v>6092.3872205637272</v>
       </c>
       <c r="G126">
-        <v>0.15719547736108552</v>
+        <v>0.48508897726147415</v>
       </c>
       <c r="H126">
-        <v>5.8101635299694729</v>
+        <v>9.7232235826640938</v>
       </c>
       <c r="I126" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J126">
-        <v>46392</v>
+        <v>58576</v>
       </c>
       <c r="K126">
-        <v>41.2164</v>
+        <v>47.377743000000002</v>
       </c>
       <c r="L126">
-        <v>-87.0261</v>
+        <v>-101.15705800000001</v>
       </c>
       <c r="M126" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6094</v>
+        <v>6031</v>
       </c>
       <c r="B127">
-        <v>4906656</v>
+        <v>3440952</v>
       </c>
       <c r="C127">
-        <v>21510143179.794708</v>
+        <v>17351128212.284798</v>
       </c>
       <c r="D127">
-        <v>1151022.4960646876</v>
+        <v>7066562.0005251113</v>
       </c>
       <c r="E127">
-        <v>26938271.25323401</v>
+        <v>103393045.31183554</v>
       </c>
       <c r="F127">
-        <v>4383.8702325564927</v>
+        <v>5042.5371270174055</v>
       </c>
       <c r="G127">
-        <v>0.23458389910861643</v>
+        <v>2.0536647998940731</v>
       </c>
       <c r="H127">
-        <v>5.4901487394335389</v>
+        <v>30.04780226862669</v>
       </c>
       <c r="I127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J127">
-        <v>15077</v>
+        <v>45144</v>
       </c>
       <c r="K127">
-        <v>40.634799999999998</v>
+        <v>38.690300000000001</v>
       </c>
       <c r="L127">
-        <v>-80.415899999999993</v>
+        <v>-83.4803</v>
       </c>
       <c r="M127" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6095</v>
+        <v>6041</v>
       </c>
       <c r="B128">
-        <v>5621453</v>
+        <v>3273953</v>
       </c>
       <c r="C128">
-        <v>5501660764.7951031</v>
+        <v>24022767569.07003</v>
+      </c>
+      <c r="D128">
+        <v>12870094.248842344</v>
       </c>
       <c r="E128">
-        <v>981248422.79496741</v>
+        <v>397482975.75429642</v>
       </c>
       <c r="F128">
-        <v>978.69016512191843</v>
+        <v>7337.5419772580817</v>
+      </c>
+      <c r="G128">
+        <v>3.931056508398973</v>
       </c>
       <c r="H128">
-        <v>174.5542340734624</v>
+        <v>121.40766093902278</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J128">
-        <v>73061</v>
+        <v>41056</v>
       </c>
       <c r="K128">
-        <v>36.453069999999997</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="L128">
-        <v>-97.052790000000002</v>
+        <v>-83.818100000000001</v>
       </c>
       <c r="M128" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>6096</v>
+        <v>6052</v>
       </c>
       <c r="B129">
-        <v>4776449</v>
+        <v>4469578</v>
       </c>
       <c r="C129">
-        <v>5410995948.0123682</v>
+        <v>11438078811.14695</v>
+      </c>
+      <c r="D129">
+        <v>1065329.1508285413</v>
       </c>
       <c r="E129">
-        <v>622013137.04520023</v>
+        <v>20881710.32581497</v>
       </c>
       <c r="F129">
-        <v>1132.8490994067702</v>
+        <v>2559.0959171418308</v>
+      </c>
+      <c r="G129">
+        <v>0.23835117114603241</v>
       </c>
       <c r="H129">
-        <v>130.22501382202557</v>
+        <v>4.6719646297290192</v>
       </c>
       <c r="I129" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J129">
-        <v>68410</v>
+        <v>30170</v>
       </c>
       <c r="K129">
-        <v>40.621400000000001</v>
+        <v>33.413420000000002</v>
       </c>
       <c r="L129">
-        <v>-95.776399999999995</v>
+        <v>-85.032329000000004</v>
       </c>
       <c r="M129" t="s">
         <v>47</v>
@@ -5428,1350 +5848,2175 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6106</v>
+        <v>6055</v>
       </c>
       <c r="B130">
-        <v>2383346</v>
+        <v>5464804</v>
       </c>
       <c r="C130">
-        <v>2600941881.2041764</v>
+        <v>6723789842.953331</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>274537723.73895293</v>
+        <v>864386985.61737275</v>
       </c>
       <c r="F130">
-        <v>1091.2984859118972</v>
+        <v>1230.3807863837992</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>115.19004111822326</v>
+        <v>158.17346525463179</v>
       </c>
       <c r="I130" t="s">
         <v>39</v>
       </c>
       <c r="J130">
-        <v>97818</v>
+        <v>70760</v>
       </c>
       <c r="K130">
-        <v>45.693182</v>
+        <v>30.726099999999999</v>
       </c>
       <c r="L130">
-        <v>-119.808819</v>
+        <v>-91.369200000000006</v>
       </c>
       <c r="M130" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>6113</v>
+        <v>6061</v>
       </c>
       <c r="B131">
-        <v>14585886</v>
+        <v>245854</v>
       </c>
       <c r="C131">
-        <v>147534337801.79388</v>
+        <v>593826704.97119355</v>
       </c>
       <c r="D131">
-        <v>7804160.0061536226</v>
+        <v>241695.4001582351</v>
       </c>
       <c r="E131">
-        <v>276054926.53172398</v>
+        <v>6064193.1303685317</v>
       </c>
       <c r="F131">
-        <v>10114.869799599002</v>
+        <v>2415.3632032474297</v>
       </c>
       <c r="G131">
-        <v>0.53504874548955228</v>
+        <v>0.98308508366036385</v>
       </c>
       <c r="H131">
-        <v>18.926167840042353</v>
+        <v>24.66583065709133</v>
       </c>
       <c r="I131" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J131">
-        <v>47665</v>
+        <v>39475</v>
       </c>
       <c r="K131">
-        <v>38.372222000000001</v>
+        <v>31.218599999999999</v>
       </c>
       <c r="L131">
-        <v>-87.765833000000001</v>
+        <v>-89.394000000000005</v>
       </c>
       <c r="M131" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6136</v>
+        <v>6064</v>
       </c>
       <c r="B132">
-        <v>2184313</v>
+        <v>1204962</v>
       </c>
       <c r="C132">
-        <v>2928509049.4982243</v>
+        <v>1582309858.315789</v>
       </c>
       <c r="D132">
-        <v>178608.37987524411</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>4128938.6619479293</v>
+        <v>153223774.02768299</v>
       </c>
       <c r="F132">
-        <v>1340.7002794463176</v>
+        <v>1313.1616252759748</v>
       </c>
       <c r="G132">
-        <v>8.1768675036610644E-2</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>1.8902687764747677</v>
+        <v>127.16066899012831</v>
       </c>
       <c r="I132" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J132">
-        <v>77830</v>
+        <v>66104</v>
       </c>
       <c r="K132">
-        <v>30.619937</v>
+        <v>39.168100000000003</v>
       </c>
       <c r="L132">
-        <v>-96.081845999999999</v>
+        <v>-94.697500000000005</v>
       </c>
       <c r="M132" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>6137</v>
+        <v>6068</v>
       </c>
       <c r="B133">
-        <v>1131899</v>
+        <v>11346108</v>
       </c>
       <c r="C133">
-        <v>2090378378.7495551</v>
+        <v>15424349603.308762</v>
       </c>
       <c r="D133">
-        <v>120178.51792175425</v>
+        <v>1662088.6389584122</v>
       </c>
       <c r="E133">
-        <v>3106625.8735267706</v>
+        <v>41467287.642913267</v>
       </c>
       <c r="F133">
-        <v>1846.7887848205141</v>
+        <v>1359.4396953835414</v>
       </c>
       <c r="G133">
-        <v>0.10617424162558166</v>
+        <v>0.14648976009733139</v>
       </c>
       <c r="H133">
-        <v>2.7446140278653579</v>
+        <v>3.6547587633497995</v>
       </c>
       <c r="I133" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J133">
-        <v>47620</v>
+        <v>66536</v>
       </c>
       <c r="K133">
-        <v>37.905299999999997</v>
+        <v>39.286453000000002</v>
       </c>
       <c r="L133">
-        <v>-87.715000000000003</v>
+        <v>-96.117231000000004</v>
       </c>
       <c r="M133" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6138</v>
+        <v>6076</v>
       </c>
       <c r="B134">
-        <v>3041196</v>
+        <v>14844275</v>
       </c>
       <c r="C134">
-        <v>2002929173.720124</v>
+        <v>16413141054.605619</v>
+      </c>
+      <c r="D134">
+        <v>14170011.777142856</v>
       </c>
       <c r="E134">
-        <v>1848857698.8185761</v>
+        <v>413124088.59836388</v>
       </c>
       <c r="F134">
-        <v>658.59917404867167</v>
+        <v>1105.688290913879</v>
+      </c>
+      <c r="G134">
+        <v>0.95457755782231568</v>
       </c>
       <c r="H134">
-        <v>607.93769912185076</v>
+        <v>27.830533225662005</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J134">
-        <v>72734</v>
+        <v>59323</v>
       </c>
       <c r="K134">
-        <v>36.256100000000004</v>
+        <v>45.883099999999999</v>
       </c>
       <c r="L134">
-        <v>-94.524100000000004</v>
+        <v>-106.614</v>
       </c>
       <c r="M134" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6139</v>
+        <v>6082</v>
       </c>
       <c r="B135">
-        <v>6130440</v>
+        <v>614883</v>
       </c>
       <c r="C135">
-        <v>4188538021.0652165</v>
+        <v>3351453662.1717749</v>
+      </c>
+      <c r="D135">
+        <v>194586.5319463776</v>
       </c>
       <c r="E135">
-        <v>3866342788.6755838</v>
+        <v>2967647.3607132668</v>
       </c>
       <c r="F135">
-        <v>683.23611699408468</v>
+        <v>5450.5550847425848</v>
+      </c>
+      <c r="G135">
+        <v>0.31646106974233734</v>
       </c>
       <c r="H135">
-        <v>630.67949260992418</v>
+        <v>4.826361048708887</v>
       </c>
       <c r="I135" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J135">
-        <v>75686</v>
+        <v>14012</v>
       </c>
       <c r="K135">
-        <v>33.055219999999998</v>
+        <v>43.358888999999998</v>
       </c>
       <c r="L135">
-        <v>-94.839993000000007</v>
+        <v>-78.604721999999995</v>
       </c>
       <c r="M135" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6146</v>
+        <v>6085</v>
       </c>
       <c r="B136">
-        <v>9975515</v>
+        <v>4882435</v>
       </c>
       <c r="C136">
-        <v>28102138351.202431</v>
+        <v>14048904519.25214</v>
       </c>
       <c r="D136">
-        <v>1555296.6203911132</v>
+        <v>1468286.3476572589</v>
       </c>
       <c r="E136">
-        <v>57737469.38077531</v>
+        <v>34546660.096892431</v>
       </c>
       <c r="F136">
-        <v>2817.1115327080788</v>
+        <v>2877.4381060376927</v>
       </c>
       <c r="G136">
-        <v>0.15591141112926132</v>
+        <v>0.30072829390606509</v>
       </c>
       <c r="H136">
-        <v>5.7879186569089729</v>
+        <v>7.0757030245958088</v>
       </c>
       <c r="I136" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J136">
-        <v>75691</v>
+        <v>46392</v>
       </c>
       <c r="K136">
-        <v>32.260599999999997</v>
+        <v>41.2164</v>
       </c>
       <c r="L136">
-        <v>-94.570599999999999</v>
+        <v>-87.0261</v>
       </c>
       <c r="M136" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>6147</v>
+        <v>6089</v>
       </c>
       <c r="B137">
-        <v>2161126</v>
+        <v>222191</v>
       </c>
       <c r="C137">
-        <v>5375976620.770298</v>
+        <v>1254213253.6670938</v>
       </c>
       <c r="D137">
-        <v>280947.3438665166</v>
+        <v>1082804.1089992577</v>
       </c>
       <c r="E137">
-        <v>6434807.4180273507</v>
+        <v>11631548.457432184</v>
       </c>
       <c r="F137">
-        <v>2487.5812982539187</v>
+        <v>5644.7527292603827</v>
       </c>
       <c r="G137">
-        <v>0.13000044600199923</v>
+        <v>4.8733031895947976</v>
       </c>
       <c r="H137">
-        <v>2.9775253354165141</v>
+        <v>52.349323138345767</v>
       </c>
       <c r="I137" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J137">
-        <v>75455</v>
+        <v>59270</v>
       </c>
       <c r="K137">
-        <v>33.091700000000003</v>
+        <v>47.6785</v>
       </c>
       <c r="L137">
-        <v>-95.041700000000006</v>
+        <v>-104.15665</v>
       </c>
       <c r="M137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>6155</v>
+        <v>6090</v>
       </c>
       <c r="B138">
-        <v>7465222</v>
+        <v>7152189</v>
       </c>
       <c r="C138">
-        <v>8040436531.9909592</v>
+        <v>10370575545.177198</v>
+      </c>
+      <c r="D138">
+        <v>8953263.5540029835</v>
       </c>
       <c r="E138">
-        <v>1409349735.0201974</v>
+        <v>250142685.09210411</v>
       </c>
       <c r="F138">
-        <v>1077.0525688306334</v>
+        <v>1449.9862273182655</v>
+      </c>
+      <c r="G138">
+        <v>1.2518214429181029</v>
       </c>
       <c r="H138">
-        <v>188.78872390133841</v>
+        <v>34.974283410589976</v>
       </c>
       <c r="I138" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J138">
-        <v>63028</v>
+        <v>55308</v>
       </c>
       <c r="K138">
-        <v>38.131247999999999</v>
+        <v>45.380800000000001</v>
       </c>
       <c r="L138">
-        <v>-90.263157000000007</v>
+        <v>-93.893100000000004</v>
       </c>
       <c r="M138" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>6170</v>
+        <v>6094</v>
       </c>
       <c r="B139">
-        <v>6659324</v>
+        <v>13610817</v>
       </c>
       <c r="C139">
-        <v>8981596994.2914848</v>
+        <v>58735165593.397362</v>
       </c>
       <c r="D139">
-        <v>547814.85761291161</v>
+        <v>34488471.406716868</v>
       </c>
       <c r="E139">
-        <v>17174113.738967519</v>
+        <v>1013360291.5759234</v>
       </c>
       <c r="F139">
-        <v>1348.7250348971584</v>
+        <v>4315.3299021945095</v>
       </c>
       <c r="G139">
-        <v>8.2262832926121576E-2</v>
+        <v>2.5339016318209899</v>
       </c>
       <c r="H139">
-        <v>2.5789575246627914</v>
+        <v>74.452568980680837</v>
       </c>
       <c r="I139" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J139">
-        <v>53158</v>
+        <v>15077</v>
       </c>
       <c r="K139">
-        <v>42.5381</v>
+        <v>40.634799999999998</v>
       </c>
       <c r="L139">
-        <v>-87.903300000000002</v>
+        <v>-80.415899999999993</v>
       </c>
       <c r="M139" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6179</v>
+        <v>6095</v>
       </c>
       <c r="B140">
-        <v>8727176</v>
+        <v>5621453</v>
       </c>
       <c r="C140">
-        <v>11420363327.756954</v>
+        <v>5761783690.4481792</v>
       </c>
       <c r="D140">
-        <v>659900.16843034641</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>23919427.711029597</v>
+        <v>726821622.04254913</v>
       </c>
       <c r="F140">
-        <v>1308.5978015977853</v>
+        <v>1024.9634196796057</v>
       </c>
       <c r="G140">
-        <v>7.5614399025566395E-2</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>2.7407981357348121</v>
+        <v>129.294262896541</v>
       </c>
       <c r="I140" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J140">
-        <v>78945</v>
+        <v>73061</v>
       </c>
       <c r="K140">
-        <v>29.917200000000001</v>
+        <v>36.453069999999997</v>
       </c>
       <c r="L140">
-        <v>-96.750600000000006</v>
+        <v>-97.052790000000002</v>
       </c>
       <c r="M140" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>6183</v>
+        <v>6096</v>
       </c>
       <c r="B141">
-        <v>2169628</v>
+        <v>4776449</v>
       </c>
       <c r="C141">
-        <v>8583208452.164484</v>
+        <v>5305072294.2163801</v>
       </c>
       <c r="D141">
-        <v>487490.09575800417</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>16567851.772160821</v>
+        <v>523193496.17118382</v>
       </c>
       <c r="F141">
-        <v>3956.0737841530827</v>
+        <v>1110.6728647613279</v>
       </c>
       <c r="G141">
-        <v>0.22468833171308822</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>7.6362638075102369</v>
+        <v>109.536079244473</v>
       </c>
       <c r="I141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J141">
-        <v>78012</v>
+        <v>68410</v>
       </c>
       <c r="K141">
-        <v>28.7044</v>
+        <v>40.621400000000001</v>
       </c>
       <c r="L141">
-        <v>-98.477500000000006</v>
+        <v>-95.776399999999995</v>
       </c>
       <c r="M141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6193</v>
+        <v>6106</v>
       </c>
       <c r="B142">
-        <v>2006853</v>
+        <v>2383346</v>
       </c>
       <c r="C142">
-        <v>2227363705.5917497</v>
+        <v>2636355036.6267657</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>275004789.94685459</v>
+        <v>256441285.96453649</v>
       </c>
       <c r="F142">
-        <v>1109.8788529063911</v>
+        <v>1106.1570735540563</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>137.03285190637013</v>
+        <v>107.59717051764054</v>
       </c>
       <c r="I142" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J142">
-        <v>79108</v>
+        <v>97818</v>
       </c>
       <c r="K142">
-        <v>35.298160000000003</v>
+        <v>45.693182</v>
       </c>
       <c r="L142">
-        <v>-101.747187</v>
+        <v>-119.808819</v>
       </c>
       <c r="M142" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6213</v>
+        <v>6113</v>
       </c>
       <c r="B143">
-        <v>5178428</v>
+        <v>14585886</v>
       </c>
       <c r="C143">
-        <v>18816877343.144329</v>
+        <v>146342721660.19647</v>
       </c>
       <c r="D143">
-        <v>1103732.8629141673</v>
+        <v>14839528.605483577</v>
       </c>
       <c r="E143">
-        <v>34784653.65595942</v>
+        <v>377833605.27344972</v>
       </c>
       <c r="F143">
-        <v>3633.7045418309049</v>
+        <v>10033.173278619926</v>
       </c>
       <c r="G143">
-        <v>0.21314052506169195</v>
+        <v>1.0173895919304166</v>
       </c>
       <c r="H143">
-        <v>6.7172226119508505</v>
+        <v>25.904055829961216</v>
       </c>
       <c r="I143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J143">
-        <v>47882</v>
+        <v>47665</v>
       </c>
       <c r="K143">
-        <v>39.069400000000002</v>
+        <v>38.372222000000001</v>
       </c>
       <c r="L143">
-        <v>-87.510800000000003</v>
+        <v>-87.765833000000001</v>
       </c>
       <c r="M143" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>6249</v>
+        <v>6124</v>
       </c>
       <c r="B144">
-        <v>3910602</v>
+        <v>93260</v>
       </c>
       <c r="C144">
-        <v>24683489495.479115</v>
+        <v>128944038.66043021</v>
       </c>
       <c r="D144">
-        <v>1332561.6365911453</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>46134931.224729419</v>
+        <v>10637961.323618125</v>
       </c>
       <c r="F144">
-        <v>6311.9411015181586</v>
+        <v>1382.629623208559</v>
       </c>
       <c r="G144">
-        <v>0.34075613846439634</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>11.797398769992299</v>
+        <v>114.06778172440623</v>
       </c>
       <c r="I144" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J144">
-        <v>29440</v>
+        <v>31326</v>
       </c>
       <c r="K144">
-        <v>33.33184</v>
+        <v>32.356287000000002</v>
       </c>
       <c r="L144">
-        <v>-79.357236</v>
+        <v>-81.168346999999997</v>
       </c>
       <c r="M144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>6264</v>
+        <v>6136</v>
       </c>
       <c r="B145">
-        <v>7463219</v>
+        <v>2184313</v>
       </c>
       <c r="C145">
-        <v>36153851543.962112</v>
+        <v>2895669451.0913992</v>
       </c>
       <c r="D145">
-        <v>1933878.3568729642</v>
+        <v>214217.7362804595</v>
       </c>
       <c r="E145">
-        <v>42464456.673304446</v>
+        <v>3510889.9167755875</v>
       </c>
       <c r="F145">
-        <v>4844.2704875687168</v>
+        <v>1325.6659879291105</v>
       </c>
       <c r="G145">
-        <v>0.25912121255894593</v>
+        <v>9.8070989038869197E-2</v>
       </c>
       <c r="H145">
-        <v>5.6898312475226103</v>
+        <v>1.6073199751022804</v>
       </c>
       <c r="I145" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J145">
-        <v>25265</v>
+        <v>77830</v>
       </c>
       <c r="K145">
-        <v>38.979399999999998</v>
+        <v>30.619937</v>
       </c>
       <c r="L145">
-        <v>-81.934399999999997</v>
+        <v>-96.081845999999999</v>
       </c>
       <c r="M145" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>6639</v>
+        <v>6137</v>
       </c>
       <c r="B146">
-        <v>2584028</v>
+        <v>1131899</v>
       </c>
       <c r="C146">
-        <v>12331541918.530838</v>
+        <v>2090127970.1170113</v>
       </c>
       <c r="D146">
-        <v>647726.89256207761</v>
+        <v>156240.29170437515</v>
       </c>
       <c r="E146">
-        <v>22250078.339433193</v>
+        <v>2856175.1124228579</v>
       </c>
       <c r="F146">
-        <v>4772.2168329951674</v>
+        <v>1846.5675560425543</v>
       </c>
       <c r="G146">
-        <v>0.25066558588454835</v>
+        <v>0.13803377483713225</v>
       </c>
       <c r="H146">
-        <v>8.6106181277575899</v>
+        <v>2.5233480305423521</v>
       </c>
       <c r="I146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J146">
-        <v>42452</v>
+        <v>47620</v>
       </c>
       <c r="K146">
-        <v>37.646099999999997</v>
+        <v>37.905299999999997</v>
       </c>
       <c r="L146">
-        <v>-87.5</v>
+        <v>-87.715000000000003</v>
       </c>
       <c r="M146" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>6641</v>
+        <v>6138</v>
       </c>
       <c r="B147">
-        <v>5184267</v>
+        <v>3041196</v>
       </c>
       <c r="C147">
-        <v>5927296836.063343</v>
+        <v>2002929173.720124</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>1072145762.6568449</v>
+        <v>1848857698.8185761</v>
       </c>
       <c r="F147">
-        <v>1143.3239908483383</v>
+        <v>658.59917404867167</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>206.80758970493704</v>
+        <v>607.93769912185076</v>
       </c>
       <c r="I147" t="s">
         <v>38</v>
       </c>
       <c r="J147">
-        <v>72562</v>
+        <v>72734</v>
       </c>
       <c r="K147">
-        <v>35.678441999999997</v>
+        <v>36.256100000000004</v>
       </c>
       <c r="L147">
-        <v>-91.408760999999998</v>
+        <v>-94.524100000000004</v>
       </c>
       <c r="M147" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6648</v>
+        <v>6139</v>
       </c>
       <c r="B148">
-        <v>4104611</v>
+        <v>6130440</v>
       </c>
       <c r="C148">
-        <v>11730377900.769905</v>
+        <v>4188538021.0652165</v>
       </c>
       <c r="D148">
-        <v>666236.06754905742</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>22642717.274608072</v>
+        <v>3866342788.6755838</v>
       </c>
       <c r="F148">
-        <v>2857.853740773463</v>
+        <v>683.23611699408468</v>
       </c>
       <c r="G148">
-        <v>0.1623140579092775</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>5.5164100263357652</v>
+        <v>630.67949260992418</v>
       </c>
       <c r="I148" t="s">
         <v>11</v>
       </c>
       <c r="J148">
-        <v>76567</v>
+        <v>75686</v>
       </c>
       <c r="K148">
-        <v>30.565871000000001</v>
+        <v>33.055219999999998</v>
       </c>
       <c r="L148">
-        <v>-97.064031999999997</v>
+        <v>-94.839993000000007</v>
       </c>
       <c r="M148" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>6705</v>
+        <v>6146</v>
       </c>
       <c r="B149">
-        <v>5491581</v>
+        <v>9975515</v>
       </c>
       <c r="C149">
-        <v>17970619105.13818</v>
+        <v>27955549346.636681</v>
       </c>
       <c r="D149">
-        <v>966305.67906167998</v>
+        <v>3062970.2329426231</v>
       </c>
       <c r="E149">
-        <v>33382272.622331116</v>
+        <v>68190939.908967718</v>
       </c>
       <c r="F149">
-        <v>3272.3944352524677</v>
+        <v>2802.4166518356878</v>
       </c>
       <c r="G149">
-        <v>0.17596129039372815</v>
+        <v>0.30704883236029645</v>
       </c>
       <c r="H149">
-        <v>6.0788091120446222</v>
+        <v>6.8358315243842265</v>
       </c>
       <c r="I149" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J149">
-        <v>47630</v>
+        <v>75691</v>
       </c>
       <c r="K149">
-        <v>37.914999999999999</v>
+        <v>32.260599999999997</v>
       </c>
       <c r="L149">
-        <v>-87.332800000000006</v>
+        <v>-94.570599999999999</v>
       </c>
       <c r="M149" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>6768</v>
+        <v>6147</v>
       </c>
       <c r="B150">
-        <v>1299004</v>
+        <v>2161126</v>
       </c>
       <c r="C150">
-        <v>1490654522.3913691</v>
+        <v>5361515186.7267456</v>
+      </c>
+      <c r="D150">
+        <v>342368.69643432228</v>
       </c>
       <c r="E150">
-        <v>161536679.74767277</v>
+        <v>5691172.3764379229</v>
       </c>
       <c r="F150">
-        <v>1147.5365144305708</v>
+        <v>2480.8896782171632</v>
+      </c>
+      <c r="G150">
+        <v>0.15842144161623259</v>
       </c>
       <c r="H150">
-        <v>124.35425891504011</v>
+        <v>2.6334292292249151</v>
       </c>
       <c r="I150" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J150">
-        <v>63801</v>
+        <v>75455</v>
       </c>
       <c r="K150">
-        <v>36.879100000000001</v>
+        <v>33.091700000000003</v>
       </c>
       <c r="L150">
-        <v>-89.620900000000006</v>
+        <v>-95.041700000000006</v>
       </c>
       <c r="M150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6823</v>
+        <v>6155</v>
       </c>
       <c r="B151">
-        <v>3250811</v>
+        <v>7465222</v>
       </c>
       <c r="C151">
-        <v>10226518753.765198</v>
+        <v>8127839745.6872082</v>
       </c>
       <c r="D151">
-        <v>573126.45152054587</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>12507838.493962234</v>
+        <v>1052059882.5863143</v>
       </c>
       <c r="F151">
-        <v>3145.8361478920788</v>
+        <v>1088.760621678392</v>
       </c>
       <c r="G151">
-        <v>0.1763026061867472</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>3.8476055648766518</v>
+        <v>140.92814421142657</v>
       </c>
       <c r="I151" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J151">
-        <v>42328</v>
+        <v>63028</v>
       </c>
       <c r="K151">
-        <v>37.4497</v>
+        <v>38.131247999999999</v>
       </c>
       <c r="L151">
-        <v>-87.080600000000004</v>
+        <v>-90.263157000000007</v>
       </c>
       <c r="M151" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>7902</v>
+        <v>6166</v>
       </c>
       <c r="B152">
-        <v>4583206</v>
+        <v>12442473</v>
       </c>
       <c r="C152">
-        <v>18615214200.146648</v>
+        <v>51257694457.599274</v>
       </c>
       <c r="D152">
-        <v>876813.02018039604</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>3385378.456294965</v>
+        <v>5765622053.4781036</v>
       </c>
       <c r="F152">
-        <v>4061.6141190569765</v>
+        <v>4119.5744975777143</v>
       </c>
       <c r="G152">
-        <v>0.19130997388736096</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>0.73864854782764833</v>
+        <v>463.38232387388769</v>
       </c>
       <c r="I152" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J152">
-        <v>75650</v>
+        <v>47635</v>
       </c>
       <c r="K152">
-        <v>32.460700000000003</v>
+        <v>37.925600000000003</v>
       </c>
       <c r="L152">
-        <v>-94.485200000000006</v>
+        <v>-87.037199999999999</v>
       </c>
       <c r="M152" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>8042</v>
+        <v>6170</v>
       </c>
       <c r="B153">
-        <v>12498933</v>
+        <v>6659324</v>
       </c>
       <c r="C153">
-        <v>70751145818.678345</v>
+        <v>9060157385.6187363</v>
       </c>
       <c r="D153">
-        <v>3801789.546693502</v>
+        <v>897192.96506492514</v>
       </c>
       <c r="E153">
-        <v>140806834.14877334</v>
+        <v>19789010.332774997</v>
       </c>
       <c r="F153">
-        <v>5660.5748521636488</v>
+        <v>1360.5220868692884</v>
       </c>
       <c r="G153">
-        <v>0.30416912761221315</v>
+        <v>0.13472733344479487</v>
       </c>
       <c r="H153">
-        <v>11.265508355695109</v>
+        <v>2.9716244971373964</v>
       </c>
       <c r="I153" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J153">
-        <v>27052</v>
+        <v>53158</v>
       </c>
       <c r="K153">
-        <v>36.281100000000002</v>
+        <v>42.5381</v>
       </c>
       <c r="L153">
-        <v>-80.060299999999998</v>
+        <v>-87.903300000000002</v>
       </c>
       <c r="M153" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>8066</v>
+        <v>6177</v>
       </c>
       <c r="B154">
-        <v>13439341</v>
+        <v>4935387</v>
       </c>
       <c r="C154">
-        <v>15179951011.781172</v>
+        <v>7101776244.1850424</v>
       </c>
       <c r="D154">
-        <v>829901.84480830259</v>
+        <v>2904200.7362773214</v>
       </c>
       <c r="E154">
-        <v>28116293.687446728</v>
+        <v>77997388.692233875</v>
       </c>
       <c r="F154">
-        <v>1129.5160240209079</v>
+        <v>1438.950227040968</v>
       </c>
       <c r="G154">
-        <v>6.1751677021090731E-2</v>
+        <v>0.58844437858212972</v>
       </c>
       <c r="H154">
-        <v>2.0920887182970302</v>
+        <v>15.803702666525215</v>
       </c>
       <c r="I154" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J154">
-        <v>82942</v>
+        <v>85936</v>
       </c>
       <c r="K154">
-        <v>41.7378</v>
+        <v>34.578899999999997</v>
       </c>
       <c r="L154">
-        <v>-108.78749999999999</v>
+        <v>-109.27079999999999</v>
       </c>
       <c r="M154" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>8102</v>
+        <v>6179</v>
       </c>
       <c r="B155">
-        <v>14171621</v>
+        <v>8727176</v>
       </c>
       <c r="C155">
-        <v>79337497904.338455</v>
+        <v>11440090438.620022</v>
       </c>
       <c r="D155">
-        <v>4272000.3159768172</v>
+        <v>1229315.1718624292</v>
       </c>
       <c r="E155">
-        <v>143726525.33927959</v>
+        <v>29845989.678044133</v>
       </c>
       <c r="F155">
-        <v>5598.3361327782095</v>
+        <v>1310.8582247705353</v>
       </c>
       <c r="G155">
-        <v>0.30144754195563211</v>
+        <v>0.14086059131412376</v>
       </c>
       <c r="H155">
-        <v>10.141855002986574</v>
+        <v>3.4198908877332292</v>
       </c>
       <c r="I155" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J155">
-        <v>45620</v>
+        <v>78945</v>
       </c>
       <c r="K155">
-        <v>38.934699999999999</v>
+        <v>29.917200000000001</v>
       </c>
       <c r="L155">
-        <v>-82.115799999999993</v>
+        <v>-96.750600000000006</v>
       </c>
       <c r="M155" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>8226</v>
+        <v>6183</v>
       </c>
       <c r="B156">
-        <v>1940463</v>
+        <v>2169628</v>
       </c>
       <c r="C156">
-        <v>10418693209.484459</v>
+        <v>8583208452.1644831</v>
       </c>
       <c r="D156">
-        <v>555793.05143970135</v>
+        <v>522308.96427612251</v>
       </c>
       <c r="E156">
-        <v>10176827.835570175</v>
+        <v>9770441.9836489055</v>
       </c>
       <c r="F156">
-        <v>5369.1790101045262</v>
+        <v>3956.0737841530822</v>
       </c>
       <c r="G156">
-        <v>0.28642290599702303</v>
+        <v>0.24073664438148959</v>
       </c>
       <c r="H156">
-        <v>5.2445358842555478</v>
+        <v>4.5032798173921549</v>
       </c>
       <c r="I156" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J156">
-        <v>15024</v>
+        <v>78012</v>
       </c>
       <c r="K156">
-        <v>40.5383</v>
+        <v>28.7044</v>
       </c>
       <c r="L156">
-        <v>-79.790599999999998</v>
+        <v>-98.477500000000006</v>
       </c>
       <c r="M156" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>10234</v>
+        <v>6193</v>
       </c>
       <c r="B157">
-        <v>166824</v>
+        <v>2006853</v>
       </c>
       <c r="C157">
-        <v>423243963.01646668</v>
+        <v>2244893777.1120672</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>83341407.504733786</v>
+        <v>211694334.70729098</v>
       </c>
       <c r="F157">
-        <v>2537.0687851656039</v>
+        <v>1118.6139578295308</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>499.57684448720681</v>
+        <v>105.48572053224176</v>
       </c>
       <c r="I157" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J157">
-        <v>54494</v>
+        <v>79108</v>
       </c>
       <c r="K157">
-        <v>44.43</v>
+        <v>35.298160000000003</v>
       </c>
       <c r="L157">
-        <v>-89.78</v>
+        <v>-101.747187</v>
       </c>
       <c r="M157" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>50282</v>
+        <v>6204</v>
       </c>
       <c r="B158">
-        <v>97358</v>
+        <v>10724956</v>
       </c>
       <c r="C158">
-        <v>14189541.854279999</v>
+        <v>10570555830.810272</v>
+      </c>
+      <c r="D158">
+        <v>3261765.6835613428</v>
       </c>
       <c r="E158">
-        <v>13098038.634719998</v>
+        <v>2469362422.0605931</v>
       </c>
       <c r="F158">
-        <v>145.74602861891162</v>
+        <v>985.60365476653442</v>
+      </c>
+      <c r="G158">
+        <v>0.30412858416960803</v>
       </c>
       <c r="H158">
-        <v>134.53479564822612</v>
+        <v>230.24452706944373</v>
       </c>
       <c r="I158" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J158">
-        <v>21540</v>
+        <v>82201</v>
       </c>
       <c r="K158">
-        <v>39.473599999999998</v>
+        <v>42.108888999999998</v>
       </c>
       <c r="L158">
-        <v>-79.056899999999999</v>
+        <v>-104.88249999999999</v>
       </c>
       <c r="M158" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>50397</v>
+        <v>6213</v>
       </c>
       <c r="B159">
-        <v>152235.4</v>
+        <v>5178428</v>
       </c>
       <c r="C159">
-        <v>644877679.00686002</v>
+        <v>19775695841.699287</v>
+      </c>
+      <c r="D159">
+        <v>1639255.0885885071</v>
       </c>
       <c r="E159">
-        <v>595271703.69863987</v>
+        <v>35133029.042165741</v>
       </c>
       <c r="F159">
-        <v>4236.0559962194075</v>
+        <v>3818.8608283632184</v>
+      </c>
+      <c r="G159">
+        <v>0.31655457768042872</v>
       </c>
       <c r="H159">
-        <v>3910.2055349717602</v>
+        <v>6.7844969635892856</v>
       </c>
       <c r="I159" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J159">
-        <v>17362</v>
+        <v>47882</v>
       </c>
       <c r="K159">
-        <v>39.870935000000003</v>
+        <v>39.069400000000002</v>
       </c>
       <c r="L159">
-        <v>-76.868116999999998</v>
+        <v>-87.510800000000003</v>
       </c>
       <c r="M159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>50491</v>
+        <v>6249</v>
       </c>
       <c r="B160">
-        <v>334348.61</v>
+        <v>3910602</v>
       </c>
       <c r="C160">
-        <v>1346990316.7086997</v>
+        <v>24196807387.909721</v>
+      </c>
+      <c r="D160">
+        <v>2412461.2010067524</v>
       </c>
       <c r="E160">
-        <v>135319369.82411471</v>
+        <v>60927905.921423644</v>
       </c>
       <c r="F160">
-        <v>4028.700214152826</v>
+        <v>6187.4891354092588</v>
+      </c>
+      <c r="G160">
+        <v>0.61690276868030858</v>
       </c>
       <c r="H160">
-        <v>404.72538475369981</v>
+        <v>15.580185843873561</v>
       </c>
       <c r="I160" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J160">
-        <v>26155</v>
+        <v>29440</v>
       </c>
       <c r="K160">
-        <v>39.747500000000002</v>
+        <v>33.33184</v>
       </c>
       <c r="L160">
-        <v>-80.854699999999994</v>
+        <v>-79.357236</v>
       </c>
       <c r="M160" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>50806</v>
+        <v>6264</v>
       </c>
       <c r="B161">
-        <v>323907.27</v>
+        <v>7463219</v>
       </c>
       <c r="C161">
-        <v>387864098.18909997</v>
+        <v>35996180311.231125</v>
+      </c>
+      <c r="D161">
+        <v>2077176.6749117675</v>
       </c>
       <c r="E161">
-        <v>358028398.32839996</v>
+        <v>37693779.643346347</v>
       </c>
       <c r="F161">
-        <v>1197.4541299709017</v>
+        <v>4823.1440496696023</v>
+      </c>
+      <c r="G161">
+        <v>0.27832181728980043</v>
       </c>
       <c r="H161">
-        <v>1105.3422738192937</v>
+        <v>5.0506061316633408</v>
       </c>
       <c r="I161" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J161">
-        <v>29501</v>
+        <v>25265</v>
       </c>
       <c r="K161">
-        <v>34.149700000000003</v>
+        <v>38.979399999999998</v>
       </c>
       <c r="L161">
-        <v>-79.560599999999994</v>
+        <v>-81.934399999999997</v>
       </c>
       <c r="M161" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>55856</v>
+        <v>6639</v>
       </c>
       <c r="B162">
-        <v>11106837</v>
+        <v>2584028</v>
       </c>
       <c r="C162">
-        <v>18263142973.661293</v>
+        <v>12191949007.940586</v>
       </c>
       <c r="D162">
-        <v>1004547.349931256</v>
+        <v>1020399.1061605532</v>
       </c>
       <c r="E162">
-        <v>37897296.776849344</v>
+        <v>20185127.907025948</v>
       </c>
       <c r="F162">
-        <v>1644.3153864292142</v>
+        <v>4718.1953941445627</v>
       </c>
       <c r="G162">
-        <v>9.0444052607529579E-2</v>
+        <v>0.3948870159923008</v>
       </c>
       <c r="H162">
-        <v>3.4120692305873712</v>
+        <v>7.8114973626547197</v>
       </c>
       <c r="I162" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J162">
-        <v>62257</v>
+        <v>42452</v>
       </c>
       <c r="K162">
-        <v>38.279167000000001</v>
+        <v>37.646099999999997</v>
       </c>
       <c r="L162">
-        <v>-89.666944000000001</v>
+        <v>-87.5</v>
       </c>
       <c r="M162" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>56163</v>
+        <v>6641</v>
       </c>
       <c r="B163">
-        <v>254563</v>
+        <v>5184267</v>
       </c>
       <c r="C163">
-        <v>48479928.724335104</v>
+        <v>6058490648.1897888</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>44750703.437847778</v>
+        <v>772174922.95900905</v>
       </c>
       <c r="F163">
-        <v>190.44373583095384</v>
+        <v>1168.6301357915765</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>175.7942176901112</v>
+        <v>148.94582454163896</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J163">
-        <v>84044</v>
+        <v>72562</v>
       </c>
       <c r="K163">
-        <v>40.7119</v>
+        <v>35.678441999999997</v>
       </c>
       <c r="L163">
-        <v>-112.1225</v>
+        <v>-91.408760999999998</v>
       </c>
       <c r="M163" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>6648</v>
+      </c>
+      <c r="B164">
+        <v>4104611</v>
+      </c>
+      <c r="C164">
+        <v>12787535470.864618</v>
+      </c>
+      <c r="D164">
+        <v>714910.72294082458</v>
+      </c>
+      <c r="E164">
+        <v>14428829.484429255</v>
+      </c>
+      <c r="F164">
+        <v>3115.4073969164479</v>
+      </c>
+      <c r="G164">
+        <v>0.17417258856949527</v>
+      </c>
+      <c r="H164">
+        <v>3.5152733071244158</v>
+      </c>
+      <c r="I164" t="s">
+        <v>11</v>
+      </c>
+      <c r="J164">
+        <v>76567</v>
+      </c>
+      <c r="K164">
+        <v>30.565871000000001</v>
+      </c>
+      <c r="L164">
+        <v>-97.064031999999997</v>
+      </c>
+      <c r="M164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6705</v>
+      </c>
+      <c r="B165">
+        <v>5491581</v>
+      </c>
+      <c r="C165">
+        <v>18238000593.367004</v>
+      </c>
+      <c r="D165">
+        <v>1787082.8128103851</v>
+      </c>
+      <c r="E165">
+        <v>43535828.860409811</v>
+      </c>
+      <c r="F165">
+        <v>3321.0837814041174</v>
+      </c>
+      <c r="G165">
+        <v>0.32542228054368771</v>
+      </c>
+      <c r="H165">
+        <v>7.9277404558741473</v>
+      </c>
+      <c r="I165" t="s">
+        <v>18</v>
+      </c>
+      <c r="J165">
+        <v>47630</v>
+      </c>
+      <c r="K165">
+        <v>37.914999999999999</v>
+      </c>
+      <c r="L165">
+        <v>-87.332800000000006</v>
+      </c>
+      <c r="M165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>6768</v>
+      </c>
+      <c r="B166">
+        <v>1299004</v>
+      </c>
+      <c r="C166">
+        <v>1496560541.7357504</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>142999683.71105459</v>
+      </c>
+      <c r="F166">
+        <v>1152.0830896100015</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>110.08409805593716</v>
+      </c>
+      <c r="I166" t="s">
+        <v>26</v>
+      </c>
+      <c r="J166">
+        <v>63801</v>
+      </c>
+      <c r="K166">
+        <v>36.879100000000001</v>
+      </c>
+      <c r="L166">
+        <v>-89.620900000000006</v>
+      </c>
+      <c r="M166" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>6772</v>
+      </c>
+      <c r="B167">
+        <v>2477354</v>
+      </c>
+      <c r="C167">
+        <v>3059114910.1410174</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>289893596.78817743</v>
+      </c>
+      <c r="F167">
+        <v>1234.8315622801656</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>117.01742939772734</v>
+      </c>
+      <c r="I167" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167">
+        <v>74735</v>
+      </c>
+      <c r="K167">
+        <v>34.015799999999999</v>
+      </c>
+      <c r="L167">
+        <v>-95.320599999999999</v>
+      </c>
+      <c r="M167" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>6823</v>
+      </c>
+      <c r="B168">
+        <v>3250811</v>
+      </c>
+      <c r="C168">
+        <v>9932172538.9659233</v>
+      </c>
+      <c r="D168">
+        <v>691797.85153473192</v>
+      </c>
+      <c r="E168">
+        <v>11129782.526371643</v>
+      </c>
+      <c r="F168">
+        <v>3055.2906763776555</v>
+      </c>
+      <c r="G168">
+        <v>0.2128077736708569</v>
+      </c>
+      <c r="H168">
+        <v>3.4236941262877614</v>
+      </c>
+      <c r="I168" t="s">
+        <v>21</v>
+      </c>
+      <c r="J168">
+        <v>42328</v>
+      </c>
+      <c r="K168">
+        <v>37.4497</v>
+      </c>
+      <c r="L168">
+        <v>-87.080600000000004</v>
+      </c>
+      <c r="M168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>7504</v>
+      </c>
+      <c r="B169">
+        <v>602999</v>
+      </c>
+      <c r="C169">
+        <v>867860597.18030417</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>85663863.111272767</v>
+      </c>
+      <c r="F169">
+        <v>1439.2405247443266</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>142.06302682305073</v>
+      </c>
+      <c r="I169" t="s">
+        <v>37</v>
+      </c>
+      <c r="J169">
+        <v>82718</v>
+      </c>
+      <c r="K169">
+        <v>44.285600000000002</v>
+      </c>
+      <c r="L169">
+        <v>-105.38330000000001</v>
+      </c>
+      <c r="M169" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7902</v>
+      </c>
+      <c r="B170">
+        <v>4583206</v>
+      </c>
+      <c r="C170">
+        <v>18582229037.965981</v>
+      </c>
+      <c r="D170">
+        <v>876813.02018039476</v>
+      </c>
+      <c r="E170">
+        <v>12226858.55359629</v>
+      </c>
+      <c r="F170">
+        <v>4054.4171564546696</v>
+      </c>
+      <c r="G170">
+        <v>0.19130997388736068</v>
+      </c>
+      <c r="H170">
+        <v>2.667752344886154</v>
+      </c>
+      <c r="I170" t="s">
+        <v>11</v>
+      </c>
+      <c r="J170">
+        <v>75650</v>
+      </c>
+      <c r="K170">
+        <v>32.460700000000003</v>
+      </c>
+      <c r="L170">
+        <v>-94.485200000000006</v>
+      </c>
+      <c r="M170" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>8042</v>
+      </c>
+      <c r="B171">
+        <v>12498933</v>
+      </c>
+      <c r="C171">
+        <v>69573198367.285126</v>
+      </c>
+      <c r="D171">
+        <v>5853721.8638974093</v>
+      </c>
+      <c r="E171">
+        <v>121874744.21150032</v>
+      </c>
+      <c r="F171">
+        <v>5566.3310113979433</v>
+      </c>
+      <c r="G171">
+        <v>0.46833772642011995</v>
+      </c>
+      <c r="H171">
+        <v>9.7508118662209249</v>
+      </c>
+      <c r="I171" t="s">
+        <v>29</v>
+      </c>
+      <c r="J171">
+        <v>27052</v>
+      </c>
+      <c r="K171">
+        <v>36.281100000000002</v>
+      </c>
+      <c r="L171">
+        <v>-80.060299999999998</v>
+      </c>
+      <c r="M171" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>8066</v>
+      </c>
+      <c r="B172">
+        <v>13439341</v>
+      </c>
+      <c r="C172">
+        <v>15219264606.92329</v>
+      </c>
+      <c r="D172">
+        <v>1641545.7965494557</v>
+      </c>
+      <c r="E172">
+        <v>48861360.634493232</v>
+      </c>
+      <c r="F172">
+        <v>1132.4412861406888</v>
+      </c>
+      <c r="G172">
+        <v>0.12214481324266238</v>
+      </c>
+      <c r="H172">
+        <v>3.6356961724903947</v>
+      </c>
+      <c r="I172" t="s">
+        <v>37</v>
+      </c>
+      <c r="J172">
+        <v>82942</v>
+      </c>
+      <c r="K172">
+        <v>41.7378</v>
+      </c>
+      <c r="L172">
+        <v>-108.78749999999999</v>
+      </c>
+      <c r="M172" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>8102</v>
+      </c>
+      <c r="B173">
+        <v>14171621</v>
+      </c>
+      <c r="C173">
+        <v>78947142084.63858</v>
+      </c>
+      <c r="D173">
+        <v>6940416.6638765726</v>
+      </c>
+      <c r="E173">
+        <v>149601678.38460678</v>
+      </c>
+      <c r="F173">
+        <v>5570.7912372648534</v>
+      </c>
+      <c r="G173">
+        <v>0.48974049361583782</v>
+      </c>
+      <c r="H173">
+        <v>10.55642670549874</v>
+      </c>
+      <c r="I173" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173">
+        <v>45620</v>
+      </c>
+      <c r="K173">
+        <v>38.934699999999999</v>
+      </c>
+      <c r="L173">
+        <v>-82.115799999999993</v>
+      </c>
+      <c r="M173" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>8226</v>
+      </c>
+      <c r="B174">
+        <v>1940463</v>
+      </c>
+      <c r="C174">
+        <v>10387446459.255871</v>
+      </c>
+      <c r="D174">
+        <v>609911.83991115121</v>
+      </c>
+      <c r="E174">
+        <v>10137288.204639822</v>
+      </c>
+      <c r="F174">
+        <v>5353.0762808957807</v>
+      </c>
+      <c r="G174">
+        <v>0.31431253258173497</v>
+      </c>
+      <c r="H174">
+        <v>5.2241594942237102</v>
+      </c>
+      <c r="I174" t="s">
+        <v>32</v>
+      </c>
+      <c r="J174">
+        <v>15024</v>
+      </c>
+      <c r="K174">
+        <v>40.5383</v>
+      </c>
+      <c r="L174">
+        <v>-79.790599999999998</v>
+      </c>
+      <c r="M174" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>10075</v>
+      </c>
+      <c r="B175">
+        <v>825950</v>
+      </c>
+      <c r="C175">
+        <v>1185821661.9970236</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>139086403.54375556</v>
+      </c>
+      <c r="F175">
+        <v>1435.7063526811835</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>168.39566988771179</v>
+      </c>
+      <c r="I175" t="s">
+        <v>24</v>
+      </c>
+      <c r="J175">
+        <v>55613</v>
+      </c>
+      <c r="K175">
+        <v>47.531399999999998</v>
+      </c>
+      <c r="L175">
+        <v>-90.9114</v>
+      </c>
+      <c r="M175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>10234</v>
+      </c>
+      <c r="B176">
+        <v>166824</v>
+      </c>
+      <c r="C176">
+        <v>443975648.89935935</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>57871999.784615837</v>
+      </c>
+      <c r="F176">
+        <v>2661.3415869380865</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>346.90452084002203</v>
+      </c>
+      <c r="I176" t="s">
+        <v>36</v>
+      </c>
+      <c r="J176">
+        <v>54494</v>
+      </c>
+      <c r="K176">
+        <v>44.43</v>
+      </c>
+      <c r="L176">
+        <v>-89.78</v>
+      </c>
+      <c r="M176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>50282</v>
+      </c>
+      <c r="B177">
+        <v>97358</v>
+      </c>
+      <c r="C177">
+        <v>34671837.052631997</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>32004772.663967997</v>
+      </c>
+      <c r="F177">
+        <v>356.12725253838408</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>328.73284849696989</v>
+      </c>
+      <c r="I177" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177">
+        <v>21540</v>
+      </c>
+      <c r="K177">
+        <v>39.473599999999998</v>
+      </c>
+      <c r="L177">
+        <v>-79.056899999999999</v>
+      </c>
+      <c r="M177" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>50397</v>
+      </c>
+      <c r="B178">
+        <v>152235.4</v>
+      </c>
+      <c r="C178">
+        <v>644877679.00686002</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>595271703.69863987</v>
+      </c>
+      <c r="F178">
+        <v>4236.0559962194075</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>3910.2055349717602</v>
+      </c>
+      <c r="I178" t="s">
+        <v>32</v>
+      </c>
+      <c r="J178">
+        <v>17362</v>
+      </c>
+      <c r="K178">
+        <v>39.870935000000003</v>
+      </c>
+      <c r="L178">
+        <v>-76.868116999999998</v>
+      </c>
+      <c r="M178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>50491</v>
+      </c>
+      <c r="B179">
+        <v>334348.61</v>
+      </c>
+      <c r="C179">
+        <v>1437635831.145437</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>118503136.76371145</v>
+      </c>
+      <c r="F179">
+        <v>4299.8110000978832</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>354.4298771384498</v>
+      </c>
+      <c r="I179" t="s">
+        <v>35</v>
+      </c>
+      <c r="J179">
+        <v>26155</v>
+      </c>
+      <c r="K179">
+        <v>39.747500000000002</v>
+      </c>
+      <c r="L179">
+        <v>-80.854699999999994</v>
+      </c>
+      <c r="M179" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>50806</v>
+      </c>
+      <c r="B180">
+        <v>323907.27</v>
+      </c>
+      <c r="C180">
+        <v>387864098.18909997</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>358028398.32839996</v>
+      </c>
+      <c r="F180">
+        <v>1197.4541299709017</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1105.3422738192937</v>
+      </c>
+      <c r="I180" t="s">
+        <v>12</v>
+      </c>
+      <c r="J180">
+        <v>29501</v>
+      </c>
+      <c r="K180">
+        <v>34.149700000000003</v>
+      </c>
+      <c r="L180">
+        <v>-79.560599999999994</v>
+      </c>
+      <c r="M180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>55856</v>
+      </c>
+      <c r="B181">
+        <v>11106837</v>
+      </c>
+      <c r="C181">
+        <v>18389886417.716667</v>
+      </c>
+      <c r="D181">
+        <v>2148139.3298867568</v>
+      </c>
+      <c r="E181">
+        <v>42024984.12542443</v>
+      </c>
+      <c r="F181">
+        <v>1655.7266859787956</v>
+      </c>
+      <c r="G181">
+        <v>0.19340693753647026</v>
+      </c>
+      <c r="H181">
+        <v>3.7837040487246214</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181">
+        <v>62257</v>
+      </c>
+      <c r="K181">
+        <v>38.279167000000001</v>
+      </c>
+      <c r="L181">
+        <v>-89.666944000000001</v>
+      </c>
+      <c r="M181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>56163</v>
       </c>
-      <c r="B164">
+      <c r="B182">
         <v>254563</v>
       </c>
-      <c r="C164">
+      <c r="C182">
         <v>48479928.724335104</v>
       </c>
-      <c r="E164">
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
         <v>44750703.437847778</v>
       </c>
-      <c r="F164">
+      <c r="F182">
         <v>190.44373583095384</v>
       </c>
-      <c r="H164">
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
         <v>175.7942176901112</v>
       </c>
-      <c r="I164" t="s">
-        <v>40</v>
-      </c>
-      <c r="J164">
+      <c r="I182" t="s">
+        <v>42</v>
+      </c>
+      <c r="J182">
         <v>84044</v>
       </c>
-      <c r="K164">
+      <c r="K182">
         <v>40.7119</v>
       </c>
-      <c r="L164">
+      <c r="L182">
         <v>-112.1225</v>
+      </c>
+      <c r="M182" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/r_map/data_boot_cq_remov_As.xlsx
+++ b/r_map/data_boot_cq_remov_As.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="65">
   <si>
     <t>Plant_Code</t>
   </si>
@@ -538,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,22 +647,22 @@
         <v>5806845</v>
       </c>
       <c r="C3">
-        <v>24848805861.799637</v>
+        <v>24772791993.021297</v>
       </c>
       <c r="D3">
-        <v>9753303.2126712948</v>
+        <v>9673616.4871618971</v>
       </c>
       <c r="E3">
-        <v>1293615167.7923987</v>
+        <v>1211928766.5127215</v>
       </c>
       <c r="F3">
-        <v>4279.2266474823482</v>
+        <v>4266.1362569555922</v>
       </c>
       <c r="G3">
-        <v>1.6796217589192226</v>
+        <v>1.6658988636965335</v>
       </c>
       <c r="H3">
-        <v>222.77418594648191</v>
+        <v>208.70692544965837</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -688,22 +688,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>17240020679.628044</v>
+        <v>17369792251.826015</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2531464729.7876897</v>
+        <v>1385395943.2065969</v>
       </c>
       <c r="F4">
-        <v>6323.4015016329486</v>
+        <v>6370.9999221775124</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>928.50630350958977</v>
+        <v>508.14409973305186</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -729,22 +729,22 @@
         <v>1657543</v>
       </c>
       <c r="C5">
-        <v>13648429531.319494</v>
+        <v>13633442265.456619</v>
       </c>
       <c r="D5">
-        <v>5560470.1081746873</v>
+        <v>5550454.570667211</v>
       </c>
       <c r="E5">
-        <v>166159385.7409434</v>
+        <v>199213544.09527925</v>
       </c>
       <c r="F5">
-        <v>8234.1330097134705</v>
+        <v>8225.0911532651753</v>
       </c>
       <c r="G5">
-        <v>3.3546460684125163</v>
+        <v>3.3486036686029932</v>
       </c>
       <c r="H5">
-        <v>100.24438928036462</v>
+        <v>120.18604892619935</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -770,22 +770,22 @@
         <v>541762</v>
       </c>
       <c r="C6">
-        <v>381062162.22547197</v>
+        <v>386165673.32670599</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>351749688.20812798</v>
+        <v>356460621.53234392</v>
       </c>
       <c r="F6">
-        <v>703.37558231376875</v>
+        <v>712.79579100547107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>649.26976828963268</v>
+        <v>657.9653455435116</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -811,22 +811,22 @@
         <v>324142</v>
       </c>
       <c r="C7">
-        <v>440098985.31362391</v>
+        <v>433733463.83028477</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>41814891.123314433</v>
+        <v>40676710.708581835</v>
       </c>
       <c r="F7">
-        <v>1357.7351448242557</v>
+        <v>1338.0970803854013</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>129.0017681242</v>
+        <v>125.49040454054654</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -852,22 +852,22 @@
         <v>2081937</v>
       </c>
       <c r="C8">
-        <v>2720017157.5384912</v>
+        <v>2718848006.3654871</v>
       </c>
       <c r="D8">
-        <v>201265.78030415569</v>
+        <v>203164.51408060998</v>
       </c>
       <c r="E8">
-        <v>3290161.0767286243</v>
+        <v>3302101.6639514952</v>
       </c>
       <c r="F8">
-        <v>1306.483893383177</v>
+        <v>1305.9223244341626</v>
       </c>
       <c r="G8">
-        <v>9.6672368234079945E-2</v>
+        <v>9.7584371707986353E-2</v>
       </c>
       <c r="H8">
-        <v>1.5803365215799634</v>
+        <v>1.5860718474917805</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -893,22 +893,22 @@
         <v>8921964</v>
       </c>
       <c r="C9">
-        <v>46912652861.323288</v>
+        <v>46650191727.175949</v>
       </c>
       <c r="D9">
-        <v>4441238.4020669907</v>
+        <v>2646248.0567307342</v>
       </c>
       <c r="E9">
-        <v>105510875.43098941</v>
+        <v>50048979.760964021</v>
       </c>
       <c r="F9">
-        <v>5258.108288861431</v>
+        <v>5228.6908720070996</v>
       </c>
       <c r="G9">
-        <v>0.49778707939944511</v>
+        <v>0.29659927530874752</v>
       </c>
       <c r="H9">
-        <v>11.82596964423858</v>
+        <v>5.609637044149026</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -934,22 +934,22 @@
         <v>7744214</v>
       </c>
       <c r="C10">
-        <v>21721492877.21735</v>
+        <v>21845771405.552444</v>
       </c>
       <c r="D10">
-        <v>1907581.9562802452</v>
+        <v>1543645.7585957521</v>
       </c>
       <c r="E10">
-        <v>40882532.297458507</v>
+        <v>24115011.192159534</v>
       </c>
       <c r="F10">
-        <v>2804.8673341435751</v>
+        <v>2820.9152543502082</v>
       </c>
       <c r="G10">
-        <v>0.24632350762520833</v>
+        <v>0.19932891299178354</v>
       </c>
       <c r="H10">
-        <v>5.2791067366499052</v>
+        <v>3.1139391540780683</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -975,22 +975,22 @@
         <v>1912394</v>
       </c>
       <c r="C11">
-        <v>1538224257.9399877</v>
+        <v>1557857405.0563226</v>
       </c>
       <c r="D11">
-        <v>628955.06591951568</v>
+        <v>636176.29107324989</v>
       </c>
       <c r="E11">
-        <v>18487969.233076029</v>
+        <v>17138117.366225459</v>
       </c>
       <c r="F11">
-        <v>804.34484627121174</v>
+        <v>814.61111311598063</v>
       </c>
       <c r="G11">
-        <v>0.32888362226586976</v>
+        <v>0.33265963555274169</v>
       </c>
       <c r="H11">
-        <v>9.6674478340112078</v>
+        <v>8.9616038150221442</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1016,22 +1016,22 @@
         <v>2014725</v>
       </c>
       <c r="C12">
-        <v>2756861292.5125194</v>
+        <v>2776763320.9511518</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>261749759.4313058</v>
+        <v>268751834.24792737</v>
       </c>
       <c r="F12">
-        <v>1368.356124291166</v>
+        <v>1378.2344096346408</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>129.91835582092136</v>
+        <v>133.39380523293619</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1057,22 +1057,22 @@
         <v>9164672</v>
       </c>
       <c r="C13">
-        <v>21207090579.679779</v>
+        <v>21595338983.16539</v>
       </c>
       <c r="D13">
-        <v>1919160.0053293156</v>
+        <v>1358331.5338211404</v>
       </c>
       <c r="E13">
-        <v>38658900.801836133</v>
+        <v>24381500.489247091</v>
       </c>
       <c r="F13">
-        <v>2314.0043178500855</v>
+        <v>2356.3679074565234</v>
       </c>
       <c r="G13">
-        <v>0.20940847695687481</v>
+        <v>0.14821387321020768</v>
       </c>
       <c r="H13">
-        <v>4.2182525246769478</v>
+        <v>2.6603789518323286</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1098,22 +1098,22 @@
         <v>3900879</v>
       </c>
       <c r="C14">
-        <v>8270406561.6793118</v>
+        <v>8271701610.075038</v>
       </c>
       <c r="D14">
-        <v>834080.03483464732</v>
+        <v>638324.57592388778</v>
       </c>
       <c r="E14">
-        <v>17295457.629900899</v>
+        <v>11409451.373729937</v>
       </c>
       <c r="F14">
-        <v>2120.1392203345226</v>
+        <v>2120.4712092005516</v>
       </c>
       <c r="G14">
-        <v>0.21381848420180358</v>
+        <v>0.16363608712905162</v>
       </c>
       <c r="H14">
-        <v>4.4337334303117064</v>
+        <v>2.9248411380434862</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1139,22 +1139,22 @@
         <v>9744872</v>
       </c>
       <c r="C15">
-        <v>54132432620.484505</v>
+        <v>53923436619.399551</v>
       </c>
       <c r="D15">
-        <v>3433316.5085753491</v>
+        <v>2337737.9337056568</v>
       </c>
       <c r="E15">
-        <v>1531036885.1428409</v>
+        <v>968361858.11733317</v>
       </c>
       <c r="F15">
-        <v>5554.9659985769449</v>
+        <v>5533.5192313864718</v>
       </c>
       <c r="G15">
-        <v>0.35232032894586496</v>
+        <v>0.23989416522922588</v>
       </c>
       <c r="H15">
-        <v>157.11205700216902</v>
+        <v>99.371429210905305</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1180,22 +1180,22 @@
         <v>2476429</v>
       </c>
       <c r="C16">
-        <v>14970673134.667683</v>
+        <v>14978677822.881842</v>
       </c>
       <c r="D16">
-        <v>1071581.5784364399</v>
+        <v>751975.94563126413</v>
       </c>
       <c r="E16">
-        <v>25411701.962227881</v>
+        <v>14496630.901147492</v>
       </c>
       <c r="F16">
-        <v>6045.2664440077551</v>
+        <v>6048.4987951933372</v>
       </c>
       <c r="G16">
-        <v>0.43271241712822767</v>
+        <v>0.30365334343575534</v>
       </c>
       <c r="H16">
-        <v>10.261429648186109</v>
+        <v>5.8538447503027511</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1221,22 +1221,22 @@
         <v>12851943</v>
       </c>
       <c r="C17">
-        <v>49011587245.287018</v>
+        <v>48805939946.803238</v>
       </c>
       <c r="D17">
-        <v>5189640.8401566632</v>
+        <v>2835786.6261227988</v>
       </c>
       <c r="E17">
-        <v>124614017.69209345</v>
+        <v>53698168.882559121</v>
       </c>
       <c r="F17">
-        <v>3813.554669927109</v>
+        <v>3797.5534086015819</v>
       </c>
       <c r="G17">
-        <v>0.40380204301844969</v>
+        <v>0.2206504204168038</v>
       </c>
       <c r="H17">
-        <v>9.6961228113207056</v>
+        <v>4.1782140554590947</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -1262,22 +1262,22 @@
         <v>1157290</v>
       </c>
       <c r="C18">
-        <v>7419084090.8090725</v>
+        <v>7429133665.8172436</v>
       </c>
       <c r="D18">
-        <v>522172.66617227689</v>
+        <v>439814.37543029943</v>
       </c>
       <c r="E18">
-        <v>12712192.74621059</v>
+        <v>8776238.3434517682</v>
       </c>
       <c r="F18">
-        <v>6410.738959819123</v>
+        <v>6419.4226735020984</v>
       </c>
       <c r="G18">
-        <v>0.45120295360046048</v>
+        <v>0.38003817144388996</v>
       </c>
       <c r="H18">
-        <v>10.984448795211737</v>
+        <v>7.5834391928140468</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -1303,22 +1303,22 @@
         <v>2981276</v>
       </c>
       <c r="C19">
-        <v>3524071446.3765345</v>
+        <v>3526738626.7850881</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>455396967.57100022</v>
+        <v>331593886.78000915</v>
       </c>
       <c r="F19">
-        <v>1182.0681635569917</v>
+        <v>1182.9628074640148</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>152.75236763419429</v>
+        <v>111.22549095756621</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1344,22 +1344,22 @@
         <v>1265697</v>
       </c>
       <c r="C20">
-        <v>1539334771.4166911</v>
+        <v>1555481430.9353902</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>145159852.83992732</v>
+        <v>150625829.71680838</v>
       </c>
       <c r="F20">
-        <v>1216.1953227484075</v>
+        <v>1228.9524514440582</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>114.68768025832985</v>
+        <v>119.00623112546556</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1385,22 +1385,22 @@
         <v>5057931</v>
       </c>
       <c r="C21">
-        <v>5410726867.8278637</v>
+        <v>5426301544.5791168</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>684020011.54538369</v>
+        <v>509892415.12094128</v>
       </c>
       <c r="F21">
-        <v>1069.7510242484254</v>
+        <v>1072.8302826944687</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>135.23711801236189</v>
+        <v>100.81047272510069</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1426,22 +1426,22 @@
         <v>1796131</v>
       </c>
       <c r="C22">
-        <v>1495501203.3772511</v>
+        <v>1506270060.5635018</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>955572838.52955389</v>
+        <v>812560052.87841034</v>
       </c>
       <c r="F22">
-        <v>832.62368022001237</v>
+        <v>838.61926583500974</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>532.01734090083289</v>
+        <v>452.39464876359818</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>236859480.98499981</v>
+        <v>236622858.12687278</v>
       </c>
       <c r="F23">
         <v>1039.8672348513392</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>99.85505302202786</v>
+        <v>99.755297724303489</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1508,22 +1508,22 @@
         <v>4881045</v>
       </c>
       <c r="C24">
-        <v>4571407071.5807114</v>
+        <v>4465660355.4586887</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>663531487.39228797</v>
+        <v>371057180.88269585</v>
       </c>
       <c r="F24">
-        <v>936.56318914919052</v>
+        <v>914.898419387383</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>135.94045688828683</v>
+        <v>76.020028678837392</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1549,22 +1549,22 @@
         <v>2219933</v>
       </c>
       <c r="C25">
-        <v>2521161987.8811321</v>
+        <v>2549152188.5267029</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>293180266.7900461</v>
+        <v>247818457.01747075</v>
       </c>
       <c r="F25">
-        <v>1135.6928285138029</v>
+        <v>1148.3014075319854</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>132.06716904971731</v>
+        <v>111.63330470670545</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1590,22 +1590,22 @@
         <v>1056327</v>
       </c>
       <c r="C26">
-        <v>1819578859.4151711</v>
+        <v>1819628781.8491902</v>
       </c>
       <c r="D26">
-        <v>208180.67291392258</v>
+        <v>144259.15187699517</v>
       </c>
       <c r="E26">
-        <v>4788813.9578204751</v>
+        <v>2931148.6682764054</v>
       </c>
       <c r="F26">
-        <v>1722.5526370292259</v>
+        <v>1722.5998974268293</v>
       </c>
       <c r="G26">
-        <v>0.19707976120455367</v>
+        <v>0.13656675620049016</v>
       </c>
       <c r="H26">
-        <v>4.5334578760369428</v>
+        <v>2.7748497087326229</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1631,22 +1631,22 @@
         <v>1066912</v>
       </c>
       <c r="C27">
-        <v>4840901898.0654192</v>
+        <v>4761102071.8789787</v>
       </c>
       <c r="D27">
-        <v>309182.43741092517</v>
+        <v>308551.07453337859</v>
       </c>
       <c r="E27">
-        <v>5669178.3241263917</v>
+        <v>5862305.170181362</v>
       </c>
       <c r="F27">
-        <v>4537.3019499878337</v>
+        <v>4462.5068158189042</v>
       </c>
       <c r="G27">
-        <v>0.28979188293966618</v>
+        <v>0.2892001163482823</v>
       </c>
       <c r="H27">
-        <v>5.3136325433835143</v>
+        <v>5.4946473281595498</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1672,22 +1672,22 @@
         <v>5225154</v>
       </c>
       <c r="C28">
-        <v>24060867823.189323</v>
+        <v>23719068760.783867</v>
       </c>
       <c r="D28">
-        <v>3477207.9975156547</v>
+        <v>2511775.088271589</v>
       </c>
       <c r="E28">
-        <v>94246050.001032233</v>
+        <v>40506041.637880266</v>
       </c>
       <c r="F28">
-        <v>4604.8150586928768</v>
+        <v>4539.4008981905354</v>
       </c>
       <c r="G28">
-        <v>0.66547473959918779</v>
+        <v>0.48070833668664864</v>
       </c>
       <c r="H28">
-        <v>18.036989914753178</v>
+        <v>7.7521239829257214</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1713,22 +1713,22 @@
         <v>2992958</v>
       </c>
       <c r="C29">
-        <v>12019023117.419701</v>
+        <v>11940006742.199289</v>
       </c>
       <c r="D29">
         <v>525692.38420990668</v>
       </c>
       <c r="E29">
-        <v>266246265.22831821</v>
+        <v>180189796.15664744</v>
       </c>
       <c r="F29">
-        <v>4015.767383778757</v>
+        <v>3989.3666206472958</v>
       </c>
       <c r="G29">
         <v>0.17564308761095435</v>
       </c>
       <c r="H29">
-        <v>88.957568141055845</v>
+        <v>60.20458561618554</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1754,22 +1754,22 @@
         <v>229494</v>
       </c>
       <c r="C30">
-        <v>3105601870.911622</v>
+        <v>3286948154.0678282</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>380881586.18639243</v>
+        <v>206113422.8105678</v>
       </c>
       <c r="F30">
-        <v>13532.388083834967</v>
+        <v>14322.588625706241</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1659.658144380212</v>
+        <v>898.12118317066154</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1795,22 +1795,22 @@
         <v>6529869</v>
       </c>
       <c r="C31">
-        <v>52474728189.242859</v>
+        <v>52334291713.730652</v>
       </c>
       <c r="D31">
-        <v>4877072.8810217977</v>
+        <v>2840079.8724451596</v>
       </c>
       <c r="E31">
-        <v>105796677.14547075</v>
+        <v>48275170.956477202</v>
       </c>
       <c r="F31">
-        <v>8036.1073383314215</v>
+        <v>8014.6005553450841</v>
       </c>
       <c r="G31">
-        <v>0.74688678762495808</v>
+        <v>0.43493673034561026</v>
       </c>
       <c r="H31">
-        <v>16.201960122855567</v>
+        <v>7.392976942795821</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -1836,22 +1836,22 @@
         <v>1441562</v>
       </c>
       <c r="C32">
-        <v>3961519755.9139986</v>
+        <v>3936838340.4354658</v>
       </c>
       <c r="D32">
-        <v>380694.19309046504</v>
+        <v>279577.34444749577</v>
       </c>
       <c r="E32">
-        <v>7202828.938778311</v>
+        <v>4248324.9391146125</v>
       </c>
       <c r="F32">
-        <v>2748.0744885852973</v>
+        <v>2730.9531885797946</v>
       </c>
       <c r="G32">
-        <v>0.26408450908838121</v>
+        <v>0.19394056200669535</v>
       </c>
       <c r="H32">
-        <v>4.9965446777719666</v>
+        <v>2.9470289443774269</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1877,22 +1877,22 @@
         <v>1650341</v>
       </c>
       <c r="C33">
-        <v>3894144084.6370182</v>
+        <v>3903092514.5367212</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>324756951.59974903</v>
+        <v>326677318.69423842</v>
       </c>
       <c r="F33">
-        <v>2359.5996734232613</v>
+        <v>2365.0218436897107</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>196.78172668542382</v>
+        <v>197.94534504944033</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1918,22 +1918,22 @@
         <v>4984247</v>
       </c>
       <c r="C34">
-        <v>17617999238.462601</v>
+        <v>17621599176.992424</v>
       </c>
       <c r="D34">
-        <v>1530576.6802044092</v>
+        <v>1196889.1331427954</v>
       </c>
       <c r="E34">
-        <v>29033451.749841087</v>
+        <v>16476991.227370419</v>
       </c>
       <c r="F34">
-        <v>3534.7363881570477</v>
+        <v>3535.4586514256666</v>
       </c>
       <c r="G34">
-        <v>0.30708283120888857</v>
+        <v>0.24013439405045445</v>
       </c>
       <c r="H34">
-        <v>5.8250427295920701</v>
+        <v>3.3058135416183063</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -1959,22 +1959,22 @@
         <v>2093626</v>
       </c>
       <c r="C35">
-        <v>7466174228.5676155</v>
+        <v>7482568042.5081577</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>810651148.52153456</v>
+        <v>670164925.45714951</v>
       </c>
       <c r="F35">
-        <v>3566.14516086809</v>
+        <v>3573.9755058965438</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>387.19959941342654</v>
+        <v>320.09772779720424</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -2000,19 +2000,19 @@
         <v>67254</v>
       </c>
       <c r="C36">
-        <v>167355064.27704313</v>
+        <v>167559997.9844797</v>
       </c>
       <c r="D36">
-        <v>10855.626528652854</v>
+        <v>10781.717512572483</v>
       </c>
       <c r="E36">
         <v>173616.32428321111</v>
       </c>
       <c r="F36">
-        <v>2488.4031325578126</v>
+        <v>2491.4502926886089</v>
       </c>
       <c r="G36">
-        <v>0.16141235508152457</v>
+        <v>0.1603134016203123</v>
       </c>
       <c r="H36">
         <v>2.5815018330985682</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>19682213.496183638</v>
+        <v>19527327.267273139</v>
       </c>
       <c r="F37">
         <v>829.74531632055709</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>80.150075116703945</v>
+        <v>79.519346114392974</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
@@ -2082,22 +2082,22 @@
         <v>717925</v>
       </c>
       <c r="C38">
-        <v>757604556.72355044</v>
+        <v>768965550.2500385</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>210506271.50434884</v>
+        <v>164672742.52915719</v>
       </c>
       <c r="F38">
-        <v>1055.2697798844592</v>
+        <v>1071.0945436501563</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>293.21485044308088</v>
+        <v>229.37318317255588</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -2123,22 +2123,22 @@
         <v>1081826</v>
       </c>
       <c r="C39">
-        <v>1235021651.2162621</v>
+        <v>1228021528.4968178</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>120131976.16857277</v>
+        <v>121214246.22414552</v>
       </c>
       <c r="F39">
-        <v>1141.6084021055717</v>
+        <v>1135.137747194852</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>111.04556201142584</v>
+        <v>112.04597247999726</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -2164,22 +2164,22 @@
         <v>250729</v>
       </c>
       <c r="C40">
-        <v>212810980.56553876</v>
+        <v>213853454.668464</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>142109041.81342679</v>
+        <v>125489774.42519563</v>
       </c>
       <c r="F40">
-        <v>848.76891211442944</v>
+        <v>852.9266844619649</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>566.78342678121317</v>
+        <v>500.49964074836032</v>
       </c>
       <c r="I40" t="s">
         <v>19</v>
@@ -2205,22 +2205,22 @@
         <v>750815</v>
       </c>
       <c r="C41">
-        <v>1067240254.9639516</v>
+        <v>1069046027.5422956</v>
       </c>
       <c r="D41">
-        <v>77264.92509570712</v>
+        <v>75171.873464096658</v>
       </c>
       <c r="E41">
-        <v>6257148.321538223</v>
+        <v>4378066.0799112963</v>
       </c>
       <c r="F41">
-        <v>1421.4423725737386</v>
+        <v>1423.8474558210685</v>
       </c>
       <c r="G41">
-        <v>0.1029080733545642</v>
+        <v>0.10012036715315578</v>
       </c>
       <c r="H41">
-        <v>8.3338083569697243</v>
+        <v>5.8310849941880436</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -2246,22 +2246,22 @@
         <v>384251</v>
       </c>
       <c r="C42">
-        <v>450352427.0063203</v>
+        <v>450846813.29588914</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>42758639.960727632</v>
+        <v>41924888.406381831</v>
       </c>
       <c r="F42">
-        <v>1172.026688300929</v>
+        <v>1173.3133116007223</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>111.2778885695226</v>
+        <v>109.10807885049572</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -2287,22 +2287,22 @@
         <v>1245893</v>
       </c>
       <c r="C43">
-        <v>7284538513.9928951</v>
+        <v>7150544287.2708693</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>587589524.27822614</v>
+        <v>587679037.19876909</v>
       </c>
       <c r="F43">
-        <v>5846.8411926167773</v>
+        <v>5739.2924490874166</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>471.62117796490247</v>
+        <v>471.69302435985202</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -2328,22 +2328,22 @@
         <v>827980</v>
       </c>
       <c r="C44">
-        <v>5731504715.5161533</v>
+        <v>5702155585.5517368</v>
       </c>
       <c r="D44">
-        <v>492744.7544703047</v>
+        <v>368715.9270567646</v>
       </c>
       <c r="E44">
-        <v>9888453.257332243</v>
+        <v>6275117.7333829524</v>
       </c>
       <c r="F44">
-        <v>6922.2743490376015</v>
+        <v>6886.8276837021867</v>
       </c>
       <c r="G44">
-        <v>0.59511673527175146</v>
+        <v>0.4453198471663139</v>
       </c>
       <c r="H44">
-        <v>11.942864872741179</v>
+        <v>7.5788276690052321</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2369,22 +2369,22 @@
         <v>2177256</v>
       </c>
       <c r="C45">
-        <v>10926224500.206062</v>
+        <v>11086117265.468529</v>
       </c>
       <c r="D45">
-        <v>653316.509638833</v>
+        <v>658334.8644189043</v>
       </c>
       <c r="E45">
-        <v>10127502.333417699</v>
+        <v>10643315.216437191</v>
       </c>
       <c r="F45">
-        <v>5018.3462579531588</v>
+        <v>5091.7840003511428</v>
       </c>
       <c r="G45">
-        <v>0.30006416775924971</v>
+        <v>0.30236906657687673</v>
       </c>
       <c r="H45">
-        <v>4.6514981855223727</v>
+        <v>4.8884078015801498</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -2410,22 +2410,22 @@
         <v>2300225</v>
       </c>
       <c r="C46">
-        <v>24716535630.921284</v>
+        <v>24310737344.527786</v>
       </c>
       <c r="D46">
-        <v>2204975.8664297718</v>
+        <v>1582144.1762843346</v>
       </c>
       <c r="E46">
-        <v>45144680.598982617</v>
+        <v>28286341.097706962</v>
       </c>
       <c r="F46">
-        <v>10745.268671943521</v>
+        <v>10568.851892544331</v>
       </c>
       <c r="G46">
-        <v>0.95859138407319788</v>
+        <v>0.68782148541309418</v>
       </c>
       <c r="H46">
-        <v>19.626202045009776</v>
+        <v>12.29720618535446</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -2445,40 +2445,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B47">
-        <v>1488285</v>
+        <v>12008149</v>
       </c>
       <c r="C47">
-        <v>7474599313.6034164</v>
+        <v>73036165212.535141</v>
       </c>
       <c r="D47">
-        <v>620861.23839134513</v>
+        <v>4608698.7278117798</v>
       </c>
       <c r="E47">
-        <v>13048243.715049721</v>
+        <v>73986911.006608963</v>
       </c>
       <c r="F47">
-        <v>5022.2902962829139</v>
+        <v>6082.2167690070419</v>
       </c>
       <c r="G47">
-        <v>0.41716555524737875</v>
+        <v>0.38379759676631092</v>
       </c>
       <c r="H47">
-        <v>8.7673017701916791</v>
+        <v>6.1613918187231826</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
       </c>
       <c r="J47">
-        <v>42452</v>
+        <v>42337</v>
       </c>
       <c r="K47">
-        <v>37.646900000000002</v>
+        <v>37.260800000000003</v>
       </c>
       <c r="L47">
-        <v>-87.502799999999993</v>
+        <v>-86.978300000000004</v>
       </c>
       <c r="M47" t="s">
         <v>48</v>
@@ -2486,40 +2486,40 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B48">
-        <v>48329</v>
+        <v>1488285</v>
       </c>
       <c r="C48">
-        <v>183747195.89415294</v>
+        <v>7562955562.3399963</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>470598.15804080514</v>
       </c>
       <c r="E48">
-        <v>20786191.67263088</v>
+        <v>8046599.9405146362</v>
       </c>
       <c r="F48">
-        <v>3802.0069915403365</v>
+        <v>5081.6581248483972</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.31620164017026653</v>
       </c>
       <c r="H48">
-        <v>430.09769853774918</v>
+        <v>5.4066257071156638</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="J48">
-        <v>40391</v>
+        <v>42452</v>
       </c>
       <c r="K48">
-        <v>37.880600000000001</v>
+        <v>37.646900000000002</v>
       </c>
       <c r="L48">
-        <v>-84.261899999999997</v>
+        <v>-87.502799999999993</v>
       </c>
       <c r="M48" t="s">
         <v>48</v>
@@ -2527,81 +2527,81 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1554</v>
+        <v>1385</v>
       </c>
       <c r="B49">
-        <v>1336530</v>
+        <v>48329</v>
       </c>
       <c r="C49">
-        <v>2664608307.5506134</v>
+        <v>183569558.06282288</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>293214244.16337234</v>
+        <v>16081217.409228683</v>
       </c>
       <c r="F49">
-        <v>1993.6763915143044</v>
+        <v>3798.3313965284378</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>219.38470828441734</v>
+        <v>332.74467523078653</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49">
-        <v>21226</v>
+        <v>40391</v>
       </c>
       <c r="K49">
-        <v>39.178100000000001</v>
+        <v>37.880600000000001</v>
       </c>
       <c r="L49">
-        <v>-76.526799999999994</v>
+        <v>-84.261899999999997</v>
       </c>
       <c r="M49" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1573</v>
+        <v>1554</v>
       </c>
       <c r="B50">
-        <v>4238250</v>
+        <v>1336530</v>
       </c>
       <c r="C50">
-        <v>23262842526.001053</v>
+        <v>2638937670.0913868</v>
       </c>
       <c r="D50">
-        <v>1919265.1514900667</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>40072892.269888923</v>
+        <v>249326695.16489828</v>
       </c>
       <c r="F50">
-        <v>5488.7848819680421</v>
+        <v>1974.4694620333153</v>
       </c>
       <c r="G50">
-        <v>0.45284378021354721</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>9.4550562779187004</v>
+        <v>186.54777308769596</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
       <c r="J50">
-        <v>20664</v>
+        <v>21226</v>
       </c>
       <c r="K50">
-        <v>38.359200000000001</v>
+        <v>39.178100000000001</v>
       </c>
       <c r="L50">
-        <v>-76.976699999999994</v>
+        <v>-76.526799999999994</v>
       </c>
       <c r="M50" t="s">
         <v>58</v>
@@ -2609,81 +2609,81 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1695</v>
+        <v>1573</v>
       </c>
       <c r="B51">
-        <v>1825199</v>
+        <v>4238250</v>
       </c>
       <c r="C51">
-        <v>1536159482.069401</v>
+        <v>23244280326.908901</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1417946.9146312191</v>
       </c>
       <c r="E51">
-        <v>179852563.78947508</v>
+        <v>24216894.190404572</v>
       </c>
       <c r="F51">
-        <v>841.63944976377979</v>
+        <v>5484.4051971707431</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.33455952684037493</v>
       </c>
       <c r="H51">
-        <v>98.538605264124669</v>
+        <v>5.7138899759109467</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J51">
-        <v>49445</v>
+        <v>20664</v>
       </c>
       <c r="K51">
-        <v>43.258768000000003</v>
+        <v>38.359200000000001</v>
       </c>
       <c r="L51">
-        <v>-86.242267999999996</v>
+        <v>-76.976699999999994</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="B52">
-        <v>7101778</v>
+        <v>1825199</v>
       </c>
       <c r="C52">
-        <v>6977245259.9996481</v>
+        <v>1515842974.0806546</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>764423729.64515257</v>
+        <v>130712440.42785226</v>
       </c>
       <c r="F52">
-        <v>982.46456873189334</v>
+        <v>830.50833036871848</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>107.63835896379084</v>
+        <v>71.615446002245378</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
       </c>
       <c r="J52">
-        <v>49460</v>
+        <v>49445</v>
       </c>
       <c r="K52">
-        <v>42.910296000000002</v>
+        <v>43.258768000000003</v>
       </c>
       <c r="L52">
-        <v>-86.200739999999996</v>
+        <v>-86.242267999999996</v>
       </c>
       <c r="M52" t="s">
         <v>59</v>
@@ -2691,40 +2691,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="B53">
-        <v>992174</v>
+        <v>7101778</v>
       </c>
       <c r="C53">
-        <v>1406395429.0692234</v>
+        <v>6897926903.1154308</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>121905996.36264944</v>
+        <v>582212393.87606871</v>
       </c>
       <c r="F53">
-        <v>1417.4886956009968</v>
+        <v>971.29576609060871</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>122.86755787054432</v>
+        <v>81.981215672479308</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
       </c>
       <c r="J53">
-        <v>48732</v>
+        <v>49460</v>
       </c>
       <c r="K53">
-        <v>43.639927</v>
+        <v>42.910296000000002</v>
       </c>
       <c r="L53">
-        <v>-83.844712000000001</v>
+        <v>-86.200739999999996</v>
       </c>
       <c r="M53" t="s">
         <v>59</v>
@@ -2732,40 +2732,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B54">
-        <v>1769518</v>
+        <v>992174</v>
       </c>
       <c r="C54">
-        <v>2013159396.9882984</v>
+        <v>1357370009.6343436</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>284948924.25902259</v>
+        <v>118343268.5449585</v>
       </c>
       <c r="F54">
-        <v>1137.6880014717558</v>
+        <v>1368.0765769253615</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>161.0319444385548</v>
+        <v>119.27672822000828</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
       </c>
       <c r="J54">
-        <v>48133</v>
+        <v>48732</v>
       </c>
       <c r="K54">
-        <v>41.792113999999998</v>
+        <v>43.639927</v>
       </c>
       <c r="L54">
-        <v>-83.449479999999994</v>
+        <v>-83.844712000000001</v>
       </c>
       <c r="M54" t="s">
         <v>59</v>
@@ -2773,40 +2773,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="B55">
-        <v>16149545</v>
+        <v>1769518</v>
       </c>
       <c r="C55">
-        <v>41491232670.091644</v>
+        <v>2007630817.0455651</v>
       </c>
       <c r="D55">
-        <v>4346885.4054082576</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>109040797.09108296</v>
+        <v>191604239.05539438</v>
       </c>
       <c r="F55">
-        <v>2569.1889567224116</v>
+        <v>1134.5636591690873</v>
       </c>
       <c r="G55">
-        <v>0.26916457432133578</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>6.7519423668643892</v>
+        <v>108.28046906298459</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
       </c>
       <c r="J55">
-        <v>48161</v>
+        <v>48133</v>
       </c>
       <c r="K55">
-        <v>41.890599999999999</v>
+        <v>41.792113999999998</v>
       </c>
       <c r="L55">
-        <v>-83.346400000000003</v>
+        <v>-83.449479999999994</v>
       </c>
       <c r="M55" t="s">
         <v>59</v>
@@ -2814,40 +2814,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="B56">
-        <v>1806150</v>
+        <v>16149545</v>
       </c>
       <c r="C56">
-        <v>3665270793.8005743</v>
+        <v>41208624388.292206</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2461590.6964787683</v>
       </c>
       <c r="E56">
-        <v>446660371.97117949</v>
+        <v>43911601.74420625</v>
       </c>
       <c r="F56">
-        <v>2029.3280147277769</v>
+        <v>2551.6894988863282</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.1524247708823232</v>
       </c>
       <c r="H56">
-        <v>247.29971041783875</v>
+        <v>2.719061233254946</v>
       </c>
       <c r="I56" t="s">
         <v>23</v>
       </c>
       <c r="J56">
-        <v>48218</v>
+        <v>48161</v>
       </c>
       <c r="K56">
-        <v>42.273899999999998</v>
+        <v>41.890599999999999</v>
       </c>
       <c r="L56">
-        <v>-83.111900000000006</v>
+        <v>-83.346400000000003</v>
       </c>
       <c r="M56" t="s">
         <v>59</v>
@@ -2855,40 +2855,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B57">
-        <v>5446539</v>
+        <v>1806150</v>
       </c>
       <c r="C57">
-        <v>35760458648.719818</v>
+        <v>3636127031.9477119</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>5083690726.6233463</v>
+        <v>317006263.44653302</v>
       </c>
       <c r="F57">
-        <v>6565.7215800198655</v>
+        <v>2013.1921667346078</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>933.38002842233323</v>
+        <v>175.51491484457716</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
       </c>
       <c r="J57">
-        <v>48054</v>
+        <v>48218</v>
       </c>
       <c r="K57">
-        <v>42.764200000000002</v>
+        <v>42.273899999999998</v>
       </c>
       <c r="L57">
-        <v>-82.471900000000005</v>
+        <v>-83.111900000000006</v>
       </c>
       <c r="M57" t="s">
         <v>59</v>
@@ -2896,40 +2896,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B58">
-        <v>2101351</v>
+        <v>5446539</v>
       </c>
       <c r="C58">
-        <v>4142825311.85185</v>
+        <v>34605436602.367111</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>340563942.02366662</v>
+        <v>2754981916.4431038</v>
       </c>
       <c r="F58">
-        <v>1971.5056227407272</v>
+        <v>6353.6562581057642</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>162.0690413089801</v>
+        <v>505.82248955586363</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
       </c>
       <c r="J58">
-        <v>48183</v>
+        <v>48054</v>
       </c>
       <c r="K58">
-        <v>42.121699999999997</v>
+        <v>42.764200000000002</v>
       </c>
       <c r="L58">
-        <v>-83.180800000000005</v>
+        <v>-82.471900000000005</v>
       </c>
       <c r="M58" t="s">
         <v>59</v>
@@ -2937,40 +2937,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1825</v>
+        <v>1745</v>
       </c>
       <c r="B59">
-        <v>205407</v>
+        <v>2101351</v>
       </c>
       <c r="C59">
-        <v>330666585.89536315</v>
+        <v>4084225289.4211454</v>
       </c>
       <c r="D59">
-        <v>27331.60574730705</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>512997.13194747537</v>
+        <v>340466917.20926237</v>
       </c>
       <c r="F59">
-        <v>1609.8116709526118</v>
+        <v>1943.6187906833011</v>
       </c>
       <c r="G59">
-        <v>0.13306073185094497</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>2.4974666488847768</v>
+        <v>162.02286872077173</v>
       </c>
       <c r="I59" t="s">
         <v>23</v>
       </c>
       <c r="J59">
-        <v>49417</v>
+        <v>48183</v>
       </c>
       <c r="K59">
-        <v>43.070599999999999</v>
+        <v>42.121699999999997</v>
       </c>
       <c r="L59">
-        <v>-86.234999999999999</v>
+        <v>-83.180800000000005</v>
       </c>
       <c r="M59" t="s">
         <v>59</v>
@@ -2978,40 +2978,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="B60">
-        <v>500876</v>
+        <v>205407</v>
       </c>
       <c r="C60">
-        <v>615693395.89841795</v>
+        <v>330666585.89536315</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>27716.971288133063</v>
       </c>
       <c r="E60">
-        <v>87907371.707840189</v>
+        <v>516143.52713702142</v>
       </c>
       <c r="F60">
-        <v>1229.2331752737564</v>
+        <v>1609.8116709526118</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.13493683899834505</v>
       </c>
       <c r="H60">
-        <v>175.50725470543645</v>
+        <v>2.5127845065505139</v>
       </c>
       <c r="I60" t="s">
         <v>23</v>
       </c>
       <c r="J60">
-        <v>48910</v>
+        <v>49417</v>
       </c>
       <c r="K60">
-        <v>42.718389999999999</v>
+        <v>43.070599999999999</v>
       </c>
       <c r="L60">
-        <v>-84.558080000000004</v>
+        <v>-86.234999999999999</v>
       </c>
       <c r="M60" t="s">
         <v>59</v>
@@ -3019,40 +3019,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B61">
-        <v>869762</v>
+        <v>500876</v>
       </c>
       <c r="C61">
-        <v>999089425.28417861</v>
+        <v>622308643.63224947</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>94201996.197909668</v>
+        <v>59879580.207631305</v>
       </c>
       <c r="F61">
-        <v>1148.6928898758265</v>
+        <v>1242.4405314533926</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>108.30778557572033</v>
+        <v>119.54970932452603</v>
       </c>
       <c r="I61" t="s">
         <v>23</v>
       </c>
       <c r="J61">
-        <v>48917</v>
+        <v>48910</v>
       </c>
       <c r="K61">
-        <v>42.692222000000001</v>
+        <v>42.718389999999999</v>
       </c>
       <c r="L61">
-        <v>-84.657222000000004</v>
+        <v>-84.558080000000004</v>
       </c>
       <c r="M61" t="s">
         <v>59</v>
@@ -3060,163 +3060,163 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1943</v>
+        <v>1832</v>
       </c>
       <c r="B62">
-        <v>296202</v>
+        <v>869762</v>
       </c>
       <c r="C62">
-        <v>252048722.42043003</v>
+        <v>999338636.91433191</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>28850403.91887825</v>
+        <v>96721996.318200037</v>
       </c>
       <c r="F62">
-        <v>850.93524831172658</v>
+        <v>1148.9794184090956</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>97.401111129831165</v>
+        <v>111.20513004500086</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J62">
-        <v>56537</v>
+        <v>48917</v>
       </c>
       <c r="K62">
-        <v>46.290641000000001</v>
+        <v>42.692222000000001</v>
       </c>
       <c r="L62">
-        <v>-96.043251999999995</v>
+        <v>-84.657222000000004</v>
       </c>
       <c r="M62" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2049</v>
+        <v>1943</v>
       </c>
       <c r="B63">
-        <v>1615868</v>
+        <v>296202</v>
       </c>
       <c r="C63">
-        <v>1455107490.9141955</v>
+        <v>250812025.54796636</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>199432094.44696307</v>
+        <v>21201885.722224906</v>
       </c>
       <c r="F63">
-        <v>900.51136040456004</v>
+        <v>846.7600676159052</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>123.42103095485712</v>
+        <v>71.579144375206468</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63">
-        <v>39501</v>
+        <v>56537</v>
       </c>
       <c r="K63">
-        <v>30.4392</v>
+        <v>46.290641000000001</v>
       </c>
       <c r="L63">
-        <v>-89.028599999999997</v>
+        <v>-96.043251999999995</v>
       </c>
       <c r="M63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2080</v>
+        <v>2049</v>
       </c>
       <c r="B64">
-        <v>1420063</v>
+        <v>1615868</v>
       </c>
       <c r="C64">
-        <v>1679226595.3390548</v>
+        <v>1473280310.8439538</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>237148675.24977505</v>
+        <v>132928541.92131743</v>
       </c>
       <c r="F64">
-        <v>1182.5014772859054</v>
+        <v>911.75783593954077</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>166.99870023356362</v>
+        <v>82.26448071334876</v>
       </c>
       <c r="I64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J64">
-        <v>64735</v>
+        <v>39501</v>
       </c>
       <c r="K64">
-        <v>38.311399999999999</v>
+        <v>30.4392</v>
       </c>
       <c r="L64">
-        <v>-93.934799999999996</v>
+        <v>-89.028599999999997</v>
       </c>
       <c r="M64" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2094</v>
+        <v>2080</v>
       </c>
       <c r="B65">
-        <v>2037047</v>
+        <v>1420063</v>
       </c>
       <c r="C65">
-        <v>1937134954.9186149</v>
+        <v>1701840070.8304718</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>189852327.07922351</v>
+        <v>164720140.26954892</v>
       </c>
       <c r="F65">
-        <v>950.95250866505035</v>
+        <v>1198.4257535267602</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>93.199777461798135</v>
+        <v>115.99495252643645</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
       </c>
       <c r="J65">
-        <v>64088</v>
+        <v>64735</v>
       </c>
       <c r="K65">
-        <v>39.178319000000002</v>
+        <v>38.311399999999999</v>
       </c>
       <c r="L65">
-        <v>-94.184444999999997</v>
+        <v>-93.934799999999996</v>
       </c>
       <c r="M65" t="s">
         <v>57</v>
@@ -3224,40 +3224,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="B66">
-        <v>233500</v>
+        <v>2037047</v>
       </c>
       <c r="C66">
-        <v>118348616.48992199</v>
+        <v>1933090065.1818376</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>11187095.552819559</v>
+        <v>163262061.46051437</v>
       </c>
       <c r="F66">
-        <v>506.84632329731045</v>
+        <v>948.96684523324086</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>47.910473459612675</v>
+        <v>80.146438182582116</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
       </c>
       <c r="J66">
-        <v>64504</v>
+        <v>64088</v>
       </c>
       <c r="K66">
-        <v>39.724600000000002</v>
+        <v>39.178319000000002</v>
       </c>
       <c r="L66">
-        <v>-94.877300000000005</v>
+        <v>-94.184444999999997</v>
       </c>
       <c r="M66" t="s">
         <v>57</v>
@@ -3265,81 +3265,81 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="B67">
-        <v>16042082</v>
+        <v>233500</v>
       </c>
       <c r="C67">
-        <v>16606907182.92445</v>
+        <v>118348616.48992199</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2481065049.0294352</v>
+        <v>11457490.089074763</v>
       </c>
       <c r="F67">
-        <v>1035.2089699407129</v>
+        <v>506.84632329731045</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>154.65979098158428</v>
+        <v>49.068480038864081</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
       </c>
       <c r="J67">
-        <v>63055</v>
+        <v>64504</v>
       </c>
       <c r="K67">
-        <v>38.562244</v>
+        <v>39.724600000000002</v>
       </c>
       <c r="L67">
-        <v>-90.837686000000005</v>
+        <v>-94.877300000000005</v>
       </c>
       <c r="M67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B68">
-        <v>2119428</v>
+        <v>16042082</v>
       </c>
       <c r="C68">
-        <v>2427928211.3508844</v>
+        <v>16772312795.696297</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>352952360.6665749</v>
+        <v>1609384689.3525987</v>
       </c>
       <c r="F68">
-        <v>1145.5582408795603</v>
+        <v>1045.5197022242062</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>166.53189476904848</v>
+        <v>100.3226818908293</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
       </c>
       <c r="J68">
-        <v>63129</v>
+        <v>63055</v>
       </c>
       <c r="K68">
-        <v>38.401699999999998</v>
+        <v>38.562244</v>
       </c>
       <c r="L68">
-        <v>-90.335800000000006</v>
+        <v>-90.837686000000005</v>
       </c>
       <c r="M68" t="s">
         <v>55</v>
@@ -3347,40 +3347,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="B69">
-        <v>4495381</v>
+        <v>2119428</v>
       </c>
       <c r="C69">
-        <v>8594388485.1356544</v>
+        <v>2468855124.6599083</v>
       </c>
       <c r="D69">
-        <v>755617.32830290217</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>15655249.15408593</v>
+        <v>239166044.18590999</v>
       </c>
       <c r="F69">
-        <v>1911.8264914888537</v>
+        <v>1164.8685988200157</v>
       </c>
       <c r="G69">
-        <v>0.16808749431981457</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>3.4825188686088966</v>
+        <v>112.84461854137531</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
       </c>
       <c r="J69">
-        <v>63386</v>
+        <v>63129</v>
       </c>
       <c r="K69">
-        <v>38.915478999999998</v>
+        <v>38.401699999999998</v>
       </c>
       <c r="L69">
-        <v>-90.290246999999994</v>
+        <v>-90.335800000000006</v>
       </c>
       <c r="M69" t="s">
         <v>55</v>
@@ -3388,122 +3388,122 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2161</v>
+        <v>2107</v>
       </c>
       <c r="B70">
-        <v>856</v>
+        <v>4495381</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>8607437145.9593372</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>533558.13926516497</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>8798881.5729345549</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1914.7291733357722</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.11869030439581539</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1.9573160924367823</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
       </c>
       <c r="J70">
-        <v>65804</v>
+        <v>63386</v>
       </c>
       <c r="K70">
-        <v>37.108611000000003</v>
+        <v>38.915478999999998</v>
       </c>
       <c r="L70">
-        <v>-93.261944</v>
+        <v>-90.290246999999994</v>
       </c>
       <c r="M70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="B71">
-        <v>6594728</v>
+        <v>856</v>
       </c>
       <c r="C71">
-        <v>7014177635.0173931</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>880079746.41488171</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1063.6037809318887</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>133.45201597622855</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
       </c>
       <c r="J71">
-        <v>63869</v>
+        <v>65804</v>
       </c>
       <c r="K71">
-        <v>36.514699999999998</v>
+        <v>37.108611000000003</v>
       </c>
       <c r="L71">
-        <v>-89.561700000000002</v>
+        <v>-93.261944</v>
       </c>
       <c r="M71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B72">
-        <v>7672769</v>
+        <v>6594728</v>
       </c>
       <c r="C72">
-        <v>8055190700.6698856</v>
+        <v>7085344768.9259186</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1079677971.0510817</v>
+        <v>679721019.80724704</v>
       </c>
       <c r="F72">
-        <v>1049.8414197885909</v>
+        <v>1074.3953001436782</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>140.71555797536479</v>
+        <v>103.07036466208265</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
       </c>
       <c r="J72">
-        <v>65244</v>
+        <v>63869</v>
       </c>
       <c r="K72">
-        <v>39.552199999999999</v>
+        <v>36.514699999999998</v>
       </c>
       <c r="L72">
-        <v>-92.638099999999994</v>
+        <v>-89.561700000000002</v>
       </c>
       <c r="M72" t="s">
         <v>55</v>
@@ -3511,81 +3511,81 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2240</v>
+        <v>2168</v>
       </c>
       <c r="B73">
-        <v>306727</v>
+        <v>7672769</v>
       </c>
       <c r="C73">
-        <v>150729490.25008398</v>
+        <v>8266906511.4709949</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>139134914.07700062</v>
+        <v>786088293.32903552</v>
       </c>
       <c r="F73">
-        <v>491.41252726393174</v>
+        <v>1077.4345626032784</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>453.61156362824471</v>
+        <v>102.45170854603279</v>
       </c>
       <c r="I73" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J73">
-        <v>68025</v>
+        <v>65244</v>
       </c>
       <c r="K73">
-        <v>41.428100000000001</v>
+        <v>39.552199999999999</v>
       </c>
       <c r="L73">
-        <v>-96.462299999999999</v>
+        <v>-92.638099999999994</v>
       </c>
       <c r="M73" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2291</v>
+        <v>2240</v>
       </c>
       <c r="B74">
-        <v>3095082</v>
+        <v>306727</v>
       </c>
       <c r="C74">
-        <v>3667569239.988409</v>
+        <v>151757416.51667878</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>548293311.21516562</v>
+        <v>140083769.09231886</v>
       </c>
       <c r="F74">
-        <v>1184.9667440114381</v>
+        <v>494.76380141519587</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>177.1498497342447</v>
+        <v>456.70504746018077</v>
       </c>
       <c r="I74" t="s">
         <v>10</v>
       </c>
       <c r="J74">
-        <v>68112</v>
+        <v>68025</v>
       </c>
       <c r="K74">
-        <v>41.329090000000001</v>
+        <v>41.428100000000001</v>
       </c>
       <c r="L74">
-        <v>-95.944659999999999</v>
+        <v>-96.462299999999999</v>
       </c>
       <c r="M74" t="s">
         <v>49</v>
@@ -3593,204 +3593,204 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2378</v>
+        <v>2291</v>
       </c>
       <c r="B75">
-        <v>134547</v>
+        <v>3095082</v>
       </c>
       <c r="C75">
-        <v>724691596.38477933</v>
+        <v>3797056685.1019464</v>
       </c>
       <c r="D75">
-        <v>46933.899137096858</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>798943.48129002505</v>
+        <v>368343511.43114221</v>
       </c>
       <c r="F75">
-        <v>5386.1594564336574</v>
+        <v>1226.8032592034544</v>
       </c>
       <c r="G75">
-        <v>0.34882902730716298</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>5.9380252349738383</v>
+        <v>119.00929003856513</v>
       </c>
       <c r="I75" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J75">
-        <v>8223</v>
+        <v>68112</v>
       </c>
       <c r="K75">
-        <v>39.290799999999997</v>
+        <v>41.329090000000001</v>
       </c>
       <c r="L75">
-        <v>-74.636399999999995</v>
+        <v>-95.944659999999999</v>
       </c>
       <c r="M75" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2535</v>
+        <v>2378</v>
       </c>
       <c r="B76">
-        <v>531521</v>
+        <v>134547</v>
       </c>
       <c r="C76">
-        <v>3076027864.5210338</v>
+        <v>734528397.58288193</v>
       </c>
       <c r="D76">
-        <v>255660.45947527117</v>
+        <v>50531.18931826108</v>
       </c>
       <c r="E76">
-        <v>5259493.391712782</v>
+        <v>880147.05082734313</v>
       </c>
       <c r="F76">
-        <v>5787.2179359254551</v>
+        <v>5459.2699769068204</v>
       </c>
       <c r="G76">
-        <v>0.48099785234312692</v>
+        <v>0.37556533641226547</v>
       </c>
       <c r="H76">
-        <v>9.8951751515232367</v>
+        <v>6.5415583463573554</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J76">
-        <v>14882</v>
+        <v>8223</v>
       </c>
       <c r="K76">
-        <v>42.602800000000002</v>
+        <v>39.290799999999997</v>
       </c>
       <c r="L76">
-        <v>-76.633600000000001</v>
+        <v>-74.636399999999995</v>
       </c>
       <c r="M76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2706</v>
+        <v>2535</v>
       </c>
       <c r="B77">
-        <v>1438500</v>
+        <v>531521</v>
       </c>
       <c r="C77">
-        <v>9569102447.7911644</v>
+        <v>3103450112.0281372</v>
       </c>
       <c r="D77">
-        <v>903800.45642015862</v>
+        <v>195151.95253217922</v>
       </c>
       <c r="E77">
-        <v>18453994.586155385</v>
+        <v>3597740.5189629034</v>
       </c>
       <c r="F77">
-        <v>6652.1393450060232</v>
+        <v>5838.8099661690458</v>
       </c>
       <c r="G77">
-        <v>0.62829367842902928</v>
+        <v>0.36715755827555113</v>
       </c>
       <c r="H77">
-        <v>12.828637181894603</v>
+        <v>6.7687645811979271</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J77">
-        <v>28704</v>
+        <v>14882</v>
       </c>
       <c r="K77">
-        <v>35.473100000000002</v>
+        <v>42.602800000000002</v>
       </c>
       <c r="L77">
-        <v>-82.541700000000006</v>
+        <v>-76.633600000000001</v>
       </c>
       <c r="M77" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2712</v>
+        <v>2706</v>
       </c>
       <c r="B78">
-        <v>4871389</v>
+        <v>1438500</v>
       </c>
       <c r="C78">
-        <v>24791356550.97422</v>
+        <v>9527313405.5729351</v>
       </c>
       <c r="D78">
-        <v>1957086.468507237</v>
+        <v>629810.07024677773</v>
       </c>
       <c r="E78">
-        <v>41627341.950210556</v>
+        <v>10582650.650748828</v>
       </c>
       <c r="F78">
-        <v>5089.1761160880851</v>
+        <v>6623.0889159353046</v>
       </c>
       <c r="G78">
-        <v>0.40175121890434884</v>
+        <v>0.43782417118302241</v>
       </c>
       <c r="H78">
-        <v>8.5452715745366596</v>
+        <v>7.3567262083759672</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
       </c>
       <c r="J78">
-        <v>27573</v>
+        <v>28704</v>
       </c>
       <c r="K78">
-        <v>36.4833</v>
+        <v>35.473100000000002</v>
       </c>
       <c r="L78">
-        <v>-79.073099999999997</v>
+        <v>-82.541700000000006</v>
       </c>
       <c r="M78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="B79">
-        <v>1656996</v>
+        <v>4871389</v>
       </c>
       <c r="C79">
-        <v>8568201282.4145031</v>
+        <v>24578150165.469845</v>
       </c>
       <c r="D79">
-        <v>952597.59340436116</v>
+        <v>1395824.7679576497</v>
       </c>
       <c r="E79">
-        <v>24663995.879340224</v>
+        <v>23748724.380702619</v>
       </c>
       <c r="F79">
-        <v>5170.9245420112675</v>
+        <v>5045.4090538591445</v>
       </c>
       <c r="G79">
-        <v>0.57489432286158881</v>
+        <v>0.28653527114292243</v>
       </c>
       <c r="H79">
-        <v>14.884764887386705</v>
+        <v>4.8751443131933456</v>
       </c>
       <c r="I79" t="s">
         <v>29</v>
       </c>
       <c r="J79">
-        <v>28012</v>
+        <v>27573</v>
       </c>
       <c r="K79">
-        <v>35.189700000000002</v>
+        <v>36.4833</v>
       </c>
       <c r="L79">
-        <v>-81.012200000000007</v>
+        <v>-79.073099999999997</v>
       </c>
       <c r="M79" t="s">
         <v>51</v>
@@ -3798,40 +3798,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="B80">
-        <v>967351</v>
+        <v>1656996</v>
       </c>
       <c r="C80">
-        <v>6589027218.211895</v>
+        <v>8621582161.141552</v>
       </c>
       <c r="D80">
-        <v>387315.12793148926</v>
+        <v>520233.17588493519</v>
       </c>
       <c r="E80">
-        <v>7027618.9124254249</v>
+        <v>9664451.0799634121</v>
       </c>
       <c r="F80">
-        <v>6811.4130426410829</v>
+        <v>5203.1399961988755</v>
       </c>
       <c r="G80">
-        <v>0.40038737534926755</v>
+        <v>0.31396163653076725</v>
       </c>
       <c r="H80">
-        <v>7.2648076162896658</v>
+        <v>5.8325132227014498</v>
       </c>
       <c r="I80" t="s">
         <v>29</v>
       </c>
       <c r="J80">
-        <v>28024</v>
+        <v>28012</v>
       </c>
       <c r="K80">
-        <v>35.22</v>
+        <v>35.189700000000002</v>
       </c>
       <c r="L80">
-        <v>-81.759399999999999</v>
+        <v>-81.012200000000007</v>
       </c>
       <c r="M80" t="s">
         <v>51</v>
@@ -3839,40 +3839,40 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2727</v>
+        <v>2721</v>
       </c>
       <c r="B81">
-        <v>7658910</v>
+        <v>967351</v>
       </c>
       <c r="C81">
-        <v>34628749694.624512</v>
+        <v>6509694112.6033192</v>
       </c>
       <c r="D81">
-        <v>3726058.4319256032</v>
+        <v>380495.01827665581</v>
       </c>
       <c r="E81">
-        <v>91910505.170392543</v>
+        <v>6302476.6917944327</v>
       </c>
       <c r="F81">
-        <v>4521.3678832398491</v>
+        <v>6729.4023706010739</v>
       </c>
       <c r="G81">
-        <v>0.48649983247297635</v>
+        <v>0.39333708062187955</v>
       </c>
       <c r="H81">
-        <v>12.000468104520426</v>
+        <v>6.5151911682465133</v>
       </c>
       <c r="I81" t="s">
         <v>29</v>
       </c>
       <c r="J81">
-        <v>28682</v>
+        <v>28024</v>
       </c>
       <c r="K81">
-        <v>35.597499999999997</v>
+        <v>35.22</v>
       </c>
       <c r="L81">
-        <v>-80.965800000000002</v>
+        <v>-81.759399999999999</v>
       </c>
       <c r="M81" t="s">
         <v>51</v>
@@ -3880,81 +3880,81 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2790</v>
+        <v>2727</v>
       </c>
       <c r="B82">
-        <v>500630</v>
+        <v>7658910</v>
       </c>
       <c r="C82">
-        <v>2741164945.7724667</v>
+        <v>35272486068.170151</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2177080.6700207121</v>
       </c>
       <c r="E82">
-        <v>283603303.07665217</v>
+        <v>42194189.296797574</v>
       </c>
       <c r="F82">
-        <v>5475.4308486756017</v>
+        <v>4605.4185345134165</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.28425463545344076</v>
       </c>
       <c r="H82">
-        <v>566.49282519356041</v>
+        <v>5.5091637448145461</v>
       </c>
       <c r="I82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J82">
-        <v>58554</v>
+        <v>28682</v>
       </c>
       <c r="K82">
-        <v>46.866900000000001</v>
+        <v>35.597499999999997</v>
       </c>
       <c r="L82">
-        <v>-100.8836</v>
+        <v>-80.965800000000002</v>
       </c>
       <c r="M82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2817</v>
+        <v>2790</v>
       </c>
       <c r="B83">
-        <v>3581670</v>
+        <v>500630</v>
       </c>
       <c r="C83">
-        <v>20757942671.24279</v>
+        <v>2716744085.6717839</v>
       </c>
       <c r="D83">
-        <v>1611603.6171635389</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>33293629.346645191</v>
+        <v>219364430.63715208</v>
       </c>
       <c r="F83">
-        <v>5795.6044725624615</v>
+        <v>5426.6505915981543</v>
       </c>
       <c r="G83">
-        <v>0.44995871120553788</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>9.2955602684348886</v>
+        <v>438.17675855852042</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
       </c>
       <c r="J83">
-        <v>58571</v>
+        <v>58554</v>
       </c>
       <c r="K83">
-        <v>47.280768999999999</v>
+        <v>46.866900000000001</v>
       </c>
       <c r="L83">
-        <v>-101.321213</v>
+        <v>-100.8836</v>
       </c>
       <c r="M83" t="s">
         <v>49</v>
@@ -3962,40 +3962,40 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2823</v>
+        <v>2817</v>
       </c>
       <c r="B84">
-        <v>4902363</v>
+        <v>3581670</v>
       </c>
       <c r="C84">
-        <v>37812385867.834686</v>
+        <v>20857201115.927502</v>
       </c>
       <c r="D84">
-        <v>2810037.1488264212</v>
+        <v>1144948.2471166323</v>
       </c>
       <c r="E84">
-        <v>59150291.883191548</v>
+        <v>18696720.394150905</v>
       </c>
       <c r="F84">
-        <v>7713.0938422623312</v>
+        <v>5823.3173675764383</v>
       </c>
       <c r="G84">
-        <v>0.57320054610938054</v>
+        <v>0.31966882686473974</v>
       </c>
       <c r="H84">
-        <v>12.065669531854649</v>
+        <v>5.2201125157121968</v>
       </c>
       <c r="I84" t="s">
         <v>30</v>
       </c>
       <c r="J84">
-        <v>58530</v>
+        <v>58571</v>
       </c>
       <c r="K84">
-        <v>47.065854000000002</v>
+        <v>47.280768999999999</v>
       </c>
       <c r="L84">
-        <v>-101.213093</v>
+        <v>-101.321213</v>
       </c>
       <c r="M84" t="s">
         <v>49</v>
@@ -4003,81 +4003,81 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2828</v>
+        <v>2823</v>
       </c>
       <c r="B85">
-        <v>8835500</v>
+        <v>4902363</v>
       </c>
       <c r="C85">
-        <v>46985045291.046921</v>
+        <v>37717043764.634956</v>
       </c>
       <c r="D85">
-        <v>9816114.5003988221</v>
+        <v>1989614.9927260079</v>
       </c>
       <c r="E85">
-        <v>262191113.20282036</v>
+        <v>34275124.305252805</v>
       </c>
       <c r="F85">
-        <v>5317.7573754792511</v>
+        <v>7693.6456489727416</v>
       </c>
       <c r="G85">
-        <v>1.1109857393920912</v>
+        <v>0.40584815786305661</v>
       </c>
       <c r="H85">
-        <v>29.674734107047748</v>
+        <v>6.9915516874725121</v>
       </c>
       <c r="I85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J85">
-        <v>43913</v>
+        <v>58530</v>
       </c>
       <c r="K85">
-        <v>40.252200000000002</v>
+        <v>47.065854000000002</v>
       </c>
       <c r="L85">
-        <v>-80.648600000000002</v>
+        <v>-101.213093</v>
       </c>
       <c r="M85" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="B86">
-        <v>6233147</v>
+        <v>8835500</v>
       </c>
       <c r="C86">
-        <v>26105485457.446541</v>
+        <v>45952653149.089622</v>
       </c>
       <c r="D86">
-        <v>2261583.8807222852</v>
+        <v>7899336.4751523491</v>
       </c>
       <c r="E86">
-        <v>45765243.326930955</v>
+        <v>153463690.13458154</v>
       </c>
       <c r="F86">
-        <v>4188.1709925093273</v>
+        <v>5200.9114536913157</v>
       </c>
       <c r="G86">
-        <v>0.36283178957953099</v>
+        <v>0.89404521251229119</v>
       </c>
       <c r="H86">
-        <v>7.3422371278795371</v>
+        <v>17.368987622045331</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
       </c>
       <c r="J86">
-        <v>45100</v>
+        <v>43913</v>
       </c>
       <c r="K86">
-        <v>39.1128</v>
+        <v>40.252200000000002</v>
       </c>
       <c r="L86">
-        <v>-84.803600000000003</v>
+        <v>-80.648600000000002</v>
       </c>
       <c r="M86" t="s">
         <v>56</v>
@@ -4085,40 +4085,40 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="B87">
-        <v>2753681</v>
+        <v>6233147</v>
       </c>
       <c r="C87">
-        <v>12003612547.581455</v>
+        <v>26186481492.60463</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1571420.5213747283</v>
       </c>
       <c r="E87">
-        <v>1064042734.5347054</v>
+        <v>28969746.837189801</v>
       </c>
       <c r="F87">
-        <v>4359.1151435411193</v>
+        <v>4201.1653972872182</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.25210708513287561</v>
       </c>
       <c r="H87">
-        <v>386.40740686183523</v>
+        <v>4.6476919022108421</v>
       </c>
       <c r="I87" t="s">
         <v>31</v>
       </c>
       <c r="J87">
-        <v>44012</v>
+        <v>45100</v>
       </c>
       <c r="K87">
-        <v>41.504452999999998</v>
+        <v>39.1128</v>
       </c>
       <c r="L87">
-        <v>-82.054619000000002</v>
+        <v>-84.803600000000003</v>
       </c>
       <c r="M87" t="s">
         <v>56</v>
@@ -4126,40 +4126,40 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="B88">
-        <v>5168266</v>
+        <v>2753681</v>
       </c>
       <c r="C88">
-        <v>17628325996.690018</v>
+        <v>12004987434.696236</v>
       </c>
       <c r="D88">
-        <v>1568416.3339512744</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>35607618.391276628</v>
+        <v>991569937.51495445</v>
       </c>
       <c r="F88">
-        <v>3410.8782320201822</v>
+        <v>4359.6144341687495</v>
       </c>
       <c r="G88">
-        <v>0.30347051292469746</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>6.8896644234790978</v>
+        <v>360.0888910207662</v>
       </c>
       <c r="I88" t="s">
         <v>31</v>
       </c>
       <c r="J88">
-        <v>43811</v>
+        <v>44012</v>
       </c>
       <c r="K88">
-        <v>40.184199999999997</v>
+        <v>41.504452999999998</v>
       </c>
       <c r="L88">
-        <v>-81.881100000000004</v>
+        <v>-82.054619000000002</v>
       </c>
       <c r="M88" t="s">
         <v>56</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2850</v>
+        <v>2840</v>
       </c>
       <c r="B89">
-        <v>9849064</v>
+        <v>5168266</v>
       </c>
       <c r="C89">
-        <v>52402132508.306389</v>
+        <v>17744679411.502251</v>
       </c>
       <c r="D89">
-        <v>5397996.0899799801</v>
+        <v>993483.20232611103</v>
       </c>
       <c r="E89">
-        <v>131513291.85467273</v>
+        <v>16598082.17993639</v>
       </c>
       <c r="F89">
-        <v>5320.5190369670036</v>
+        <v>3433.3912789129372</v>
       </c>
       <c r="G89">
-        <v>0.54807198836153148</v>
+        <v>0.19222756768442473</v>
       </c>
       <c r="H89">
-        <v>13.352872095731406</v>
+        <v>3.2115379084467381</v>
       </c>
       <c r="I89" t="s">
         <v>31</v>
       </c>
       <c r="J89">
-        <v>45101</v>
+        <v>43811</v>
       </c>
       <c r="K89">
-        <v>38.636099999999999</v>
+        <v>40.184199999999997</v>
       </c>
       <c r="L89">
-        <v>-83.693899999999999</v>
+        <v>-81.881100000000004</v>
       </c>
       <c r="M89" t="s">
         <v>56</v>
@@ -4208,40 +4208,40 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2866</v>
+        <v>2850</v>
       </c>
       <c r="B90">
-        <v>6246911</v>
+        <v>9849064</v>
       </c>
       <c r="C90">
-        <v>30256534506.602531</v>
+        <v>52601120515.847397</v>
       </c>
       <c r="D90">
-        <v>2930429.1720634894</v>
+        <v>3049912.5410577385</v>
       </c>
       <c r="E90">
-        <v>66301204.84307681</v>
+        <v>52568079.099117294</v>
       </c>
       <c r="F90">
-        <v>4843.439342517051</v>
+        <v>5340.7227850126055</v>
       </c>
       <c r="G90">
-        <v>0.46910051576907197</v>
+        <v>0.30966521702546945</v>
       </c>
       <c r="H90">
-        <v>10.613438360667665</v>
+        <v>5.3373680076723327</v>
       </c>
       <c r="I90" t="s">
         <v>31</v>
       </c>
       <c r="J90">
-        <v>43961</v>
+        <v>45101</v>
       </c>
       <c r="K90">
-        <v>40.531700000000001</v>
+        <v>38.636099999999999</v>
       </c>
       <c r="L90">
-        <v>-80.631900000000002</v>
+        <v>-83.693899999999999</v>
       </c>
       <c r="M90" t="s">
         <v>56</v>
@@ -4249,40 +4249,40 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="B91">
-        <v>3681044</v>
+        <v>6246911</v>
       </c>
       <c r="C91">
-        <v>15532220128.403711</v>
+        <v>30288058646.71949</v>
       </c>
       <c r="D91">
-        <v>1686089.5712922211</v>
+        <v>1799639.1844831179</v>
       </c>
       <c r="E91">
-        <v>46261051.587936223</v>
+        <v>32777034.931335457</v>
       </c>
       <c r="F91">
-        <v>4219.5149333731715</v>
+        <v>4848.4856990470153</v>
       </c>
       <c r="G91">
-        <v>0.45804656811823519</v>
+        <v>0.28808465247593856</v>
       </c>
       <c r="H91">
-        <v>12.567372622532147</v>
+        <v>5.2469188261743218</v>
       </c>
       <c r="I91" t="s">
         <v>31</v>
       </c>
       <c r="J91">
-        <v>45620</v>
+        <v>43961</v>
       </c>
       <c r="K91">
-        <v>38.914400000000001</v>
+        <v>40.531700000000001</v>
       </c>
       <c r="L91">
-        <v>-82.128900000000002</v>
+        <v>-80.631900000000002</v>
       </c>
       <c r="M91" t="s">
         <v>56</v>
@@ -4290,81 +4290,81 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2952</v>
+        <v>2876</v>
       </c>
       <c r="B92">
-        <v>4626240</v>
+        <v>3681044</v>
       </c>
       <c r="C92">
-        <v>5012634075.225359</v>
+        <v>16386335922.480608</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1087076.2390119007</v>
       </c>
       <c r="E92">
-        <v>664511298.77986848</v>
+        <v>16905717.091036901</v>
       </c>
       <c r="F92">
-        <v>1083.522271915283</v>
+        <v>4451.5457904009318</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.29531737165105898</v>
       </c>
       <c r="H92">
-        <v>143.63960771163374</v>
+        <v>4.5926419491418473</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J92">
-        <v>74434</v>
+        <v>45620</v>
       </c>
       <c r="K92">
-        <v>35.76135</v>
+        <v>38.914400000000001</v>
       </c>
       <c r="L92">
-        <v>-95.287319999999994</v>
+        <v>-82.128900000000002</v>
       </c>
       <c r="M92" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2963</v>
+        <v>2952</v>
       </c>
       <c r="B93">
-        <v>6322841</v>
+        <v>4626240</v>
       </c>
       <c r="C93">
-        <v>7108402644.3168173</v>
+        <v>4867091779.0211535</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>891585501.08876276</v>
+        <v>468631852.01106274</v>
       </c>
       <c r="F93">
-        <v>1124.2418786613198</v>
+        <v>1052.0621020572114</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>141.01026755041963</v>
+        <v>101.29864685166847</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
       </c>
       <c r="J93">
-        <v>74053</v>
+        <v>74434</v>
       </c>
       <c r="K93">
-        <v>36.431699999999999</v>
+        <v>35.76135</v>
       </c>
       <c r="L93">
-        <v>-95.700800000000001</v>
+        <v>-95.287319999999994</v>
       </c>
       <c r="M93" t="s">
         <v>54</v>
@@ -4372,81 +4372,81 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>3122</v>
+        <v>2963</v>
       </c>
       <c r="B94">
-        <v>9036684</v>
+        <v>6322841</v>
       </c>
       <c r="C94">
-        <v>84870585470.501099</v>
+        <v>7120943386.3922758</v>
       </c>
       <c r="D94">
-        <v>1909199.8719902118</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>5755189048.2889557</v>
+        <v>685720568.19362748</v>
       </c>
       <c r="F94">
-        <v>9391.7841401227597</v>
+        <v>1126.2252817036322</v>
       </c>
       <c r="G94">
-        <v>0.21127217372990045</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>636.86956944482677</v>
+        <v>108.45133828189377</v>
       </c>
       <c r="I94" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J94">
-        <v>15748</v>
+        <v>74053</v>
       </c>
       <c r="K94">
-        <v>40.512824999999999</v>
+        <v>36.431699999999999</v>
       </c>
       <c r="L94">
-        <v>-79.196106999999998</v>
+        <v>-95.700800000000001</v>
       </c>
       <c r="M94" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>3131</v>
+        <v>3122</v>
       </c>
       <c r="B95">
-        <v>916991</v>
+        <v>9036684</v>
       </c>
       <c r="C95">
-        <v>9052197673.6278152</v>
+        <v>84640377905.838074</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1956163.5054122107</v>
       </c>
       <c r="E95">
-        <v>1238400208.2182565</v>
+        <v>3768233667.6259503</v>
       </c>
       <c r="F95">
-        <v>9871.6319719907988</v>
+        <v>9366.3093570427027</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.21646917225524437</v>
       </c>
       <c r="H95">
-        <v>1350.5042123840435</v>
+        <v>416.99296640514933</v>
       </c>
       <c r="I95" t="s">
         <v>32</v>
       </c>
       <c r="J95">
-        <v>16873</v>
+        <v>15748</v>
       </c>
       <c r="K95">
-        <v>41.067549999999997</v>
+        <v>40.512824999999999</v>
       </c>
       <c r="L95">
-        <v>-78.366228000000007</v>
+        <v>-79.196106999999998</v>
       </c>
       <c r="M95" t="s">
         <v>58</v>
@@ -4454,122 +4454,122 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3138</v>
+        <v>3131</v>
       </c>
       <c r="B96">
-        <v>317344</v>
+        <v>916991</v>
       </c>
       <c r="C96">
-        <v>2217793848.3178482</v>
+        <v>8778175483.5641861</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>288797051.00571108</v>
+        <v>754644766.65718055</v>
       </c>
       <c r="F96">
-        <v>6988.611249362988</v>
+        <v>9572.8044043662212</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>910.04415084485936</v>
+        <v>822.95765897067747</v>
       </c>
       <c r="I96" t="s">
         <v>32</v>
       </c>
       <c r="J96">
-        <v>16160</v>
+        <v>16873</v>
       </c>
       <c r="K96">
-        <v>40.937939</v>
+        <v>41.067549999999997</v>
       </c>
       <c r="L96">
-        <v>-80.369006999999996</v>
+        <v>-78.366228000000007</v>
       </c>
       <c r="M96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="B97">
-        <v>4078252</v>
+        <v>317344</v>
       </c>
       <c r="C97">
-        <v>22764277560.040169</v>
+        <v>2203748675.923028</v>
       </c>
       <c r="D97">
-        <v>1876564.1398410229</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>39507862.10890203</v>
+        <v>186264150.20201263</v>
       </c>
       <c r="F97">
-        <v>5581.8712428854724</v>
+        <v>6944.3527400014746</v>
       </c>
       <c r="G97">
-        <v>0.46013932926190509</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>9.6874499439715915</v>
+        <v>586.94713056497881</v>
       </c>
       <c r="I97" t="s">
         <v>32</v>
       </c>
       <c r="J97">
-        <v>17370</v>
+        <v>16160</v>
       </c>
       <c r="K97">
-        <v>40.096111000000001</v>
+        <v>40.937939</v>
       </c>
       <c r="L97">
-        <v>-76.696200000000005</v>
+        <v>-80.369006999999996</v>
       </c>
       <c r="M97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3149</v>
+        <v>3140</v>
       </c>
       <c r="B98">
-        <v>3399679</v>
+        <v>4078252</v>
       </c>
       <c r="C98">
-        <v>17233011899.192116</v>
+        <v>22622920616.807831</v>
       </c>
       <c r="D98">
-        <v>1129018.1168945953</v>
+        <v>1335151.4880643066</v>
       </c>
       <c r="E98">
-        <v>19853307.354211554</v>
+        <v>22737737.164493274</v>
       </c>
       <c r="F98">
-        <v>5069.0114858467859</v>
+        <v>5547.210083341547</v>
       </c>
       <c r="G98">
-        <v>0.3320955057505709</v>
+        <v>0.32738327304548775</v>
       </c>
       <c r="H98">
-        <v>5.8397593873455556</v>
+        <v>5.5753634558367837</v>
       </c>
       <c r="I98" t="s">
         <v>32</v>
       </c>
       <c r="J98">
-        <v>17884</v>
+        <v>17370</v>
       </c>
       <c r="K98">
-        <v>41.071399999999997</v>
+        <v>40.096111000000001</v>
       </c>
       <c r="L98">
-        <v>-76.667199999999994</v>
+        <v>-76.696200000000005</v>
       </c>
       <c r="M98" t="s">
         <v>58</v>
@@ -4577,122 +4577,122 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3298</v>
+        <v>3149</v>
       </c>
       <c r="B99">
-        <v>3734928</v>
+        <v>3399679</v>
       </c>
       <c r="C99">
-        <v>18147200991.723488</v>
+        <v>17756845212.651413</v>
       </c>
       <c r="D99">
-        <v>1091548.1293579992</v>
+        <v>1132116.0091883158</v>
       </c>
       <c r="E99">
-        <v>19087937.487060115</v>
+        <v>18651942.080812216</v>
       </c>
       <c r="F99">
-        <v>4858.7820144654688</v>
+        <v>5223.0946547163458</v>
       </c>
       <c r="G99">
-        <v>0.29225412895723807</v>
+        <v>0.33300673657375179</v>
       </c>
       <c r="H99">
-        <v>5.1106574175084809</v>
+        <v>5.4863832970148696</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J99">
-        <v>29445</v>
+        <v>17884</v>
       </c>
       <c r="K99">
-        <v>33.015799999999999</v>
+        <v>41.071399999999997</v>
       </c>
       <c r="L99">
-        <v>-79.929699999999997</v>
+        <v>-76.667199999999994</v>
       </c>
       <c r="M99" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3403</v>
+        <v>3298</v>
       </c>
       <c r="B100">
-        <v>2911161</v>
+        <v>3734928</v>
       </c>
       <c r="C100">
-        <v>3289728498.4412637</v>
+        <v>18501532253.954369</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1112216.3124183146</v>
       </c>
       <c r="E100">
-        <v>446772344.87342477</v>
+        <v>17921506.377608832</v>
       </c>
       <c r="F100">
-        <v>1130.0400419081129</v>
+        <v>4953.651651103949</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.29778788571515025</v>
       </c>
       <c r="H100">
-        <v>153.46878612121583</v>
+        <v>4.7983539114030664</v>
       </c>
       <c r="I100" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J100">
-        <v>37066</v>
+        <v>29445</v>
       </c>
       <c r="K100">
-        <v>36.315600000000003</v>
+        <v>33.015799999999999</v>
       </c>
       <c r="L100">
-        <v>-86.400599999999997</v>
+        <v>-79.929699999999997</v>
       </c>
       <c r="M100" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3407</v>
+        <v>3396</v>
       </c>
       <c r="B101">
-        <v>3857821</v>
+        <v>2487210</v>
       </c>
       <c r="C101">
-        <v>20359094762.969246</v>
+        <v>20945120872.213665</v>
       </c>
       <c r="D101">
-        <v>2262418.515183148</v>
+        <v>1218598.4321859977</v>
       </c>
       <c r="E101">
-        <v>65220430.482156068</v>
+        <v>23050705.901408106</v>
       </c>
       <c r="F101">
-        <v>5277.355990070364</v>
+        <v>8421.1308543362502</v>
       </c>
       <c r="G101">
-        <v>0.58644984181047999</v>
+        <v>0.48994593628443023</v>
       </c>
       <c r="H101">
-        <v>16.906028165162684</v>
+        <v>9.2676958927505542</v>
       </c>
       <c r="I101" t="s">
         <v>33</v>
       </c>
       <c r="J101">
-        <v>37763</v>
+        <v>37716</v>
       </c>
       <c r="K101">
-        <v>35.8992</v>
+        <v>36.021099999999997</v>
       </c>
       <c r="L101">
-        <v>-84.519400000000005</v>
+        <v>-84.156700000000001</v>
       </c>
       <c r="M101" t="s">
         <v>48</v>
@@ -4700,163 +4700,163 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3775</v>
+        <v>3399</v>
       </c>
       <c r="B102">
-        <v>393144</v>
+        <v>14438617</v>
       </c>
       <c r="C102">
-        <v>1349613880.644938</v>
+        <v>43981676108.351997</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>2797242.9727432746</v>
       </c>
       <c r="E102">
-        <v>151083395.02668741</v>
+        <v>49573923.444285281</v>
       </c>
       <c r="F102">
-        <v>3432.8741647969655</v>
+        <v>3046.1141886616979</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.19373344225027056</v>
       </c>
       <c r="H102">
-        <v>384.2953091658207</v>
+        <v>3.4334260299504642</v>
       </c>
       <c r="I102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J102">
-        <v>24225</v>
+        <v>37050</v>
       </c>
       <c r="K102">
-        <v>36.933300000000003</v>
+        <v>36.390300000000003</v>
       </c>
       <c r="L102">
-        <v>-82.199700000000007</v>
+        <v>-87.653899999999993</v>
       </c>
       <c r="M102" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3797</v>
+        <v>3403</v>
       </c>
       <c r="B103">
-        <v>2485399</v>
+        <v>2911161</v>
       </c>
       <c r="C103">
-        <v>14328606253.290318</v>
+        <v>3316278928.4001369</v>
       </c>
       <c r="D103">
-        <v>1083412.3865369305</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>23507086.072776705</v>
+        <v>317675670.82319045</v>
       </c>
       <c r="F103">
-        <v>5765.1130676765861</v>
+        <v>1139.1602623146357</v>
       </c>
       <c r="G103">
-        <v>0.43591084833337845</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>9.458073360766905</v>
+        <v>109.12336034427173</v>
       </c>
       <c r="I103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J103">
-        <v>23831</v>
+        <v>37066</v>
       </c>
       <c r="K103">
-        <v>37.382199999999997</v>
+        <v>36.315600000000003</v>
       </c>
       <c r="L103">
-        <v>-77.383300000000006</v>
+        <v>-86.400599999999997</v>
       </c>
       <c r="M103" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3809</v>
+        <v>3407</v>
       </c>
       <c r="B104">
-        <v>261201</v>
+        <v>3857821</v>
       </c>
       <c r="C104">
-        <v>475776895.47541422</v>
+        <v>20331182744.141212</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1206517.0199602428</v>
       </c>
       <c r="E104">
-        <v>60584014.607588679</v>
+        <v>20210793.960938245</v>
       </c>
       <c r="F104">
-        <v>1821.4972204371891</v>
+        <v>5270.1208127959317</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.31274572354711189</v>
       </c>
       <c r="H104">
-        <v>231.9440377624461</v>
+        <v>5.2389143925905959</v>
       </c>
       <c r="I104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J104">
-        <v>23690</v>
+        <v>37763</v>
       </c>
       <c r="K104">
-        <v>37.214399999999998</v>
+        <v>35.8992</v>
       </c>
       <c r="L104">
-        <v>-76.461100000000002</v>
+        <v>-84.519400000000005</v>
       </c>
       <c r="M104" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>3935</v>
+        <v>3775</v>
       </c>
       <c r="B105">
-        <v>14072154</v>
+        <v>393144</v>
       </c>
       <c r="C105">
-        <v>59022427043.543617</v>
+        <v>1320660117.33708</v>
       </c>
       <c r="D105">
-        <v>5899252.04558283</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>131062679.21676224</v>
+        <v>123445976.8768561</v>
       </c>
       <c r="F105">
-        <v>4194.2709725564127</v>
+        <v>3359.2274518677127</v>
       </c>
       <c r="G105">
-        <v>0.41921457408601626</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>9.313618882849223</v>
+        <v>313.99684816977015</v>
       </c>
       <c r="I105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J105">
-        <v>25213</v>
+        <v>24225</v>
       </c>
       <c r="K105">
-        <v>38.473100000000002</v>
+        <v>36.933300000000003</v>
       </c>
       <c r="L105">
-        <v>-81.823300000000003</v>
+        <v>-82.199700000000007</v>
       </c>
       <c r="M105" t="s">
         <v>56</v>
@@ -4864,122 +4864,122 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>3936</v>
+        <v>3797</v>
       </c>
       <c r="B106">
-        <v>543145</v>
+        <v>2485399</v>
       </c>
       <c r="C106">
-        <v>935619527.95403028</v>
+        <v>14485712224.513735</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>851121.54688539519</v>
       </c>
       <c r="E106">
-        <v>106795475.7207669</v>
+        <v>14628486.060927361</v>
       </c>
       <c r="F106">
-        <v>1722.5962274420831</v>
+        <v>5828.3246370155193</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.34244865588398288</v>
       </c>
       <c r="H106">
-        <v>196.62424531343731</v>
+        <v>5.8857696735724776</v>
       </c>
       <c r="I106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J106">
-        <v>25086</v>
+        <v>23831</v>
       </c>
       <c r="K106">
-        <v>38.205599999999997</v>
+        <v>37.382199999999997</v>
       </c>
       <c r="L106">
-        <v>-81.421099999999996</v>
+        <v>-77.383300000000006</v>
       </c>
       <c r="M106" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3943</v>
+        <v>3809</v>
       </c>
       <c r="B107">
-        <v>7296430</v>
+        <v>261201</v>
       </c>
       <c r="C107">
-        <v>31982855689.560349</v>
+        <v>485843073.10361695</v>
       </c>
       <c r="D107">
-        <v>2948288.6801588237</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>59263426.303288028</v>
+        <v>46252512.976116002</v>
       </c>
       <c r="F107">
-        <v>4383.3567497475269</v>
+        <v>1860.0352720840156</v>
       </c>
       <c r="G107">
-        <v>0.40407276985578205</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>8.1222496896822172</v>
+        <v>177.0763242717907</v>
       </c>
       <c r="I107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J107">
-        <v>26541</v>
+        <v>23690</v>
       </c>
       <c r="K107">
-        <v>39.710833000000001</v>
+        <v>37.214399999999998</v>
       </c>
       <c r="L107">
-        <v>-79.927499999999995</v>
+        <v>-76.461100000000002</v>
       </c>
       <c r="M107" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>3944</v>
+        <v>3935</v>
       </c>
       <c r="B108">
-        <v>11269955</v>
+        <v>14072154</v>
       </c>
       <c r="C108">
-        <v>23665393468.028191</v>
+        <v>58872729419.619743</v>
       </c>
       <c r="D108">
-        <v>3448588.1660545473</v>
+        <v>3573495.1551564126</v>
       </c>
       <c r="E108">
-        <v>81856115.531511545</v>
+        <v>63671139.279884189</v>
       </c>
       <c r="F108">
-        <v>2099.8658351367144</v>
+        <v>4183.6331111512663</v>
       </c>
       <c r="G108">
-        <v>0.30599839715904342</v>
+        <v>0.25394087892702233</v>
       </c>
       <c r="H108">
-        <v>7.2632158275265111</v>
+        <v>4.5246192786039856</v>
       </c>
       <c r="I108" t="s">
         <v>35</v>
       </c>
       <c r="J108">
-        <v>26366</v>
+        <v>25213</v>
       </c>
       <c r="K108">
-        <v>39.384166999999998</v>
+        <v>38.473100000000002</v>
       </c>
       <c r="L108">
-        <v>-80.332499999999996</v>
+        <v>-81.823300000000003</v>
       </c>
       <c r="M108" t="s">
         <v>56</v>
@@ -4987,40 +4987,40 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>3948</v>
+        <v>3936</v>
       </c>
       <c r="B109">
-        <v>5367819</v>
+        <v>543145</v>
       </c>
       <c r="C109">
-        <v>21563258399.936886</v>
+        <v>938359439.28786027</v>
       </c>
       <c r="D109">
-        <v>1898146.7411536493</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>38657312.981883563</v>
+        <v>87248951.726106152</v>
       </c>
       <c r="F109">
-        <v>4017.1358981994149</v>
+        <v>1727.6407576022245</v>
       </c>
       <c r="G109">
-        <v>0.35361601073986459</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>7.2016796732310766</v>
+        <v>160.63657352291958</v>
       </c>
       <c r="I109" t="s">
         <v>35</v>
       </c>
       <c r="J109">
-        <v>26041</v>
+        <v>25086</v>
       </c>
       <c r="K109">
-        <v>39.829700000000003</v>
+        <v>38.205599999999997</v>
       </c>
       <c r="L109">
-        <v>-80.815299999999993</v>
+        <v>-81.421099999999996</v>
       </c>
       <c r="M109" t="s">
         <v>56</v>
@@ -5028,40 +5028,40 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>3954</v>
+        <v>3943</v>
       </c>
       <c r="B110">
-        <v>9846148</v>
+        <v>7296430</v>
       </c>
       <c r="C110">
-        <v>64535334810.330643</v>
+        <v>32164787184.062927</v>
       </c>
       <c r="D110">
-        <v>6439315.7370962147</v>
+        <v>2065090.1252026653</v>
       </c>
       <c r="E110">
-        <v>142437144.05484477</v>
+        <v>41679992.39988625</v>
       </c>
       <c r="F110">
-        <v>6554.3738333336696</v>
+        <v>4408.291066187564</v>
       </c>
       <c r="G110">
-        <v>0.65399339285741132</v>
+        <v>0.28302747031118852</v>
       </c>
       <c r="H110">
-        <v>14.466281032424535</v>
+        <v>5.7123815893370118</v>
       </c>
       <c r="I110" t="s">
         <v>35</v>
       </c>
       <c r="J110">
-        <v>26739</v>
+        <v>26541</v>
       </c>
       <c r="K110">
-        <v>39.200800000000001</v>
+        <v>39.710833000000001</v>
       </c>
       <c r="L110">
-        <v>-79.263599999999997</v>
+        <v>-79.927499999999995</v>
       </c>
       <c r="M110" t="s">
         <v>56</v>
@@ -5069,40 +5069,40 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>4041</v>
+        <v>3944</v>
       </c>
       <c r="B111">
-        <v>5178344</v>
+        <v>11269955</v>
       </c>
       <c r="C111">
-        <v>6057531898.2351208</v>
+        <v>23675153682.263424</v>
       </c>
       <c r="D111">
-        <v>701110.02293437242</v>
+        <v>1843844.0437459955</v>
       </c>
       <c r="E111">
-        <v>17897965.611260481</v>
+        <v>33841223.329871006</v>
       </c>
       <c r="F111">
-        <v>1169.7816711742441</v>
+        <v>2100.7318735756639</v>
       </c>
       <c r="G111">
-        <v>0.13539270912368362</v>
+        <v>0.16360704579086566</v>
       </c>
       <c r="H111">
-        <v>3.456310668287097</v>
+        <v>3.00278247161333</v>
       </c>
       <c r="I111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J111">
-        <v>53154</v>
+        <v>26366</v>
       </c>
       <c r="K111">
-        <v>42.845700000000001</v>
+        <v>39.384166999999998</v>
       </c>
       <c r="L111">
-        <v>-87.829400000000007</v>
+        <v>-80.332499999999996</v>
       </c>
       <c r="M111" t="s">
         <v>56</v>
@@ -5110,286 +5110,286 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4050</v>
+        <v>3948</v>
       </c>
       <c r="B112">
-        <v>3896653</v>
+        <v>5367819</v>
       </c>
       <c r="C112">
-        <v>4236640932.3068376</v>
+        <v>21311902138.952171</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1318307.4295536042</v>
       </c>
       <c r="E112">
-        <v>540019379.31054473</v>
+        <v>22361052.263493933</v>
       </c>
       <c r="F112">
-        <v>1087.2512723885952</v>
+        <v>3970.3093824423236</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.24559461292446788</v>
       </c>
       <c r="H112">
-        <v>138.58544225276017</v>
+        <v>4.1657612269515667</v>
       </c>
       <c r="I112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J112">
-        <v>53081</v>
+        <v>26041</v>
       </c>
       <c r="K112">
-        <v>43.715142</v>
+        <v>39.829700000000003</v>
       </c>
       <c r="L112">
-        <v>-87.705862999999994</v>
+        <v>-80.815299999999993</v>
       </c>
       <c r="M112" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>4072</v>
+        <v>3954</v>
       </c>
       <c r="B113">
-        <v>419820</v>
+        <v>9846148</v>
       </c>
       <c r="C113">
-        <v>422404493.95530474</v>
+        <v>64356411575.093399</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>3888860.8187661129</v>
       </c>
       <c r="E113">
-        <v>44837567.467595048</v>
+        <v>70333449.134599</v>
       </c>
       <c r="F113">
-        <v>1006.1561954058996</v>
+        <v>6536.2019314653198</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>0.39496266141501357</v>
       </c>
       <c r="H113">
-        <v>106.80188525462114</v>
+        <v>7.1432451690345298</v>
       </c>
       <c r="I113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J113">
-        <v>54303</v>
+        <v>26739</v>
       </c>
       <c r="K113">
-        <v>44.54</v>
+        <v>39.200800000000001</v>
       </c>
       <c r="L113">
-        <v>-88.008600000000001</v>
+        <v>-79.263599999999997</v>
       </c>
       <c r="M113" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4078</v>
+        <v>4041</v>
       </c>
       <c r="B114">
-        <v>12685</v>
+        <v>5178344</v>
       </c>
       <c r="C114">
-        <v>12343448.244169127</v>
+        <v>6030792661.0012817</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>447950.73168617109</v>
       </c>
       <c r="E114">
-        <v>1155865.8510185026</v>
+        <v>7300576.2221713746</v>
       </c>
       <c r="F114">
-        <v>973.07435902003363</v>
+        <v>1164.6180054861711</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>8.6504629991010856E-2</v>
       </c>
       <c r="H114">
-        <v>91.120681988056973</v>
+        <v>1.4098283586743898</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
       </c>
       <c r="J114">
-        <v>54474</v>
+        <v>53154</v>
       </c>
       <c r="K114">
-        <v>44.860599999999998</v>
+        <v>42.845700000000001</v>
       </c>
       <c r="L114">
-        <v>-89.655299999999997</v>
+        <v>-87.829400000000007</v>
       </c>
       <c r="M114" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4158</v>
+        <v>4050</v>
       </c>
       <c r="B115">
-        <v>1522254</v>
+        <v>3896653</v>
       </c>
       <c r="C115">
-        <v>2111296088.8485372</v>
+        <v>4264839946.4074869</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>273205417.64958364</v>
+        <v>404134165.07612884</v>
       </c>
       <c r="F115">
-        <v>1386.9538781626045</v>
+        <v>1094.48799942091</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>179.4742649055832</v>
+        <v>103.71315205026694</v>
       </c>
       <c r="I115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J115">
-        <v>82637</v>
+        <v>53081</v>
       </c>
       <c r="K115">
-        <v>42.837800000000001</v>
+        <v>43.715142</v>
       </c>
       <c r="L115">
-        <v>-105.7769</v>
+        <v>-87.705862999999994</v>
       </c>
       <c r="M115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>4162</v>
+        <v>4072</v>
       </c>
       <c r="B116">
-        <v>4899321</v>
+        <v>419820</v>
       </c>
       <c r="C116">
-        <v>2455257637.5714936</v>
+        <v>424740511.9627288</v>
       </c>
       <c r="D116">
-        <v>69263.647322932797</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>163141449.59776625</v>
+        <v>35117176.609045073</v>
       </c>
       <c r="F116">
-        <v>501.14243128210904</v>
+        <v>1011.720527756488</v>
       </c>
       <c r="G116">
-        <v>1.4137397268505738E-2</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>33.298787647873297</v>
+        <v>83.648174477264234</v>
       </c>
       <c r="I116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J116">
-        <v>83101</v>
+        <v>54303</v>
       </c>
       <c r="K116">
-        <v>41.758099999999999</v>
+        <v>44.54</v>
       </c>
       <c r="L116">
-        <v>-110.59829999999999</v>
+        <v>-88.008600000000001</v>
       </c>
       <c r="M116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>4259</v>
+        <v>4078</v>
       </c>
       <c r="B117">
-        <v>214384</v>
+        <v>12685</v>
       </c>
       <c r="C117">
-        <v>1816395439.6137619</v>
+        <v>12471921.271523749</v>
       </c>
       <c r="D117">
-        <v>109552.12367386839</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>1716544.1093935063</v>
+        <v>1222378.7682689303</v>
       </c>
       <c r="F117">
-        <v>8472.6259404328775</v>
+        <v>983.20230756986598</v>
       </c>
       <c r="G117">
-        <v>0.51100886108043686</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>8.0068666943125724</v>
+        <v>96.364112595106846</v>
       </c>
       <c r="I117" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J117">
-        <v>49252</v>
+        <v>54474</v>
       </c>
       <c r="K117">
-        <v>42.031700000000001</v>
+        <v>44.860599999999998</v>
       </c>
       <c r="L117">
-        <v>-84.754999999999995</v>
+        <v>-89.655299999999997</v>
       </c>
       <c r="M117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>4941</v>
+        <v>4158</v>
       </c>
       <c r="B118">
-        <v>13572760</v>
+        <v>1522254</v>
       </c>
       <c r="C118">
-        <v>6339900705.5328321</v>
+        <v>2139953796.1769292</v>
       </c>
       <c r="D118">
-        <v>2605314.6281875512</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>99360138.041039288</v>
+        <v>206893321.68310916</v>
       </c>
       <c r="F118">
-        <v>467.1047528677168</v>
+        <v>1405.779716247702</v>
       </c>
       <c r="G118">
-        <v>0.19195172007664993</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>7.3205551443508385</v>
+        <v>135.9124835166202</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J118">
-        <v>86040</v>
+        <v>82637</v>
       </c>
       <c r="K118">
-        <v>36.904699999999998</v>
+        <v>42.837800000000001</v>
       </c>
       <c r="L118">
-        <v>-111.3886</v>
+        <v>-105.7769</v>
       </c>
       <c r="M118" t="s">
         <v>62</v>
@@ -5397,368 +5397,368 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6002</v>
+        <v>4162</v>
       </c>
       <c r="B119">
-        <v>17815891</v>
+        <v>4899321</v>
       </c>
       <c r="C119">
-        <v>20946249870.705563</v>
+        <v>2516145575.2442551</v>
       </c>
       <c r="D119">
-        <v>2218373.6110139862</v>
+        <v>69263.647322932797</v>
       </c>
       <c r="E119">
-        <v>57729205.726334259</v>
+        <v>118276956.98854788</v>
       </c>
       <c r="F119">
-        <v>1175.7059958834257</v>
+        <v>513.57026315366045</v>
       </c>
       <c r="G119">
-        <v>0.12451656843960182</v>
+        <v>1.4137397268505738E-2</v>
       </c>
       <c r="H119">
-        <v>3.2403209991761996</v>
+        <v>24.141499809575219</v>
       </c>
       <c r="I119" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J119">
-        <v>35073</v>
+        <v>83101</v>
       </c>
       <c r="K119">
-        <v>33.631900000000002</v>
+        <v>41.758099999999999</v>
       </c>
       <c r="L119">
-        <v>-87.059700000000007</v>
+        <v>-110.59829999999999</v>
       </c>
       <c r="M119" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6004</v>
+        <v>4259</v>
       </c>
       <c r="B120">
-        <v>7047532</v>
+        <v>214384</v>
       </c>
       <c r="C120">
-        <v>31773843271.705666</v>
+        <v>1761611094.8859448</v>
       </c>
       <c r="D120">
-        <v>2902012.345465167</v>
+        <v>106401.37113911042</v>
       </c>
       <c r="E120">
-        <v>61624154.063743249</v>
+        <v>1716021.6750235669</v>
       </c>
       <c r="F120">
-        <v>4508.5064206456482</v>
+        <v>8217.0828741228124</v>
       </c>
       <c r="G120">
-        <v>0.41177710799541839</v>
+        <v>0.49631209017049038</v>
       </c>
       <c r="H120">
-        <v>8.7440758074944895</v>
+        <v>8.0044297849819337</v>
       </c>
       <c r="I120" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J120">
-        <v>26134</v>
+        <v>49252</v>
       </c>
       <c r="K120">
-        <v>39.366667</v>
+        <v>42.031700000000001</v>
       </c>
       <c r="L120">
-        <v>-81.294443999999999</v>
+        <v>-84.754999999999995</v>
       </c>
       <c r="M120" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>6009</v>
+        <v>4941</v>
       </c>
       <c r="B121">
-        <v>6223129</v>
+        <v>13572760</v>
       </c>
       <c r="C121">
-        <v>6850745494.5754423</v>
+        <v>6339900705.5328321</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>2621533.9661828708</v>
       </c>
       <c r="E121">
-        <v>868601711.34248912</v>
+        <v>75946749.485087454</v>
       </c>
       <c r="F121">
-        <v>1100.8522392152634</v>
+        <v>467.1047528677168</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.19314671195710165</v>
       </c>
       <c r="H121">
-        <v>139.57636284616456</v>
+        <v>5.59552732716761</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J121">
-        <v>72132</v>
+        <v>86040</v>
       </c>
       <c r="K121">
-        <v>34.422800000000002</v>
+        <v>36.904699999999998</v>
       </c>
       <c r="L121">
-        <v>-92.140600000000006</v>
+        <v>-111.3886</v>
       </c>
       <c r="M121" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6016</v>
+        <v>6002</v>
       </c>
       <c r="B122">
-        <v>2129192</v>
+        <v>17815891</v>
       </c>
       <c r="C122">
-        <v>2570897507.5027194</v>
+        <v>20547513886.85305</v>
       </c>
       <c r="D122">
-        <v>192244.36033715081</v>
+        <v>1409768.0773081863</v>
       </c>
       <c r="E122">
-        <v>3101999.3953710911</v>
+        <v>23096421.651233036</v>
       </c>
       <c r="F122">
-        <v>1207.452173173072</v>
+        <v>1153.3250785410087</v>
       </c>
       <c r="G122">
-        <v>9.0289819019210488E-2</v>
+        <v>7.9129810420830837E-2</v>
       </c>
       <c r="H122">
-        <v>1.4568904050790588</v>
+        <v>1.2963944184005749</v>
       </c>
       <c r="I122" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J122">
-        <v>61520</v>
+        <v>35073</v>
       </c>
       <c r="K122">
-        <v>40.466299999999997</v>
+        <v>33.631900000000002</v>
       </c>
       <c r="L122">
-        <v>-89.984099999999998</v>
+        <v>-87.059700000000007</v>
       </c>
       <c r="M122" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6017</v>
+        <v>6004</v>
       </c>
       <c r="B123">
-        <v>4998069</v>
+        <v>7047532</v>
       </c>
       <c r="C123">
-        <v>4724558001.4931955</v>
+        <v>30890840892.992508</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>2023652.9200207551</v>
       </c>
       <c r="E123">
-        <v>549318727.4184289</v>
+        <v>33655340.06795302</v>
       </c>
       <c r="F123">
-        <v>945.27666614710506</v>
+        <v>4383.2139950542269</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.28714348796440442</v>
       </c>
       <c r="H123">
-        <v>109.90619125474836</v>
+        <v>4.775478858124095</v>
       </c>
       <c r="I123" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J123">
-        <v>62448</v>
+        <v>26134</v>
       </c>
       <c r="K123">
-        <v>38.936100000000003</v>
+        <v>39.366667</v>
       </c>
       <c r="L123">
-        <v>-88.278099999999995</v>
+        <v>-81.294443999999999</v>
       </c>
       <c r="M123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6018</v>
+        <v>6009</v>
       </c>
       <c r="B124">
-        <v>4031692</v>
+        <v>6223129</v>
       </c>
       <c r="C124">
-        <v>32139842212.693409</v>
+        <v>6990346203.5029345</v>
       </c>
       <c r="D124">
-        <v>13136218.618804492</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>186734047.44818258</v>
+        <v>679229428.64073026</v>
       </c>
       <c r="F124">
-        <v>7971.7999819166271</v>
+        <v>1123.2847982908493</v>
       </c>
       <c r="G124">
-        <v>3.2582396221746333</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>46.316545869124582</v>
+        <v>109.14596638455193</v>
       </c>
       <c r="I124" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J124">
-        <v>41091</v>
+        <v>72132</v>
       </c>
       <c r="K124">
-        <v>38.903599999999997</v>
+        <v>34.422800000000002</v>
       </c>
       <c r="L124">
-        <v>-84.851399999999998</v>
+        <v>-92.140600000000006</v>
       </c>
       <c r="M124" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>6019</v>
+        <v>6016</v>
       </c>
       <c r="B125">
-        <v>5936999</v>
+        <v>2129192</v>
       </c>
       <c r="C125">
-        <v>27759462154.519753</v>
+        <v>2546611132.2940063</v>
       </c>
       <c r="D125">
-        <v>1626836.0049457252</v>
+        <v>184612.73166592175</v>
       </c>
       <c r="E125">
-        <v>31109541.778826527</v>
+        <v>3033971.6044044243</v>
       </c>
       <c r="F125">
-        <v>4675.6723648630814</v>
+        <v>1196.04579215684</v>
       </c>
       <c r="G125">
-        <v>0.27401655364026928</v>
+        <v>8.6705535088391156E-2</v>
       </c>
       <c r="H125">
-        <v>5.2399439142277986</v>
+        <v>1.4249403550287736</v>
       </c>
       <c r="I125" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J125">
-        <v>45200</v>
+        <v>61520</v>
       </c>
       <c r="K125">
-        <v>38.8675</v>
+        <v>40.466299999999997</v>
       </c>
       <c r="L125">
-        <v>-84.228899999999996</v>
+        <v>-89.984099999999998</v>
       </c>
       <c r="M125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6030</v>
+        <v>6017</v>
       </c>
       <c r="B126">
-        <v>8834166</v>
+        <v>4998069</v>
       </c>
       <c r="C126">
-        <v>53821160042.738579</v>
+        <v>4701151015.9143782</v>
       </c>
       <c r="D126">
-        <v>4285356.549898088</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>85896571.184369326</v>
+        <v>385605432.31843591</v>
       </c>
       <c r="F126">
-        <v>6092.3872205637272</v>
+        <v>940.59346037727335</v>
       </c>
       <c r="G126">
-        <v>0.48508897726147415</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>9.7232235826640938</v>
+        <v>77.150882134367478</v>
       </c>
       <c r="I126" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J126">
-        <v>58576</v>
+        <v>62448</v>
       </c>
       <c r="K126">
-        <v>47.377743000000002</v>
+        <v>38.936100000000003</v>
       </c>
       <c r="L126">
-        <v>-101.15705800000001</v>
+        <v>-88.278099999999995</v>
       </c>
       <c r="M126" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6031</v>
+        <v>6018</v>
       </c>
       <c r="B127">
-        <v>3440952</v>
+        <v>4031692</v>
       </c>
       <c r="C127">
-        <v>17351128212.284798</v>
+        <v>31556703640.913544</v>
       </c>
       <c r="D127">
-        <v>7066562.0005251113</v>
+        <v>12894007.241531136</v>
       </c>
       <c r="E127">
-        <v>103393045.31183554</v>
+        <v>189497951.54433119</v>
       </c>
       <c r="F127">
-        <v>5042.5371270174055</v>
+        <v>7827.1613111600645</v>
       </c>
       <c r="G127">
-        <v>2.0536647998940731</v>
+        <v>3.1981627667815733</v>
       </c>
       <c r="H127">
-        <v>30.04780226862669</v>
+        <v>47.002090324442243</v>
       </c>
       <c r="I127" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J127">
-        <v>45144</v>
+        <v>41091</v>
       </c>
       <c r="K127">
-        <v>38.690300000000001</v>
+        <v>38.903599999999997</v>
       </c>
       <c r="L127">
-        <v>-83.4803</v>
+        <v>-84.851399999999998</v>
       </c>
       <c r="M127" t="s">
         <v>56</v>
@@ -5766,573 +5766,573 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6041</v>
+        <v>6019</v>
       </c>
       <c r="B128">
-        <v>3273953</v>
+        <v>5936999</v>
       </c>
       <c r="C128">
-        <v>24022767569.07003</v>
+        <v>27944001555.338829</v>
       </c>
       <c r="D128">
-        <v>12870094.248842344</v>
+        <v>1591246.9098549862</v>
       </c>
       <c r="E128">
-        <v>397482975.75429642</v>
+        <v>28734027.252789363</v>
       </c>
       <c r="F128">
-        <v>7337.5419772580817</v>
+        <v>4706.7553077470329</v>
       </c>
       <c r="G128">
-        <v>3.931056508398973</v>
+        <v>0.2680220949767696</v>
       </c>
       <c r="H128">
-        <v>121.40766093902278</v>
+        <v>4.8398234954712578</v>
       </c>
       <c r="I128" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J128">
-        <v>41056</v>
+        <v>45200</v>
       </c>
       <c r="K128">
-        <v>38.700000000000003</v>
+        <v>38.8675</v>
       </c>
       <c r="L128">
-        <v>-83.818100000000001</v>
+        <v>-84.228899999999996</v>
       </c>
       <c r="M128" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>6052</v>
+        <v>6030</v>
       </c>
       <c r="B129">
-        <v>4469578</v>
+        <v>8834166</v>
       </c>
       <c r="C129">
-        <v>11438078811.14695</v>
+        <v>53803807832.392258</v>
       </c>
       <c r="D129">
-        <v>1065329.1508285413</v>
+        <v>2848571.1691900212</v>
       </c>
       <c r="E129">
-        <v>20881710.32581497</v>
+        <v>50094780.845352754</v>
       </c>
       <c r="F129">
-        <v>2559.0959171418308</v>
+        <v>6090.4230045476006</v>
       </c>
       <c r="G129">
-        <v>0.23835117114603241</v>
+        <v>0.32244935958754017</v>
       </c>
       <c r="H129">
-        <v>4.6719646297290192</v>
+        <v>5.6705727337875196</v>
       </c>
       <c r="I129" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J129">
-        <v>30170</v>
+        <v>58576</v>
       </c>
       <c r="K129">
-        <v>33.413420000000002</v>
+        <v>47.377743000000002</v>
       </c>
       <c r="L129">
-        <v>-85.032329000000004</v>
+        <v>-101.15705800000001</v>
       </c>
       <c r="M129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6055</v>
+        <v>6031</v>
       </c>
       <c r="B130">
-        <v>5464804</v>
+        <v>3440952</v>
       </c>
       <c r="C130">
-        <v>6723789842.953331</v>
+        <v>17397357256.450649</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>7105603.7848933134</v>
       </c>
       <c r="E130">
-        <v>864386985.61737275</v>
+        <v>100380721.97039926</v>
       </c>
       <c r="F130">
-        <v>1230.3807863837992</v>
+        <v>5055.972084600613</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2.0650110158157724</v>
       </c>
       <c r="H130">
-        <v>158.17346525463179</v>
+        <v>29.172369149700216</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J130">
-        <v>70760</v>
+        <v>45144</v>
       </c>
       <c r="K130">
-        <v>30.726099999999999</v>
+        <v>38.690300000000001</v>
       </c>
       <c r="L130">
-        <v>-91.369200000000006</v>
+        <v>-83.4803</v>
       </c>
       <c r="M130" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>6061</v>
+        <v>6041</v>
       </c>
       <c r="B131">
-        <v>245854</v>
+        <v>3273953</v>
       </c>
       <c r="C131">
-        <v>593826704.97119355</v>
+        <v>24084984758.972076</v>
       </c>
       <c r="D131">
-        <v>241695.4001582351</v>
+        <v>12902635.039648566</v>
       </c>
       <c r="E131">
-        <v>6064193.1303685317</v>
+        <v>327441519.39395344</v>
       </c>
       <c r="F131">
-        <v>2415.3632032474297</v>
+        <v>7356.5456678736919</v>
       </c>
       <c r="G131">
-        <v>0.98308508366036385</v>
+        <v>3.9409958052692162</v>
       </c>
       <c r="H131">
-        <v>24.66583065709133</v>
+        <v>100.01411730527391</v>
       </c>
       <c r="I131" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J131">
-        <v>39475</v>
+        <v>41056</v>
       </c>
       <c r="K131">
-        <v>31.218599999999999</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="L131">
-        <v>-89.394000000000005</v>
+        <v>-83.818100000000001</v>
       </c>
       <c r="M131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6064</v>
+        <v>6052</v>
       </c>
       <c r="B132">
-        <v>1204962</v>
+        <v>4469578</v>
       </c>
       <c r="C132">
-        <v>1582309858.315789</v>
+        <v>11389160256.762962</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>706434.52238912904</v>
       </c>
       <c r="E132">
-        <v>153223774.02768299</v>
+        <v>13190232.006797824</v>
       </c>
       <c r="F132">
-        <v>1313.1616252759748</v>
+        <v>2548.1511356917727</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.15805396446580169</v>
       </c>
       <c r="H132">
-        <v>127.16066899012831</v>
+        <v>2.9511135070912342</v>
       </c>
       <c r="I132" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J132">
-        <v>66104</v>
+        <v>30170</v>
       </c>
       <c r="K132">
-        <v>39.168100000000003</v>
+        <v>33.413420000000002</v>
       </c>
       <c r="L132">
-        <v>-94.697500000000005</v>
+        <v>-85.032329000000004</v>
       </c>
       <c r="M132" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>6068</v>
+        <v>6055</v>
       </c>
       <c r="B133">
-        <v>11346108</v>
+        <v>5464804</v>
       </c>
       <c r="C133">
-        <v>15424349603.308762</v>
+        <v>6914074308.2245588</v>
       </c>
       <c r="D133">
-        <v>1662088.6389584122</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>41467287.642913267</v>
+        <v>664645067.2638936</v>
       </c>
       <c r="F133">
-        <v>1359.4396953835414</v>
+        <v>1265.2007845523021</v>
       </c>
       <c r="G133">
-        <v>0.14648976009733139</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>3.6547587633497995</v>
+        <v>121.62285550660071</v>
       </c>
       <c r="I133" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J133">
-        <v>66536</v>
+        <v>70760</v>
       </c>
       <c r="K133">
-        <v>39.286453000000002</v>
+        <v>30.726099999999999</v>
       </c>
       <c r="L133">
-        <v>-96.117231000000004</v>
+        <v>-91.369200000000006</v>
       </c>
       <c r="M133" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6076</v>
+        <v>6061</v>
       </c>
       <c r="B134">
-        <v>14844275</v>
+        <v>245854</v>
       </c>
       <c r="C134">
-        <v>16413141054.605619</v>
+        <v>588873633.78891814</v>
       </c>
       <c r="D134">
-        <v>14170011.777142856</v>
+        <v>238666.63529984772</v>
       </c>
       <c r="E134">
-        <v>413124088.59836388</v>
+        <v>4769582.1812927965</v>
       </c>
       <c r="F134">
-        <v>1105.688290913879</v>
+        <v>2395.2168107450689</v>
       </c>
       <c r="G134">
-        <v>0.95457755782231568</v>
+        <v>0.97076571989818239</v>
       </c>
       <c r="H134">
-        <v>27.830533225662005</v>
+        <v>19.400059308747455</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J134">
-        <v>59323</v>
+        <v>39475</v>
       </c>
       <c r="K134">
-        <v>45.883099999999999</v>
+        <v>31.218599999999999</v>
       </c>
       <c r="L134">
-        <v>-106.614</v>
+        <v>-89.394000000000005</v>
       </c>
       <c r="M134" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6082</v>
+        <v>6064</v>
       </c>
       <c r="B135">
-        <v>614883</v>
+        <v>1204962</v>
       </c>
       <c r="C135">
-        <v>3351453662.1717749</v>
+        <v>1574810759.4612119</v>
       </c>
       <c r="D135">
-        <v>194586.5319463776</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>2967647.3607132668</v>
+        <v>150376666.50494289</v>
       </c>
       <c r="F135">
-        <v>5450.5550847425848</v>
+        <v>1306.9381104642403</v>
       </c>
       <c r="G135">
-        <v>0.31646106974233734</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>4.826361048708887</v>
+        <v>124.79784964583355</v>
       </c>
       <c r="I135" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J135">
-        <v>14012</v>
+        <v>66104</v>
       </c>
       <c r="K135">
-        <v>43.358888999999998</v>
+        <v>39.168100000000003</v>
       </c>
       <c r="L135">
-        <v>-78.604721999999995</v>
+        <v>-94.697500000000005</v>
       </c>
       <c r="M135" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6085</v>
+        <v>6068</v>
       </c>
       <c r="B136">
-        <v>4882435</v>
+        <v>11346108</v>
       </c>
       <c r="C136">
-        <v>14048904519.25214</v>
+        <v>15433852900.587957</v>
       </c>
       <c r="D136">
-        <v>1468286.3476572589</v>
+        <v>1143499.6171640868</v>
       </c>
       <c r="E136">
-        <v>34546660.096892431</v>
+        <v>18561262.53767778</v>
       </c>
       <c r="F136">
-        <v>2877.4381060376927</v>
+        <v>1360.2772775111921</v>
       </c>
       <c r="G136">
-        <v>0.30072829390606509</v>
+        <v>0.10078342433934939</v>
       </c>
       <c r="H136">
-        <v>7.0757030245958088</v>
+        <v>1.6359144948803395</v>
       </c>
       <c r="I136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J136">
-        <v>46392</v>
+        <v>66536</v>
       </c>
       <c r="K136">
-        <v>41.2164</v>
+        <v>39.286453000000002</v>
       </c>
       <c r="L136">
-        <v>-87.0261</v>
+        <v>-96.117231000000004</v>
       </c>
       <c r="M136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>6089</v>
+        <v>6073</v>
       </c>
       <c r="B137">
-        <v>222191</v>
+        <v>2439887</v>
       </c>
       <c r="C137">
-        <v>1254213253.6670938</v>
+        <v>2617936410.6769152</v>
       </c>
       <c r="D137">
-        <v>1082804.1089992577</v>
+        <v>159703.30033394796</v>
       </c>
       <c r="E137">
-        <v>11631548.457432184</v>
+        <v>2645703.3026877483</v>
       </c>
       <c r="F137">
-        <v>5644.7527292603827</v>
+        <v>1072.9744495039793</v>
       </c>
       <c r="G137">
-        <v>4.8733031895947976</v>
+        <v>6.5455203595063197E-2</v>
       </c>
       <c r="H137">
-        <v>52.349323138345767</v>
+        <v>1.0843548503220635</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J137">
-        <v>59270</v>
+        <v>39552</v>
       </c>
       <c r="K137">
-        <v>47.6785</v>
+        <v>30.5322</v>
       </c>
       <c r="L137">
-        <v>-104.15665</v>
+        <v>-88.555300000000003</v>
       </c>
       <c r="M137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>6090</v>
+        <v>6076</v>
       </c>
       <c r="B138">
-        <v>7152189</v>
+        <v>14844275</v>
       </c>
       <c r="C138">
-        <v>10370575545.177198</v>
+        <v>16395518510.549278</v>
       </c>
       <c r="D138">
-        <v>8953263.5540029835</v>
+        <v>14154797.647440881</v>
       </c>
       <c r="E138">
-        <v>250142685.09210411</v>
+        <v>354141381.5831092</v>
       </c>
       <c r="F138">
-        <v>1449.9862273182655</v>
+        <v>1104.5011299338821</v>
       </c>
       <c r="G138">
-        <v>1.2518214429181029</v>
+        <v>0.9535526421762518</v>
       </c>
       <c r="H138">
-        <v>34.974283410589976</v>
+        <v>23.857101918625812</v>
       </c>
       <c r="I138" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J138">
-        <v>55308</v>
+        <v>59323</v>
       </c>
       <c r="K138">
-        <v>45.380800000000001</v>
+        <v>45.883099999999999</v>
       </c>
       <c r="L138">
-        <v>-93.893100000000004</v>
+        <v>-106.614</v>
       </c>
       <c r="M138" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>6094</v>
+        <v>6082</v>
       </c>
       <c r="B139">
-        <v>13610817</v>
+        <v>614883</v>
       </c>
       <c r="C139">
-        <v>58735165593.397362</v>
+        <v>3343047128.3181963</v>
       </c>
       <c r="D139">
-        <v>34488471.406716868</v>
+        <v>180106.6887409554</v>
       </c>
       <c r="E139">
-        <v>1013360291.5759234</v>
+        <v>2847753.7775054188</v>
       </c>
       <c r="F139">
-        <v>4315.3299021945095</v>
+        <v>5436.8833230357586</v>
       </c>
       <c r="G139">
-        <v>2.5339016318209899</v>
+        <v>0.29291212920336945</v>
       </c>
       <c r="H139">
-        <v>74.452568980680837</v>
+        <v>4.6313750380241752</v>
       </c>
       <c r="I139" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J139">
-        <v>15077</v>
+        <v>14012</v>
       </c>
       <c r="K139">
-        <v>40.634799999999998</v>
+        <v>43.358888999999998</v>
       </c>
       <c r="L139">
-        <v>-80.415899999999993</v>
+        <v>-78.604721999999995</v>
       </c>
       <c r="M139" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6095</v>
+        <v>6085</v>
       </c>
       <c r="B140">
-        <v>5621453</v>
+        <v>5372955</v>
       </c>
       <c r="C140">
-        <v>5761783690.4481792</v>
+        <v>15646897545.02968</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1036512.6854658893</v>
       </c>
       <c r="E140">
-        <v>726821622.04254913</v>
+        <v>18308658.797187932</v>
       </c>
       <c r="F140">
-        <v>1024.9634196796057</v>
+        <v>2912.1586808431634</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.19291296604305996</v>
       </c>
       <c r="H140">
-        <v>129.294262896541</v>
+        <v>3.4075585589657704</v>
       </c>
       <c r="I140" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J140">
-        <v>73061</v>
+        <v>46392</v>
       </c>
       <c r="K140">
-        <v>36.453069999999997</v>
+        <v>41.2164</v>
       </c>
       <c r="L140">
-        <v>-97.052790000000002</v>
+        <v>-87.0261</v>
       </c>
       <c r="M140" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>6096</v>
+        <v>6089</v>
       </c>
       <c r="B141">
-        <v>4776449</v>
+        <v>222191</v>
       </c>
       <c r="C141">
-        <v>5305072294.2163801</v>
+        <v>1377927439.2125008</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1189610.6891867926</v>
       </c>
       <c r="E141">
-        <v>523193496.17118382</v>
+        <v>32838503.983139992</v>
       </c>
       <c r="F141">
-        <v>1110.6728647613279</v>
+        <v>6201.5447934997401</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>5.3540003383881105</v>
       </c>
       <c r="H141">
-        <v>109.536079244473</v>
+        <v>147.79403298576446</v>
       </c>
       <c r="I141" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J141">
-        <v>68410</v>
+        <v>59270</v>
       </c>
       <c r="K141">
-        <v>40.621400000000001</v>
+        <v>47.6785</v>
       </c>
       <c r="L141">
-        <v>-95.776399999999995</v>
+        <v>-104.15665</v>
       </c>
       <c r="M141" t="s">
         <v>49</v>
@@ -6340,81 +6340,81 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6106</v>
+        <v>6090</v>
       </c>
       <c r="B142">
-        <v>2383346</v>
+        <v>7152189</v>
       </c>
       <c r="C142">
-        <v>2636355036.6267657</v>
+        <v>10506964556.986982</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>9071012.7341987621</v>
       </c>
       <c r="E142">
-        <v>256441285.96453649</v>
+        <v>162645907.94026181</v>
       </c>
       <c r="F142">
-        <v>1106.1570735540563</v>
+        <v>1469.0557753698879</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1.2682848194026699</v>
       </c>
       <c r="H142">
-        <v>107.59717051764054</v>
+        <v>22.740717274146672</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J142">
-        <v>97818</v>
+        <v>55308</v>
       </c>
       <c r="K142">
-        <v>45.693182</v>
+        <v>45.380800000000001</v>
       </c>
       <c r="L142">
-        <v>-119.808819</v>
+        <v>-93.893100000000004</v>
       </c>
       <c r="M142" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6113</v>
+        <v>6094</v>
       </c>
       <c r="B143">
-        <v>14585886</v>
+        <v>13610817</v>
       </c>
       <c r="C143">
-        <v>146342721660.19647</v>
+        <v>58652409882.993179</v>
       </c>
       <c r="D143">
-        <v>14839528.605483577</v>
+        <v>33418751.02748286</v>
       </c>
       <c r="E143">
-        <v>377833605.27344972</v>
+        <v>695950420.43518615</v>
       </c>
       <c r="F143">
-        <v>10033.173278619926</v>
+        <v>4309.249759437158</v>
       </c>
       <c r="G143">
-        <v>1.0173895919304166</v>
+        <v>2.4553082322305015</v>
       </c>
       <c r="H143">
-        <v>25.904055829961216</v>
+        <v>51.132156169257591</v>
       </c>
       <c r="I143" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J143">
-        <v>47665</v>
+        <v>15077</v>
       </c>
       <c r="K143">
-        <v>38.372222000000001</v>
+        <v>40.634799999999998</v>
       </c>
       <c r="L143">
-        <v>-87.765833000000001</v>
+        <v>-80.415899999999993</v>
       </c>
       <c r="M143" t="s">
         <v>56</v>
@@ -6422,245 +6422,245 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>6124</v>
+        <v>6095</v>
       </c>
       <c r="B144">
-        <v>93260</v>
+        <v>5621453</v>
       </c>
       <c r="C144">
-        <v>128944038.66043021</v>
+        <v>5684271919.7832432</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>10637961.323618125</v>
+        <v>557024539.90599418</v>
       </c>
       <c r="F144">
-        <v>1382.629623208559</v>
+        <v>1011.1748545764312</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>114.06778172440623</v>
+        <v>99.089068236627469</v>
       </c>
       <c r="I144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J144">
-        <v>31326</v>
+        <v>73061</v>
       </c>
       <c r="K144">
-        <v>32.356287000000002</v>
+        <v>36.453069999999997</v>
       </c>
       <c r="L144">
-        <v>-81.168346999999997</v>
+        <v>-97.052790000000002</v>
       </c>
       <c r="M144" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>6136</v>
+        <v>6096</v>
       </c>
       <c r="B145">
-        <v>2184313</v>
+        <v>4776449</v>
       </c>
       <c r="C145">
-        <v>2895669451.0913992</v>
+        <v>5417734423.6636906</v>
       </c>
       <c r="D145">
-        <v>214217.7362804595</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>3510889.9167755875</v>
+        <v>508919839.40061837</v>
       </c>
       <c r="F145">
-        <v>1325.6659879291105</v>
+        <v>1134.259870389842</v>
       </c>
       <c r="G145">
-        <v>9.8070989038869197E-2</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>1.6073199751022804</v>
+        <v>106.54773858165728</v>
       </c>
       <c r="I145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J145">
-        <v>77830</v>
+        <v>68410</v>
       </c>
       <c r="K145">
-        <v>30.619937</v>
+        <v>40.621400000000001</v>
       </c>
       <c r="L145">
-        <v>-96.081845999999999</v>
+        <v>-95.776399999999995</v>
       </c>
       <c r="M145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>6137</v>
+        <v>6106</v>
       </c>
       <c r="B146">
-        <v>1131899</v>
+        <v>2383346</v>
       </c>
       <c r="C146">
-        <v>2090127970.1170113</v>
+        <v>2636355036.6267657</v>
       </c>
       <c r="D146">
-        <v>156240.29170437515</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>2856175.1124228579</v>
+        <v>256441285.96453649</v>
       </c>
       <c r="F146">
-        <v>1846.5675560425543</v>
+        <v>1106.1570735540563</v>
       </c>
       <c r="G146">
-        <v>0.13803377483713225</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>2.5233480305423521</v>
+        <v>107.59717051764054</v>
       </c>
       <c r="I146" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J146">
-        <v>47620</v>
+        <v>97818</v>
       </c>
       <c r="K146">
-        <v>37.905299999999997</v>
+        <v>45.693182</v>
       </c>
       <c r="L146">
-        <v>-87.715000000000003</v>
+        <v>-119.808819</v>
       </c>
       <c r="M146" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>6138</v>
+        <v>6113</v>
       </c>
       <c r="B147">
-        <v>3041196</v>
+        <v>14585886</v>
       </c>
       <c r="C147">
-        <v>2002929173.720124</v>
+        <v>146392249196.88651</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>7046333.115594862</v>
       </c>
       <c r="E147">
-        <v>1848857698.8185761</v>
+        <v>150570820.70772916</v>
       </c>
       <c r="F147">
-        <v>658.59917404867167</v>
+        <v>10036.568858202136</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.48309256740350653</v>
       </c>
       <c r="H147">
-        <v>607.93769912185076</v>
+        <v>10.32304933054661</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J147">
-        <v>72734</v>
+        <v>47665</v>
       </c>
       <c r="K147">
-        <v>36.256100000000004</v>
+        <v>38.372222000000001</v>
       </c>
       <c r="L147">
-        <v>-94.524100000000004</v>
+        <v>-87.765833000000001</v>
       </c>
       <c r="M147" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6139</v>
+        <v>6124</v>
       </c>
       <c r="B148">
-        <v>6130440</v>
+        <v>93260</v>
       </c>
       <c r="C148">
-        <v>4188538021.0652165</v>
+        <v>130094975.29131168</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>3866342788.6755838</v>
+        <v>10409132.809462368</v>
       </c>
       <c r="F148">
-        <v>683.23611699408468</v>
+        <v>1394.9707837369899</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>630.67949260992418</v>
+        <v>111.61411976691366</v>
       </c>
       <c r="I148" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J148">
-        <v>75686</v>
+        <v>31326</v>
       </c>
       <c r="K148">
-        <v>33.055219999999998</v>
+        <v>32.356287000000002</v>
       </c>
       <c r="L148">
-        <v>-94.839993000000007</v>
+        <v>-81.168346999999997</v>
       </c>
       <c r="M148" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>6146</v>
+        <v>6136</v>
       </c>
       <c r="B149">
-        <v>9975515</v>
+        <v>2184313</v>
       </c>
       <c r="C149">
-        <v>27955549346.636681</v>
+        <v>2900496947.1264281</v>
       </c>
       <c r="D149">
-        <v>3062970.2329426231</v>
+        <v>214620.25697716986</v>
       </c>
       <c r="E149">
-        <v>68190939.908967718</v>
+        <v>3455996.6990086655</v>
       </c>
       <c r="F149">
-        <v>2802.4166518356878</v>
+        <v>1327.8760631495707</v>
       </c>
       <c r="G149">
-        <v>0.30704883236029645</v>
+        <v>9.8255266977383668E-2</v>
       </c>
       <c r="H149">
-        <v>6.8358315243842265</v>
+        <v>1.5821893194833641</v>
       </c>
       <c r="I149" t="s">
         <v>11</v>
       </c>
       <c r="J149">
-        <v>75691</v>
+        <v>77830</v>
       </c>
       <c r="K149">
-        <v>32.260599999999997</v>
+        <v>30.619937</v>
       </c>
       <c r="L149">
-        <v>-94.570599999999999</v>
+        <v>-96.081845999999999</v>
       </c>
       <c r="M149" t="s">
         <v>50</v>
@@ -6668,655 +6668,655 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>6147</v>
+        <v>6137</v>
       </c>
       <c r="B150">
-        <v>2161126</v>
+        <v>1131899</v>
       </c>
       <c r="C150">
-        <v>5361515186.7267456</v>
+        <v>2086674340.2625053</v>
       </c>
       <c r="D150">
-        <v>342368.69643432228</v>
+        <v>156240.29170437515</v>
       </c>
       <c r="E150">
-        <v>5691172.3764379229</v>
+        <v>2747104.8031988242</v>
       </c>
       <c r="F150">
-        <v>2480.8896782171632</v>
+        <v>1843.5163740426533</v>
       </c>
       <c r="G150">
-        <v>0.15842144161623259</v>
+        <v>0.13803377483713225</v>
       </c>
       <c r="H150">
-        <v>2.6334292292249151</v>
+        <v>2.4269875697379573</v>
       </c>
       <c r="I150" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J150">
-        <v>75455</v>
+        <v>47620</v>
       </c>
       <c r="K150">
-        <v>33.091700000000003</v>
+        <v>37.905299999999997</v>
       </c>
       <c r="L150">
-        <v>-95.041700000000006</v>
+        <v>-87.715000000000003</v>
       </c>
       <c r="M150" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6155</v>
+        <v>6138</v>
       </c>
       <c r="B151">
-        <v>7465222</v>
+        <v>3041196</v>
       </c>
       <c r="C151">
-        <v>8127839745.6872082</v>
+        <v>1976458744.1114879</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>1052059882.5863143</v>
+        <v>1824423456.1029119</v>
       </c>
       <c r="F151">
-        <v>1088.760621678392</v>
+        <v>649.89522020661866</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>140.92814421142657</v>
+        <v>599.9032801907249</v>
       </c>
       <c r="I151" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J151">
-        <v>63028</v>
+        <v>72734</v>
       </c>
       <c r="K151">
-        <v>38.131247999999999</v>
+        <v>36.256100000000004</v>
       </c>
       <c r="L151">
-        <v>-90.263157000000007</v>
+        <v>-94.524100000000004</v>
       </c>
       <c r="M151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6166</v>
+        <v>6139</v>
       </c>
       <c r="B152">
-        <v>12442473</v>
+        <v>6130440</v>
       </c>
       <c r="C152">
-        <v>51257694457.599274</v>
+        <v>4188538021.0652165</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>5765622053.4781036</v>
+        <v>3866342788.6755838</v>
       </c>
       <c r="F152">
-        <v>4119.5744975777143</v>
+        <v>683.23611699408468</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>463.38232387388769</v>
+        <v>630.67949260992418</v>
       </c>
       <c r="I152" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J152">
-        <v>47635</v>
+        <v>75686</v>
       </c>
       <c r="K152">
-        <v>37.925600000000003</v>
+        <v>33.055219999999998</v>
       </c>
       <c r="L152">
-        <v>-87.037199999999999</v>
+        <v>-94.839993000000007</v>
       </c>
       <c r="M152" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>6170</v>
+        <v>6146</v>
       </c>
       <c r="B153">
-        <v>6659324</v>
+        <v>9975515</v>
       </c>
       <c r="C153">
-        <v>9060157385.6187363</v>
+        <v>28321840697.925453</v>
       </c>
       <c r="D153">
-        <v>897192.96506492514</v>
+        <v>1734038.6377814848</v>
       </c>
       <c r="E153">
-        <v>19789010.332774997</v>
+        <v>33045287.940479718</v>
       </c>
       <c r="F153">
-        <v>1360.5220868692884</v>
+        <v>2839.1356935381737</v>
       </c>
       <c r="G153">
-        <v>0.13472733344479487</v>
+        <v>0.17382948527283903</v>
       </c>
       <c r="H153">
-        <v>2.9716244971373964</v>
+        <v>3.3126397925801041</v>
       </c>
       <c r="I153" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J153">
-        <v>53158</v>
+        <v>75691</v>
       </c>
       <c r="K153">
-        <v>42.5381</v>
+        <v>32.260599999999997</v>
       </c>
       <c r="L153">
-        <v>-87.903300000000002</v>
+        <v>-94.570599999999999</v>
       </c>
       <c r="M153" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6177</v>
+        <v>6147</v>
       </c>
       <c r="B154">
-        <v>4935387</v>
+        <v>2161126</v>
       </c>
       <c r="C154">
-        <v>7101776244.1850424</v>
+        <v>5395323255.0460415</v>
       </c>
       <c r="D154">
-        <v>2904200.7362773214</v>
+        <v>338077.71601952508</v>
       </c>
       <c r="E154">
-        <v>77997388.692233875</v>
+        <v>5513368.5526777394</v>
       </c>
       <c r="F154">
-        <v>1438.950227040968</v>
+        <v>2496.5334066806108</v>
       </c>
       <c r="G154">
-        <v>0.58844437858212972</v>
+        <v>0.15643591165879503</v>
       </c>
       <c r="H154">
-        <v>15.803702666525215</v>
+        <v>2.5511555331238158</v>
       </c>
       <c r="I154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J154">
-        <v>85936</v>
+        <v>75455</v>
       </c>
       <c r="K154">
-        <v>34.578899999999997</v>
+        <v>33.091700000000003</v>
       </c>
       <c r="L154">
-        <v>-109.27079999999999</v>
+        <v>-95.041700000000006</v>
       </c>
       <c r="M154" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6179</v>
+        <v>6155</v>
       </c>
       <c r="B155">
-        <v>8727176</v>
+        <v>7465222</v>
       </c>
       <c r="C155">
-        <v>11440090438.620022</v>
+        <v>8265844841.2501507</v>
       </c>
       <c r="D155">
-        <v>1229315.1718624292</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>29845989.678044133</v>
+        <v>792586005.52361882</v>
       </c>
       <c r="F155">
-        <v>1310.8582247705353</v>
+        <v>1107.2470237656898</v>
       </c>
       <c r="G155">
-        <v>0.14086059131412376</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>3.4198908877332292</v>
+        <v>106.1704535409153</v>
       </c>
       <c r="I155" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J155">
-        <v>78945</v>
+        <v>63028</v>
       </c>
       <c r="K155">
-        <v>29.917200000000001</v>
+        <v>38.131247999999999</v>
       </c>
       <c r="L155">
-        <v>-96.750600000000006</v>
+        <v>-90.263157000000007</v>
       </c>
       <c r="M155" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6183</v>
+        <v>6166</v>
       </c>
       <c r="B156">
-        <v>2169628</v>
+        <v>12442473</v>
       </c>
       <c r="C156">
-        <v>8583208452.1644831</v>
+        <v>50619044397.958069</v>
       </c>
       <c r="D156">
-        <v>522308.96427612251</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>9770441.9836489055</v>
+        <v>4186707202.1589308</v>
       </c>
       <c r="F156">
-        <v>3956.0737841530822</v>
+        <v>4068.2462721002544</v>
       </c>
       <c r="G156">
-        <v>0.24073664438148959</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>4.5032798173921549</v>
+        <v>336.48513459976414</v>
       </c>
       <c r="I156" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J156">
-        <v>78012</v>
+        <v>47635</v>
       </c>
       <c r="K156">
-        <v>28.7044</v>
+        <v>37.925600000000003</v>
       </c>
       <c r="L156">
-        <v>-98.477500000000006</v>
+        <v>-87.037199999999999</v>
       </c>
       <c r="M156" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6193</v>
+        <v>6170</v>
       </c>
       <c r="B157">
-        <v>2006853</v>
+        <v>6659324</v>
       </c>
       <c r="C157">
-        <v>2244893777.1120672</v>
+        <v>8979239181.6478844</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>654376.4440569724</v>
       </c>
       <c r="E157">
-        <v>211694334.70729098</v>
+        <v>10780038.084939033</v>
       </c>
       <c r="F157">
-        <v>1118.6139578295308</v>
+        <v>1348.3709730368855</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>9.8264695343997732E-2</v>
       </c>
       <c r="H157">
-        <v>105.48572053224176</v>
+        <v>1.6187886465561718</v>
       </c>
       <c r="I157" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J157">
-        <v>79108</v>
+        <v>53158</v>
       </c>
       <c r="K157">
-        <v>35.298160000000003</v>
+        <v>42.5381</v>
       </c>
       <c r="L157">
-        <v>-101.747187</v>
+        <v>-87.903300000000002</v>
       </c>
       <c r="M157" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6204</v>
+        <v>6177</v>
       </c>
       <c r="B158">
-        <v>10724956</v>
+        <v>4935387</v>
       </c>
       <c r="C158">
-        <v>10570555830.810272</v>
+        <v>7117142261.4898701</v>
       </c>
       <c r="D158">
-        <v>3261765.6835613428</v>
+        <v>2897658.5735439397</v>
       </c>
       <c r="E158">
-        <v>2469362422.0605931</v>
+        <v>62820490.34730874</v>
       </c>
       <c r="F158">
-        <v>985.60365476653442</v>
+        <v>1442.0636642050299</v>
       </c>
       <c r="G158">
-        <v>0.30412858416960803</v>
+        <v>0.58711881632462459</v>
       </c>
       <c r="H158">
-        <v>230.24452706944373</v>
+        <v>12.72858447520098</v>
       </c>
       <c r="I158" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J158">
-        <v>82201</v>
+        <v>85936</v>
       </c>
       <c r="K158">
-        <v>42.108888999999998</v>
+        <v>34.578899999999997</v>
       </c>
       <c r="L158">
-        <v>-104.88249999999999</v>
+        <v>-109.27079999999999</v>
       </c>
       <c r="M158" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>6213</v>
+        <v>6179</v>
       </c>
       <c r="B159">
-        <v>5178428</v>
+        <v>8727176</v>
       </c>
       <c r="C159">
-        <v>19775695841.699287</v>
+        <v>11421464882.325718</v>
       </c>
       <c r="D159">
-        <v>1639255.0885885071</v>
+        <v>855136.23088376923</v>
       </c>
       <c r="E159">
-        <v>35133029.042165741</v>
+        <v>13855881.845774967</v>
       </c>
       <c r="F159">
-        <v>3818.8608283632184</v>
+        <v>1308.7240227910745</v>
       </c>
       <c r="G159">
-        <v>0.31655457768042872</v>
+        <v>9.7985445794122772E-2</v>
       </c>
       <c r="H159">
-        <v>6.7844969635892856</v>
+        <v>1.5876707248455821</v>
       </c>
       <c r="I159" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J159">
-        <v>47882</v>
+        <v>78945</v>
       </c>
       <c r="K159">
-        <v>39.069400000000002</v>
+        <v>29.917200000000001</v>
       </c>
       <c r="L159">
-        <v>-87.510800000000003</v>
+        <v>-96.750600000000006</v>
       </c>
       <c r="M159" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>6249</v>
+        <v>6183</v>
       </c>
       <c r="B160">
-        <v>3910602</v>
+        <v>2169628</v>
       </c>
       <c r="C160">
-        <v>24196807387.909721</v>
+        <v>8584584078.3339901</v>
       </c>
       <c r="D160">
-        <v>2412461.2010067524</v>
+        <v>555770.46747655189</v>
       </c>
       <c r="E160">
-        <v>60927905.921423644</v>
+        <v>10741786.757523069</v>
       </c>
       <c r="F160">
-        <v>6187.4891354092588</v>
+        <v>3956.7078219556488</v>
       </c>
       <c r="G160">
-        <v>0.61690276868030858</v>
+        <v>0.25615933582925365</v>
       </c>
       <c r="H160">
-        <v>15.580185843873561</v>
+        <v>4.9509808859044355</v>
       </c>
       <c r="I160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J160">
-        <v>29440</v>
+        <v>78012</v>
       </c>
       <c r="K160">
-        <v>33.33184</v>
+        <v>28.7044</v>
       </c>
       <c r="L160">
-        <v>-79.357236</v>
+        <v>-98.477500000000006</v>
       </c>
       <c r="M160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6264</v>
+        <v>6193</v>
       </c>
       <c r="B161">
-        <v>7463219</v>
+        <v>2006853</v>
       </c>
       <c r="C161">
-        <v>35996180311.231125</v>
+        <v>2257690402.8773642</v>
       </c>
       <c r="D161">
-        <v>2077176.6749117675</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>37693779.643346347</v>
+        <v>219608141.61223644</v>
       </c>
       <c r="F161">
-        <v>4823.1440496696023</v>
+        <v>1124.9904217585265</v>
       </c>
       <c r="G161">
-        <v>0.27832181728980043</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>5.0506061316633408</v>
+        <v>109.42911195400781</v>
       </c>
       <c r="I161" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J161">
-        <v>25265</v>
+        <v>79108</v>
       </c>
       <c r="K161">
-        <v>38.979399999999998</v>
+        <v>35.298160000000003</v>
       </c>
       <c r="L161">
-        <v>-81.934399999999997</v>
+        <v>-101.747187</v>
       </c>
       <c r="M161" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>6639</v>
+        <v>6204</v>
       </c>
       <c r="B162">
-        <v>2584028</v>
+        <v>10724956</v>
       </c>
       <c r="C162">
-        <v>12191949007.940586</v>
+        <v>10620056632.280073</v>
       </c>
       <c r="D162">
-        <v>1020399.1061605532</v>
+        <v>3261765.6835613428</v>
       </c>
       <c r="E162">
-        <v>20185127.907025948</v>
+        <v>2487305275.2294555</v>
       </c>
       <c r="F162">
-        <v>4718.1953941445627</v>
+        <v>990.21913304633358</v>
       </c>
       <c r="G162">
-        <v>0.3948870159923008</v>
+        <v>0.30412858416960803</v>
       </c>
       <c r="H162">
-        <v>7.8114973626547197</v>
+        <v>231.9175272354922</v>
       </c>
       <c r="I162" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J162">
-        <v>42452</v>
+        <v>82201</v>
       </c>
       <c r="K162">
-        <v>37.646099999999997</v>
+        <v>42.108888999999998</v>
       </c>
       <c r="L162">
-        <v>-87.5</v>
+        <v>-104.88249999999999</v>
       </c>
       <c r="M162" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>6641</v>
+        <v>6213</v>
       </c>
       <c r="B163">
-        <v>5184267</v>
+        <v>5178428</v>
       </c>
       <c r="C163">
-        <v>6058490648.1897888</v>
+        <v>19875657958.687317</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1232925.5332846274</v>
       </c>
       <c r="E163">
-        <v>772174922.95900905</v>
+        <v>20035578.243300565</v>
       </c>
       <c r="F163">
-        <v>1168.6301357915765</v>
+        <v>3838.1643924927248</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>0.23808876618244521</v>
       </c>
       <c r="H163">
-        <v>148.94582454163896</v>
+        <v>3.869046406226091</v>
       </c>
       <c r="I163" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J163">
-        <v>72562</v>
+        <v>47882</v>
       </c>
       <c r="K163">
-        <v>35.678441999999997</v>
+        <v>39.069400000000002</v>
       </c>
       <c r="L163">
-        <v>-91.408760999999998</v>
+        <v>-87.510800000000003</v>
       </c>
       <c r="M163" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6648</v>
+        <v>6249</v>
       </c>
       <c r="B164">
-        <v>4104611</v>
+        <v>3910602</v>
       </c>
       <c r="C164">
-        <v>12787535470.864618</v>
+        <v>24286922579.402706</v>
       </c>
       <c r="D164">
-        <v>714910.72294082458</v>
+        <v>1413616.5339252795</v>
       </c>
       <c r="E164">
-        <v>14428829.484429255</v>
+        <v>24278048.08501314</v>
       </c>
       <c r="F164">
-        <v>3115.4073969164479</v>
+        <v>6210.5329510399433</v>
       </c>
       <c r="G164">
-        <v>0.17417258856949527</v>
+        <v>0.36148310002533612</v>
       </c>
       <c r="H164">
-        <v>3.5152733071244158</v>
+        <v>6.2082636087776617</v>
       </c>
       <c r="I164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J164">
-        <v>76567</v>
+        <v>29440</v>
       </c>
       <c r="K164">
-        <v>30.565871000000001</v>
+        <v>33.33184</v>
       </c>
       <c r="L164">
-        <v>-97.064031999999997</v>
+        <v>-79.357236</v>
       </c>
       <c r="M164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>6705</v>
+        <v>6264</v>
       </c>
       <c r="B165">
-        <v>5491581</v>
+        <v>7463219</v>
       </c>
       <c r="C165">
-        <v>18238000593.367004</v>
+        <v>35632498840.84864</v>
       </c>
       <c r="D165">
-        <v>1787082.8128103851</v>
+        <v>2123357.2751112944</v>
       </c>
       <c r="E165">
-        <v>43535828.860409811</v>
+        <v>37234874.367517248</v>
       </c>
       <c r="F165">
-        <v>3321.0837814041174</v>
+        <v>4774.4142093175396</v>
       </c>
       <c r="G165">
-        <v>0.32542228054368771</v>
+        <v>0.2845095762446867</v>
       </c>
       <c r="H165">
-        <v>7.9277404558741473</v>
+        <v>4.9891172116907256</v>
       </c>
       <c r="I165" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J165">
-        <v>47630</v>
+        <v>25265</v>
       </c>
       <c r="K165">
-        <v>37.914999999999999</v>
+        <v>38.979399999999998</v>
       </c>
       <c r="L165">
-        <v>-87.332800000000006</v>
+        <v>-81.934399999999997</v>
       </c>
       <c r="M165" t="s">
         <v>56</v>
@@ -7324,204 +7324,204 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>6768</v>
+        <v>6639</v>
       </c>
       <c r="B166">
-        <v>1299004</v>
+        <v>2584028</v>
       </c>
       <c r="C166">
-        <v>1496560541.7357504</v>
+        <v>12432825577.412834</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>759687.51816099219</v>
       </c>
       <c r="E166">
-        <v>142999683.71105459</v>
+        <v>12715206.677337125</v>
       </c>
       <c r="F166">
-        <v>1152.0830896100015</v>
+        <v>4811.4128706859346</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>0.29399353186613775</v>
       </c>
       <c r="H166">
-        <v>110.08409805593716</v>
+        <v>4.9206922979693424</v>
       </c>
       <c r="I166" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J166">
-        <v>63801</v>
+        <v>42452</v>
       </c>
       <c r="K166">
-        <v>36.879100000000001</v>
+        <v>37.646099999999997</v>
       </c>
       <c r="L166">
-        <v>-89.620900000000006</v>
+        <v>-87.5</v>
       </c>
       <c r="M166" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>6772</v>
+        <v>6641</v>
       </c>
       <c r="B167">
-        <v>2477354</v>
+        <v>5184267</v>
       </c>
       <c r="C167">
-        <v>3059114910.1410174</v>
+        <v>6026776425.0285912</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>289893596.78817743</v>
+        <v>573328541.26179194</v>
       </c>
       <c r="F167">
-        <v>1234.8315622801656</v>
+        <v>1162.5127380647236</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>117.01742939772734</v>
+        <v>110.59008752091509</v>
       </c>
       <c r="I167" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J167">
-        <v>74735</v>
+        <v>72562</v>
       </c>
       <c r="K167">
-        <v>34.015799999999999</v>
+        <v>35.678441999999997</v>
       </c>
       <c r="L167">
-        <v>-95.320599999999999</v>
+        <v>-91.408760999999998</v>
       </c>
       <c r="M167" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>6823</v>
+        <v>6648</v>
       </c>
       <c r="B168">
-        <v>3250811</v>
+        <v>4104611</v>
       </c>
       <c r="C168">
-        <v>9932172538.9659233</v>
+        <v>12886845542.978453</v>
       </c>
       <c r="D168">
-        <v>691797.85153473192</v>
+        <v>713821.82619293011</v>
       </c>
       <c r="E168">
-        <v>11129782.526371643</v>
+        <v>14428829.484429255</v>
       </c>
       <c r="F168">
-        <v>3055.2906763776555</v>
+        <v>3139.6021554730651</v>
       </c>
       <c r="G168">
-        <v>0.2128077736708569</v>
+        <v>0.1739073023467827</v>
       </c>
       <c r="H168">
-        <v>3.4236941262877614</v>
+        <v>3.5152733071244158</v>
       </c>
       <c r="I168" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J168">
-        <v>42328</v>
+        <v>76567</v>
       </c>
       <c r="K168">
-        <v>37.4497</v>
+        <v>30.565871000000001</v>
       </c>
       <c r="L168">
-        <v>-87.080600000000004</v>
+        <v>-97.064031999999997</v>
       </c>
       <c r="M168" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>7504</v>
+        <v>6705</v>
       </c>
       <c r="B169">
-        <v>602999</v>
+        <v>5491581</v>
       </c>
       <c r="C169">
-        <v>867860597.18030417</v>
+        <v>18063080162.013489</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1076598.40418173</v>
       </c>
       <c r="E169">
-        <v>85663863.111272767</v>
+        <v>17729970.754746933</v>
       </c>
       <c r="F169">
-        <v>1439.2405247443266</v>
+        <v>3289.2313091646083</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>0.19604525621705843</v>
       </c>
       <c r="H169">
-        <v>142.06302682305073</v>
+        <v>3.2285731112309795</v>
       </c>
       <c r="I169" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J169">
-        <v>82718</v>
+        <v>47630</v>
       </c>
       <c r="K169">
-        <v>44.285600000000002</v>
+        <v>37.914999999999999</v>
       </c>
       <c r="L169">
-        <v>-105.38330000000001</v>
+        <v>-87.332800000000006</v>
       </c>
       <c r="M169" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>7902</v>
+        <v>6768</v>
       </c>
       <c r="B170">
-        <v>4583206</v>
+        <v>1299004</v>
       </c>
       <c r="C170">
-        <v>18582229037.965981</v>
+        <v>1518524233.896852</v>
       </c>
       <c r="D170">
-        <v>876813.02018039476</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>12226858.55359629</v>
+        <v>144278736.43758133</v>
       </c>
       <c r="F170">
-        <v>4054.4171564546696</v>
+        <v>1168.99119163363</v>
       </c>
       <c r="G170">
-        <v>0.19130997388736068</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>2.667752344886154</v>
+        <v>111.06873915521533</v>
       </c>
       <c r="I170" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J170">
-        <v>75650</v>
+        <v>63801</v>
       </c>
       <c r="K170">
-        <v>32.460700000000003</v>
+        <v>36.879100000000001</v>
       </c>
       <c r="L170">
-        <v>-94.485200000000006</v>
+        <v>-89.620900000000006</v>
       </c>
       <c r="M170" t="s">
         <v>54</v>
@@ -7529,286 +7529,286 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>8042</v>
+        <v>6772</v>
       </c>
       <c r="B171">
-        <v>12498933</v>
+        <v>2477354</v>
       </c>
       <c r="C171">
-        <v>69573198367.285126</v>
+        <v>2995113567.9064379</v>
       </c>
       <c r="D171">
-        <v>5853721.8638974093</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>121874744.21150032</v>
+        <v>284663242.26212734</v>
       </c>
       <c r="F171">
-        <v>5566.3310113979433</v>
+        <v>1208.9970056384504</v>
       </c>
       <c r="G171">
-        <v>0.46833772642011995</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>9.7508118662209249</v>
+        <v>114.90616289078079</v>
       </c>
       <c r="I171" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J171">
-        <v>27052</v>
+        <v>74735</v>
       </c>
       <c r="K171">
-        <v>36.281100000000002</v>
+        <v>34.015799999999999</v>
       </c>
       <c r="L171">
-        <v>-80.060299999999998</v>
+        <v>-95.320599999999999</v>
       </c>
       <c r="M171" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>8066</v>
+        <v>6823</v>
       </c>
       <c r="B172">
-        <v>13439341</v>
+        <v>3250811</v>
       </c>
       <c r="C172">
-        <v>15219264606.92329</v>
+        <v>10667953187.849194</v>
       </c>
       <c r="D172">
-        <v>1641545.7965494557</v>
+        <v>714170.98500738386</v>
       </c>
       <c r="E172">
-        <v>48861360.634493232</v>
+        <v>11818960.157403491</v>
       </c>
       <c r="F172">
-        <v>1132.4412861406888</v>
+        <v>3281.6282422599143</v>
       </c>
       <c r="G172">
-        <v>0.12214481324266238</v>
+        <v>0.21969009733490624</v>
       </c>
       <c r="H172">
-        <v>3.6356961724903947</v>
+        <v>3.6356958793985537</v>
       </c>
       <c r="I172" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J172">
-        <v>82942</v>
+        <v>42328</v>
       </c>
       <c r="K172">
-        <v>41.7378</v>
+        <v>37.4497</v>
       </c>
       <c r="L172">
-        <v>-108.78749999999999</v>
+        <v>-87.080600000000004</v>
       </c>
       <c r="M172" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>8102</v>
+        <v>7504</v>
       </c>
       <c r="B173">
-        <v>14171621</v>
+        <v>602999</v>
       </c>
       <c r="C173">
-        <v>78947142084.63858</v>
+        <v>861083591.2955054</v>
       </c>
       <c r="D173">
-        <v>6940416.6638765726</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>149601678.38460678</v>
+        <v>81839583.508090928</v>
       </c>
       <c r="F173">
-        <v>5570.7912372648534</v>
+        <v>1428.0016903767757</v>
       </c>
       <c r="G173">
-        <v>0.48974049361583782</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>10.55642670549874</v>
+        <v>135.72092741130737</v>
       </c>
       <c r="I173" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J173">
-        <v>45620</v>
+        <v>82718</v>
       </c>
       <c r="K173">
-        <v>38.934699999999999</v>
+        <v>44.285600000000002</v>
       </c>
       <c r="L173">
-        <v>-82.115799999999993</v>
+        <v>-105.38330000000001</v>
       </c>
       <c r="M173" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>8226</v>
+        <v>7902</v>
       </c>
       <c r="B174">
-        <v>1940463</v>
+        <v>4583206</v>
       </c>
       <c r="C174">
-        <v>10387446459.255871</v>
+        <v>18582229037.965981</v>
       </c>
       <c r="D174">
-        <v>609911.83991115121</v>
+        <v>1081499.1944933962</v>
       </c>
       <c r="E174">
-        <v>10137288.204639822</v>
+        <v>12226858.55359629</v>
       </c>
       <c r="F174">
-        <v>5353.0762808957807</v>
+        <v>4054.4171564546696</v>
       </c>
       <c r="G174">
-        <v>0.31431253258173497</v>
+        <v>0.23597001629282999</v>
       </c>
       <c r="H174">
-        <v>5.2241594942237102</v>
+        <v>2.667752344886154</v>
       </c>
       <c r="I174" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J174">
-        <v>15024</v>
+        <v>75650</v>
       </c>
       <c r="K174">
-        <v>40.5383</v>
+        <v>32.460700000000003</v>
       </c>
       <c r="L174">
-        <v>-79.790599999999998</v>
+        <v>-94.485200000000006</v>
       </c>
       <c r="M174" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>10075</v>
+        <v>8042</v>
       </c>
       <c r="B175">
-        <v>825950</v>
+        <v>12498933</v>
       </c>
       <c r="C175">
-        <v>1185821661.9970236</v>
+        <v>70598878377.982941</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>4035599.4731404739</v>
       </c>
       <c r="E175">
-        <v>139086403.54375556</v>
+        <v>73463965.90983744</v>
       </c>
       <c r="F175">
-        <v>1435.7063526811835</v>
+        <v>5648.3924170153514</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>0.32287551850549756</v>
       </c>
       <c r="H175">
-        <v>168.39566988771179</v>
+        <v>5.8776189863436699</v>
       </c>
       <c r="I175" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J175">
-        <v>55613</v>
+        <v>27052</v>
       </c>
       <c r="K175">
-        <v>47.531399999999998</v>
+        <v>36.281100000000002</v>
       </c>
       <c r="L175">
-        <v>-90.9114</v>
+        <v>-80.060299999999998</v>
       </c>
       <c r="M175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>10234</v>
+        <v>8066</v>
       </c>
       <c r="B176">
-        <v>166824</v>
+        <v>13439341</v>
       </c>
       <c r="C176">
-        <v>443975648.89935935</v>
+        <v>15531924169.306095</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1131131.091551784</v>
       </c>
       <c r="E176">
-        <v>57871999.784615837</v>
+        <v>20568751.895263888</v>
       </c>
       <c r="F176">
-        <v>2661.3415869380865</v>
+        <v>1155.7057871592137</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>8.4165666423062252E-2</v>
       </c>
       <c r="H176">
-        <v>346.90452084002203</v>
+        <v>1.530488131468938</v>
       </c>
       <c r="I176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J176">
-        <v>54494</v>
+        <v>82942</v>
       </c>
       <c r="K176">
-        <v>44.43</v>
+        <v>41.7378</v>
       </c>
       <c r="L176">
-        <v>-89.78</v>
+        <v>-108.78749999999999</v>
       </c>
       <c r="M176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>50282</v>
+        <v>8102</v>
       </c>
       <c r="B177">
-        <v>97358</v>
+        <v>14171621</v>
       </c>
       <c r="C177">
-        <v>34671837.052631997</v>
+        <v>78222345652.821045</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>4977129.755814922</v>
       </c>
       <c r="E177">
-        <v>32004772.663967997</v>
+        <v>84488360.821266845</v>
       </c>
       <c r="F177">
-        <v>356.12725253838408</v>
+        <v>5519.6470222299231</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>0.3512039840618742</v>
       </c>
       <c r="H177">
-        <v>328.73284849696989</v>
+        <v>5.9617993468260861</v>
       </c>
       <c r="I177" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J177">
-        <v>21540</v>
+        <v>45620</v>
       </c>
       <c r="K177">
-        <v>39.473599999999998</v>
+        <v>38.934699999999999</v>
       </c>
       <c r="L177">
-        <v>-79.056899999999999</v>
+        <v>-82.115799999999993</v>
       </c>
       <c r="M177" t="s">
         <v>56</v>
@@ -7816,206 +7816,370 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>50397</v>
+        <v>8226</v>
       </c>
       <c r="B178">
-        <v>152235.4</v>
+        <v>1940463</v>
       </c>
       <c r="C178">
-        <v>644877679.00686002</v>
+        <v>10293955010.040094</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>619256.15879474033</v>
       </c>
       <c r="E178">
-        <v>595271703.69863987</v>
+        <v>10502533.998061985</v>
       </c>
       <c r="F178">
-        <v>4236.0559962194075</v>
+        <v>5304.8963108495727</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>0.3191280425314682</v>
       </c>
       <c r="H178">
-        <v>3910.2055349717602</v>
+        <v>5.4123855997573695</v>
       </c>
       <c r="I178" t="s">
         <v>32</v>
       </c>
       <c r="J178">
-        <v>17362</v>
+        <v>15024</v>
       </c>
       <c r="K178">
-        <v>39.870935000000003</v>
+        <v>40.5383</v>
       </c>
       <c r="L178">
-        <v>-76.868116999999998</v>
+        <v>-79.790599999999998</v>
       </c>
       <c r="M178" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>50491</v>
+        <v>10075</v>
       </c>
       <c r="B179">
-        <v>334348.61</v>
+        <v>825950</v>
       </c>
       <c r="C179">
-        <v>1437635831.145437</v>
+        <v>1149168110.3168855</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>118503136.76371145</v>
+        <v>101151933.99479468</v>
       </c>
       <c r="F179">
-        <v>4299.8110000978832</v>
+        <v>1391.3289064917797</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>354.4298771384498</v>
+        <v>122.46738179647035</v>
       </c>
       <c r="I179" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J179">
-        <v>26155</v>
+        <v>55613</v>
       </c>
       <c r="K179">
-        <v>39.747500000000002</v>
+        <v>47.531399999999998</v>
       </c>
       <c r="L179">
-        <v>-80.854699999999994</v>
+        <v>-90.9114</v>
       </c>
       <c r="M179" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>50806</v>
+        <v>10234</v>
       </c>
       <c r="B180">
-        <v>323907.27</v>
+        <v>166824</v>
       </c>
       <c r="C180">
-        <v>387864098.18909997</v>
+        <v>448567995.39237118</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>358028398.32839996</v>
+        <v>38720498.092561334</v>
       </c>
       <c r="F180">
-        <v>1197.4541299709017</v>
+        <v>2688.8696793768954</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>1105.3422738192937</v>
+        <v>232.10388249029717</v>
       </c>
       <c r="I180" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J180">
-        <v>29501</v>
+        <v>54494</v>
       </c>
       <c r="K180">
-        <v>34.149700000000003</v>
+        <v>44.43</v>
       </c>
       <c r="L180">
-        <v>-79.560599999999994</v>
+        <v>-89.78</v>
       </c>
       <c r="M180" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>55856</v>
+        <v>50282</v>
       </c>
       <c r="B181">
-        <v>11106837</v>
+        <v>97358</v>
       </c>
       <c r="C181">
-        <v>18389886417.716667</v>
+        <v>14189541.854279999</v>
       </c>
       <c r="D181">
-        <v>2148139.3298867568</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>42024984.12542443</v>
+        <v>13098038.634719998</v>
       </c>
       <c r="F181">
-        <v>1655.7266859787956</v>
+        <v>145.74602861891162</v>
       </c>
       <c r="G181">
-        <v>0.19340693753647026</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>3.7837040487246214</v>
+        <v>134.53479564822612</v>
       </c>
       <c r="I181" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J181">
-        <v>62257</v>
+        <v>21540</v>
       </c>
       <c r="K181">
-        <v>38.279167000000001</v>
+        <v>39.473599999999998</v>
       </c>
       <c r="L181">
-        <v>-89.666944000000001</v>
+        <v>-79.056899999999999</v>
       </c>
       <c r="M181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
+        <v>50397</v>
+      </c>
+      <c r="B182">
+        <v>152235.4</v>
+      </c>
+      <c r="C182">
+        <v>644877679.00686002</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>595271703.69863987</v>
+      </c>
+      <c r="F182">
+        <v>4236.0559962194075</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>3910.2055349717602</v>
+      </c>
+      <c r="I182" t="s">
+        <v>32</v>
+      </c>
+      <c r="J182">
+        <v>17362</v>
+      </c>
+      <c r="K182">
+        <v>39.870935000000003</v>
+      </c>
+      <c r="L182">
+        <v>-76.868116999999998</v>
+      </c>
+      <c r="M182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>50491</v>
+      </c>
+      <c r="B183">
+        <v>334348.61</v>
+      </c>
+      <c r="C183">
+        <v>1434359105.2761424</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>122145686.28092997</v>
+      </c>
+      <c r="F183">
+        <v>4290.0106726214372</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>365.3243429991528</v>
+      </c>
+      <c r="I183" t="s">
+        <v>35</v>
+      </c>
+      <c r="J183">
+        <v>26155</v>
+      </c>
+      <c r="K183">
+        <v>39.747500000000002</v>
+      </c>
+      <c r="L183">
+        <v>-80.854699999999994</v>
+      </c>
+      <c r="M183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>50806</v>
+      </c>
+      <c r="B184">
+        <v>323907.27</v>
+      </c>
+      <c r="C184">
+        <v>387864098.18909997</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>358028398.32839996</v>
+      </c>
+      <c r="F184">
+        <v>1197.4541299709017</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>1105.3422738192937</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184">
+        <v>29501</v>
+      </c>
+      <c r="K184">
+        <v>34.149700000000003</v>
+      </c>
+      <c r="L184">
+        <v>-79.560599999999994</v>
+      </c>
+      <c r="M184" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>55856</v>
+      </c>
+      <c r="B185">
+        <v>11106837</v>
+      </c>
+      <c r="C185">
+        <v>18263142973.661293</v>
+      </c>
+      <c r="D185">
+        <v>1379434.6294000295</v>
+      </c>
+      <c r="E185">
+        <v>28316041.726716772</v>
+      </c>
+      <c r="F185">
+        <v>1644.3153864292142</v>
+      </c>
+      <c r="G185">
+        <v>0.1241968914642422</v>
+      </c>
+      <c r="H185">
+        <v>2.5494244425048076</v>
+      </c>
+      <c r="I185" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185">
+        <v>62257</v>
+      </c>
+      <c r="K185">
+        <v>38.279167000000001</v>
+      </c>
+      <c r="L185">
+        <v>-89.666944000000001</v>
+      </c>
+      <c r="M185" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>56163</v>
       </c>
-      <c r="B182">
+      <c r="B186">
         <v>254563</v>
       </c>
-      <c r="C182">
+      <c r="C186">
         <v>48479928.724335104</v>
       </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
         <v>44750703.437847778</v>
       </c>
-      <c r="F182">
+      <c r="F186">
         <v>190.44373583095384</v>
       </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
         <v>175.7942176901112</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I186" t="s">
         <v>42</v>
       </c>
-      <c r="J182">
+      <c r="J186">
         <v>84044</v>
       </c>
-      <c r="K182">
+      <c r="K186">
         <v>40.7119</v>
       </c>
-      <c r="L182">
+      <c r="L186">
         <v>-112.1225</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M186" t="s">
         <v>62</v>
       </c>
     </row>

--- a/r_map/data_boot_cq_remov_As.xlsx
+++ b/r_map/data_boot_cq_remov_As.xlsx
@@ -606,22 +606,22 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>24084085054.395599</v>
+        <v>24670401731.749802</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22231463127.134399</v>
+        <v>22772678521.615196</v>
       </c>
       <c r="F2">
-        <v>10909.38639420578</v>
+        <v>11174.970707173336</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10070.20282542072</v>
+        <v>10315.357575852307</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -647,22 +647,22 @@
         <v>5806845</v>
       </c>
       <c r="C3">
-        <v>24772791993.021297</v>
+        <v>25049326432.412323</v>
       </c>
       <c r="D3">
-        <v>9673616.4871618971</v>
+        <v>9808116.7589789145</v>
       </c>
       <c r="E3">
-        <v>1211928766.5127215</v>
+        <v>1235240043.5723443</v>
       </c>
       <c r="F3">
-        <v>4266.1362569555922</v>
+        <v>4313.7584062278784</v>
       </c>
       <c r="G3">
-        <v>1.6658988636965335</v>
+        <v>1.6890612301480261</v>
       </c>
       <c r="H3">
-        <v>208.70692544965837</v>
+        <v>212.7213734088553</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -688,22 +688,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>17369792251.826015</v>
+        <v>17472869346.310638</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1385395943.2065969</v>
+        <v>1398071375.2651119</v>
       </c>
       <c r="F4">
-        <v>6370.9999221775124</v>
+        <v>6408.8071769459611</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>508.14409973305186</v>
+        <v>512.79327316515651</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -729,22 +729,22 @@
         <v>1657543</v>
       </c>
       <c r="C5">
-        <v>13633442265.456619</v>
+        <v>13675122881.28898</v>
       </c>
       <c r="D5">
-        <v>5550454.570667211</v>
+        <v>5568845.3817810519</v>
       </c>
       <c r="E5">
-        <v>199213544.09527925</v>
+        <v>139914902.18216446</v>
       </c>
       <c r="F5">
-        <v>8225.0911532651753</v>
+        <v>8250.2371771284252</v>
       </c>
       <c r="G5">
-        <v>3.3486036686029932</v>
+        <v>3.3596988927473084</v>
       </c>
       <c r="H5">
-        <v>120.18604892619935</v>
+        <v>84.411024137632907</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -770,22 +770,22 @@
         <v>541762</v>
       </c>
       <c r="C6">
-        <v>386165673.32670599</v>
+        <v>381062162.22547197</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>356460621.53234392</v>
+        <v>351749688.20812798</v>
       </c>
       <c r="F6">
-        <v>712.79579100547107</v>
+        <v>703.37558231376875</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>657.9653455435116</v>
+        <v>649.26976828963268</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -811,22 +811,22 @@
         <v>324142</v>
       </c>
       <c r="C7">
-        <v>433733463.83028477</v>
+        <v>437903977.90557593</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40676710.708581835</v>
+        <v>42595423.477854565</v>
       </c>
       <c r="F7">
-        <v>1338.0970803854013</v>
+        <v>1350.9633984660302</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>125.49040454054654</v>
+        <v>131.4097632452893</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -852,22 +852,22 @@
         <v>2081937</v>
       </c>
       <c r="C8">
-        <v>2718848006.3654871</v>
+        <v>2715522728.2048087</v>
       </c>
       <c r="D8">
-        <v>203164.51408060998</v>
+        <v>201265.78030415569</v>
       </c>
       <c r="E8">
-        <v>3302101.6639514952</v>
+        <v>3290161.0767286243</v>
       </c>
       <c r="F8">
-        <v>1305.9223244341626</v>
+        <v>1304.3251204070098</v>
       </c>
       <c r="G8">
-        <v>9.7584371707986353E-2</v>
+        <v>9.6672368234079945E-2</v>
       </c>
       <c r="H8">
-        <v>1.5860718474917805</v>
+        <v>1.5803365215799634</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -893,22 +893,22 @@
         <v>8921964</v>
       </c>
       <c r="C9">
-        <v>46650191727.175949</v>
+        <v>46741639338.62944</v>
       </c>
       <c r="D9">
-        <v>2646248.0567307342</v>
+        <v>2670401.6281375219</v>
       </c>
       <c r="E9">
-        <v>50048979.760964021</v>
+        <v>49356758.568895653</v>
       </c>
       <c r="F9">
-        <v>5228.6908720070996</v>
+        <v>5238.9405896089065</v>
       </c>
       <c r="G9">
-        <v>0.29659927530874752</v>
+        <v>0.29930647872346516</v>
       </c>
       <c r="H9">
-        <v>5.609637044149026</v>
+        <v>5.5320508543741775</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -934,22 +934,22 @@
         <v>7744214</v>
       </c>
       <c r="C10">
-        <v>21845771405.552444</v>
+        <v>21803593855.615612</v>
       </c>
       <c r="D10">
-        <v>1543645.7585957521</v>
+        <v>1515611.4747721422</v>
       </c>
       <c r="E10">
-        <v>24115011.192159534</v>
+        <v>23451542.381827917</v>
       </c>
       <c r="F10">
-        <v>2820.9152543502082</v>
+        <v>2815.4689237171924</v>
       </c>
       <c r="G10">
-        <v>0.19932891299178354</v>
+        <v>0.19570888340277556</v>
       </c>
       <c r="H10">
-        <v>3.1139391540780683</v>
+        <v>3.0282663136411152</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -975,22 +975,22 @@
         <v>1912394</v>
       </c>
       <c r="C11">
-        <v>1557857405.0563226</v>
+        <v>1561641708.5455222</v>
       </c>
       <c r="D11">
-        <v>636176.29107324989</v>
+        <v>639238.88130846806</v>
       </c>
       <c r="E11">
-        <v>17138117.366225459</v>
+        <v>17452980.024991795</v>
       </c>
       <c r="F11">
-        <v>814.61111311598063</v>
+        <v>816.58994357100164</v>
       </c>
       <c r="G11">
-        <v>0.33265963555274169</v>
+        <v>0.33426107868382143</v>
       </c>
       <c r="H11">
-        <v>8.9616038150221442</v>
+        <v>9.1262470102875213</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1016,22 +1016,22 @@
         <v>2014725</v>
       </c>
       <c r="C12">
-        <v>2776763320.9511518</v>
+        <v>2747253885.3131909</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>268751834.24792737</v>
+        <v>268822223.47071826</v>
       </c>
       <c r="F12">
-        <v>1378.2344096346408</v>
+        <v>1363.5875294708662</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>133.39380523293619</v>
+        <v>133.42874261783533</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1057,22 +1057,22 @@
         <v>9164672</v>
       </c>
       <c r="C13">
-        <v>21595338983.16539</v>
+        <v>21346324048.401039</v>
       </c>
       <c r="D13">
-        <v>1358331.5338211404</v>
+        <v>1322080.6468099304</v>
       </c>
       <c r="E13">
-        <v>24381500.489247091</v>
+        <v>23444116.072725877</v>
       </c>
       <c r="F13">
-        <v>2356.3679074565234</v>
+        <v>2329.1967293975213</v>
       </c>
       <c r="G13">
-        <v>0.14821387321020768</v>
+        <v>0.14425837027336388</v>
       </c>
       <c r="H13">
-        <v>2.6603789518323286</v>
+        <v>2.5580965770216193</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1098,22 +1098,22 @@
         <v>3900879</v>
       </c>
       <c r="C14">
-        <v>8271701610.075038</v>
+        <v>8266720195.6695395</v>
       </c>
       <c r="D14">
-        <v>638324.57592388778</v>
+        <v>628394.48166302126</v>
       </c>
       <c r="E14">
-        <v>11409451.373729937</v>
+        <v>11449357.606600318</v>
       </c>
       <c r="F14">
-        <v>2120.4712092005516</v>
+        <v>2119.1942112712391</v>
       </c>
       <c r="G14">
-        <v>0.16363608712905162</v>
+        <v>0.1610904828534854</v>
       </c>
       <c r="H14">
-        <v>2.9248411380434862</v>
+        <v>2.9350711997476258</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1139,22 +1139,22 @@
         <v>9744872</v>
       </c>
       <c r="C15">
-        <v>53923436619.399551</v>
+        <v>54056000683.853531</v>
       </c>
       <c r="D15">
-        <v>2337737.9337056568</v>
+        <v>2333517.3057768052</v>
       </c>
       <c r="E15">
-        <v>968361858.11733317</v>
+        <v>955580113.92257977</v>
       </c>
       <c r="F15">
-        <v>5533.5192313864718</v>
+        <v>5547.1227004165403</v>
       </c>
       <c r="G15">
-        <v>0.23989416522922588</v>
+        <v>0.23946105251837121</v>
       </c>
       <c r="H15">
-        <v>99.371429210905305</v>
+        <v>98.05979123405416</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1180,22 +1180,22 @@
         <v>2476429</v>
       </c>
       <c r="C16">
-        <v>14978677822.881842</v>
+        <v>14978520147.514009</v>
       </c>
       <c r="D16">
-        <v>751975.94563126413</v>
+        <v>749192.30494902667</v>
       </c>
       <c r="E16">
-        <v>14496630.901147492</v>
+        <v>11123746.620528977</v>
       </c>
       <c r="F16">
-        <v>6048.4987951933372</v>
+        <v>6048.4351247356617</v>
       </c>
       <c r="G16">
-        <v>0.30365334343575534</v>
+        <v>0.30252928912923677</v>
       </c>
       <c r="H16">
-        <v>5.8538447503027511</v>
+        <v>4.491849603008597</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1221,22 +1221,22 @@
         <v>12851943</v>
       </c>
       <c r="C17">
-        <v>48805939946.803238</v>
+        <v>49205859023.803238</v>
       </c>
       <c r="D17">
-        <v>2835786.6261227988</v>
+        <v>2815478.3036453421</v>
       </c>
       <c r="E17">
-        <v>53698168.882559121</v>
+        <v>52239988.709367499</v>
       </c>
       <c r="F17">
-        <v>3797.5534086015819</v>
+        <v>3828.6708106162032</v>
       </c>
       <c r="G17">
-        <v>0.2206504204168038</v>
+        <v>0.21907024514856174</v>
       </c>
       <c r="H17">
-        <v>4.1782140554590947</v>
+        <v>4.0647541550229018</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -1262,22 +1262,22 @@
         <v>1157290</v>
       </c>
       <c r="C18">
-        <v>7429133665.8172436</v>
+        <v>7446101080.531992</v>
       </c>
       <c r="D18">
-        <v>439814.37543029943</v>
+        <v>444097.69797489443</v>
       </c>
       <c r="E18">
-        <v>8776238.3434517682</v>
+        <v>9643809.0281445757</v>
       </c>
       <c r="F18">
-        <v>6419.4226735020984</v>
+        <v>6434.0840070613176</v>
       </c>
       <c r="G18">
-        <v>0.38003817144388996</v>
+        <v>0.38373933756871176</v>
       </c>
       <c r="H18">
-        <v>7.5834391928140468</v>
+        <v>8.3330963096065602</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -1303,22 +1303,22 @@
         <v>2981276</v>
       </c>
       <c r="C19">
-        <v>3526738626.7850881</v>
+        <v>3504312096.1184244</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>331593886.78000915</v>
+        <v>335989692.05569589</v>
       </c>
       <c r="F19">
-        <v>1182.9628074640148</v>
+        <v>1175.4403470589186</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>111.22549095756621</v>
+        <v>112.69996204836315</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1344,22 +1344,22 @@
         <v>1265697</v>
       </c>
       <c r="C20">
-        <v>1555481430.9353902</v>
+        <v>1559950862.1053076</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>150625829.71680838</v>
+        <v>147826995.55659369</v>
       </c>
       <c r="F20">
-        <v>1228.9524514440582</v>
+        <v>1232.483652963788</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>119.00623112546556</v>
+        <v>116.79493240214181</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1385,22 +1385,22 @@
         <v>5057931</v>
       </c>
       <c r="C21">
-        <v>5426301544.5791168</v>
+        <v>5329222116.3236465</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>509892415.12094128</v>
+        <v>504539669.58954716</v>
       </c>
       <c r="F21">
-        <v>1072.8302826944687</v>
+        <v>1053.6367768408954</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>100.81047272510069</v>
+        <v>99.752185150320784</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1426,22 +1426,22 @@
         <v>1796131</v>
       </c>
       <c r="C22">
-        <v>1506270060.5635018</v>
+        <v>1481062944.0727749</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>812560052.87841034</v>
+        <v>801292816.06157172</v>
       </c>
       <c r="F22">
-        <v>838.61926583500974</v>
+        <v>824.58514666957751</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>452.39464876359818</v>
+        <v>446.12158916113117</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1467,22 +1467,22 @@
         <v>2372033</v>
       </c>
       <c r="C23">
-        <v>2466599396.6861267</v>
+        <v>2494706151.0615172</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>236622858.12687278</v>
+        <v>243195715.29706374</v>
       </c>
       <c r="F23">
-        <v>1039.8672348513392</v>
+        <v>1051.7164605473522</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>99.755297724303489</v>
+        <v>102.52627821664527</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1508,22 +1508,22 @@
         <v>4881045</v>
       </c>
       <c r="C24">
-        <v>4465660355.4586887</v>
+        <v>4481265611.2870989</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>371057180.88269585</v>
+        <v>365749667.19750369</v>
       </c>
       <c r="F24">
-        <v>914.898419387383</v>
+        <v>918.0955330850461</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>76.020028678837392</v>
+        <v>74.932656264694074</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1549,22 +1549,22 @@
         <v>2219933</v>
       </c>
       <c r="C25">
-        <v>2549152188.5267029</v>
+        <v>2550820752.5756292</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>247818457.01747075</v>
+        <v>242418225.067013</v>
       </c>
       <c r="F25">
-        <v>1148.3014075319854</v>
+        <v>1149.0530356437016</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>111.63330470670545</v>
+        <v>109.20069437546674</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1590,22 +1590,22 @@
         <v>1056327</v>
       </c>
       <c r="C26">
-        <v>1819628781.8491902</v>
+        <v>1819863796.4010401</v>
       </c>
       <c r="D26">
-        <v>144259.15187699517</v>
+        <v>139111.51352398287</v>
       </c>
       <c r="E26">
-        <v>2931148.6682764054</v>
+        <v>2853991.3829644029</v>
       </c>
       <c r="F26">
-        <v>1722.5998974268293</v>
+        <v>1722.8223801919671</v>
       </c>
       <c r="G26">
-        <v>0.13656675620049016</v>
+        <v>0.13169360768396801</v>
       </c>
       <c r="H26">
-        <v>2.7748497087326229</v>
+        <v>2.7018067160684174</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1631,22 +1631,22 @@
         <v>1066912</v>
       </c>
       <c r="C27">
-        <v>4761102071.8789787</v>
+        <v>4868433165.813468</v>
       </c>
       <c r="D27">
-        <v>308551.07453337859</v>
+        <v>309160.91923057102</v>
       </c>
       <c r="E27">
-        <v>5862305.170181362</v>
+        <v>5756396.8486398673</v>
       </c>
       <c r="F27">
-        <v>4462.5068158189042</v>
+        <v>4563.1065784370858</v>
       </c>
       <c r="G27">
-        <v>0.2892001163482823</v>
+        <v>0.28977171428437493</v>
       </c>
       <c r="H27">
-        <v>5.4946473281595498</v>
+        <v>5.395381107945048</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1672,22 +1672,22 @@
         <v>5225154</v>
       </c>
       <c r="C28">
-        <v>23719068760.783867</v>
+        <v>24128720840.365067</v>
       </c>
       <c r="D28">
-        <v>2511775.088271589</v>
+        <v>2558652.8772822507</v>
       </c>
       <c r="E28">
-        <v>40506041.637880266</v>
+        <v>40713610.228321567</v>
       </c>
       <c r="F28">
-        <v>4539.4008981905354</v>
+        <v>4617.8008993352287</v>
       </c>
       <c r="G28">
-        <v>0.48070833668664864</v>
+        <v>0.48967989790965982</v>
       </c>
       <c r="H28">
-        <v>7.7521239829257214</v>
+        <v>7.7918488581047693</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1713,22 +1713,22 @@
         <v>2992958</v>
       </c>
       <c r="C29">
-        <v>11940006742.199289</v>
+        <v>11654198611.926296</v>
       </c>
       <c r="D29">
-        <v>525692.38420990668</v>
+        <v>525973.2243517146</v>
       </c>
       <c r="E29">
-        <v>180189796.15664744</v>
+        <v>184355029.97547048</v>
       </c>
       <c r="F29">
-        <v>3989.3666206472958</v>
+        <v>3893.8730887390657</v>
       </c>
       <c r="G29">
-        <v>0.17564308761095435</v>
+        <v>0.17573692125038662</v>
       </c>
       <c r="H29">
-        <v>60.20458561618554</v>
+        <v>61.596263621297219</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1754,22 +1754,22 @@
         <v>229494</v>
       </c>
       <c r="C30">
-        <v>3286948154.0678282</v>
+        <v>3307189636.9419532</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>206113422.8105678</v>
+        <v>205148328.74618286</v>
       </c>
       <c r="F30">
-        <v>14322.588625706241</v>
+        <v>14410.789114059422</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>898.12118317066154</v>
+        <v>893.91587033291876</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1795,22 +1795,22 @@
         <v>6529869</v>
       </c>
       <c r="C31">
-        <v>52334291713.730652</v>
+        <v>52558684137.476654</v>
       </c>
       <c r="D31">
-        <v>2840079.8724451596</v>
+        <v>2849280.8062308901</v>
       </c>
       <c r="E31">
-        <v>48275170.956477202</v>
+        <v>51688738.282548837</v>
       </c>
       <c r="F31">
-        <v>8014.6005553450841</v>
+        <v>8048.9645561766483</v>
       </c>
       <c r="G31">
-        <v>0.43493673034561026</v>
+        <v>0.43634578369503124</v>
       </c>
       <c r="H31">
-        <v>7.392976942795821</v>
+        <v>7.9157389348161251</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -1836,22 +1836,22 @@
         <v>1441562</v>
       </c>
       <c r="C32">
-        <v>3936838340.4354658</v>
+        <v>3718757343.6224527</v>
       </c>
       <c r="D32">
-        <v>279577.34444749577</v>
+        <v>273844.53008444933</v>
       </c>
       <c r="E32">
-        <v>4248324.9391146125</v>
+        <v>4382829.933755477</v>
       </c>
       <c r="F32">
-        <v>2730.9531885797946</v>
+        <v>2579.6721498086472</v>
       </c>
       <c r="G32">
-        <v>0.19394056200669535</v>
+        <v>0.18996375465255697</v>
       </c>
       <c r="H32">
-        <v>2.9470289443774269</v>
+        <v>3.0403339806095588</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1877,22 +1877,22 @@
         <v>1650341</v>
       </c>
       <c r="C33">
-        <v>3903092514.5367212</v>
+        <v>3995500976.3396654</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>326677318.69423842</v>
+        <v>330684480.58915412</v>
       </c>
       <c r="F33">
-        <v>2365.0218436897107</v>
+        <v>2421.0154000534831</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>197.94534504944033</v>
+        <v>200.37342621261553</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1918,22 +1918,22 @@
         <v>4984247</v>
       </c>
       <c r="C34">
-        <v>17621599176.992424</v>
+        <v>21413552310.887318</v>
       </c>
       <c r="D34">
-        <v>1196889.1331427954</v>
+        <v>1245327.9657646788</v>
       </c>
       <c r="E34">
-        <v>16476991.227370419</v>
+        <v>16547050.10476597</v>
       </c>
       <c r="F34">
-        <v>3535.4586514256666</v>
+        <v>4296.2462155040303</v>
       </c>
       <c r="G34">
-        <v>0.24013439405045445</v>
+        <v>0.24985277931945965</v>
       </c>
       <c r="H34">
-        <v>3.3058135416183063</v>
+        <v>3.3198696021216385</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -1959,22 +1959,22 @@
         <v>2093626</v>
       </c>
       <c r="C35">
-        <v>7482568042.5081577</v>
+        <v>7670393855.1317616</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>670164925.45714951</v>
+        <v>677123088.38878059</v>
       </c>
       <c r="F35">
-        <v>3573.9755058965438</v>
+        <v>3663.6886698635581</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>320.09772779720424</v>
+        <v>323.42122632637376</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -2000,7 +2000,7 @@
         <v>67254</v>
       </c>
       <c r="C36">
-        <v>167559997.9844797</v>
+        <v>167355064.27704313</v>
       </c>
       <c r="D36">
         <v>10781.717512572483</v>
@@ -2009,7 +2009,7 @@
         <v>173616.32428321111</v>
       </c>
       <c r="F36">
-        <v>2491.4502926886089</v>
+        <v>2488.4031325578126</v>
       </c>
       <c r="G36">
         <v>0.1603134016203123</v>
@@ -2041,22 +2041,22 @@
         <v>245567</v>
       </c>
       <c r="C37">
-        <v>203758068.09289023</v>
+        <v>203161781.17123124</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>19527327.267273139</v>
+        <v>19587298.072820533</v>
       </c>
       <c r="F37">
-        <v>829.74531632055709</v>
+        <v>827.31711170976246</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>79.519346114392974</v>
+        <v>79.763559732458077</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
@@ -2082,22 +2082,22 @@
         <v>717925</v>
       </c>
       <c r="C38">
-        <v>768965550.2500385</v>
+        <v>771182041.27960086</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>164672742.52915719</v>
+        <v>163546280.6744445</v>
       </c>
       <c r="F38">
-        <v>1071.0945436501563</v>
+        <v>1074.1819010058166</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>229.37318317255588</v>
+        <v>227.80413089730055</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -2123,22 +2123,22 @@
         <v>1081826</v>
       </c>
       <c r="C39">
-        <v>1228021528.4968178</v>
+        <v>1232316036.163868</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>121214246.22414552</v>
+        <v>120131976.16857277</v>
       </c>
       <c r="F39">
-        <v>1135.137747194852</v>
+        <v>1139.1074314759194</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>112.04597247999726</v>
+        <v>111.04556201142584</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -2164,22 +2164,22 @@
         <v>250729</v>
       </c>
       <c r="C40">
-        <v>213853454.668464</v>
+        <v>211553609.125772</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>125489774.42519563</v>
+        <v>123942642.25674765</v>
       </c>
       <c r="F40">
-        <v>852.9266844619649</v>
+        <v>843.7540496941798</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>500.49964074836032</v>
+        <v>494.32910535577315</v>
       </c>
       <c r="I40" t="s">
         <v>19</v>
@@ -2205,22 +2205,22 @@
         <v>750815</v>
       </c>
       <c r="C41">
-        <v>1069046027.5422956</v>
+        <v>1078935119.73879</v>
       </c>
       <c r="D41">
-        <v>75171.873464096658</v>
+        <v>76786.125852752331</v>
       </c>
       <c r="E41">
-        <v>4378066.0799112963</v>
+        <v>4377371.5499615343</v>
       </c>
       <c r="F41">
-        <v>1423.8474558210685</v>
+        <v>1437.0185994403282</v>
       </c>
       <c r="G41">
-        <v>0.10012036715315578</v>
+        <v>0.10227036733782933</v>
       </c>
       <c r="H41">
-        <v>5.8310849941880436</v>
+        <v>5.8301599594594329</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -2246,22 +2246,22 @@
         <v>384251</v>
       </c>
       <c r="C42">
-        <v>450846813.29588914</v>
+        <v>451341199.58545798</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>41924888.406381831</v>
+        <v>43097994.246130235</v>
       </c>
       <c r="F42">
-        <v>1173.3133116007223</v>
+        <v>1174.5999349005156</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>109.10807885049572</v>
+        <v>112.16104641531248</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -2287,22 +2287,22 @@
         <v>1245893</v>
       </c>
       <c r="C43">
-        <v>7150544287.2708693</v>
+        <v>7257153106.3116627</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>587679037.19876909</v>
+        <v>597568456.12493277</v>
       </c>
       <c r="F43">
-        <v>5739.2924490874166</v>
+        <v>5824.8606471917437</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>471.69302435985202</v>
+        <v>479.63063932852401</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -2328,22 +2328,22 @@
         <v>827980</v>
       </c>
       <c r="C44">
-        <v>5702155585.5517368</v>
+        <v>5780606616.3963718</v>
       </c>
       <c r="D44">
-        <v>368715.9270567646</v>
+        <v>366742.3910890214</v>
       </c>
       <c r="E44">
-        <v>6275117.7333829524</v>
+        <v>6384901.7706605047</v>
       </c>
       <c r="F44">
-        <v>6886.8276837021867</v>
+        <v>6981.5775941404045</v>
       </c>
       <c r="G44">
-        <v>0.4453198471663139</v>
+        <v>0.44293629204693519</v>
       </c>
       <c r="H44">
-        <v>7.5788276690052321</v>
+        <v>7.7114202887273908</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2369,22 +2369,22 @@
         <v>2177256</v>
       </c>
       <c r="C45">
-        <v>11086117265.468529</v>
+        <v>11122552593.234623</v>
       </c>
       <c r="D45">
-        <v>658334.8644189043</v>
+        <v>653691.58476331155</v>
       </c>
       <c r="E45">
-        <v>10643315.216437191</v>
+        <v>10030286.072410025</v>
       </c>
       <c r="F45">
-        <v>5091.7840003511428</v>
+        <v>5108.5185174525286</v>
       </c>
       <c r="G45">
-        <v>0.30236906657687673</v>
+        <v>0.30023643740713613</v>
       </c>
       <c r="H45">
-        <v>4.8884078015801498</v>
+        <v>4.606847367700456</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -2410,22 +2410,22 @@
         <v>2300225</v>
       </c>
       <c r="C46">
-        <v>24310737344.527786</v>
+        <v>24536211546.49699</v>
       </c>
       <c r="D46">
-        <v>1582144.1762843346</v>
+        <v>1560435.975009206</v>
       </c>
       <c r="E46">
-        <v>28286341.097706962</v>
+        <v>26882696.935623042</v>
       </c>
       <c r="F46">
-        <v>10568.851892544331</v>
+        <v>10666.874565095584</v>
       </c>
       <c r="G46">
-        <v>0.68782148541309418</v>
+        <v>0.67838406025897724</v>
       </c>
       <c r="H46">
-        <v>12.29720618535446</v>
+        <v>11.686985810354658</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -2451,22 +2451,22 @@
         <v>12008149</v>
       </c>
       <c r="C47">
-        <v>73036165212.535141</v>
+        <v>73661016427.011932</v>
       </c>
       <c r="D47">
-        <v>4608698.7278117798</v>
+        <v>4505761.035570614</v>
       </c>
       <c r="E47">
-        <v>73986911.006608963</v>
+        <v>73176218.013401702</v>
       </c>
       <c r="F47">
-        <v>6082.2167690070419</v>
+        <v>6134.2523670394103</v>
       </c>
       <c r="G47">
-        <v>0.38379759676631092</v>
+        <v>0.37522527706565051</v>
       </c>
       <c r="H47">
-        <v>6.1613918187231826</v>
+        <v>6.0938799154975261</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -2492,22 +2492,22 @@
         <v>1488285</v>
       </c>
       <c r="C48">
-        <v>7562955562.3399963</v>
+        <v>7610533398.3831139</v>
       </c>
       <c r="D48">
-        <v>470598.15804080514</v>
+        <v>479420.29107349599</v>
       </c>
       <c r="E48">
-        <v>8046599.9405146362</v>
+        <v>7851675.7136930795</v>
       </c>
       <c r="F48">
-        <v>5081.6581248483972</v>
+        <v>5113.6263540807804</v>
       </c>
       <c r="G48">
-        <v>0.31620164017026653</v>
+        <v>0.32212935766569978</v>
       </c>
       <c r="H48">
-        <v>5.4066257071156638</v>
+        <v>5.2756533282893256</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
@@ -2533,22 +2533,22 @@
         <v>48329</v>
       </c>
       <c r="C49">
-        <v>183569558.06282288</v>
+        <v>186638374.23899785</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>16081217.409228683</v>
+        <v>15849315.425414257</v>
       </c>
       <c r="F49">
-        <v>3798.3313965284378</v>
+        <v>3861.8298379647385</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>332.74467523078653</v>
+        <v>327.94627295028363</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -2574,22 +2574,22 @@
         <v>1336530</v>
       </c>
       <c r="C50">
-        <v>2638937670.0913868</v>
+        <v>2646162022.0033622</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>249326695.16489828</v>
+        <v>248900769.3409619</v>
       </c>
       <c r="F50">
-        <v>1974.4694620333153</v>
+        <v>1979.8747667492403</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>186.54777308769596</v>
+        <v>186.2290927558393</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -2615,22 +2615,22 @@
         <v>4238250</v>
       </c>
       <c r="C51">
-        <v>23244280326.908901</v>
+        <v>23280385211.816986</v>
       </c>
       <c r="D51">
-        <v>1417946.9146312191</v>
+        <v>1493418.1715308931</v>
       </c>
       <c r="E51">
-        <v>24216894.190404572</v>
+        <v>24396320.721262217</v>
       </c>
       <c r="F51">
-        <v>5484.4051971707431</v>
+        <v>5492.9240162371225</v>
       </c>
       <c r="G51">
-        <v>0.33455952684037493</v>
+        <v>0.35236670124010927</v>
       </c>
       <c r="H51">
-        <v>5.7138899759109467</v>
+        <v>5.7562250271367228</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -2656,22 +2656,22 @@
         <v>1825199</v>
       </c>
       <c r="C52">
-        <v>1515842974.0806546</v>
+        <v>1466432823.0133204</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>130712440.42785226</v>
+        <v>126826518.58768968</v>
       </c>
       <c r="F52">
-        <v>830.50833036871848</v>
+        <v>803.43722685215175</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>71.615446002245378</v>
+        <v>69.486405913924827</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
@@ -2697,22 +2697,22 @@
         <v>7101778</v>
       </c>
       <c r="C53">
-        <v>6897926903.1154308</v>
+        <v>6870070980.0868759</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>582212393.87606871</v>
+        <v>591845557.97644615</v>
       </c>
       <c r="F53">
-        <v>971.29576609060871</v>
+        <v>967.3733789041105</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>81.981215672479308</v>
+        <v>83.337659664445454</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
@@ -2738,22 +2738,22 @@
         <v>992174</v>
       </c>
       <c r="C54">
-        <v>1357370009.6343436</v>
+        <v>1389183576.7812204</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>118343268.5449585</v>
+        <v>123474053.2249352</v>
       </c>
       <c r="F54">
-        <v>1368.0765769253615</v>
+        <v>1400.1410808801888</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>119.27672822000828</v>
+        <v>124.44798314099664</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
@@ -2779,22 +2779,22 @@
         <v>1769518</v>
       </c>
       <c r="C55">
-        <v>2007630817.0455651</v>
+        <v>2018322936.4008334</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>191604239.05539438</v>
+        <v>193202520.74818236</v>
       </c>
       <c r="F55">
-        <v>1134.5636591690873</v>
+        <v>1140.6060500095696</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>108.28046906298459</v>
+        <v>109.18369903452938</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
@@ -2820,22 +2820,22 @@
         <v>16149545</v>
       </c>
       <c r="C56">
-        <v>41208624388.292206</v>
+        <v>41327323171.237564</v>
       </c>
       <c r="D56">
-        <v>2461590.6964787683</v>
+        <v>2473614.0768450201</v>
       </c>
       <c r="E56">
-        <v>43911601.74420625</v>
+        <v>43107855.330394521</v>
       </c>
       <c r="F56">
-        <v>2551.6894988863282</v>
+        <v>2559.0394758017992</v>
       </c>
       <c r="G56">
-        <v>0.1524247708823232</v>
+        <v>0.15316927361390181</v>
       </c>
       <c r="H56">
-        <v>2.719061233254946</v>
+        <v>2.6692922512921893</v>
       </c>
       <c r="I56" t="s">
         <v>23</v>
@@ -2861,22 +2861,22 @@
         <v>1806150</v>
       </c>
       <c r="C57">
-        <v>3636127031.9477119</v>
+        <v>3640988883.5161839</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>317006263.44653302</v>
+        <v>309558094.69011259</v>
       </c>
       <c r="F57">
-        <v>2013.1921667346078</v>
+        <v>2015.8839982926024</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>175.51491484457716</v>
+        <v>171.39113290153784</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
@@ -2902,22 +2902,22 @@
         <v>5446539</v>
       </c>
       <c r="C58">
-        <v>34605436602.367111</v>
+        <v>35065210138.136719</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>2754981916.4431038</v>
+        <v>2750281812.8034263</v>
       </c>
       <c r="F58">
-        <v>6353.6562581057642</v>
+        <v>6438.0719826180848</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>505.82248955586363</v>
+        <v>504.95953720397966</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -2943,22 +2943,22 @@
         <v>2101351</v>
       </c>
       <c r="C59">
-        <v>4084225289.4211454</v>
+        <v>4142944769.5202408</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>340466917.20926237</v>
+        <v>343073795.26559734</v>
       </c>
       <c r="F59">
-        <v>1943.6187906833011</v>
+        <v>1971.5624707724892</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>162.02286872077173</v>
+        <v>163.26344112221011</v>
       </c>
       <c r="I59" t="s">
         <v>23</v>
@@ -2987,19 +2987,19 @@
         <v>330666585.89536315</v>
       </c>
       <c r="D60">
-        <v>27716.971288133063</v>
+        <v>23636.475406808386</v>
       </c>
       <c r="E60">
-        <v>516143.52713702142</v>
+        <v>513126.51337785792</v>
       </c>
       <c r="F60">
         <v>1609.8116709526118</v>
       </c>
       <c r="G60">
-        <v>0.13493683899834505</v>
+        <v>0.11507142116290285</v>
       </c>
       <c r="H60">
-        <v>2.5127845065505139</v>
+        <v>2.4980965272744253</v>
       </c>
       <c r="I60" t="s">
         <v>23</v>
@@ -3025,22 +3025,22 @@
         <v>500876</v>
       </c>
       <c r="C61">
-        <v>622308643.63224947</v>
+        <v>611094336.38496614</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>59879580.207631305</v>
+        <v>58466210.330757692</v>
       </c>
       <c r="F61">
-        <v>1242.4405314533926</v>
+        <v>1220.0511431671034</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>119.54970932452603</v>
+        <v>116.72791335731337</v>
       </c>
       <c r="I61" t="s">
         <v>23</v>
@@ -3066,22 +3066,22 @@
         <v>869762</v>
       </c>
       <c r="C62">
-        <v>999338636.91433191</v>
+        <v>994354404.31126797</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>96721996.318200037</v>
+        <v>94201996.197909668</v>
       </c>
       <c r="F62">
-        <v>1148.9794184090956</v>
+        <v>1143.2488477437137</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>111.20513004500086</v>
+        <v>108.30778557572033</v>
       </c>
       <c r="I62" t="s">
         <v>23</v>
@@ -3107,22 +3107,22 @@
         <v>296202</v>
       </c>
       <c r="C63">
-        <v>250812025.54796636</v>
+        <v>245714088.76657572</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>21201885.722224906</v>
+        <v>21118611.623245534</v>
       </c>
       <c r="F63">
-        <v>846.7600676159052</v>
+        <v>829.54905357349287</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>71.579144375206468</v>
+        <v>71.298004818487158</v>
       </c>
       <c r="I63" t="s">
         <v>24</v>
@@ -3148,22 +3148,22 @@
         <v>1615868</v>
       </c>
       <c r="C64">
-        <v>1473280310.8439538</v>
+        <v>1460632800.4840896</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>132928541.92131743</v>
+        <v>125124239.63254012</v>
       </c>
       <c r="F64">
-        <v>911.75783593954077</v>
+        <v>903.93076692161094</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>82.26448071334876</v>
+        <v>77.434691220161625</v>
       </c>
       <c r="I64" t="s">
         <v>25</v>
@@ -3189,22 +3189,22 @@
         <v>1420063</v>
       </c>
       <c r="C65">
-        <v>1701840070.8304718</v>
+        <v>1703556899.6877995</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>164720140.26954892</v>
+        <v>164336859.79713625</v>
       </c>
       <c r="F65">
-        <v>1198.4257535267602</v>
+        <v>1199.6347342954498</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>115.99495252643645</v>
+        <v>115.7250486754012</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -3230,22 +3230,22 @@
         <v>2037047</v>
       </c>
       <c r="C66">
-        <v>1933090065.1818376</v>
+        <v>1949344590.5758328</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>163262061.46051437</v>
+        <v>160163925.49184996</v>
       </c>
       <c r="F66">
-        <v>948.96684523324086</v>
+        <v>956.94630049077557</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>80.146438182582116</v>
+        <v>78.625542509254799</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>11457490.089074763</v>
+        <v>11187095.552819559</v>
       </c>
       <c r="F67">
         <v>506.84632329731045</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>49.068480038864081</v>
+        <v>47.910473459612675</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -3312,22 +3312,22 @@
         <v>16042082</v>
       </c>
       <c r="C68">
-        <v>16772312795.696297</v>
+        <v>16812594024.452826</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1609384689.3525987</v>
+        <v>1602349332.6473701</v>
       </c>
       <c r="F68">
-        <v>1045.5197022242062</v>
+        <v>1048.0306748496128</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>100.3226818908293</v>
+        <v>99.884125554735988</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3353,22 +3353,22 @@
         <v>2119428</v>
       </c>
       <c r="C69">
-        <v>2468855124.6599083</v>
+        <v>2473003720.2582598</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>239166044.18590999</v>
+        <v>237654290.77300692</v>
       </c>
       <c r="F69">
-        <v>1164.8685988200157</v>
+        <v>1166.826011668365</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>112.84461854137531</v>
+        <v>112.13133485686087</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3394,22 +3394,22 @@
         <v>4495381</v>
       </c>
       <c r="C70">
-        <v>8607437145.9593372</v>
+        <v>8532148223.7443237</v>
       </c>
       <c r="D70">
-        <v>533558.13926516497</v>
+        <v>524274.95510363573</v>
       </c>
       <c r="E70">
-        <v>8798881.5729345549</v>
+        <v>8514761.4875421785</v>
       </c>
       <c r="F70">
-        <v>1914.7291733357722</v>
+        <v>1897.9811107766668</v>
       </c>
       <c r="G70">
-        <v>0.11869030439581539</v>
+        <v>0.11662525492358394</v>
       </c>
       <c r="H70">
-        <v>1.9573160924367823</v>
+        <v>1.8941134216526205</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -3476,22 +3476,22 @@
         <v>6594728</v>
       </c>
       <c r="C72">
-        <v>7085344768.9259186</v>
+        <v>7030056378.302597</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>679721019.80724704</v>
+        <v>687719674.04817295</v>
       </c>
       <c r="F72">
-        <v>1074.3953001436782</v>
+        <v>1066.0115744428879</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>103.07036466208265</v>
+        <v>104.28325081006722</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -3517,22 +3517,22 @@
         <v>7672769</v>
       </c>
       <c r="C73">
-        <v>8266906511.4709949</v>
+        <v>8268093837.5213861</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>786088293.32903552</v>
+        <v>790003691.16176319</v>
       </c>
       <c r="F73">
-        <v>1077.4345626032784</v>
+        <v>1077.5893080479011</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>102.45170854603279</v>
+        <v>102.96200643623744</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -3558,22 +3558,22 @@
         <v>306727</v>
       </c>
       <c r="C74">
-        <v>151757416.51667878</v>
+        <v>150296070.25339317</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>140083769.09231886</v>
+        <v>138734834.08005524</v>
       </c>
       <c r="F74">
-        <v>494.76380141519587</v>
+        <v>489.99947918961544</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>456.70504746018077</v>
+        <v>452.307211559645</v>
       </c>
       <c r="I74" t="s">
         <v>10</v>
@@ -3599,22 +3599,22 @@
         <v>3095082</v>
       </c>
       <c r="C75">
-        <v>3797056685.1019464</v>
+        <v>3753897314.5088596</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>368343511.43114221</v>
+        <v>360646594.38061333</v>
       </c>
       <c r="F75">
-        <v>1226.8032592034544</v>
+        <v>1212.8587593184477</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>119.00929003856513</v>
+        <v>116.52246834837116</v>
       </c>
       <c r="I75" t="s">
         <v>10</v>
@@ -3640,22 +3640,22 @@
         <v>134547</v>
       </c>
       <c r="C76">
-        <v>734528397.58288193</v>
+        <v>728371258.23833895</v>
       </c>
       <c r="D76">
-        <v>50531.18931826108</v>
+        <v>45686.367706183082</v>
       </c>
       <c r="E76">
-        <v>880147.05082734313</v>
+        <v>774741.94258873514</v>
       </c>
       <c r="F76">
-        <v>5459.2699769068204</v>
+        <v>5413.5079803959879</v>
       </c>
       <c r="G76">
-        <v>0.37556533641226547</v>
+        <v>0.3395569407432576</v>
       </c>
       <c r="H76">
-        <v>6.5415583463573554</v>
+        <v>5.7581509999385725</v>
       </c>
       <c r="I76" t="s">
         <v>27</v>
@@ -3681,22 +3681,22 @@
         <v>531521</v>
       </c>
       <c r="C77">
-        <v>3103450112.0281372</v>
+        <v>3099434774.9028263</v>
       </c>
       <c r="D77">
-        <v>195151.95253217922</v>
+        <v>190840.2552102693</v>
       </c>
       <c r="E77">
-        <v>3597740.5189629034</v>
+        <v>3571424.3018528367</v>
       </c>
       <c r="F77">
-        <v>5838.8099661690458</v>
+        <v>5831.2555381684379</v>
       </c>
       <c r="G77">
-        <v>0.36715755827555113</v>
+        <v>0.3590455602135556</v>
       </c>
       <c r="H77">
-        <v>6.7687645811979271</v>
+        <v>6.7192534290326007</v>
       </c>
       <c r="I77" t="s">
         <v>28</v>
@@ -3722,22 +3722,22 @@
         <v>1438500</v>
       </c>
       <c r="C78">
-        <v>9527313405.5729351</v>
+        <v>9588614587.4529305</v>
       </c>
       <c r="D78">
-        <v>629810.07024677773</v>
+        <v>624331.62204713176</v>
       </c>
       <c r="E78">
-        <v>10582650.650748828</v>
+        <v>10562847.295436576</v>
       </c>
       <c r="F78">
-        <v>6623.0889159353046</v>
+        <v>6665.7035713958503</v>
       </c>
       <c r="G78">
-        <v>0.43782417118302241</v>
+        <v>0.43401572613634465</v>
       </c>
       <c r="H78">
-        <v>7.3567262083759672</v>
+        <v>7.3429595380163892</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -3763,22 +3763,22 @@
         <v>4871389</v>
       </c>
       <c r="C79">
-        <v>24578150165.469845</v>
+        <v>24919933273.956844</v>
       </c>
       <c r="D79">
-        <v>1395824.7679576497</v>
+        <v>1439611.1084915141</v>
       </c>
       <c r="E79">
-        <v>23748724.380702619</v>
+        <v>25554725.555442598</v>
       </c>
       <c r="F79">
-        <v>5045.4090538591445</v>
+        <v>5115.5703791992064</v>
       </c>
       <c r="G79">
-        <v>0.28653527114292243</v>
+        <v>0.29552374250783792</v>
       </c>
       <c r="H79">
-        <v>4.8751443131933456</v>
+        <v>5.2458807037258977</v>
       </c>
       <c r="I79" t="s">
         <v>29</v>
@@ -3804,22 +3804,22 @@
         <v>1656996</v>
       </c>
       <c r="C80">
-        <v>8621582161.141552</v>
+        <v>8614146770.4875431</v>
       </c>
       <c r="D80">
-        <v>520233.17588493519</v>
+        <v>514303.38599995093</v>
       </c>
       <c r="E80">
-        <v>9664451.0799634121</v>
+        <v>9802833.0126781799</v>
       </c>
       <c r="F80">
-        <v>5203.1399961988755</v>
+        <v>5198.6527248632729</v>
       </c>
       <c r="G80">
-        <v>0.31396163653076725</v>
+        <v>0.31038299790702628</v>
       </c>
       <c r="H80">
-        <v>5.8325132227014498</v>
+        <v>5.9160269624538504</v>
       </c>
       <c r="I80" t="s">
         <v>29</v>
@@ -3845,22 +3845,22 @@
         <v>967351</v>
       </c>
       <c r="C81">
-        <v>6509694112.6033192</v>
+        <v>6461620822.5435209</v>
       </c>
       <c r="D81">
-        <v>380495.01827665581</v>
+        <v>383624.72019366396</v>
       </c>
       <c r="E81">
-        <v>6302476.6917944327</v>
+        <v>6974562.0787803736</v>
       </c>
       <c r="F81">
-        <v>6729.4023706010739</v>
+        <v>6679.7065620891699</v>
       </c>
       <c r="G81">
-        <v>0.39333708062187955</v>
+        <v>0.39657241290251827</v>
       </c>
       <c r="H81">
-        <v>6.5151911682465133</v>
+        <v>7.2099600649406197</v>
       </c>
       <c r="I81" t="s">
         <v>29</v>
@@ -3886,22 +3886,22 @@
         <v>7658910</v>
       </c>
       <c r="C82">
-        <v>35272486068.170151</v>
+        <v>34470685408.441223</v>
       </c>
       <c r="D82">
-        <v>2177080.6700207121</v>
+        <v>2124944.3411712185</v>
       </c>
       <c r="E82">
-        <v>42194189.296797574</v>
+        <v>40637685.547053471</v>
       </c>
       <c r="F82">
-        <v>4605.4185345134165</v>
+        <v>4500.7299222005777</v>
       </c>
       <c r="G82">
-        <v>0.28425463545344076</v>
+        <v>0.27744735754450939</v>
       </c>
       <c r="H82">
-        <v>5.5091637448145461</v>
+        <v>5.305935903027124</v>
       </c>
       <c r="I82" t="s">
         <v>29</v>
@@ -3927,22 +3927,22 @@
         <v>500630</v>
       </c>
       <c r="C83">
-        <v>2716744085.6717839</v>
+        <v>2725929947.2674451</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>219364430.63715208</v>
+        <v>217117725.06419396</v>
       </c>
       <c r="F83">
-        <v>5426.6505915981543</v>
+        <v>5444.9991955484993</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>438.17675855852042</v>
+        <v>433.68900198588574</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
@@ -3968,22 +3968,22 @@
         <v>3581670</v>
       </c>
       <c r="C84">
-        <v>20857201115.927502</v>
+        <v>20886264504.297894</v>
       </c>
       <c r="D84">
-        <v>1144948.2471166323</v>
+        <v>1171070.6242164974</v>
       </c>
       <c r="E84">
-        <v>18696720.394150905</v>
+        <v>18151785.151220843</v>
       </c>
       <c r="F84">
-        <v>5823.3173675764383</v>
+        <v>5831.4318472382702</v>
       </c>
       <c r="G84">
-        <v>0.31966882686473974</v>
+        <v>0.32696217803887501</v>
       </c>
       <c r="H84">
-        <v>5.2201125157121968</v>
+        <v>5.0679669403437062</v>
       </c>
       <c r="I84" t="s">
         <v>30</v>
@@ -4009,19 +4009,19 @@
         <v>4902363</v>
       </c>
       <c r="C85">
-        <v>37717043764.634956</v>
+        <v>34409584401.703629</v>
       </c>
       <c r="D85">
-        <v>1989614.9927260079</v>
+        <v>1945944.8634491358</v>
       </c>
       <c r="E85">
         <v>34275124.305252805</v>
       </c>
       <c r="F85">
-        <v>7693.6456489727416</v>
+        <v>7018.9792966582909</v>
       </c>
       <c r="G85">
-        <v>0.40584815786305661</v>
+        <v>0.39694018240777679</v>
       </c>
       <c r="H85">
         <v>6.9915516874725121</v>
@@ -4050,22 +4050,22 @@
         <v>8835500</v>
       </c>
       <c r="C86">
-        <v>45952653149.089622</v>
+        <v>46777520043.067787</v>
       </c>
       <c r="D86">
-        <v>7899336.4751523491</v>
+        <v>8088812.5346621498</v>
       </c>
       <c r="E86">
-        <v>153463690.13458154</v>
+        <v>147615809.31886861</v>
       </c>
       <c r="F86">
-        <v>5200.9114536913157</v>
+        <v>5294.2697123046555</v>
       </c>
       <c r="G86">
-        <v>0.89404521251229119</v>
+        <v>0.91549007239682534</v>
       </c>
       <c r="H86">
-        <v>17.368987622045331</v>
+        <v>16.707125722241933</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
@@ -4091,22 +4091,22 @@
         <v>6233147</v>
       </c>
       <c r="C87">
-        <v>26186481492.60463</v>
+        <v>26162721145.82354</v>
       </c>
       <c r="D87">
-        <v>1571420.5213747283</v>
+        <v>1559688.1044381103</v>
       </c>
       <c r="E87">
-        <v>28969746.837189801</v>
+        <v>28016852.84849396</v>
       </c>
       <c r="F87">
-        <v>4201.1653972872182</v>
+        <v>4197.3534629976702</v>
       </c>
       <c r="G87">
-        <v>0.25210708513287561</v>
+        <v>0.25022482294066067</v>
       </c>
       <c r="H87">
-        <v>4.6476919022108421</v>
+        <v>4.4948166389295743</v>
       </c>
       <c r="I87" t="s">
         <v>31</v>
@@ -4132,22 +4132,22 @@
         <v>2753681</v>
       </c>
       <c r="C88">
-        <v>12004987434.696236</v>
+        <v>11895421123.76668</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>991569937.51495445</v>
+        <v>961827708.46126676</v>
       </c>
       <c r="F88">
-        <v>4359.6144341687495</v>
+        <v>4319.8253987178177</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>360.0888910207662</v>
+        <v>349.28799249487025</v>
       </c>
       <c r="I88" t="s">
         <v>31</v>
@@ -4173,22 +4173,22 @@
         <v>5168266</v>
       </c>
       <c r="C89">
-        <v>17744679411.502251</v>
+        <v>17584668350.292683</v>
       </c>
       <c r="D89">
-        <v>993483.20232611103</v>
+        <v>988947.31148653198</v>
       </c>
       <c r="E89">
-        <v>16598082.17993639</v>
+        <v>16708326.177034609</v>
       </c>
       <c r="F89">
-        <v>3433.3912789129372</v>
+        <v>3402.4309798088339</v>
       </c>
       <c r="G89">
-        <v>0.19222756768442473</v>
+        <v>0.1913499250012542</v>
       </c>
       <c r="H89">
-        <v>3.2115379084467381</v>
+        <v>3.2328688533126213</v>
       </c>
       <c r="I89" t="s">
         <v>31</v>
@@ -4214,22 +4214,22 @@
         <v>9849064</v>
       </c>
       <c r="C90">
-        <v>52601120515.847397</v>
+        <v>52911629082.147911</v>
       </c>
       <c r="D90">
-        <v>3049912.5410577385</v>
+        <v>3093892.842112714</v>
       </c>
       <c r="E90">
-        <v>52568079.099117294</v>
+        <v>53176630.148461223</v>
       </c>
       <c r="F90">
-        <v>5340.7227850126055</v>
+        <v>5372.2494931648234</v>
       </c>
       <c r="G90">
-        <v>0.30966521702546945</v>
+        <v>0.31413064653785516</v>
       </c>
       <c r="H90">
-        <v>5.3373680076723327</v>
+        <v>5.3991557114931146</v>
       </c>
       <c r="I90" t="s">
         <v>31</v>
@@ -4255,22 +4255,22 @@
         <v>6246911</v>
       </c>
       <c r="C91">
-        <v>30288058646.71949</v>
+        <v>29912126620.518883</v>
       </c>
       <c r="D91">
-        <v>1799639.1844831179</v>
+        <v>1793041.4489864483</v>
       </c>
       <c r="E91">
-        <v>32777034.931335457</v>
+        <v>32494226.130202021</v>
       </c>
       <c r="F91">
-        <v>4848.4856990470153</v>
+        <v>4788.3068320516941</v>
       </c>
       <c r="G91">
-        <v>0.28808465247593856</v>
+        <v>0.28702849280011328</v>
       </c>
       <c r="H91">
-        <v>5.2469188261743218</v>
+        <v>5.2016470428667896</v>
       </c>
       <c r="I91" t="s">
         <v>31</v>
@@ -4296,22 +4296,22 @@
         <v>3681044</v>
       </c>
       <c r="C92">
-        <v>16386335922.480608</v>
+        <v>16572232452.390163</v>
       </c>
       <c r="D92">
-        <v>1087076.2390119007</v>
+        <v>1090933.3290594337</v>
       </c>
       <c r="E92">
-        <v>16905717.091036901</v>
+        <v>17266804.967155807</v>
       </c>
       <c r="F92">
-        <v>4451.5457904009318</v>
+        <v>4502.0468248654897</v>
       </c>
       <c r="G92">
-        <v>0.29531737165105898</v>
+        <v>0.2963651966831784</v>
       </c>
       <c r="H92">
-        <v>4.5926419491418473</v>
+        <v>4.6907358258026273</v>
       </c>
       <c r="I92" t="s">
         <v>31</v>
@@ -4337,22 +4337,22 @@
         <v>4626240</v>
       </c>
       <c r="C93">
-        <v>4867091779.0211535</v>
+        <v>4938232800.2314663</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>468631852.01106274</v>
+        <v>481318011.00471866</v>
       </c>
       <c r="F93">
-        <v>1052.0621020572114</v>
+        <v>1067.4398215897718</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>101.29864685166847</v>
+        <v>104.04086493669128</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -4378,22 +4378,22 @@
         <v>6322841</v>
       </c>
       <c r="C94">
-        <v>7120943386.3922758</v>
+        <v>7133882790.7655869</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>685720568.19362748</v>
+        <v>694801094.09035707</v>
       </c>
       <c r="F94">
-        <v>1126.2252817036322</v>
+        <v>1128.271735880372</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>108.45133828189377</v>
+        <v>109.88748476995659</v>
       </c>
       <c r="I94" t="s">
         <v>15</v>
@@ -4419,22 +4419,22 @@
         <v>9036684</v>
       </c>
       <c r="C95">
-        <v>84640377905.838074</v>
+        <v>84771928792.091766</v>
       </c>
       <c r="D95">
-        <v>1956163.5054122107</v>
+        <v>1933363.4328747848</v>
       </c>
       <c r="E95">
-        <v>3768233667.6259503</v>
+        <v>3749476363.4505134</v>
       </c>
       <c r="F95">
-        <v>9366.3093570427027</v>
+        <v>9380.8667861011581</v>
       </c>
       <c r="G95">
-        <v>0.21646917225524437</v>
+        <v>0.21394611484420445</v>
       </c>
       <c r="H95">
-        <v>416.99296640514933</v>
+        <v>414.91728198645802</v>
       </c>
       <c r="I95" t="s">
         <v>32</v>
@@ -4460,22 +4460,22 @@
         <v>916991</v>
       </c>
       <c r="C96">
-        <v>8778175483.5641861</v>
+        <v>8905861731.5980453</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>754644766.65718055</v>
+        <v>767043695.47001982</v>
       </c>
       <c r="F96">
-        <v>9572.8044043662212</v>
+        <v>9712.049225780891</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>822.95765897067747</v>
+        <v>836.47897904125534</v>
       </c>
       <c r="I96" t="s">
         <v>32</v>
@@ -4501,22 +4501,22 @@
         <v>317344</v>
       </c>
       <c r="C97">
-        <v>2203748675.923028</v>
+        <v>2219409538.6199012</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>186264150.20201263</v>
+        <v>186435597.97533229</v>
       </c>
       <c r="F97">
-        <v>6944.3527400014746</v>
+        <v>6993.7025392630749</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>586.94713056497881</v>
+        <v>587.48738900162687</v>
       </c>
       <c r="I97" t="s">
         <v>32</v>
@@ -4542,22 +4542,22 @@
         <v>4078252</v>
       </c>
       <c r="C98">
-        <v>22622920616.807831</v>
+        <v>23069484449.998943</v>
       </c>
       <c r="D98">
-        <v>1335151.4880643066</v>
+        <v>1350452.556137081</v>
       </c>
       <c r="E98">
-        <v>22737737.164493274</v>
+        <v>23173694.900920525</v>
       </c>
       <c r="F98">
-        <v>5547.210083341547</v>
+        <v>5656.7089159764882</v>
       </c>
       <c r="G98">
-        <v>0.32738327304548775</v>
+        <v>0.33113514224650192</v>
       </c>
       <c r="H98">
-        <v>5.5753634558367837</v>
+        <v>5.6822616407520981</v>
       </c>
       <c r="I98" t="s">
         <v>32</v>
@@ -4583,22 +4583,22 @@
         <v>3399679</v>
       </c>
       <c r="C99">
-        <v>17756845212.651413</v>
+        <v>17813998849.980263</v>
       </c>
       <c r="D99">
-        <v>1132116.0091883158</v>
+        <v>1120769.9156904374</v>
       </c>
       <c r="E99">
-        <v>18651942.080812216</v>
+        <v>18763320.183896486</v>
       </c>
       <c r="F99">
-        <v>5223.0946547163458</v>
+        <v>5239.9061352499057</v>
       </c>
       <c r="G99">
-        <v>0.33300673657375179</v>
+        <v>0.32966933516088942</v>
       </c>
       <c r="H99">
-        <v>5.4863832970148696</v>
+        <v>5.5191446556855768</v>
       </c>
       <c r="I99" t="s">
         <v>32</v>
@@ -4624,22 +4624,22 @@
         <v>3734928</v>
       </c>
       <c r="C100">
-        <v>18501532253.954369</v>
+        <v>18510240447.171295</v>
       </c>
       <c r="D100">
-        <v>1112216.3124183146</v>
+        <v>1074478.1812998452</v>
       </c>
       <c r="E100">
-        <v>17921506.377608832</v>
+        <v>18722211.587212786</v>
       </c>
       <c r="F100">
-        <v>4953.651651103949</v>
+        <v>4955.9832069510567</v>
       </c>
       <c r="G100">
-        <v>0.29778788571515025</v>
+        <v>0.28768377363629105</v>
       </c>
       <c r="H100">
-        <v>4.7983539114030664</v>
+        <v>5.0127369489352365</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -4665,22 +4665,22 @@
         <v>2487210</v>
       </c>
       <c r="C101">
-        <v>20945120872.213665</v>
+        <v>21095127063.848053</v>
       </c>
       <c r="D101">
-        <v>1218598.4321859977</v>
+        <v>1203753.4570909953</v>
       </c>
       <c r="E101">
-        <v>23050705.901408106</v>
+        <v>22253426.769947082</v>
       </c>
       <c r="F101">
-        <v>8421.1308543362502</v>
+        <v>8481.4418822086009</v>
       </c>
       <c r="G101">
-        <v>0.48994593628443023</v>
+        <v>0.48397741127246807</v>
       </c>
       <c r="H101">
-        <v>9.2676958927505542</v>
+        <v>8.9471442982084675</v>
       </c>
       <c r="I101" t="s">
         <v>33</v>
@@ -4706,22 +4706,22 @@
         <v>14438617</v>
       </c>
       <c r="C102">
-        <v>43981676108.351997</v>
+        <v>44441870265.094589</v>
       </c>
       <c r="D102">
-        <v>2797242.9727432746</v>
+        <v>2794253.0032189162</v>
       </c>
       <c r="E102">
-        <v>49573923.444285281</v>
+        <v>51411474.290751114</v>
       </c>
       <c r="F102">
-        <v>3046.1141886616979</v>
+        <v>3077.9866427023162</v>
       </c>
       <c r="G102">
-        <v>0.19373344225027056</v>
+        <v>0.1935263608155072</v>
       </c>
       <c r="H102">
-        <v>3.4334260299504642</v>
+        <v>3.5606924327136813</v>
       </c>
       <c r="I102" t="s">
         <v>33</v>
@@ -4747,22 +4747,22 @@
         <v>2911161</v>
       </c>
       <c r="C103">
-        <v>3316278928.4001369</v>
+        <v>3317704801.0087538</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>317675670.82319045</v>
+        <v>317775359.69960833</v>
       </c>
       <c r="F103">
-        <v>1139.1602623146357</v>
+        <v>1139.6500574886629</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>109.12336034427173</v>
+        <v>109.15760402794911</v>
       </c>
       <c r="I103" t="s">
         <v>33</v>
@@ -4788,22 +4788,22 @@
         <v>3857821</v>
       </c>
       <c r="C104">
-        <v>20331182744.141212</v>
+        <v>20363377509.357719</v>
       </c>
       <c r="D104">
-        <v>1206517.0199602428</v>
+        <v>1241908.8349998561</v>
       </c>
       <c r="E104">
-        <v>20210793.960938245</v>
+        <v>20538958.817721281</v>
       </c>
       <c r="F104">
-        <v>5270.1208127959317</v>
+        <v>5278.466136546439</v>
       </c>
       <c r="G104">
-        <v>0.31274572354711189</v>
+        <v>0.32191976636548353</v>
       </c>
       <c r="H104">
-        <v>5.2389143925905959</v>
+        <v>5.3239792146191549</v>
       </c>
       <c r="I104" t="s">
         <v>33</v>
@@ -4829,7 +4829,7 @@
         <v>393144</v>
       </c>
       <c r="C105">
-        <v>1320660117.33708</v>
+        <v>1397110549.2935388</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>123445976.8768561</v>
       </c>
       <c r="F105">
-        <v>3359.2274518677127</v>
+        <v>3553.6865608874582</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4870,22 +4870,22 @@
         <v>2485399</v>
       </c>
       <c r="C106">
-        <v>14485712224.513735</v>
+        <v>14235597487.909796</v>
       </c>
       <c r="D106">
-        <v>851121.54688539519</v>
+        <v>853517.86304080253</v>
       </c>
       <c r="E106">
-        <v>14628486.060927361</v>
+        <v>14811232.102019832</v>
       </c>
       <c r="F106">
-        <v>5828.3246370155193</v>
+        <v>5727.6910016901893</v>
       </c>
       <c r="G106">
-        <v>0.34244865588398288</v>
+        <v>0.3434128134117711</v>
       </c>
       <c r="H106">
-        <v>5.8857696735724776</v>
+        <v>5.9592975220557474</v>
       </c>
       <c r="I106" t="s">
         <v>34</v>
@@ -4911,22 +4911,22 @@
         <v>261201</v>
       </c>
       <c r="C107">
-        <v>485843073.10361695</v>
+        <v>492912285.22083044</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>46252512.976116002</v>
+        <v>46529982.602552682</v>
       </c>
       <c r="F107">
-        <v>1860.0352720840156</v>
+        <v>1887.0995333893454</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>177.0763242717907</v>
+        <v>178.13860820805695</v>
       </c>
       <c r="I107" t="s">
         <v>34</v>
@@ -4952,22 +4952,22 @@
         <v>14072154</v>
       </c>
       <c r="C108">
-        <v>58872729419.619743</v>
+        <v>59905043249.929779</v>
       </c>
       <c r="D108">
-        <v>3573495.1551564126</v>
+        <v>3597642.4921723371</v>
       </c>
       <c r="E108">
-        <v>63671139.279884189</v>
+        <v>62748775.29782705</v>
       </c>
       <c r="F108">
-        <v>4183.6331111512663</v>
+        <v>4256.9917334567099</v>
       </c>
       <c r="G108">
-        <v>0.25394087892702233</v>
+        <v>0.25565684487053913</v>
       </c>
       <c r="H108">
-        <v>4.5246192786039856</v>
+        <v>4.4590739482972577</v>
       </c>
       <c r="I108" t="s">
         <v>35</v>
@@ -4993,22 +4993,22 @@
         <v>543145</v>
       </c>
       <c r="C109">
-        <v>938359439.28786027</v>
+        <v>923180166.10594833</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>87248951.726106152</v>
+        <v>80690041.79092063</v>
       </c>
       <c r="F109">
-        <v>1727.6407576022245</v>
+        <v>1699.6937578472568</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>160.63657352291958</v>
+        <v>148.56077436213283</v>
       </c>
       <c r="I109" t="s">
         <v>35</v>
@@ -5034,22 +5034,22 @@
         <v>7296430</v>
       </c>
       <c r="C110">
-        <v>32164787184.062927</v>
+        <v>32225127537.238914</v>
       </c>
       <c r="D110">
-        <v>2065090.1252026653</v>
+        <v>2079047.7906007543</v>
       </c>
       <c r="E110">
-        <v>41679992.39988625</v>
+        <v>40058813.210322693</v>
       </c>
       <c r="F110">
-        <v>4408.291066187564</v>
+        <v>4416.5609122870928</v>
       </c>
       <c r="G110">
-        <v>0.28302747031118852</v>
+        <v>0.28494041477828941</v>
       </c>
       <c r="H110">
-        <v>5.7123815893370118</v>
+        <v>5.4901935892378457</v>
       </c>
       <c r="I110" t="s">
         <v>35</v>
@@ -5075,22 +5075,22 @@
         <v>11269955</v>
       </c>
       <c r="C111">
-        <v>23675153682.263424</v>
+        <v>23674031314.164898</v>
       </c>
       <c r="D111">
-        <v>1843844.0437459955</v>
+        <v>1851013.0423539439</v>
       </c>
       <c r="E111">
-        <v>33841223.329871006</v>
+        <v>33845520.703881033</v>
       </c>
       <c r="F111">
-        <v>2100.7318735756639</v>
+        <v>2100.632284171933</v>
       </c>
       <c r="G111">
-        <v>0.16360704579086566</v>
+        <v>0.16424316178316098</v>
       </c>
       <c r="H111">
-        <v>3.00278247161333</v>
+        <v>3.0031637840506935</v>
       </c>
       <c r="I111" t="s">
         <v>35</v>
@@ -5116,22 +5116,22 @@
         <v>5367819</v>
       </c>
       <c r="C112">
-        <v>21311902138.952171</v>
+        <v>21277333832.879292</v>
       </c>
       <c r="D112">
-        <v>1318307.4295536042</v>
+        <v>1330839.8402873415</v>
       </c>
       <c r="E112">
-        <v>22361052.263493933</v>
+        <v>22631069.934466936</v>
       </c>
       <c r="F112">
-        <v>3970.3093824423236</v>
+        <v>3963.8694659561529</v>
       </c>
       <c r="G112">
-        <v>0.24559461292446788</v>
+        <v>0.24792934342371484</v>
       </c>
       <c r="H112">
-        <v>4.1657612269515667</v>
+        <v>4.2160642775896386</v>
       </c>
       <c r="I112" t="s">
         <v>35</v>
@@ -5157,22 +5157,22 @@
         <v>9846148</v>
       </c>
       <c r="C113">
-        <v>64356411575.093399</v>
+        <v>64903680203.243248</v>
       </c>
       <c r="D113">
-        <v>3888860.8187661129</v>
+        <v>3967200.8210855569</v>
       </c>
       <c r="E113">
-        <v>70333449.134599</v>
+        <v>71058902.497514278</v>
       </c>
       <c r="F113">
-        <v>6536.2019314653198</v>
+        <v>6591.7839345136035</v>
       </c>
       <c r="G113">
-        <v>0.39496266141501357</v>
+        <v>0.40291907262470122</v>
       </c>
       <c r="H113">
-        <v>7.1432451690345298</v>
+        <v>7.2169240699524604</v>
       </c>
       <c r="I113" t="s">
         <v>35</v>
@@ -5198,22 +5198,22 @@
         <v>5178344</v>
       </c>
       <c r="C114">
-        <v>6030792661.0012817</v>
+        <v>6117079819.765583</v>
       </c>
       <c r="D114">
-        <v>447950.73168617109</v>
+        <v>453285.10626055778</v>
       </c>
       <c r="E114">
-        <v>7300576.2221713746</v>
+        <v>7460883.2348668296</v>
       </c>
       <c r="F114">
-        <v>1164.6180054861711</v>
+        <v>1181.2810851819777</v>
       </c>
       <c r="G114">
-        <v>8.6504629991010856E-2</v>
+        <v>8.7534761356247826E-2</v>
       </c>
       <c r="H114">
-        <v>1.4098283586743898</v>
+        <v>1.4407855551633553</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -5239,22 +5239,22 @@
         <v>3896653</v>
       </c>
       <c r="C115">
-        <v>4264839946.4074869</v>
+        <v>4218231921.9606962</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>404134165.07612884</v>
+        <v>405774635.14170504</v>
       </c>
       <c r="F115">
-        <v>1094.48799942091</v>
+        <v>1082.5269588954152</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>103.71315205026694</v>
+        <v>104.13414670018219</v>
       </c>
       <c r="I115" t="s">
         <v>36</v>
@@ -5280,22 +5280,22 @@
         <v>419820</v>
       </c>
       <c r="C116">
-        <v>424740511.9627288</v>
+        <v>425075629.01140189</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>35117176.609045073</v>
+        <v>34795876.649727635</v>
       </c>
       <c r="F116">
-        <v>1011.720527756488</v>
+        <v>1012.5187675942116</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>83.648174477264234</v>
+        <v>82.882846576455705</v>
       </c>
       <c r="I116" t="s">
         <v>36</v>
@@ -5321,22 +5321,22 @@
         <v>12685</v>
       </c>
       <c r="C117">
-        <v>12471921.271523749</v>
+        <v>12627789.308144944</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1222378.7682689303</v>
+        <v>1189127.9144836015</v>
       </c>
       <c r="F117">
-        <v>983.20230756986598</v>
+        <v>995.48989421718125</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>96.364112595106846</v>
+        <v>93.742839139424632</v>
       </c>
       <c r="I117" t="s">
         <v>36</v>
@@ -5362,22 +5362,22 @@
         <v>1522254</v>
       </c>
       <c r="C118">
-        <v>2139953796.1769292</v>
+        <v>2126401123.0181949</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>206893321.68310916</v>
+        <v>201002744.54576856</v>
       </c>
       <c r="F118">
-        <v>1405.779716247702</v>
+        <v>1396.876686162884</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>135.9124835166202</v>
+        <v>132.04284209190357</v>
       </c>
       <c r="I118" t="s">
         <v>37</v>
@@ -5444,22 +5444,22 @@
         <v>214384</v>
       </c>
       <c r="C120">
-        <v>1761611094.8859448</v>
+        <v>1811913255.4563468</v>
       </c>
       <c r="D120">
-        <v>106401.37113911042</v>
+        <v>110643.11032863639</v>
       </c>
       <c r="E120">
-        <v>1716021.6750235669</v>
+        <v>1734495.2774398425</v>
       </c>
       <c r="F120">
-        <v>8217.0828741228124</v>
+        <v>8451.7186704994165</v>
       </c>
       <c r="G120">
-        <v>0.49631209017049038</v>
+        <v>0.51609779801028244</v>
       </c>
       <c r="H120">
-        <v>8.0044297849819337</v>
+        <v>8.0906004059997123</v>
       </c>
       <c r="I120" t="s">
         <v>23</v>
@@ -5485,22 +5485,22 @@
         <v>13572760</v>
       </c>
       <c r="C121">
-        <v>6339900705.5328321</v>
+        <v>6371448563.8321648</v>
       </c>
       <c r="D121">
         <v>2621533.9661828708</v>
       </c>
       <c r="E121">
-        <v>75946749.485087454</v>
+        <v>101217527.65185121</v>
       </c>
       <c r="F121">
-        <v>467.1047528677168</v>
+        <v>469.42910386923256</v>
       </c>
       <c r="G121">
         <v>0.19314671195710165</v>
       </c>
       <c r="H121">
-        <v>5.59552732716761</v>
+        <v>7.457402006065915</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -5526,22 +5526,22 @@
         <v>17815891</v>
       </c>
       <c r="C122">
-        <v>20547513886.85305</v>
+        <v>21271520961.28759</v>
       </c>
       <c r="D122">
-        <v>1409768.0773081863</v>
+        <v>1456941.8788097498</v>
       </c>
       <c r="E122">
-        <v>23096421.651233036</v>
+        <v>23886508.87153738</v>
       </c>
       <c r="F122">
-        <v>1153.3250785410087</v>
+        <v>1193.9633533505335</v>
       </c>
       <c r="G122">
-        <v>7.9129810420830837E-2</v>
+        <v>8.1777660113083864E-2</v>
       </c>
       <c r="H122">
-        <v>1.2963944184005749</v>
+        <v>1.3407417496850076</v>
       </c>
       <c r="I122" t="s">
         <v>9</v>
@@ -5567,22 +5567,22 @@
         <v>7047532</v>
       </c>
       <c r="C123">
-        <v>30890840892.992508</v>
+        <v>30907078147.451797</v>
       </c>
       <c r="D123">
-        <v>2023652.9200207551</v>
+        <v>2085953.7194761841</v>
       </c>
       <c r="E123">
-        <v>33655340.06795302</v>
+        <v>34206817.636711881</v>
       </c>
       <c r="F123">
-        <v>4383.2139950542269</v>
+        <v>4385.5179582656447</v>
       </c>
       <c r="G123">
-        <v>0.28714348796440442</v>
+        <v>0.29598357545253917</v>
       </c>
       <c r="H123">
-        <v>4.775478858124095</v>
+        <v>4.8537300201988272</v>
       </c>
       <c r="I123" t="s">
         <v>35</v>
@@ -5608,22 +5608,22 @@
         <v>6223129</v>
       </c>
       <c r="C124">
-        <v>6990346203.5029345</v>
+        <v>6929031166.1697416</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>679229428.64073026</v>
+        <v>673705170.22657657</v>
       </c>
       <c r="F124">
-        <v>1123.2847982908493</v>
+        <v>1113.4320317270849</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>109.14596638455193</v>
+        <v>108.2582685055342</v>
       </c>
       <c r="I124" t="s">
         <v>38</v>
@@ -5649,22 +5649,22 @@
         <v>2129192</v>
       </c>
       <c r="C125">
-        <v>2546611132.2940063</v>
+        <v>2546731865.2209973</v>
       </c>
       <c r="D125">
-        <v>184612.73166592175</v>
+        <v>189753.00503444404</v>
       </c>
       <c r="E125">
-        <v>3033971.6044044243</v>
+        <v>3177083.4725367082</v>
       </c>
       <c r="F125">
-        <v>1196.04579215684</v>
+        <v>1196.1024957922994</v>
       </c>
       <c r="G125">
-        <v>8.6705535088391156E-2</v>
+        <v>8.9119724775616305E-2</v>
       </c>
       <c r="H125">
-        <v>1.4249403550287736</v>
+        <v>1.4921545227188098</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -5690,22 +5690,22 @@
         <v>4998069</v>
       </c>
       <c r="C126">
-        <v>4701151015.9143782</v>
+        <v>4636738975.1342287</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>385605432.31843591</v>
+        <v>395024231.07814586</v>
       </c>
       <c r="F126">
-        <v>940.59346037727335</v>
+        <v>927.70607511305445</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>77.150882134367478</v>
+        <v>79.035369675397817</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -5731,22 +5731,22 @@
         <v>4031692</v>
       </c>
       <c r="C127">
-        <v>31556703640.913544</v>
+        <v>32462084563.024048</v>
       </c>
       <c r="D127">
-        <v>12894007.241531136</v>
+        <v>13246698.96835652</v>
       </c>
       <c r="E127">
-        <v>189497951.54433119</v>
+        <v>166793970.5981864</v>
       </c>
       <c r="F127">
-        <v>7827.1613111600645</v>
+        <v>8051.7273053159934</v>
       </c>
       <c r="G127">
-        <v>3.1981627667815733</v>
+        <v>3.2856425958025861</v>
       </c>
       <c r="H127">
-        <v>47.002090324442243</v>
+        <v>41.370712494453052</v>
       </c>
       <c r="I127" t="s">
         <v>21</v>
@@ -5772,22 +5772,22 @@
         <v>5936999</v>
       </c>
       <c r="C128">
-        <v>27944001555.338829</v>
+        <v>28009963334.308266</v>
       </c>
       <c r="D128">
-        <v>1591246.9098549862</v>
+        <v>1575082.6432349135</v>
       </c>
       <c r="E128">
-        <v>28734027.252789363</v>
+        <v>28226093.385246754</v>
       </c>
       <c r="F128">
-        <v>4706.7553077470329</v>
+        <v>4717.8655974690691</v>
       </c>
       <c r="G128">
-        <v>0.2680220949767696</v>
+        <v>0.26529946244473235</v>
       </c>
       <c r="H128">
-        <v>4.8398234954712578</v>
+        <v>4.7542695198780986</v>
       </c>
       <c r="I128" t="s">
         <v>31</v>
@@ -5813,19 +5813,19 @@
         <v>8834166</v>
       </c>
       <c r="C129">
-        <v>53803807832.392258</v>
+        <v>53869692984.185715</v>
       </c>
       <c r="D129">
-        <v>2848571.1691900212</v>
+        <v>3169654.7221121597</v>
       </c>
       <c r="E129">
         <v>50094780.845352754</v>
       </c>
       <c r="F129">
-        <v>6090.4230045476006</v>
+        <v>6097.8809979556318</v>
       </c>
       <c r="G129">
-        <v>0.32244935958754017</v>
+        <v>0.35879501495807975</v>
       </c>
       <c r="H129">
         <v>5.6705727337875196</v>
@@ -5854,22 +5854,22 @@
         <v>3440952</v>
       </c>
       <c r="C130">
-        <v>17397357256.450649</v>
+        <v>17472230367.965454</v>
       </c>
       <c r="D130">
-        <v>7105603.7848933134</v>
+        <v>7136121.9209022</v>
       </c>
       <c r="E130">
-        <v>100380721.97039926</v>
+        <v>90964234.364870578</v>
       </c>
       <c r="F130">
-        <v>5055.972084600613</v>
+        <v>5077.7315022021385</v>
       </c>
       <c r="G130">
-        <v>2.0650110158157724</v>
+        <v>2.0738801125102007</v>
       </c>
       <c r="H130">
-        <v>29.172369149700216</v>
+        <v>26.435775437980702</v>
       </c>
       <c r="I130" t="s">
         <v>31</v>
@@ -5895,22 +5895,22 @@
         <v>3273953</v>
       </c>
       <c r="C131">
-        <v>24084984758.972076</v>
+        <v>24052937208.038948</v>
       </c>
       <c r="D131">
-        <v>12902635.039648566</v>
+        <v>12888002.416297529</v>
       </c>
       <c r="E131">
-        <v>327441519.39395344</v>
+        <v>322747465.36849964</v>
       </c>
       <c r="F131">
-        <v>7356.5456678736919</v>
+        <v>7346.7570267621277</v>
       </c>
       <c r="G131">
-        <v>3.9409958052692162</v>
+        <v>3.9365263998284425</v>
       </c>
       <c r="H131">
-        <v>100.01411730527391</v>
+        <v>98.580360001655379</v>
       </c>
       <c r="I131" t="s">
         <v>21</v>
@@ -5936,22 +5936,22 @@
         <v>4469578</v>
       </c>
       <c r="C132">
-        <v>11389160256.762962</v>
+        <v>11432824610.053396</v>
       </c>
       <c r="D132">
-        <v>706434.52238912904</v>
+        <v>701475.43001384242</v>
       </c>
       <c r="E132">
-        <v>13190232.006797824</v>
+        <v>13865511.902981661</v>
       </c>
       <c r="F132">
-        <v>2548.1511356917727</v>
+        <v>2557.9203696754807</v>
       </c>
       <c r="G132">
-        <v>0.15805396446580169</v>
+        <v>0.15694444308027344</v>
       </c>
       <c r="H132">
-        <v>2.9511135070912342</v>
+        <v>3.1021970984691758</v>
       </c>
       <c r="I132" t="s">
         <v>16</v>
@@ -5977,22 +5977,22 @@
         <v>5464804</v>
       </c>
       <c r="C133">
-        <v>6914074308.2245588</v>
+        <v>6808311626.713892</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>664645067.2638936</v>
+        <v>657978449.29767299</v>
       </c>
       <c r="F133">
-        <v>1265.2007845523021</v>
+        <v>1245.8473582426545</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>121.62285550660071</v>
+        <v>120.40293655502978</v>
       </c>
       <c r="I133" t="s">
         <v>39</v>
@@ -6018,22 +6018,22 @@
         <v>245854</v>
       </c>
       <c r="C134">
-        <v>588873633.78891814</v>
+        <v>602386585.17014229</v>
       </c>
       <c r="D134">
-        <v>238666.63529984772</v>
+        <v>243240.38615054172</v>
       </c>
       <c r="E134">
-        <v>4769582.1812927965</v>
+        <v>4845692.5352495965</v>
       </c>
       <c r="F134">
-        <v>2395.2168107450689</v>
+        <v>2450.1801279220281</v>
       </c>
       <c r="G134">
-        <v>0.97076571989818239</v>
+        <v>0.98936924414710237</v>
       </c>
       <c r="H134">
-        <v>19.400059308747455</v>
+        <v>19.709634723248744</v>
       </c>
       <c r="I134" t="s">
         <v>25</v>
@@ -6059,7 +6059,7 @@
         <v>1204962</v>
       </c>
       <c r="C135">
-        <v>1574810759.4612119</v>
+        <v>1568622730.1839328</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>150376666.50494289</v>
       </c>
       <c r="F135">
-        <v>1306.9381104642403</v>
+        <v>1301.8026545102109</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6100,22 +6100,22 @@
         <v>11346108</v>
       </c>
       <c r="C136">
-        <v>15433852900.587957</v>
+        <v>15368932176.666138</v>
       </c>
       <c r="D136">
-        <v>1143499.6171640868</v>
+        <v>1149136.2841472591</v>
       </c>
       <c r="E136">
-        <v>18561262.53767778</v>
+        <v>18746016.927348763</v>
       </c>
       <c r="F136">
-        <v>1360.2772775111921</v>
+        <v>1354.5554278758971</v>
       </c>
       <c r="G136">
-        <v>0.10078342433934939</v>
+        <v>0.10128021733507729</v>
       </c>
       <c r="H136">
-        <v>1.6359144948803395</v>
+        <v>1.6521979984104473</v>
       </c>
       <c r="I136" t="s">
         <v>20</v>
@@ -6141,22 +6141,22 @@
         <v>2439887</v>
       </c>
       <c r="C137">
-        <v>2617936410.6769152</v>
+        <v>2588432548.2116833</v>
       </c>
       <c r="D137">
-        <v>159703.30033394796</v>
+        <v>161243.45894326048</v>
       </c>
       <c r="E137">
-        <v>2645703.3026877483</v>
+        <v>2701237.1365026943</v>
       </c>
       <c r="F137">
-        <v>1072.9744495039793</v>
+        <v>1060.882142579424</v>
       </c>
       <c r="G137">
-        <v>6.5455203595063197E-2</v>
+        <v>6.6086445373601518E-2</v>
       </c>
       <c r="H137">
-        <v>1.0843548503220635</v>
+        <v>1.107115672366259</v>
       </c>
       <c r="I137" t="s">
         <v>25</v>
@@ -6182,22 +6182,22 @@
         <v>14844275</v>
       </c>
       <c r="C138">
-        <v>16395518510.549278</v>
+        <v>16695236560.346279</v>
       </c>
       <c r="D138">
-        <v>14154797.647440881</v>
+        <v>14413554.230432291</v>
       </c>
       <c r="E138">
-        <v>354141381.5831092</v>
+        <v>370522646.20239127</v>
       </c>
       <c r="F138">
-        <v>1104.5011299338821</v>
+        <v>1124.6919475923398</v>
       </c>
       <c r="G138">
-        <v>0.9535526421762518</v>
+        <v>0.9709840480880535</v>
       </c>
       <c r="H138">
-        <v>23.857101918625812</v>
+        <v>24.960642820372922</v>
       </c>
       <c r="I138" t="s">
         <v>40</v>
@@ -6223,22 +6223,22 @@
         <v>614883</v>
       </c>
       <c r="C139">
-        <v>3343047128.3181963</v>
+        <v>3320653089.0944014</v>
       </c>
       <c r="D139">
-        <v>180106.6887409554</v>
+        <v>186959.86633533629</v>
       </c>
       <c r="E139">
-        <v>2847753.7775054188</v>
+        <v>2967647.3607132668</v>
       </c>
       <c r="F139">
-        <v>5436.8833230357586</v>
+        <v>5400.4633224441095</v>
       </c>
       <c r="G139">
-        <v>0.29291212920336945</v>
+        <v>0.3040576277687565</v>
       </c>
       <c r="H139">
-        <v>4.6313750380241752</v>
+        <v>4.826361048708887</v>
       </c>
       <c r="I139" t="s">
         <v>28</v>
@@ -6264,22 +6264,22 @@
         <v>5372955</v>
       </c>
       <c r="C140">
-        <v>15646897545.02968</v>
+        <v>15782419670.229256</v>
       </c>
       <c r="D140">
-        <v>1036512.6854658893</v>
+        <v>1032619.5533630811</v>
       </c>
       <c r="E140">
-        <v>18308658.797187932</v>
+        <v>18128587.56380941</v>
       </c>
       <c r="F140">
-        <v>2912.1586808431634</v>
+        <v>2937.3816959623255</v>
       </c>
       <c r="G140">
-        <v>0.19291296604305996</v>
+        <v>0.19218838671886906</v>
       </c>
       <c r="H140">
-        <v>3.4075585589657704</v>
+        <v>3.374044183100251</v>
       </c>
       <c r="I140" t="s">
         <v>18</v>
@@ -6305,22 +6305,22 @@
         <v>222191</v>
       </c>
       <c r="C141">
-        <v>1377927439.2125008</v>
+        <v>1316070346.4397974</v>
       </c>
       <c r="D141">
-        <v>1189610.6891867926</v>
+        <v>1136207.3990930251</v>
       </c>
       <c r="E141">
-        <v>32838503.983139992</v>
+        <v>11631548.457432184</v>
       </c>
       <c r="F141">
-        <v>6201.5447934997401</v>
+        <v>5923.1487613800618</v>
       </c>
       <c r="G141">
-        <v>5.3540003383881105</v>
+        <v>5.113651763991454</v>
       </c>
       <c r="H141">
-        <v>147.79403298576446</v>
+        <v>52.349323138345767</v>
       </c>
       <c r="I141" t="s">
         <v>40</v>
@@ -6346,22 +6346,22 @@
         <v>7152189</v>
       </c>
       <c r="C142">
-        <v>10506964556.986982</v>
+        <v>10445701214.324686</v>
       </c>
       <c r="D142">
-        <v>9071012.7341987621</v>
+        <v>9018122.0483669806</v>
       </c>
       <c r="E142">
-        <v>162645907.94026181</v>
+        <v>169739588.32473457</v>
       </c>
       <c r="F142">
-        <v>1469.0557753698879</v>
+        <v>1460.4900981118767</v>
       </c>
       <c r="G142">
-        <v>1.2682848194026699</v>
+        <v>1.2608897847032539</v>
       </c>
       <c r="H142">
-        <v>22.740717274146672</v>
+        <v>23.732536755493257</v>
       </c>
       <c r="I142" t="s">
         <v>24</v>
@@ -6387,22 +6387,22 @@
         <v>13610817</v>
       </c>
       <c r="C143">
-        <v>58652409882.993179</v>
+        <v>57736244002.330208</v>
       </c>
       <c r="D143">
-        <v>33418751.02748286</v>
+        <v>32840986.996123247</v>
       </c>
       <c r="E143">
-        <v>695950420.43518615</v>
+        <v>725225571.07163513</v>
       </c>
       <c r="F143">
-        <v>4309.249759437158</v>
+        <v>4241.9381586226755</v>
       </c>
       <c r="G143">
-        <v>2.4553082322305015</v>
+        <v>2.4128593453371128</v>
       </c>
       <c r="H143">
-        <v>51.132156169257591</v>
+        <v>53.283030039389637</v>
       </c>
       <c r="I143" t="s">
         <v>32</v>
@@ -6428,22 +6428,22 @@
         <v>5621453</v>
       </c>
       <c r="C144">
-        <v>5684271919.7832432</v>
+        <v>5613207792.6343374</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>557024539.90599418</v>
+        <v>523967172.29755771</v>
       </c>
       <c r="F144">
-        <v>1011.1748545764312</v>
+        <v>998.53326046385826</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>99.089068236627469</v>
+        <v>93.208494725039543</v>
       </c>
       <c r="I144" t="s">
         <v>15</v>
@@ -6469,7 +6469,7 @@
         <v>4776449</v>
       </c>
       <c r="C145">
-        <v>5417734423.6636906</v>
+        <v>5305072294.2163801</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>508919839.40061837</v>
       </c>
       <c r="F145">
-        <v>1134.259870389842</v>
+        <v>1110.6728647613279</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>2383346</v>
       </c>
       <c r="C146">
-        <v>2636355036.6267657</v>
+        <v>2649569848.8404336</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>256441285.96453649</v>
       </c>
       <c r="F146">
-        <v>1106.1570735540563</v>
+        <v>1111.7017205392895</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6551,22 +6551,22 @@
         <v>14585886</v>
       </c>
       <c r="C147">
-        <v>146392249196.88651</v>
+        <v>146416937571.41907</v>
       </c>
       <c r="D147">
-        <v>7046333.115594862</v>
+        <v>7093139.2579163872</v>
       </c>
       <c r="E147">
-        <v>150570820.70772916</v>
+        <v>142152984.31266299</v>
       </c>
       <c r="F147">
-        <v>10036.568858202136</v>
+        <v>10038.261479036588</v>
       </c>
       <c r="G147">
-        <v>0.48309256740350653</v>
+        <v>0.48630156974464128</v>
       </c>
       <c r="H147">
-        <v>10.32304933054661</v>
+        <v>9.7459272828995775</v>
       </c>
       <c r="I147" t="s">
         <v>18</v>
@@ -6592,22 +6592,22 @@
         <v>93260</v>
       </c>
       <c r="C148">
-        <v>130094975.29131168</v>
+        <v>128860909.37590754</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>10409132.809462368</v>
+        <v>10578091.096767589</v>
       </c>
       <c r="F148">
-        <v>1394.9707837369899</v>
+        <v>1381.7382519398193</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>111.61411976691366</v>
+        <v>113.42581060226881</v>
       </c>
       <c r="I148" t="s">
         <v>16</v>
@@ -6633,22 +6633,22 @@
         <v>2184313</v>
       </c>
       <c r="C149">
-        <v>2900496947.1264281</v>
+        <v>2895634600.7664504</v>
       </c>
       <c r="D149">
         <v>214620.25697716986</v>
       </c>
       <c r="E149">
-        <v>3455996.6990086655</v>
+        <v>3488600.4414521432</v>
       </c>
       <c r="F149">
-        <v>1327.8760631495707</v>
+        <v>1325.6500331071832</v>
       </c>
       <c r="G149">
         <v>9.8255266977383668E-2</v>
       </c>
       <c r="H149">
-        <v>1.5821893194833641</v>
+        <v>1.5971156338181127</v>
       </c>
       <c r="I149" t="s">
         <v>11</v>
@@ -6674,22 +6674,22 @@
         <v>1131899</v>
       </c>
       <c r="C150">
-        <v>2086674340.2625053</v>
+        <v>2279159523.4737415</v>
       </c>
       <c r="D150">
-        <v>156240.29170437515</v>
+        <v>158676.23645821604</v>
       </c>
       <c r="E150">
-        <v>2747104.8031988242</v>
+        <v>2856175.1124228579</v>
       </c>
       <c r="F150">
-        <v>1843.5163740426533</v>
+        <v>2013.571461299764</v>
       </c>
       <c r="G150">
-        <v>0.13803377483713225</v>
+        <v>0.14018586151080267</v>
       </c>
       <c r="H150">
-        <v>2.4269875697379573</v>
+        <v>2.5233480305423521</v>
       </c>
       <c r="I150" t="s">
         <v>18</v>
@@ -6797,22 +6797,22 @@
         <v>9975515</v>
       </c>
       <c r="C153">
-        <v>28321840697.925453</v>
+        <v>27798213035.860031</v>
       </c>
       <c r="D153">
-        <v>1734038.6377814848</v>
+        <v>1726774.4666442028</v>
       </c>
       <c r="E153">
-        <v>33045287.940479718</v>
+        <v>32468740.334353346</v>
       </c>
       <c r="F153">
-        <v>2839.1356935381737</v>
+        <v>2786.6444024052926</v>
       </c>
       <c r="G153">
-        <v>0.17382948527283903</v>
+        <v>0.17310128516113732</v>
       </c>
       <c r="H153">
-        <v>3.3126397925801041</v>
+        <v>3.2548435177886401</v>
       </c>
       <c r="I153" t="s">
         <v>11</v>
@@ -6838,22 +6838,22 @@
         <v>2161126</v>
       </c>
       <c r="C154">
-        <v>5395323255.0460415</v>
+        <v>5369149957.2001266</v>
       </c>
       <c r="D154">
-        <v>338077.71601952508</v>
+        <v>345673.93689425953</v>
       </c>
       <c r="E154">
-        <v>5513368.5526777394</v>
+        <v>5868258.6835834831</v>
       </c>
       <c r="F154">
-        <v>2496.5334066806108</v>
+        <v>2484.4224525548843</v>
       </c>
       <c r="G154">
-        <v>0.15643591165879503</v>
+        <v>0.15995084825885189</v>
       </c>
       <c r="H154">
-        <v>2.5511555331238158</v>
+        <v>2.7153709147839984</v>
       </c>
       <c r="I154" t="s">
         <v>11</v>
@@ -6879,22 +6879,22 @@
         <v>7465222</v>
       </c>
       <c r="C155">
-        <v>8265844841.2501507</v>
+        <v>8166131361.3769703</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>792586005.52361882</v>
+        <v>778631668.13484907</v>
       </c>
       <c r="F155">
-        <v>1107.2470237656898</v>
+        <v>1093.8899554999127</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>106.1704535409153</v>
+        <v>104.30120740345687</v>
       </c>
       <c r="I155" t="s">
         <v>26</v>
@@ -6920,22 +6920,22 @@
         <v>12442473</v>
       </c>
       <c r="C156">
-        <v>50619044397.958069</v>
+        <v>50415444958.014381</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>4186707202.1589308</v>
+        <v>4101050874.3888392</v>
       </c>
       <c r="F156">
-        <v>4068.2462721002544</v>
+        <v>4051.8830105570155</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>336.48513459976414</v>
+        <v>329.6009462418636</v>
       </c>
       <c r="I156" t="s">
         <v>18</v>
@@ -6961,22 +6961,22 @@
         <v>6659324</v>
       </c>
       <c r="C157">
-        <v>8979239181.6478844</v>
+        <v>8965682085.6413422</v>
       </c>
       <c r="D157">
-        <v>654376.4440569724</v>
+        <v>664804.29765628115</v>
       </c>
       <c r="E157">
-        <v>10780038.084939033</v>
+        <v>10420732.652367352</v>
       </c>
       <c r="F157">
-        <v>1348.3709730368855</v>
+        <v>1346.3351663984727</v>
       </c>
       <c r="G157">
-        <v>9.8264695343997732E-2</v>
+        <v>9.9830598069155535E-2</v>
       </c>
       <c r="H157">
-        <v>1.6187886465561718</v>
+        <v>1.5648334053677748</v>
       </c>
       <c r="I157" t="s">
         <v>36</v>
@@ -7002,22 +7002,22 @@
         <v>4935387</v>
       </c>
       <c r="C158">
-        <v>7117142261.4898701</v>
+        <v>7222535525.2929993</v>
       </c>
       <c r="D158">
-        <v>2897658.5735439397</v>
+        <v>2948524.2912095911</v>
       </c>
       <c r="E158">
-        <v>62820490.34730874</v>
+        <v>60555041.667665347</v>
       </c>
       <c r="F158">
-        <v>1442.0636642050299</v>
+        <v>1463.418274046797</v>
       </c>
       <c r="G158">
-        <v>0.58711881632462459</v>
+        <v>0.59742514441311112</v>
       </c>
       <c r="H158">
-        <v>12.72858447520098</v>
+        <v>12.26956298820444</v>
       </c>
       <c r="I158" t="s">
         <v>14</v>
@@ -7043,22 +7043,22 @@
         <v>8727176</v>
       </c>
       <c r="C159">
-        <v>11421464882.325718</v>
+        <v>11419000592.727285</v>
       </c>
       <c r="D159">
-        <v>855136.23088376923</v>
+        <v>840467.04736804799</v>
       </c>
       <c r="E159">
-        <v>13855881.845774967</v>
+        <v>13601481.878736233</v>
       </c>
       <c r="F159">
-        <v>1308.7240227910745</v>
+        <v>1308.4416531449904</v>
       </c>
       <c r="G159">
-        <v>9.7985445794122772E-2</v>
+        <v>9.630458322005285E-2</v>
       </c>
       <c r="H159">
-        <v>1.5876707248455821</v>
+        <v>1.5585204055396882</v>
       </c>
       <c r="I159" t="s">
         <v>11</v>
@@ -7084,22 +7084,22 @@
         <v>2169628</v>
       </c>
       <c r="C160">
-        <v>8584584078.3339901</v>
+        <v>8583615375.6504688</v>
       </c>
       <c r="D160">
-        <v>555770.46747655189</v>
+        <v>523105.71846845327</v>
       </c>
       <c r="E160">
-        <v>10741786.757523069</v>
+        <v>9770441.9836489055</v>
       </c>
       <c r="F160">
-        <v>3956.7078219556488</v>
+        <v>3956.2613386490534</v>
       </c>
       <c r="G160">
-        <v>0.25615933582925365</v>
+        <v>0.24110387516590553</v>
       </c>
       <c r="H160">
-        <v>4.9509808859044355</v>
+        <v>4.5032798173921549</v>
       </c>
       <c r="I160" t="s">
         <v>11</v>
@@ -7166,22 +7166,22 @@
         <v>10724956</v>
       </c>
       <c r="C162">
-        <v>10620056632.280073</v>
+        <v>10425469587.02766</v>
       </c>
       <c r="D162">
-        <v>3261765.6835613428</v>
+        <v>3207728.0127566252</v>
       </c>
       <c r="E162">
-        <v>2487305275.2294555</v>
+        <v>2418246669.3153625</v>
       </c>
       <c r="F162">
-        <v>990.21913304633358</v>
+        <v>972.07574436926927</v>
       </c>
       <c r="G162">
-        <v>0.30412858416960803</v>
+        <v>0.29909008603453713</v>
       </c>
       <c r="H162">
-        <v>231.9175272354922</v>
+        <v>225.47846996438611</v>
       </c>
       <c r="I162" t="s">
         <v>37</v>
@@ -7207,22 +7207,22 @@
         <v>5178428</v>
       </c>
       <c r="C163">
-        <v>19875657958.687317</v>
+        <v>19980480085.140694</v>
       </c>
       <c r="D163">
-        <v>1232925.5332846274</v>
+        <v>1221995.1603264823</v>
       </c>
       <c r="E163">
-        <v>20035578.243300565</v>
+        <v>20045330.697291009</v>
       </c>
       <c r="F163">
-        <v>3838.1643924927248</v>
+        <v>3858.4064672021495</v>
       </c>
       <c r="G163">
-        <v>0.23808876618244521</v>
+        <v>0.2359780150127572</v>
       </c>
       <c r="H163">
-        <v>3.869046406226091</v>
+        <v>3.8709296908812885</v>
       </c>
       <c r="I163" t="s">
         <v>18</v>
@@ -7248,22 +7248,22 @@
         <v>3910602</v>
       </c>
       <c r="C164">
-        <v>24286922579.402706</v>
+        <v>24158847589.511581</v>
       </c>
       <c r="D164">
-        <v>1413616.5339252795</v>
+        <v>1421985.7958612321</v>
       </c>
       <c r="E164">
-        <v>24278048.08501314</v>
+        <v>23864242.948842369</v>
       </c>
       <c r="F164">
-        <v>6210.5329510399433</v>
+        <v>6177.7822415862265</v>
       </c>
       <c r="G164">
-        <v>0.36148310002533612</v>
+        <v>0.36362324671782814</v>
       </c>
       <c r="H164">
-        <v>6.2082636087776617</v>
+        <v>6.102447385042602</v>
       </c>
       <c r="I164" t="s">
         <v>12</v>
@@ -7289,22 +7289,22 @@
         <v>7463219</v>
       </c>
       <c r="C165">
-        <v>35632498840.84864</v>
+        <v>35862686411.744858</v>
       </c>
       <c r="D165">
-        <v>2123357.2751112944</v>
+        <v>2200971.0106013315</v>
       </c>
       <c r="E165">
-        <v>37234874.367517248</v>
+        <v>37768465.224384777</v>
       </c>
       <c r="F165">
-        <v>4774.4142093175396</v>
+        <v>4805.2571432976656</v>
       </c>
       <c r="G165">
-        <v>0.2845095762446867</v>
+        <v>0.29490907483772505</v>
       </c>
       <c r="H165">
-        <v>4.9891172116907256</v>
+        <v>5.0606132855520896</v>
       </c>
       <c r="I165" t="s">
         <v>35</v>
@@ -7330,22 +7330,22 @@
         <v>2584028</v>
       </c>
       <c r="C166">
-        <v>12432825577.412834</v>
+        <v>12326394440.129141</v>
       </c>
       <c r="D166">
-        <v>759687.51816099219</v>
+        <v>771933.34572621109</v>
       </c>
       <c r="E166">
-        <v>12715206.677337125</v>
+        <v>12701073.870002463</v>
       </c>
       <c r="F166">
-        <v>4811.4128706859346</v>
+        <v>4770.2247963757127</v>
       </c>
       <c r="G166">
-        <v>0.29399353186613775</v>
+        <v>0.29873257786920693</v>
       </c>
       <c r="H166">
-        <v>4.9206922979693424</v>
+        <v>4.9152230045504393</v>
       </c>
       <c r="I166" t="s">
         <v>21</v>
@@ -7371,22 +7371,22 @@
         <v>5184267</v>
       </c>
       <c r="C167">
-        <v>6026776425.0285912</v>
+        <v>6052041161.5600872</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>573328541.26179194</v>
+        <v>581990123.3983084</v>
       </c>
       <c r="F167">
-        <v>1162.5127380647236</v>
+        <v>1167.3860859327051</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>110.59008752091509</v>
+        <v>112.2608313573179</v>
       </c>
       <c r="I167" t="s">
         <v>38</v>
@@ -7412,19 +7412,19 @@
         <v>4104611</v>
       </c>
       <c r="C168">
-        <v>12886845542.978453</v>
+        <v>12787535470.864618</v>
       </c>
       <c r="D168">
-        <v>713821.82619293011</v>
+        <v>714910.72294082458</v>
       </c>
       <c r="E168">
         <v>14428829.484429255</v>
       </c>
       <c r="F168">
-        <v>3139.6021554730651</v>
+        <v>3115.4073969164479</v>
       </c>
       <c r="G168">
-        <v>0.1739073023467827</v>
+        <v>0.17417258856949527</v>
       </c>
       <c r="H168">
         <v>3.5152733071244158</v>
@@ -7453,22 +7453,22 @@
         <v>5491581</v>
       </c>
       <c r="C169">
-        <v>18063080162.013489</v>
+        <v>18193718922.610939</v>
       </c>
       <c r="D169">
-        <v>1076598.40418173</v>
+        <v>1089204.8459812249</v>
       </c>
       <c r="E169">
-        <v>17729970.754746933</v>
+        <v>17889888.804999016</v>
       </c>
       <c r="F169">
-        <v>3289.2313091646083</v>
+        <v>3313.0202254343403</v>
       </c>
       <c r="G169">
-        <v>0.19604525621705843</v>
+        <v>0.19834085047297398</v>
       </c>
       <c r="H169">
-        <v>3.2285731112309795</v>
+        <v>3.2576936960410885</v>
       </c>
       <c r="I169" t="s">
         <v>18</v>
@@ -7494,7 +7494,7 @@
         <v>1299004</v>
       </c>
       <c r="C170">
-        <v>1518524233.896852</v>
+        <v>1518334891.7230492</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>144278736.43758133</v>
       </c>
       <c r="F170">
-        <v>1168.99119163363</v>
+        <v>1168.8454321334261</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -7535,22 +7535,22 @@
         <v>2477354</v>
       </c>
       <c r="C171">
-        <v>2995113567.9064379</v>
+        <v>3050350208.7238903</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>284663242.26212734</v>
+        <v>295382202.56321412</v>
       </c>
       <c r="F171">
-        <v>1208.9970056384504</v>
+        <v>1231.2936337414396</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>114.90616289078079</v>
+        <v>119.23294069527977</v>
       </c>
       <c r="I171" t="s">
         <v>15</v>
@@ -7576,22 +7576,22 @@
         <v>3250811</v>
       </c>
       <c r="C172">
-        <v>10667953187.849194</v>
+        <v>10925233515.455673</v>
       </c>
       <c r="D172">
-        <v>714170.98500738386</v>
+        <v>755749.08654561965</v>
       </c>
       <c r="E172">
-        <v>11818960.157403491</v>
+        <v>11500956.300113961</v>
       </c>
       <c r="F172">
-        <v>3281.6282422599143</v>
+        <v>3360.7716706556221</v>
       </c>
       <c r="G172">
-        <v>0.21969009733490624</v>
+        <v>0.23248016773218119</v>
       </c>
       <c r="H172">
-        <v>3.6356958793985537</v>
+        <v>3.5378729492775682</v>
       </c>
       <c r="I172" t="s">
         <v>21</v>
@@ -7617,22 +7617,22 @@
         <v>602999</v>
       </c>
       <c r="C173">
-        <v>861083591.2955054</v>
+        <v>876963912.347718</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>81839583.508090928</v>
+        <v>84921243.225410223</v>
       </c>
       <c r="F173">
-        <v>1428.0016903767757</v>
+        <v>1454.3372581840401</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
-        <v>135.72092741130737</v>
+        <v>140.83148268141443</v>
       </c>
       <c r="I173" t="s">
         <v>37</v>
@@ -7661,7 +7661,7 @@
         <v>18582229037.965981</v>
       </c>
       <c r="D174">
-        <v>1081499.1944933962</v>
+        <v>876813.02018039476</v>
       </c>
       <c r="E174">
         <v>12226858.55359629</v>
@@ -7670,7 +7670,7 @@
         <v>4054.4171564546696</v>
       </c>
       <c r="G174">
-        <v>0.23597001629282999</v>
+        <v>0.19130997388736068</v>
       </c>
       <c r="H174">
         <v>2.667752344886154</v>
@@ -7699,22 +7699,22 @@
         <v>12498933</v>
       </c>
       <c r="C175">
-        <v>70598878377.982941</v>
+        <v>70603922934.736328</v>
       </c>
       <c r="D175">
-        <v>4035599.4731404739</v>
+        <v>4055465.1239535492</v>
       </c>
       <c r="E175">
-        <v>73463965.90983744</v>
+        <v>76137002.877174169</v>
       </c>
       <c r="F175">
-        <v>5648.3924170153514</v>
+        <v>5648.7960160068324</v>
       </c>
       <c r="G175">
-        <v>0.32287551850549756</v>
+        <v>0.32446490624068064</v>
       </c>
       <c r="H175">
-        <v>5.8776189863436699</v>
+        <v>6.0914801989237137</v>
       </c>
       <c r="I175" t="s">
         <v>29</v>
@@ -7740,22 +7740,22 @@
         <v>13439341</v>
       </c>
       <c r="C176">
-        <v>15531924169.306095</v>
+        <v>15105662691.280113</v>
       </c>
       <c r="D176">
-        <v>1131131.091551784</v>
+        <v>1097776.6923288633</v>
       </c>
       <c r="E176">
-        <v>20568751.895263888</v>
+        <v>19511186.579168767</v>
       </c>
       <c r="F176">
-        <v>1155.7057871592137</v>
+        <v>1123.9883481846405</v>
       </c>
       <c r="G176">
-        <v>8.4165666423062252E-2</v>
+        <v>8.1683818598610097E-2</v>
       </c>
       <c r="H176">
-        <v>1.530488131468938</v>
+        <v>1.4517963774539813</v>
       </c>
       <c r="I176" t="s">
         <v>37</v>
@@ -7781,22 +7781,22 @@
         <v>14171621</v>
       </c>
       <c r="C177">
-        <v>78222345652.821045</v>
+        <v>78296181136.799957</v>
       </c>
       <c r="D177">
-        <v>4977129.755814922</v>
+        <v>5066269.9569673399</v>
       </c>
       <c r="E177">
-        <v>84488360.821266845</v>
+        <v>83653410.756396711</v>
       </c>
       <c r="F177">
-        <v>5519.6470222299231</v>
+        <v>5524.8571166841084</v>
       </c>
       <c r="G177">
-        <v>0.3512039840618742</v>
+        <v>0.35749403381358702</v>
       </c>
       <c r="H177">
-        <v>5.9617993468260861</v>
+        <v>5.9028822995193497</v>
       </c>
       <c r="I177" t="s">
         <v>31</v>
@@ -7822,22 +7822,22 @@
         <v>1940463</v>
       </c>
       <c r="C178">
-        <v>10293955010.040094</v>
+        <v>10266595288.886259</v>
       </c>
       <c r="D178">
-        <v>619256.15879474033</v>
+        <v>602722.67876512592</v>
       </c>
       <c r="E178">
-        <v>10502533.998061985</v>
+        <v>10278918.421266159</v>
       </c>
       <c r="F178">
-        <v>5304.8963108495727</v>
+        <v>5290.7967268050252</v>
       </c>
       <c r="G178">
-        <v>0.3191280425314682</v>
+        <v>0.31060766361694397</v>
       </c>
       <c r="H178">
-        <v>5.4123855997573695</v>
+        <v>5.2971473412614198</v>
       </c>
       <c r="I178" t="s">
         <v>32</v>
@@ -7863,22 +7863,22 @@
         <v>825950</v>
       </c>
       <c r="C179">
-        <v>1149168110.3168855</v>
+        <v>1147422996.7629929</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>101151933.99479468</v>
+        <v>101658931.87196769</v>
       </c>
       <c r="F179">
-        <v>1391.3289064917797</v>
+        <v>1389.2160503214393</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>122.46738179647035</v>
+        <v>123.08121783639166</v>
       </c>
       <c r="I179" t="s">
         <v>24</v>
@@ -7904,22 +7904,22 @@
         <v>166824</v>
       </c>
       <c r="C180">
-        <v>448567995.39237118</v>
+        <v>444353475.03682202</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>38720498.092561334</v>
+        <v>38865552.372459792</v>
       </c>
       <c r="F180">
-        <v>2688.8696793768954</v>
+        <v>2663.6064057738818</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>232.10388249029717</v>
+        <v>232.97338735709366</v>
       </c>
       <c r="I180" t="s">
         <v>36</v>
@@ -8027,22 +8027,22 @@
         <v>334348.61</v>
       </c>
       <c r="C183">
-        <v>1434359105.2761424</v>
+        <v>1418685819.4807439</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>122145686.28092997</v>
+        <v>124068833.48149748</v>
       </c>
       <c r="F183">
-        <v>4290.0106726214372</v>
+        <v>4243.1335948450451</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <v>365.3243429991528</v>
+        <v>371.07626522358652</v>
       </c>
       <c r="I183" t="s">
         <v>35</v>
@@ -8109,22 +8109,22 @@
         <v>11106837</v>
       </c>
       <c r="C185">
-        <v>18263142973.661293</v>
+        <v>18265024826.869141</v>
       </c>
       <c r="D185">
-        <v>1379434.6294000295</v>
+        <v>1376086.8387690091</v>
       </c>
       <c r="E185">
-        <v>28316041.726716772</v>
+        <v>27738152.910544947</v>
       </c>
       <c r="F185">
-        <v>1644.3153864292142</v>
+        <v>1644.4848183933141</v>
       </c>
       <c r="G185">
-        <v>0.1241968914642422</v>
+        <v>0.1238954743613334</v>
       </c>
       <c r="H185">
-        <v>2.5494244425048076</v>
+        <v>2.4973944346662282</v>
       </c>
       <c r="I185" t="s">
         <v>17</v>

--- a/r_map/data_boot_cq_remov_As.xlsx
+++ b/r_map/data_boot_cq_remov_As.xlsx
@@ -621,22 +621,22 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>24084085054.395599</v>
+        <v>24489996600.256199</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22231463127.134399</v>
+        <v>22606150707.928799</v>
       </c>
       <c r="F2">
-        <v>10909.38639420578</v>
+        <v>11093.252457029472</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10070.20282542072</v>
+        <v>10239.925344950281</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -662,22 +662,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>28725172243.036083</v>
+        <v>28833183897.761299</v>
       </c>
       <c r="D3">
-        <v>9792645.9537288211</v>
+        <v>9854737.1703961194</v>
       </c>
       <c r="E3">
-        <v>1262675422.019866</v>
+        <v>1243418097.686188</v>
       </c>
       <c r="F3">
-        <v>4366.410932520861</v>
+        <v>4382.8293987372372</v>
       </c>
       <c r="G3">
-        <v>1.4885451682899415</v>
+        <v>1.4979834325752093</v>
       </c>
       <c r="H3">
-        <v>191.93478529165489</v>
+        <v>189.0075481356773</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -703,22 +703,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>17324025912.205154</v>
+        <v>17224152901.928009</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1391015883.1042614</v>
+        <v>1378131505.3227663</v>
       </c>
       <c r="F4">
-        <v>6354.2134608349943</v>
+        <v>6317.5814199056367</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>510.2054160764813</v>
+        <v>505.47960423871558</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -744,22 +744,22 @@
         <v>4273045</v>
       </c>
       <c r="C5">
-        <v>11245172191.265604</v>
+        <v>11239927186.545147</v>
       </c>
       <c r="D5">
-        <v>96681.636721838266</v>
+        <v>92153.44931317649</v>
       </c>
       <c r="E5">
-        <v>373288.17267109652</v>
+        <v>5622821.0805375474</v>
       </c>
       <c r="F5">
-        <v>2631.6531165165834</v>
+        <v>2630.4256534965457</v>
       </c>
       <c r="G5">
-        <v>2.2625934602101841E-2</v>
+        <v>2.1566224861469162E-2</v>
       </c>
       <c r="H5">
-        <v>8.7358820857514147E-2</v>
+        <v>1.3158815506360328</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
@@ -785,22 +785,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>13655701243.278927</v>
+        <v>13652446499.577663</v>
       </c>
       <c r="D6">
-        <v>5553346.3904867377</v>
+        <v>5558920.8417965584</v>
       </c>
       <c r="E6">
-        <v>37889530.28885334</v>
+        <v>36710033.366120897</v>
       </c>
       <c r="F6">
-        <v>8238.5200524384145</v>
+        <v>8236.5564571040777</v>
       </c>
       <c r="G6">
-        <v>3.3503483110162073</v>
+        <v>3.3537113919799113</v>
       </c>
       <c r="H6">
-        <v>22.858852101485958</v>
+        <v>22.147258542385263</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -867,22 +867,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>1769889477.8403218</v>
+        <v>1987137849.9748826</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>43931226.827977769</v>
+        <v>44257353.159159079</v>
       </c>
       <c r="F8">
-        <v>1282.0297303442949</v>
+        <v>1439.3948514055637</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>31.82183949287688</v>
+        <v>32.058070996401455</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -990,22 +990,22 @@
         <v>4446401</v>
       </c>
       <c r="C11">
-        <v>2691701652.8573742</v>
+        <v>2692070893.540638</v>
       </c>
       <c r="D11">
-        <v>22674.179976261199</v>
+        <v>22992.957766145584</v>
       </c>
       <c r="E11">
-        <v>633290.30524580798</v>
+        <v>648508.00204469054</v>
       </c>
       <c r="F11">
-        <v>605.36637448070337</v>
+        <v>605.44941707701082</v>
       </c>
       <c r="G11">
-        <v>5.0994455912233734E-3</v>
+        <v>5.1711390327020849E-3</v>
       </c>
       <c r="H11">
-        <v>0.14242761848196056</v>
+        <v>0.14585009360259918</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1031,22 +1031,22 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>2720343030.3016195</v>
+        <v>2715457364.590549</v>
       </c>
       <c r="D12">
         <v>201265.78030415569</v>
       </c>
       <c r="E12">
-        <v>3240951.6331375781</v>
+        <v>3271526.6485445364</v>
       </c>
       <c r="F12">
-        <v>1306.6404172180137</v>
+        <v>1304.2937248295932</v>
       </c>
       <c r="G12">
         <v>9.6672368234079945E-2</v>
       </c>
       <c r="H12">
-        <v>1.5567001466123029</v>
+        <v>1.5713859970520416</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -1072,22 +1072,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>46878237326.868652</v>
+        <v>46968515290.252274</v>
       </c>
       <c r="D13">
-        <v>2720489.7893451401</v>
+        <v>2700823.9641635939</v>
       </c>
       <c r="E13">
-        <v>49963061.815552928</v>
+        <v>48674876.024166927</v>
       </c>
       <c r="F13">
-        <v>5254.2508944071787</v>
+        <v>5264.3695144087415</v>
       </c>
       <c r="G13">
-        <v>0.30492050733954318</v>
+        <v>0.30271630373801039</v>
       </c>
       <c r="H13">
-        <v>5.6000071078019289</v>
+        <v>5.45562345064012</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1113,22 +1113,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>21964382630.995605</v>
+        <v>20161181030.934799</v>
       </c>
       <c r="D14">
-        <v>1506558.1321452581</v>
+        <v>1412019.0302062831</v>
       </c>
       <c r="E14">
-        <v>25188141.551777869</v>
+        <v>22567290.031669635</v>
       </c>
       <c r="F14">
-        <v>2836.2313633114486</v>
+        <v>2603.3863515309363</v>
       </c>
       <c r="G14">
-        <v>0.1945398373734582</v>
+        <v>0.18233212953648789</v>
       </c>
       <c r="H14">
-        <v>3.2525110426671926</v>
+        <v>2.9140839898884039</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1154,22 +1154,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>1535770106.4398494</v>
+        <v>1578660899.6987636</v>
       </c>
       <c r="D15">
-        <v>627778.84940103535</v>
+        <v>644675.6840937438</v>
       </c>
       <c r="E15">
-        <v>17124422.89582013</v>
+        <v>17413391.690223299</v>
       </c>
       <c r="F15">
-        <v>803.06155867454584</v>
+        <v>825.48936029853871</v>
       </c>
       <c r="G15">
-        <v>0.32826857300380324</v>
+        <v>0.33710400895095038</v>
       </c>
       <c r="H15">
-        <v>8.954442910728714</v>
+        <v>9.1055460800563583</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1195,22 +1195,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>5451974913.9165936</v>
+        <v>5431201123.4855385</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>266498096.42852059</v>
+        <v>271422792.20203656</v>
       </c>
       <c r="F16">
-        <v>1451.8490692935154</v>
+        <v>1446.3170540551403</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>70.96786382501692</v>
+        <v>72.279299605303095</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1236,22 +1236,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>20966952535.028568</v>
+        <v>21020307129.563248</v>
       </c>
       <c r="D17">
-        <v>1295882.1695413685</v>
+        <v>1331816.8478260359</v>
       </c>
       <c r="E17">
-        <v>23906810.141185366</v>
+        <v>22996063.134943668</v>
       </c>
       <c r="F17">
-        <v>2287.8017385705202</v>
+        <v>2293.6235066092108</v>
       </c>
       <c r="G17">
-        <v>0.14139973253176638</v>
+        <v>0.1453207324633152</v>
       </c>
       <c r="H17">
-        <v>2.6085832794872927</v>
+        <v>2.5092074364411152</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1318,22 +1318,22 @@
         <v>8636016</v>
       </c>
       <c r="C19">
-        <v>10688021111.05851</v>
+        <v>10512543632.97612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10698719.830889408</v>
+        <v>10523066.699675804</v>
       </c>
       <c r="F19">
-        <v>1237.6101562408535</v>
+        <v>1217.290893506464</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.2388490052461005</v>
+        <v>1.2185094029093744</v>
       </c>
       <c r="I19" t="s">
         <v>66</v>
@@ -1482,22 +1482,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>8270802065.1552162</v>
+        <v>8271913517.961319</v>
       </c>
       <c r="D23">
-        <v>637452.41239992226</v>
+        <v>635984.62500593159</v>
       </c>
       <c r="E23">
-        <v>11481189.580204129</v>
+        <v>11418158.029344831</v>
       </c>
       <c r="F23">
-        <v>2120.2406086308283</v>
+        <v>2120.5255323124143</v>
       </c>
       <c r="G23">
-        <v>0.163412505848021</v>
+        <v>0.16303623491165237</v>
       </c>
       <c r="H23">
-        <v>2.9432314050766837</v>
+        <v>2.9270731107898582</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1523,22 +1523,22 @@
         <v>602337</v>
       </c>
       <c r="C24">
-        <v>4058271745.1912971</v>
+        <v>4013303200.6501651</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>291524.3202157715</v>
+        <v>276618.29622177442</v>
       </c>
       <c r="F24">
-        <v>6737.5435100139903</v>
+        <v>6662.8867239604488</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.48398873091935496</v>
+        <v>0.45924174709801063</v>
       </c>
       <c r="I24" t="s">
         <v>67</v>
@@ -1564,22 +1564,22 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>28875175612.199844</v>
+        <v>28781098159.300163</v>
       </c>
       <c r="D25">
-        <v>116834.36160429018</v>
+        <v>114611.18057391993</v>
       </c>
       <c r="E25">
-        <v>1511761.623560363</v>
+        <v>1526570.1952233054</v>
       </c>
       <c r="F25">
-        <v>5818.4653112159467</v>
+        <v>5799.5083218761811</v>
       </c>
       <c r="G25">
-        <v>2.3542598988225954E-2</v>
+        <v>2.3094618969697604E-2</v>
       </c>
       <c r="H25">
-        <v>0.30462611495935221</v>
+        <v>0.30761010237077702</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -1605,22 +1605,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>54190334857.671921</v>
+        <v>54580062511.950897</v>
       </c>
       <c r="D26">
-        <v>2383294.6620287038</v>
+        <v>2320547.4612050559</v>
       </c>
       <c r="E26">
-        <v>979013937.86304283</v>
+        <v>969079639.08558893</v>
       </c>
       <c r="F26">
-        <v>5560.9078146610773</v>
+        <v>5600.9009160870346</v>
       </c>
       <c r="G26">
-        <v>0.24456910896610071</v>
+        <v>0.23813011204303719</v>
       </c>
       <c r="H26">
-        <v>100.46452512285876</v>
+        <v>99.445086511714976</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1646,22 +1646,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>14969767752.852083</v>
+        <v>14975912064.915358</v>
       </c>
       <c r="D27">
-        <v>748357.16366952064</v>
+        <v>752038.02917805105</v>
       </c>
       <c r="E27">
-        <v>11324158.732303407</v>
+        <v>15894254.131264089</v>
       </c>
       <c r="F27">
-        <v>6044.900844260862</v>
+        <v>6047.3819620572031</v>
       </c>
       <c r="G27">
-        <v>0.30219205302050678</v>
+        <v>0.30367841322244693</v>
       </c>
       <c r="H27">
-        <v>4.5727774680006599</v>
+        <v>6.4182151522470816</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1687,22 +1687,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>2267519036.921483</v>
+        <v>2250154229.4896998</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1088931.8249983927</v>
+        <v>1080592.7146581728</v>
       </c>
       <c r="F28">
-        <v>2881.2625312221826</v>
+        <v>2859.1976364184711</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1.3836701766715538</v>
+        <v>1.373073940972636</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1728,22 +1728,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>48499496310.807343</v>
+        <v>49081981956.660088</v>
       </c>
       <c r="D29">
-        <v>2831680.633689411</v>
+        <v>2821343.6065483675</v>
       </c>
       <c r="E29">
-        <v>53906337.887803584</v>
+        <v>52864085.854758069</v>
       </c>
       <c r="F29">
-        <v>3773.7092602112648</v>
+        <v>3819.0320293717523</v>
       </c>
       <c r="G29">
-        <v>0.22033093623971184</v>
+        <v>0.21952661994753381</v>
       </c>
       <c r="H29">
-        <v>4.1944115288873896</v>
+        <v>4.1133146836052781</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -1769,22 +1769,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>7507769930.9832964</v>
+        <v>7470792919.4183025</v>
       </c>
       <c r="D30">
-        <v>444328.66596587637</v>
+        <v>440524.91901181679</v>
       </c>
       <c r="E30">
-        <v>9167506.087215431</v>
+        <v>8611198.945022773</v>
       </c>
       <c r="F30">
-        <v>6487.3712993141708</v>
+        <v>6455.4199201741158</v>
       </c>
       <c r="G30">
-        <v>0.38393891415796938</v>
+        <v>0.38065214337963416</v>
       </c>
       <c r="H30">
-        <v>7.9215288192375555</v>
+        <v>7.4408306863645004</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -1810,22 +1810,22 @@
         <v>2981276</v>
       </c>
       <c r="C31">
-        <v>3505300236.9058681</v>
+        <v>3477689206.3445797</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>335596481.01736379</v>
+        <v>342261400.97078192</v>
       </c>
       <c r="F31">
-        <v>1175.7717960047537</v>
+        <v>1166.5103151618903</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>112.5680685107195</v>
+        <v>114.80366157671477</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -1851,7 +1851,7 @@
         <v>1265697</v>
       </c>
       <c r="C32">
-        <v>1527314314.6308203</v>
+        <v>1544717970.9979706</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>146663003.46559694</v>
       </c>
       <c r="F32">
-        <v>1206.6982181602866</v>
+        <v>1220.448473053164</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>5057931</v>
       </c>
       <c r="C33">
-        <v>5443861302.6611805</v>
+        <v>5311754563.0026836</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>501394781.2376163</v>
+        <v>505280050.17979574</v>
       </c>
       <c r="F33">
-        <v>1076.302010181867</v>
+        <v>1050.1832790923174</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>99.130411474102019</v>
+        <v>99.89856527892448</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -1933,22 +1933,22 @@
         <v>1796131</v>
       </c>
       <c r="C34">
-        <v>1506270060.5635018</v>
+        <v>1499530435.1363122</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>812373950.28770173</v>
+        <v>810614826.24436069</v>
       </c>
       <c r="F34">
-        <v>838.61926583500974</v>
+        <v>834.86696412250126</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>452.29103572495643</v>
+        <v>451.31163943184583</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -1974,22 +1974,22 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>2512715658.0683813</v>
+        <v>2515848719.9861727</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>243195715.29706374</v>
+        <v>234431905.73680916</v>
       </c>
       <c r="F35">
-        <v>1059.3088958156911</v>
+        <v>1060.6297298503741</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>102.52627821664527</v>
+        <v>98.831637560189577</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -2015,22 +2015,22 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>4489665471.2668705</v>
+        <v>4508218083.8773832</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>367532852.7788564</v>
+        <v>370154004.01378584</v>
       </c>
       <c r="F36">
-        <v>919.81644735233351</v>
+        <v>923.61739829839371</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>75.297984914881212</v>
+        <v>75.834991075432782</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -2056,22 +2056,22 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>12238184487.247147</v>
+        <v>12238060891.277275</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1074279.8312301342</v>
+        <v>1083383.763712059</v>
       </c>
       <c r="F37">
-        <v>1187.5037527140908</v>
+        <v>1187.4917598667698</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.10424024350835739</v>
+        <v>0.10512362241133169</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -2138,22 +2138,22 @@
         <v>1542905</v>
       </c>
       <c r="C39">
-        <v>1948575153.9346781</v>
+        <v>1973348953.4852076</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1697510.6432464623</v>
+        <v>1756156.0983418184</v>
       </c>
       <c r="F39">
-        <v>1262.926203450425</v>
+        <v>1278.9827976999281</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1.100204253175965</v>
+        <v>1.1382140172867534</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -2179,22 +2179,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>2569417882.5435553</v>
+        <v>2550820752.5756292</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>250556494.21877462</v>
+        <v>243288785.78138909</v>
       </c>
       <c r="F40">
-        <v>1157.4303740444218</v>
+        <v>1149.0530356437016</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>112.86669202123426</v>
+        <v>109.59285067674975</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -2220,22 +2220,22 @@
         <v>1928627</v>
       </c>
       <c r="C41">
-        <v>3201981180.6726303</v>
+        <v>3230753809.155364</v>
       </c>
       <c r="D41">
-        <v>148421.94291058066</v>
+        <v>151846.16684913301</v>
       </c>
       <c r="E41">
-        <v>3259708.8427953627</v>
+        <v>3270357.7737774346</v>
       </c>
       <c r="F41">
-        <v>1660.2386986558988</v>
+        <v>1675.1574094707603</v>
       </c>
       <c r="G41">
-        <v>7.6957308443042979E-2</v>
+        <v>7.8732780806829425E-2</v>
       </c>
       <c r="H41">
-        <v>1.6901706980122972</v>
+        <v>1.695692206827673</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -2261,22 +2261,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>4831420321.9977627</v>
+        <v>4875621766.9265242</v>
       </c>
       <c r="D42">
-        <v>316489.95452590793</v>
+        <v>314561.53142368811</v>
       </c>
       <c r="E42">
-        <v>5690500.1419025389</v>
+        <v>5785439.0734929657</v>
       </c>
       <c r="F42">
-        <v>4528.415016419126</v>
+        <v>4569.8443422948885</v>
       </c>
       <c r="G42">
-        <v>0.29664110491390849</v>
+        <v>0.29483362397619306</v>
       </c>
       <c r="H42">
-        <v>5.3336171510888795</v>
+        <v>5.4226019329550752</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -2302,22 +2302,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>23949006529.14537</v>
+        <v>23248743056.92078</v>
       </c>
       <c r="D43">
-        <v>2529707.4730565455</v>
+        <v>2485014.924821429</v>
       </c>
       <c r="E43">
-        <v>40884548.335904568</v>
+        <v>40676083.722384669</v>
       </c>
       <c r="F43">
-        <v>4583.4068295681564</v>
+        <v>4449.3890623933339</v>
       </c>
       <c r="G43">
-        <v>0.48414027090044531</v>
+        <v>0.47558692525070628</v>
       </c>
       <c r="H43">
-        <v>7.824563321177628</v>
+        <v>7.7846669633822598</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -2343,22 +2343,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>11653119842.442392</v>
+        <v>11921392476.921392</v>
       </c>
       <c r="D44">
         <v>525973.2243517146</v>
       </c>
       <c r="E44">
-        <v>184229204.47491419</v>
+        <v>180409507.52298641</v>
       </c>
       <c r="F44">
-        <v>3893.5126528479159</v>
+        <v>3983.147266657732</v>
       </c>
       <c r="G44">
         <v>0.17573692125038662</v>
       </c>
       <c r="H44">
-        <v>61.554223104672431</v>
+        <v>60.277995054720584</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
@@ -2384,7 +2384,7 @@
         <v>229494</v>
       </c>
       <c r="C45">
-        <v>3404398468.507092</v>
+        <v>3121548602.2258654</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>201045801.08225164</v>
       </c>
       <c r="F45">
-        <v>14834.368081549374</v>
+        <v>13601.874568511008</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2425,22 +2425,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>71903629356.3965</v>
+        <v>71775382952.187073</v>
       </c>
       <c r="D46">
-        <v>2873909.9740055166</v>
+        <v>2848905.7637050329</v>
       </c>
       <c r="E46">
-        <v>45836477.982696459</v>
+        <v>52371647.029190309</v>
       </c>
       <c r="F46">
-        <v>8018.8263792461948</v>
+        <v>8004.5241019018795</v>
       </c>
       <c r="G46">
-        <v>0.32050378148379349</v>
+        <v>0.31771526548057588</v>
       </c>
       <c r="H46">
-        <v>5.1117692120597571</v>
+        <v>5.8405834097842044</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -2466,22 +2466,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>3958474469.5957994</v>
+        <v>3949718361.5115972</v>
       </c>
       <c r="D47">
-        <v>294923.18681676965</v>
+        <v>279960.12118841632</v>
       </c>
       <c r="E47">
-        <v>4635379.7884834651</v>
+        <v>4562334.3595697796</v>
       </c>
       <c r="F47">
-        <v>2745.9619978854876</v>
+        <v>2739.8879559197571</v>
       </c>
       <c r="G47">
-        <v>0.20458584980512087</v>
+        <v>0.19420609116251422</v>
       </c>
       <c r="H47">
-        <v>3.2155257897221659</v>
+        <v>3.1648547614114269</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
@@ -2507,22 +2507,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>3962031790.8396912</v>
+        <v>3951419443.8792462</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>322619041.64019978</v>
+        <v>321406520.95256484</v>
       </c>
       <c r="F48">
-        <v>2400.7352364388275</v>
+        <v>2394.3048399568611</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>195.48629140292812</v>
+        <v>194.75158222001684</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -2551,19 +2551,19 @@
         <v>17621599176.992424</v>
       </c>
       <c r="D49">
-        <v>1196889.1331427954</v>
+        <v>1245327.9657646788</v>
       </c>
       <c r="E49">
-        <v>16547050.10476597</v>
+        <v>16476991.227370419</v>
       </c>
       <c r="F49">
         <v>3535.4586514256666</v>
       </c>
       <c r="G49">
-        <v>0.24013439405045445</v>
+        <v>0.24985277931945965</v>
       </c>
       <c r="H49">
-        <v>3.3198696021216385</v>
+        <v>3.3058135416183063</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -2589,22 +2589,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>3539700608.7681851</v>
+        <v>3560806596.9486723</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>35754551.603719078</v>
+        <v>35967743.403521977</v>
       </c>
       <c r="F50">
-        <v>6963.4596149474946</v>
+        <v>7004.9802723625089</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>70.337975908560622</v>
+        <v>70.757376488510261</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>680056035.17564094</v>
+        <v>686278595.23291004</v>
       </c>
       <c r="F51">
         <v>3674.3889696418164</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>324.82211969838022</v>
+        <v>327.79426470291736</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
@@ -2671,7 +2671,7 @@
         <v>1408704</v>
       </c>
       <c r="C52">
-        <v>2436393852.4678712</v>
+        <v>2436598786.1753078</v>
       </c>
       <c r="D52">
         <v>29385.018716114049</v>
@@ -2680,7 +2680,7 @@
         <v>640515.51818949019</v>
       </c>
       <c r="F52">
-        <v>1729.5285968293347</v>
+        <v>1729.6740735990725</v>
       </c>
       <c r="G52">
         <v>2.0859611895837626E-2</v>
@@ -2712,22 +2712,22 @@
         <v>53291</v>
       </c>
       <c r="C53">
-        <v>434981155.54322457</v>
+        <v>435105911.41174793</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>294638.8548907545</v>
+        <v>307111.99632300436</v>
       </c>
       <c r="F53">
-        <v>8162.3755520298846</v>
+        <v>8164.7165827578374</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5.5288670674364244</v>
+        <v>5.7629242521815005</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -2753,22 +2753,22 @@
         <v>860420</v>
       </c>
       <c r="C54">
-        <v>1207790692.3582563</v>
+        <v>1223966460.5594831</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>580017.94094365952</v>
+        <v>587786.03836701205</v>
       </c>
       <c r="F54">
-        <v>1403.7222430420682</v>
+        <v>1422.5220945113817</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.67411024958004173</v>
+        <v>0.683138511851203</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
@@ -2794,22 +2794,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>203216146.09261373</v>
+        <v>203140433.13711226</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>19527327.267273139</v>
+        <v>19424900.235408995</v>
       </c>
       <c r="F55">
-        <v>827.53849699924558</v>
+        <v>827.23017806591383</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>79.519346114392974</v>
+        <v>79.102241894916645</v>
       </c>
       <c r="I55" t="s">
         <v>19</v>
@@ -2835,22 +2835,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>11326321099.975052</v>
+        <v>11177424521.968887</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>7037112.3721619686</v>
+        <v>6937177.8630586751</v>
       </c>
       <c r="F56">
-        <v>1192.0933696475122</v>
+        <v>1176.4220301333303</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.74065488045692407</v>
+        <v>0.73013679036840651</v>
       </c>
       <c r="I56" t="s">
         <v>19</v>
@@ -2876,22 +2876,22 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>3010179903.9195833</v>
+        <v>3010182782.1678658</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>163009403.84953147</v>
+        <v>164398331.06601894</v>
       </c>
       <c r="F57">
-        <v>1191.6473694351546</v>
+        <v>1191.6485088544266</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>64.530936186755</v>
+        <v>65.080774241852325</v>
       </c>
       <c r="I57" t="s">
         <v>19</v>
@@ -2917,22 +2917,22 @@
         <v>1081826</v>
       </c>
       <c r="C58">
-        <v>1235021651.2162621</v>
+        <v>1244468245.3963287</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>120463099.57829593</v>
+        <v>117930638.8755379</v>
       </c>
       <c r="F58">
-        <v>1141.6084021055717</v>
+        <v>1150.3404848804971</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>111.35164026220107</v>
+        <v>109.01072711835165</v>
       </c>
       <c r="I58" t="s">
         <v>19</v>
@@ -2958,22 +2958,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>213831751.02937439</v>
+        <v>211252485.89195526</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>125335420.57236961</v>
+        <v>123942642.25674765</v>
       </c>
       <c r="F59">
-        <v>852.84012232081011</v>
+        <v>842.55305884821962</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>499.88402048574198</v>
+        <v>494.32910535577315</v>
       </c>
       <c r="I59" t="s">
         <v>19</v>
@@ -2999,22 +2999,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>1068739870.100029</v>
+        <v>1064794578.2608924</v>
       </c>
       <c r="D60">
-        <v>76786.125852752331</v>
+        <v>77264.92509570712</v>
       </c>
       <c r="E60">
-        <v>4328234.1764972638</v>
+        <v>4295156.9555213274</v>
       </c>
       <c r="F60">
-        <v>1423.4396890046537</v>
+        <v>1418.1850099703554</v>
       </c>
       <c r="G60">
-        <v>0.10227036733782933</v>
+        <v>0.1029080733545642</v>
       </c>
       <c r="H60">
-        <v>5.7647145788207004</v>
+        <v>5.7206594907151924</v>
       </c>
       <c r="I60" t="s">
         <v>19</v>
@@ -3040,22 +3040,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>14307832138.629021</v>
+        <v>14591181900.135393</v>
       </c>
       <c r="D61">
-        <v>120313.69861429452</v>
+        <v>122026.66884379188</v>
       </c>
       <c r="E61">
-        <v>3085238.6666464601</v>
+        <v>3067975.1089854501</v>
       </c>
       <c r="F61">
-        <v>2049.470944187075</v>
+        <v>2090.058302049752</v>
       </c>
       <c r="G61">
-        <v>1.7233877718760029E-2</v>
+        <v>1.7479245617935613E-2</v>
       </c>
       <c r="H61">
-        <v>0.44193326717210657</v>
+        <v>0.43946041457803581</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
@@ -3084,7 +3084,7 @@
         <v>2780855900.3529949</v>
       </c>
       <c r="D62">
-        <v>23452.502151345703</v>
+        <v>23603.757397077701</v>
       </c>
       <c r="E62">
         <v>480582.68120560166</v>
@@ -3093,7 +3093,7 @@
         <v>1269.1348307038816</v>
       </c>
       <c r="G62">
-        <v>1.0703318839229436E-2</v>
+        <v>1.0772349133341685E-2</v>
       </c>
       <c r="H62">
         <v>0.21932967460617661</v>
@@ -3122,22 +3122,22 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>448782990.35703844</v>
+        <v>451341199.58545798</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>43913976.05025629</v>
+        <v>42758639.960727632</v>
       </c>
       <c r="F63">
-        <v>1167.9422834476381</v>
+        <v>1174.5999349005156</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>114.28461097110038</v>
+        <v>111.2778885695226</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
@@ -3163,22 +3163,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>7231609686.1196499</v>
+        <v>7139515010.2669907</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>591788103.0834316</v>
+        <v>581548462.80490065</v>
       </c>
       <c r="F64">
-        <v>5804.3585493454493</v>
+        <v>5730.439941685996</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>474.99111326850027</v>
+        <v>466.7723976335854</v>
       </c>
       <c r="I64" t="s">
         <v>21</v>
@@ -3204,22 +3204,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>14225175860.656483</v>
+        <v>14381725332.281834</v>
       </c>
       <c r="D65">
-        <v>367101.01485302666</v>
+        <v>382215.471865931</v>
       </c>
       <c r="E65">
-        <v>6223167.9144730754</v>
+        <v>6645393.5634330548</v>
       </c>
       <c r="F65">
-        <v>6997.9957499232478</v>
+        <v>7075.0093874218837</v>
       </c>
       <c r="G65">
-        <v>0.18059329226566309</v>
+        <v>0.18802876490760351</v>
       </c>
       <c r="H65">
-        <v>3.0614526697690692</v>
+        <v>3.2691642176524685</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
@@ -3245,22 +3245,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>102560209126.08945</v>
+        <v>103482865392.88374</v>
       </c>
       <c r="D66">
-        <v>336113.23107649526</v>
+        <v>339016.15826078801</v>
       </c>
       <c r="E66">
-        <v>7051237.0478832219</v>
+        <v>7385059.1860379092</v>
       </c>
       <c r="F66">
-        <v>9021.9157620876977</v>
+        <v>9103.079082514887</v>
       </c>
       <c r="G66">
-        <v>2.9566878647518998E-2</v>
+        <v>2.9822240495386967E-2</v>
       </c>
       <c r="H66">
-        <v>0.62027629630029391</v>
+        <v>0.6496416343355248</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
@@ -3286,22 +3286,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>40427161909.183289</v>
+        <v>40451815849.988182</v>
       </c>
       <c r="D67">
-        <v>677492.29353909276</v>
+        <v>695827.34452549601</v>
       </c>
       <c r="E67">
-        <v>10697913.478866214</v>
+        <v>10584853.048705131</v>
       </c>
       <c r="F67">
-        <v>5094.646592104179</v>
+        <v>5097.7534912673145</v>
       </c>
       <c r="G67">
-        <v>8.5377841071542879E-2</v>
+        <v>8.7688431293873492E-2</v>
       </c>
       <c r="H67">
-        <v>1.3481551974923724</v>
+        <v>1.333907278320704</v>
       </c>
       <c r="I67" t="s">
         <v>21</v>
@@ -3327,22 +3327,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>24122224772.984505</v>
+        <v>24613333923.611794</v>
       </c>
       <c r="D68">
-        <v>1578227.1373827737</v>
+        <v>1603069.6429381643</v>
       </c>
       <c r="E68">
-        <v>27247405.240598585</v>
+        <v>29004867.832941998</v>
       </c>
       <c r="F68">
-        <v>10486.897922153052</v>
+        <v>10700.402753474897</v>
       </c>
       <c r="G68">
-        <v>0.6861185916085486</v>
+        <v>0.69691862445550512</v>
       </c>
       <c r="H68">
-        <v>11.845539127954259</v>
+        <v>12.609578555550868</v>
       </c>
       <c r="I68" t="s">
         <v>21</v>
@@ -3368,22 +3368,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>74231591885.317963</v>
+        <v>73611594322.377594</v>
       </c>
       <c r="D69">
-        <v>4559202.7649497855</v>
+        <v>4675667.1749607865</v>
       </c>
       <c r="E69">
-        <v>74493975.90593183</v>
+        <v>73739129.242610037</v>
       </c>
       <c r="F69">
-        <v>6181.7680547866257</v>
+        <v>6130.1366532325337</v>
       </c>
       <c r="G69">
-        <v>0.3796757322839503</v>
+        <v>0.38937451350418673</v>
       </c>
       <c r="H69">
-        <v>6.2036185515296181</v>
+        <v>6.1407573509131206</v>
       </c>
       <c r="I69" t="s">
         <v>21</v>
@@ -3409,22 +3409,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>7622968415.1623592</v>
+        <v>7831622029.8645515</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>76999680.961236015</v>
+        <v>79107293.230955124</v>
       </c>
       <c r="F70">
-        <v>1241.1605273761222</v>
+        <v>1275.1332026331261</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>12.536975024001245</v>
+        <v>12.880133359930575</v>
       </c>
       <c r="I70" t="s">
         <v>21</v>
@@ -3450,22 +3450,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>7500535335.9659824</v>
+        <v>7527166073.5232315</v>
       </c>
       <c r="D71">
-        <v>472202.38479086955</v>
+        <v>483002.98474431667</v>
       </c>
       <c r="E71">
-        <v>7659426.0038327836</v>
+        <v>7722280.3914778195</v>
       </c>
       <c r="F71">
-        <v>5039.7170810469652</v>
+        <v>5057.6106548968992</v>
       </c>
       <c r="G71">
-        <v>0.31727954309212925</v>
+        <v>0.32453662083829149</v>
       </c>
       <c r="H71">
-        <v>5.1464779957016189</v>
+        <v>5.1887107586771481</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
@@ -3491,22 +3491,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>3314489121.308856</v>
+        <v>3440741837.2213078</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>2163197.3649057955</v>
+        <v>2243857.7180894311</v>
       </c>
       <c r="F72">
-        <v>6319.2225897150593</v>
+        <v>6559.9290712291067</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>4.1242330730374421</v>
+        <v>4.2780156643440455</v>
       </c>
       <c r="I72" t="s">
         <v>21</v>
@@ -3532,22 +3532,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>183843286.1080156</v>
+        <v>179090122.99702141</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>15514977.060196647</v>
+        <v>15169741.667464793</v>
       </c>
       <c r="F73">
-        <v>3803.9952431876432</v>
+        <v>3705.6451198456703</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>321.0283072316135</v>
+        <v>313.88486555618351</v>
       </c>
       <c r="I73" t="s">
         <v>21</v>
@@ -3573,22 +3573,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>731093633.7423408</v>
+        <v>728565335.08546758</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>7384784.1792155709</v>
+        <v>7359245.8089441229</v>
       </c>
       <c r="F74">
-        <v>1816.0523277575517</v>
+        <v>1809.7719794558193</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>18.343962906641952</v>
+        <v>18.280525045008293</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -3614,22 +3614,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>2676734823.4967365</v>
+        <v>2645786747.5979028</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>258317163.92078033</v>
+        <v>244467026.35251579</v>
       </c>
       <c r="F75">
-        <v>2002.7495256348429</v>
+        <v>1979.5939841214959</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>193.27449733322882</v>
+        <v>182.91173887044494</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -3655,22 +3655,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>7651358692.7949467</v>
+        <v>7599389262.9590216</v>
       </c>
       <c r="D76">
-        <v>4625.8815328909914</v>
+        <v>4565.1386504929842</v>
       </c>
       <c r="E76">
-        <v>75448.855476131866</v>
+        <v>75815.583923315717</v>
       </c>
       <c r="F76">
-        <v>5671.155615407496</v>
+        <v>5632.6360876115941</v>
       </c>
       <c r="G76">
-        <v>3.4286843794381818E-3</v>
+        <v>3.3836620046628517E-3</v>
       </c>
       <c r="H76">
-        <v>5.5922381578118616E-2</v>
+        <v>5.6194199195888229E-2</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -3696,22 +3696,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>3163993060.1687188</v>
+        <v>3192762492.5543375</v>
       </c>
       <c r="D77">
-        <v>1834.2466183359309</v>
+        <v>1881.4338058798328</v>
       </c>
       <c r="E77">
-        <v>31526.813769388526</v>
+        <v>32506.970236140241</v>
       </c>
       <c r="F77">
-        <v>6096.4197139237576</v>
+        <v>6151.8530007289855</v>
       </c>
       <c r="G77">
-        <v>3.5342483474426018E-3</v>
+        <v>3.6251691854206477E-3</v>
       </c>
       <c r="H77">
-        <v>6.0746242272305788E-2</v>
+        <v>6.2634819488817245E-2</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -3737,22 +3737,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>23135723403.910488</v>
+        <v>23646683697.896523</v>
       </c>
       <c r="D78">
-        <v>1475770.0860712058</v>
+        <v>1438024.1027030603</v>
       </c>
       <c r="E78">
-        <v>24854596.326713815</v>
+        <v>23952403.846733488</v>
       </c>
       <c r="F78">
-        <v>5458.7915776347518</v>
+        <v>5579.3508400628853</v>
       </c>
       <c r="G78">
-        <v>0.34820269830029038</v>
+        <v>0.33929666789431023</v>
       </c>
       <c r="H78">
-        <v>5.8643535248543186</v>
+        <v>5.6514844208655663</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -3778,22 +3778,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>1516782762.9677911</v>
+        <v>1521224272.8482666</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>127438816.63877365</v>
+        <v>130533727.13729861</v>
       </c>
       <c r="F79">
-        <v>831.02322703869061</v>
+        <v>833.45666573796427</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>69.821875115411331</v>
+        <v>71.517531588226063</v>
       </c>
       <c r="I79" t="s">
         <v>23</v>
@@ -3819,22 +3819,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>8788598255.2799206</v>
+        <v>8893542799.3895168</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>621703946.19983077</v>
+        <v>614890667.08296311</v>
       </c>
       <c r="F80">
-        <v>1004.4211011993856</v>
+        <v>1016.4148812650635</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>71.052577911032131</v>
+        <v>70.273909787337701</v>
       </c>
       <c r="I80" t="s">
         <v>23</v>
@@ -3860,22 +3860,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>1363028938.3428123</v>
+        <v>1364838265.9483676</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>119426786.02409518</v>
+        <v>117490035.6628886</v>
       </c>
       <c r="F81">
-        <v>1373.780141732007</v>
+        <v>1375.6037408240566</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>120.36879219178812</v>
+        <v>118.41676526787499</v>
       </c>
       <c r="I81" t="s">
         <v>23</v>
@@ -3901,22 +3901,22 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>2001619247.9168961</v>
+        <v>2018428188.2764771</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>191966321.89624342</v>
+        <v>192563294.64324358</v>
       </c>
       <c r="F82">
-        <v>1131.1663672914863</v>
+        <v>1140.6655305436154</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>108.48509136173999</v>
+        <v>108.82245597006845</v>
       </c>
       <c r="I82" t="s">
         <v>23</v>
@@ -3942,22 +3942,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>41796060459.810249</v>
+        <v>41370309914.250351</v>
       </c>
       <c r="D83">
-        <v>2495092.9211392542</v>
+        <v>2499655.8536928324</v>
       </c>
       <c r="E83">
-        <v>44390023.663516656</v>
+        <v>44853813.390008837</v>
       </c>
       <c r="F83">
-        <v>2588.0642742448936</v>
+        <v>2561.7012686270946</v>
       </c>
       <c r="G83">
-        <v>0.15449927048342565</v>
+        <v>0.15478181296704224</v>
       </c>
       <c r="H83">
-        <v>2.7486857161311145</v>
+        <v>2.7774041553498154</v>
       </c>
       <c r="I83" t="s">
         <v>23</v>
@@ -3983,22 +3983,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>3639422053.7706709</v>
+        <v>3617656293.9563112</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>311845536.54818577</v>
+        <v>310058541.7209028</v>
       </c>
       <c r="F84">
-        <v>2015.0165012710299</v>
+        <v>2002.9655864442661</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>172.65760681459778</v>
+        <v>171.66821234166753</v>
       </c>
       <c r="I84" t="s">
         <v>23</v>
@@ -4024,22 +4024,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>34190184557.820847</v>
+        <v>35983210095.498779</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>2791070635.1691484</v>
+        <v>2902922458.3730502</v>
       </c>
       <c r="F85">
-        <v>6277.4148055895394</v>
+        <v>6606.6193770941109</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>512.44848061661696</v>
+        <v>532.98479242929318</v>
       </c>
       <c r="I85" t="s">
         <v>23</v>
@@ -4065,22 +4065,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>4050470915.7318854</v>
+        <v>4103347360.1450768</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>337401222.6591754</v>
+        <v>342017952.83504051</v>
       </c>
       <c r="F86">
-        <v>1927.5556133800994</v>
+        <v>1952.7186843821316</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>160.56395274239068</v>
+        <v>162.76098226095522</v>
       </c>
       <c r="I86" t="s">
         <v>23</v>
@@ -4106,22 +4106,22 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>2247943779.3052149</v>
+        <v>2212970747.8359938</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>8136291.2739081532</v>
+        <v>7999528.5615859302</v>
       </c>
       <c r="F87">
-        <v>1292.6653662855556</v>
+        <v>1272.5543533009472</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>4.6787210768425709</v>
+        <v>4.6000765736989671</v>
       </c>
       <c r="I87" t="s">
         <v>23</v>
@@ -4147,19 +4147,19 @@
         <v>205407</v>
       </c>
       <c r="C88">
-        <v>330666585.89536315</v>
+        <v>330703903.22554272</v>
       </c>
       <c r="D88">
-        <v>28674.611721862228</v>
+        <v>25616.881583638613</v>
       </c>
       <c r="E88">
         <v>512997.13194747537</v>
       </c>
       <c r="F88">
-        <v>1609.8116709526118</v>
+        <v>1609.9933460181139</v>
       </c>
       <c r="G88">
-        <v>0.13959899965367406</v>
+        <v>0.12471279743941839</v>
       </c>
       <c r="H88">
         <v>2.4974666488847768</v>
@@ -4188,22 +4188,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>617436472.3641032</v>
+        <v>620977504.70795727</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>59915905.199438155</v>
+        <v>60261107.761904046</v>
       </c>
       <c r="F89">
-        <v>1232.7132311472365</v>
+        <v>1239.7829097580184</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>119.62223224797785</v>
+        <v>120.3114298986257</v>
       </c>
       <c r="I89" t="s">
         <v>23</v>
@@ -4229,22 +4229,22 @@
         <v>869762</v>
       </c>
       <c r="C90">
-        <v>980997619.44132614</v>
+        <v>1001830753.2158638</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>94154942.253754854</v>
+        <v>96747328.930967778</v>
       </c>
       <c r="F90">
-        <v>1127.8920203933101</v>
+        <v>1151.8447037417866</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>108.25368578272546</v>
+        <v>111.23425595848954</v>
       </c>
       <c r="I90" t="s">
         <v>23</v>
@@ -4270,22 +4270,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>381691261.57640505</v>
+        <v>388782577.25401372</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>382073.33491131675</v>
+        <v>389171.74900301703</v>
       </c>
       <c r="F91">
-        <v>1338.5818548266679</v>
+        <v>1363.4509242774359</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1.3399217766032725</v>
+        <v>1.3648157400174543</v>
       </c>
       <c r="I91" t="s">
         <v>23</v>
@@ -4311,22 +4311,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>10306200173.33569</v>
+        <v>9866665874.7085228</v>
       </c>
       <c r="D92">
-        <v>31449.542728661498</v>
+        <v>30148.901559055612</v>
       </c>
       <c r="E92">
-        <v>21256494.321570184</v>
+        <v>20366583.931891818</v>
       </c>
       <c r="F92">
-        <v>1480.8652495316801</v>
+        <v>1417.7099587487353</v>
       </c>
       <c r="G92">
-        <v>4.5188851523599843E-3</v>
+        <v>4.3320001435511353E-3</v>
       </c>
       <c r="H92">
-        <v>3.0542783216185723</v>
+        <v>2.9264099172495781</v>
       </c>
       <c r="I92" t="s">
         <v>24</v>
@@ -4352,22 +4352,22 @@
         <v>3030017</v>
       </c>
       <c r="C93">
-        <v>3476253866.5666261</v>
+        <v>3431918342.5688868</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>301154.44841388759</v>
+        <v>309210.6391194922</v>
       </c>
       <c r="F93">
-        <v>1147.2720669773887</v>
+        <v>1132.6399629338339</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>9.9390349431665762E-2</v>
+        <v>0.10204914332807116</v>
       </c>
       <c r="I93" t="s">
         <v>24</v>
@@ -4393,22 +4393,22 @@
         <v>296202</v>
       </c>
       <c r="C94">
-        <v>251704628.60142598</v>
+        <v>249729934.59957761</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>21160890.988823816</v>
+        <v>20904301.067113638</v>
       </c>
       <c r="F94">
-        <v>849.77356196590836</v>
+        <v>843.10684802795936</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>71.440743103773158</v>
+        <v>70.574476428631939</v>
       </c>
       <c r="I94" t="s">
         <v>24</v>
@@ -4434,22 +4434,22 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>1466804466.9325058</v>
+        <v>1461004671.9422305</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>124410263.91093293</v>
+        <v>129968289.3290226</v>
       </c>
       <c r="F95">
-        <v>907.75017942833563</v>
+        <v>904.16090419652505</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>76.992838468818576</v>
+        <v>80.432491595243306</v>
       </c>
       <c r="I95" t="s">
         <v>25</v>
@@ -4475,22 +4475,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>1930497541.6629069</v>
+        <v>1982186077.4178047</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1932429.9716345433</v>
+        <v>1984170.2476654719</v>
       </c>
       <c r="F96">
-        <v>1789.0283368946273</v>
+        <v>1836.9290739649521</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1.7908191560506797</v>
+        <v>1.8387678418067606</v>
       </c>
       <c r="I96" t="s">
         <v>26</v>
@@ -4516,22 +4516,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>4161333520.5031772</v>
+        <v>4112350317.6711011</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>4165499.0195227037</v>
+        <v>4116466.7844555606</v>
       </c>
       <c r="F97">
-        <v>1195.7652213664128</v>
+        <v>1181.6898270032493</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1.196962183549964</v>
+        <v>1.1828726997029535</v>
       </c>
       <c r="I97" t="s">
         <v>26</v>
@@ -4557,22 +4557,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>1715912420.1090355</v>
+        <v>1696989833.7599251</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>164053514.63788977</v>
+        <v>162464987.48001394</v>
       </c>
       <c r="F98">
-        <v>1208.335418998337</v>
+        <v>1195.0102451510427</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>115.52551868324839</v>
+        <v>114.40688721557702</v>
       </c>
       <c r="I98" t="s">
         <v>26</v>
@@ -4598,22 +4598,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>1933751887.8516459</v>
+        <v>1939368627.2343976</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>165288661.04114181</v>
+        <v>160840678.8342343</v>
       </c>
       <c r="F99">
-        <v>949.29173840939654</v>
+        <v>952.04903334797757</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>81.141309474519645</v>
+        <v>78.957765252463147</v>
       </c>
       <c r="I99" t="s">
         <v>26</v>
@@ -4639,22 +4639,22 @@
         <v>233500</v>
       </c>
       <c r="C100">
-        <v>118348616.48992199</v>
+        <v>108642531.42007363</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>11457490.089074763</v>
+        <v>11187095.552819559</v>
       </c>
       <c r="F100">
-        <v>506.84632329731045</v>
+        <v>465.27850715234956</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>49.068480038864081</v>
+        <v>47.910473459612675</v>
       </c>
       <c r="I100" t="s">
         <v>26</v>
@@ -4680,22 +4680,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>16884653164.630434</v>
+        <v>16669873438.517078</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1623564716.9471681</v>
+        <v>1618819257.4674749</v>
       </c>
       <c r="F101">
-        <v>1052.5225568994369</v>
+        <v>1039.1340374969457</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>101.20660877728764</v>
+        <v>100.91079558547793</v>
       </c>
       <c r="I101" t="s">
         <v>26</v>
@@ -4721,22 +4721,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>2459838355.9744148</v>
+        <v>2468534161.484621</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>236714282.81548595</v>
+        <v>237316435.32301199</v>
       </c>
       <c r="F102">
-        <v>1160.614258174571</v>
+        <v>1164.7171602359792</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>111.68781521027653</v>
+        <v>111.97192606826559</v>
       </c>
       <c r="I102" t="s">
         <v>26</v>
@@ -4762,22 +4762,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>8489858782.8574467</v>
+        <v>8492220241.7741547</v>
       </c>
       <c r="D103">
-        <v>522785.132842099</v>
+        <v>528478.4374166833</v>
       </c>
       <c r="E103">
-        <v>8750060.4343596734</v>
+        <v>8904834.8907506615</v>
       </c>
       <c r="F103">
-        <v>1888.5738011655624</v>
+        <v>1889.0991090130412</v>
       </c>
       <c r="G103">
-        <v>0.116293843134119</v>
+        <v>0.11756032189856283</v>
       </c>
       <c r="H103">
-        <v>1.9464558030475445</v>
+        <v>1.9808854668270968</v>
       </c>
       <c r="I103" t="s">
         <v>26</v>
@@ -4803,22 +4803,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>240486197.46465242</v>
+        <v>237789715.80722567</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>214350.26559381955</v>
+        <v>209554.79156749876</v>
       </c>
       <c r="F104">
-        <v>1190.6671954323901</v>
+        <v>1177.3166901375691</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>1.0612660196945158</v>
+        <v>1.0375232283414799</v>
       </c>
       <c r="I104" t="s">
         <v>26</v>
@@ -4844,22 +4844,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>7054903540.1686211</v>
+        <v>7017736718.912837</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>662936983.09148192</v>
+        <v>669613027.88754392</v>
       </c>
       <c r="F105">
-        <v>1069.7793055556833</v>
+        <v>1064.1434671623813</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>100.52529582592064</v>
+        <v>101.5376264021115</v>
       </c>
       <c r="I105" t="s">
         <v>26</v>
@@ -4885,22 +4885,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>8195382754.7501106</v>
+        <v>8253795070.810832</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>787060079.79759908</v>
+        <v>785553748.15321136</v>
       </c>
       <c r="F106">
-        <v>1068.112796664426</v>
+        <v>1075.7257348436831</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>102.57836249176785</v>
+        <v>102.38204071479427</v>
       </c>
       <c r="I106" t="s">
         <v>26</v>
@@ -5008,22 +5008,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>3718027449.2192726</v>
+        <v>3790910749.2447119</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>360915448.62370592</v>
+        <v>359628320.39409292</v>
       </c>
       <c r="F109">
-        <v>1201.2694491516777</v>
+        <v>1224.8175490163787</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>116.60933333065357</v>
+        <v>116.19347093036401</v>
       </c>
       <c r="I109" t="s">
         <v>10</v>
@@ -5049,22 +5049,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>729501899.4311105</v>
+        <v>730100444.61627245</v>
       </c>
       <c r="D110">
-        <v>48310.182869564887</v>
+        <v>46830.816674482121</v>
       </c>
       <c r="E110">
-        <v>789620.31572691584</v>
+        <v>812502.86416082992</v>
       </c>
       <c r="F110">
-        <v>5421.9112981419912</v>
+        <v>5426.3598936897324</v>
       </c>
       <c r="G110">
-        <v>0.35905804566110644</v>
+        <v>0.34806288266912022</v>
       </c>
       <c r="H110">
-        <v>5.8687322328027811</v>
+        <v>6.0388032744009896</v>
       </c>
       <c r="I110" t="s">
         <v>27</v>
@@ -5090,22 +5090,22 @@
         <v>265550</v>
       </c>
       <c r="C111">
-        <v>1027313742.7304285</v>
+        <v>981818106.60556722</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>70220.877584519156</v>
+        <v>67900.61184134733</v>
       </c>
       <c r="F111">
-        <v>3868.6264083239635</v>
+        <v>3697.3003449654198</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0.26443561508009472</v>
+        <v>0.25569802990528084</v>
       </c>
       <c r="I111" t="s">
         <v>27</v>
@@ -5131,22 +5131,22 @@
         <v>10172252</v>
       </c>
       <c r="C112">
-        <v>5451316163.0673904</v>
+        <v>5500177068.9175529</v>
       </c>
       <c r="D112">
         <v>45937.514029499915</v>
       </c>
       <c r="E112">
-        <v>1378314.8956058519</v>
+        <v>1379645.4683812773</v>
       </c>
       <c r="F112">
-        <v>535.90062093107701</v>
+        <v>540.70397281915086</v>
       </c>
       <c r="G112">
         <v>4.5159630364544562E-3</v>
       </c>
       <c r="H112">
-        <v>0.1354975177183825</v>
+        <v>0.13562832186828219</v>
       </c>
       <c r="I112" t="s">
         <v>65</v>
@@ -5172,22 +5172,22 @@
         <v>9007455</v>
       </c>
       <c r="C113">
-        <v>4157611001.5772815</v>
+        <v>4159551111.0608377</v>
       </c>
       <c r="D113">
-        <v>35467.697687230277</v>
+        <v>35762.210004917841</v>
       </c>
       <c r="E113">
-        <v>1072789.0875287117</v>
+        <v>1115785.0457609496</v>
       </c>
       <c r="F113">
-        <v>461.57444045818505</v>
+        <v>461.7898297644382</v>
       </c>
       <c r="G113">
-        <v>3.9375936585006842E-3</v>
+        <v>3.9702901657480208E-3</v>
       </c>
       <c r="H113">
-        <v>0.11910013289311039</v>
+        <v>0.1238735076401658</v>
       </c>
       <c r="I113" t="s">
         <v>65</v>
@@ -5213,22 +5213,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>3045613240.6526937</v>
+        <v>3050303206.2384729</v>
       </c>
       <c r="D114">
-        <v>191592.98964081565</v>
+        <v>194246.46618651188</v>
       </c>
       <c r="E114">
-        <v>3534191.7298061764</v>
+        <v>3399599.9878448639</v>
       </c>
       <c r="F114">
-        <v>5729.9960691161659</v>
+        <v>5738.8197385210988</v>
       </c>
       <c r="G114">
-        <v>0.36046174965959132</v>
+        <v>0.36545398241369931</v>
       </c>
       <c r="H114">
-        <v>6.6492043208192646</v>
+        <v>6.3959843314654812</v>
       </c>
       <c r="I114" t="s">
         <v>28</v>
@@ -5254,22 +5254,22 @@
         <v>387114</v>
       </c>
       <c r="C115">
-        <v>532282466.34649348</v>
+        <v>525247896.30667204</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>5376590.5691565052</v>
+        <v>5305534.3061280055</v>
       </c>
       <c r="F115">
-        <v>1375.0018504794284</v>
+        <v>1356.8300198563525</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>13.888907580600302</v>
+        <v>13.705353735922765</v>
       </c>
       <c r="I115" t="s">
         <v>28</v>
@@ -5295,22 +5295,22 @@
         <v>439947</v>
       </c>
       <c r="C116">
-        <v>609021807.31616402</v>
+        <v>600973060.96396804</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>6151735.4274360053</v>
+        <v>6070434.9592320053</v>
       </c>
       <c r="F116">
-        <v>1384.3072172697257</v>
+        <v>1366.0124082309187</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>13.982901184542696</v>
+        <v>13.798105133645656</v>
       </c>
       <c r="I116" t="s">
         <v>28</v>
@@ -5336,22 +5336,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>9526414666.0270329</v>
+        <v>9517120204.7612762</v>
       </c>
       <c r="D117">
-        <v>621458.84968614881</v>
+        <v>610445.13094280136</v>
       </c>
       <c r="E117">
-        <v>10399630.896546958</v>
+        <v>10480046.475706635</v>
       </c>
       <c r="F117">
-        <v>6622.4641404428448</v>
+        <v>6616.0029230179189</v>
       </c>
       <c r="G117">
-        <v>0.43201866505815001</v>
+        <v>0.4243622738566572</v>
       </c>
       <c r="H117">
-        <v>7.2294966260319482</v>
+        <v>7.2853990098760066</v>
       </c>
       <c r="I117" t="s">
         <v>29</v>
@@ -5377,22 +5377,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>24728469493.023682</v>
+        <v>24521415801.257233</v>
       </c>
       <c r="D118">
-        <v>1431811.5629700418</v>
+        <v>1412046.1714744794</v>
       </c>
       <c r="E118">
-        <v>23563881.278821319</v>
+        <v>25008431.342752829</v>
       </c>
       <c r="F118">
-        <v>5076.2666444875749</v>
+        <v>5033.7626088282486</v>
       </c>
       <c r="G118">
-        <v>0.29392264977607863</v>
+        <v>0.28986520507281999</v>
       </c>
       <c r="H118">
-        <v>4.837199673198203</v>
+        <v>5.133737285762404</v>
       </c>
       <c r="I118" t="s">
         <v>29</v>
@@ -5418,22 +5418,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>8653347033.4791927</v>
+        <v>8601930274.6590767</v>
       </c>
       <c r="D119">
-        <v>520302.02425968717</v>
+        <v>515371.70710437046</v>
       </c>
       <c r="E119">
-        <v>9761610.547326114</v>
+        <v>9673236.0946677085</v>
       </c>
       <c r="F119">
-        <v>5222.3101525164775</v>
+        <v>5191.280048146813</v>
       </c>
       <c r="G119">
-        <v>0.31400318664600707</v>
+        <v>0.31102773157229735</v>
       </c>
       <c r="H119">
-        <v>5.8911491321198808</v>
+        <v>5.8378149945248561</v>
       </c>
       <c r="I119" t="s">
         <v>29</v>
@@ -5459,22 +5459,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>25957941803.981209</v>
+        <v>26163951445.606499</v>
       </c>
       <c r="D120">
-        <v>538112.64193499333</v>
+        <v>552550.910229131</v>
       </c>
       <c r="E120">
-        <v>9768758.837526422</v>
+        <v>9830594.5976914503</v>
       </c>
       <c r="F120">
-        <v>6358.3243467886587</v>
+        <v>6408.7858252028836</v>
       </c>
       <c r="G120">
-        <v>0.13180916801367035</v>
+        <v>0.13534578095137259</v>
       </c>
       <c r="H120">
-        <v>2.3928298176947438</v>
+        <v>2.4079763120635378</v>
       </c>
       <c r="I120" t="s">
         <v>29</v>
@@ -5500,22 +5500,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>34584482957.168396</v>
+        <v>35064774718.339584</v>
       </c>
       <c r="D121">
-        <v>2145535.5184387863</v>
+        <v>2187938.883678956</v>
       </c>
       <c r="E121">
-        <v>41916686.211881489</v>
+        <v>42566490.47321298</v>
       </c>
       <c r="F121">
-        <v>4515.5881133435951</v>
+        <v>4578.2983111617168</v>
       </c>
       <c r="G121">
-        <v>0.28013588336183431</v>
+        <v>0.28567235855741302</v>
       </c>
       <c r="H121">
-        <v>5.4729310322071276</v>
+        <v>5.557773948670631</v>
       </c>
       <c r="I121" t="s">
         <v>29</v>
@@ -5541,22 +5541,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>2729751714.0316796</v>
+        <v>2714609505.4594865</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>220077355.55226123</v>
+        <v>219364430.63715208</v>
       </c>
       <c r="F122">
-        <v>5452.6331103443254</v>
+        <v>5422.3868035465048</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>439.60081407878317</v>
+        <v>438.17675855852042</v>
       </c>
       <c r="I122" t="s">
         <v>30</v>
@@ -5582,22 +5582,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>20699548417.438133</v>
+        <v>20593790763.520386</v>
       </c>
       <c r="D123">
-        <v>1145566.1557197177</v>
+        <v>1131243.5228330777</v>
       </c>
       <c r="E123">
-        <v>19470385.064979173</v>
+        <v>18884158.77288555</v>
       </c>
       <c r="F123">
-        <v>5779.3008338116388</v>
+        <v>5749.7733636879966</v>
       </c>
       <c r="G123">
-        <v>0.31984134655613661</v>
+        <v>0.31584247650762848</v>
       </c>
       <c r="H123">
-        <v>5.4361192027683103</v>
+        <v>5.2724451925737297</v>
       </c>
       <c r="I123" t="s">
         <v>30</v>
@@ -5623,19 +5623,19 @@
         <v>4902363</v>
       </c>
       <c r="C124">
-        <v>34409584401.703629</v>
+        <v>37717043764.634956</v>
       </c>
       <c r="D124">
-        <v>1945944.8634491358</v>
+        <v>1855448.5697662872</v>
       </c>
       <c r="E124">
         <v>34275124.305252805</v>
       </c>
       <c r="F124">
-        <v>7018.9792966582909</v>
+        <v>7693.6456489727416</v>
       </c>
       <c r="G124">
-        <v>0.39694018240777679</v>
+        <v>0.37848045315418039</v>
       </c>
       <c r="H124">
         <v>6.9915516874725121</v>
@@ -5664,22 +5664,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>46548631071.876617</v>
+        <v>45611449548.736572</v>
       </c>
       <c r="D125">
-        <v>8037397.0398444962</v>
+        <v>7843835.2348312065</v>
       </c>
       <c r="E125">
-        <v>125839265.43198156</v>
+        <v>142263831.38846761</v>
       </c>
       <c r="F125">
-        <v>5268.3641075068326</v>
+        <v>5162.2941031901501</v>
       </c>
       <c r="G125">
-        <v>0.90967087769164123</v>
+        <v>0.88776359400500326</v>
       </c>
       <c r="H125">
-        <v>14.242461143340112</v>
+        <v>16.101390004919654</v>
       </c>
       <c r="I125" t="s">
         <v>31</v>
@@ -5705,22 +5705,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>26210666689.889355</v>
+        <v>26237322660.915634</v>
       </c>
       <c r="D126">
-        <v>1581420.9419478597</v>
+        <v>1564082.0827788473</v>
       </c>
       <c r="E126">
-        <v>28508402.105393842</v>
+        <v>27025382.63275649</v>
       </c>
       <c r="F126">
-        <v>4205.0454914490792</v>
+        <v>4209.3219782744791</v>
       </c>
       <c r="G126">
-        <v>0.2537114786395796</v>
+        <v>0.25092976032473602</v>
       </c>
       <c r="H126">
-        <v>4.5736771658672319</v>
+        <v>4.3357524911182894</v>
       </c>
       <c r="I126" t="s">
         <v>31</v>
@@ -5746,22 +5746,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>12105462334.70752</v>
+        <v>11924182125.379171</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>958267939.16367257</v>
+        <v>1019268782.1036117</v>
       </c>
       <c r="F127">
-        <v>4396.1019212855517</v>
+        <v>4330.269964233029</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>347.99526131155807</v>
+        <v>370.14773392546618</v>
       </c>
       <c r="I127" t="s">
         <v>31</v>
@@ -5787,22 +5787,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>17693011158.851997</v>
+        <v>17863202955.073238</v>
       </c>
       <c r="D128">
-        <v>983837.16892077425</v>
+        <v>991768.28131358151</v>
       </c>
       <c r="E128">
-        <v>16519787.880933631</v>
+        <v>16455773.823529564</v>
       </c>
       <c r="F128">
-        <v>3423.3940665693285</v>
+        <v>3456.3242207489393</v>
       </c>
       <c r="G128">
-        <v>0.19036117121695637</v>
+        <v>0.19189575020201777</v>
       </c>
       <c r="H128">
-        <v>3.196388862518615</v>
+        <v>3.1840028790177524</v>
       </c>
       <c r="I128" t="s">
         <v>31</v>
@@ -5828,22 +5828,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>52953797762.881691</v>
+        <v>52746080189.694199</v>
       </c>
       <c r="D129">
-        <v>3099189.8878648011</v>
+        <v>3070200.8594118445</v>
       </c>
       <c r="E129">
-        <v>52296430.40015927</v>
+        <v>51798210.850526169</v>
       </c>
       <c r="F129">
-        <v>5376.5309843536088</v>
+        <v>5355.4409017642893</v>
       </c>
       <c r="G129">
-        <v>0.31466846878696303</v>
+        <v>0.31172514052216987</v>
       </c>
       <c r="H129">
-        <v>5.3097868386436788</v>
+        <v>5.2592013668025883</v>
       </c>
       <c r="I129" t="s">
         <v>31</v>
@@ -5869,22 +5869,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>43109267398.834961</v>
+        <v>43882286657.748795</v>
       </c>
       <c r="D130">
-        <v>1938370.965768327</v>
+        <v>1927056.4621503791</v>
       </c>
       <c r="E130">
-        <v>34561364.003987759</v>
+        <v>35704755.511227041</v>
       </c>
       <c r="F130">
-        <v>4874.769928528729</v>
+        <v>4962.1824795856401</v>
       </c>
       <c r="G130">
-        <v>0.21918981844066307</v>
+        <v>0.21791038120312622</v>
       </c>
       <c r="H130">
-        <v>3.9081781737754135</v>
+        <v>4.0374721950460186</v>
       </c>
       <c r="I130" t="s">
         <v>31</v>
@@ -5910,22 +5910,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>14398249370.061798</v>
+        <v>15196363225.328632</v>
       </c>
       <c r="D131">
-        <v>1066069.2067683004</v>
+        <v>1044105.9626010462</v>
       </c>
       <c r="E131">
-        <v>16783385.002364181</v>
+        <v>16696889.776930207</v>
       </c>
       <c r="F131">
-        <v>3911.4580999471341</v>
+        <v>4128.2753548527626</v>
       </c>
       <c r="G131">
-        <v>0.28961055797439539</v>
+        <v>0.28364397779571399</v>
       </c>
       <c r="H131">
-        <v>4.5594089617956701</v>
+        <v>4.5359114905799025</v>
       </c>
       <c r="I131" t="s">
         <v>31</v>
@@ -5951,22 +5951,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>5045719989.2247543</v>
+        <v>5039555151.212162</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>489457831.65120381</v>
+        <v>471719941.61980855</v>
       </c>
       <c r="F132">
-        <v>1090.674065596414</v>
+        <v>1089.3414849234284</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>105.80035442415522</v>
+        <v>101.96616293573368</v>
       </c>
       <c r="I132" t="s">
         <v>15</v>
@@ -5992,7 +5992,7 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>7196179524.2482014</v>
+        <v>7142034842.1660423</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>688616434.47647595</v>
       </c>
       <c r="F133">
-        <v>1138.1243849478742</v>
+        <v>1129.5610378571978</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>84566249167.225189</v>
+        <v>84108075158.164459</v>
       </c>
       <c r="D134">
-        <v>1865030.4986608557</v>
+        <v>1921038.0154596684</v>
       </c>
       <c r="E134">
-        <v>3672969475.4252915</v>
+        <v>3771022056.407433</v>
       </c>
       <c r="F134">
-        <v>9358.1062663279135</v>
+        <v>9307.404702672402</v>
       </c>
       <c r="G134">
-        <v>0.20638438819603028</v>
+        <v>0.21258218340484944</v>
       </c>
       <c r="H134">
-        <v>406.4510251133371</v>
+        <v>417.30152967697364</v>
       </c>
       <c r="I134" t="s">
         <v>32</v>
@@ -6074,22 +6074,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>8845393494.0979576</v>
+        <v>8975054530.6496353</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>753253048.7848568</v>
+        <v>779536906.16028249</v>
       </c>
       <c r="F135">
-        <v>9646.1072072658917</v>
+        <v>9787.5055814611442</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>821.43995828187713</v>
+        <v>850.10311569064743</v>
       </c>
       <c r="I135" t="s">
         <v>32</v>
@@ -6115,22 +6115,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>2217613779.2897949</v>
+        <v>2189650105.190208</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>179221375.12858173</v>
+        <v>181793513.84273386</v>
       </c>
       <c r="F136">
-        <v>6988.0438240199746</v>
+        <v>6899.9259642224461</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>564.75425761502265</v>
+        <v>572.85946431233572</v>
       </c>
       <c r="I136" t="s">
         <v>32</v>
@@ -6156,22 +6156,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>28331602248.632343</v>
+        <v>28041995362.006577</v>
       </c>
       <c r="D137">
-        <v>1379051.9183858992</v>
+        <v>1406298.8335561203</v>
       </c>
       <c r="E137">
-        <v>24206373.899714556</v>
+        <v>25048737.733057246</v>
       </c>
       <c r="F137">
-        <v>5840.6702988164379</v>
+        <v>5780.9667096511102</v>
       </c>
       <c r="G137">
-        <v>0.28429693137567513</v>
+        <v>0.28991398920292044</v>
       </c>
       <c r="H137">
-        <v>4.9902383860035018</v>
+        <v>5.1638949755258716</v>
       </c>
       <c r="I137" t="s">
         <v>32</v>
@@ -6197,22 +6197,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>17841127025.918381</v>
+        <v>17609202806.859245</v>
       </c>
       <c r="D138">
-        <v>1165507.1517703873</v>
+        <v>1102020.3360782554</v>
       </c>
       <c r="E138">
-        <v>18893952.271060504</v>
+        <v>18794121.582685515</v>
       </c>
       <c r="F138">
-        <v>5247.8857638966447</v>
+        <v>5179.6663175727017</v>
       </c>
       <c r="G138">
-        <v>0.34282858816093736</v>
+        <v>0.32415423223141226</v>
       </c>
       <c r="H138">
-        <v>5.5575694855486368</v>
+        <v>5.5282047460026416</v>
       </c>
       <c r="I138" t="s">
         <v>32</v>
@@ -6279,22 +6279,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>16775369069.931549</v>
+        <v>16900714875.286968</v>
       </c>
       <c r="D140">
-        <v>140862.31831880519</v>
+        <v>141762.47664473593</v>
       </c>
       <c r="E140">
-        <v>2322507.6408730331</v>
+        <v>2377269.4396211104</v>
       </c>
       <c r="F140">
-        <v>5244.1202497776731</v>
+        <v>5283.3043937061211</v>
       </c>
       <c r="G140">
-        <v>4.4034735262566058E-2</v>
+        <v>4.4316132261066704E-2</v>
       </c>
       <c r="H140">
-        <v>0.72603525436566396</v>
+        <v>0.74315424927611173</v>
       </c>
       <c r="I140" t="s">
         <v>12</v>
@@ -6320,22 +6320,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>18162427982.155228</v>
+        <v>18194946200.418537</v>
       </c>
       <c r="D141">
-        <v>1132557.8047653881</v>
+        <v>1083114.4978538374</v>
       </c>
       <c r="E141">
-        <v>19087040.461692777</v>
+        <v>18025478.476033568</v>
       </c>
       <c r="F141">
-        <v>4862.85893119097</v>
+        <v>4871.5654492987651</v>
       </c>
       <c r="G141">
-        <v>0.30323417339380787</v>
+        <v>0.28999608502595964</v>
       </c>
       <c r="H141">
-        <v>5.1104172454442969</v>
+        <v>4.8261916899157278</v>
       </c>
       <c r="I141" t="s">
         <v>12</v>
@@ -6361,22 +6361,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>20904995843.652439</v>
+        <v>20958679123.855339</v>
       </c>
       <c r="D142">
-        <v>1201350.1938914298</v>
+        <v>1193758.5042969724</v>
       </c>
       <c r="E142">
-        <v>22500700.71281904</v>
+        <v>23631706.705914624</v>
       </c>
       <c r="F142">
-        <v>8404.9983088088411</v>
+        <v>8426.5820432755336</v>
       </c>
       <c r="G142">
-        <v>0.48301116266476485</v>
+        <v>0.4799588713043822</v>
       </c>
       <c r="H142">
-        <v>9.0465624988718449</v>
+        <v>9.5012912885983187</v>
       </c>
       <c r="I142" t="s">
         <v>33</v>
@@ -6402,22 +6402,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>44137693774.605446</v>
+        <v>44151501797.51799</v>
       </c>
       <c r="D143">
-        <v>2758918.1095611546</v>
+        <v>2752486.3442075364</v>
       </c>
       <c r="E143">
-        <v>48581655.597089872</v>
+        <v>49588915.399488583</v>
       </c>
       <c r="F143">
-        <v>3056.9197710975673</v>
+        <v>3057.8760969639952</v>
       </c>
       <c r="G143">
-        <v>0.19107911163244753</v>
+        <v>0.1906336558555114</v>
       </c>
       <c r="H143">
-        <v>3.3647028380273452</v>
+        <v>3.4344643534410935</v>
       </c>
       <c r="I143" t="s">
         <v>33</v>
@@ -6443,22 +6443,22 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>4647884849.4191971</v>
+        <v>4652347646.0418472</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>113857987.30325927</v>
+        <v>111819275.45846094</v>
       </c>
       <c r="F144">
-        <v>1214.6877496748766</v>
+        <v>1215.8540660881374</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>29.755879687335408</v>
+        <v>29.223078556665605</v>
       </c>
       <c r="I144" t="s">
         <v>33</v>
@@ -6484,22 +6484,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>20452964354.271133</v>
+        <v>20397961121.184769</v>
       </c>
       <c r="D145">
-        <v>1216456.7404745773</v>
+        <v>1224396.4858989485</v>
       </c>
       <c r="E145">
-        <v>20314763.053484708</v>
+        <v>20917359.547195971</v>
       </c>
       <c r="F145">
-        <v>5301.6882728024793</v>
+        <v>5287.430682031325</v>
       </c>
       <c r="G145">
-        <v>0.31532223513599444</v>
+        <v>0.31738032581059322</v>
       </c>
       <c r="H145">
-        <v>5.2658646042635748</v>
+        <v>5.4220658623601174</v>
       </c>
       <c r="I145" t="s">
         <v>33</v>
@@ -6525,22 +6525,22 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>19943627466.708023</v>
+        <v>19680055297.544487</v>
       </c>
       <c r="D146">
-        <v>42591.65228685052</v>
+        <v>41140.534400772529</v>
       </c>
       <c r="E146">
-        <v>151630805.52584484</v>
+        <v>149643846.41001207</v>
       </c>
       <c r="F146">
-        <v>1321.3459102081524</v>
+        <v>1303.883188927869</v>
       </c>
       <c r="G146">
-        <v>2.8218690733259654E-3</v>
+        <v>2.7257266495266928E-3</v>
       </c>
       <c r="H146">
-        <v>10.046153593552583</v>
+        <v>9.914509522992244</v>
       </c>
       <c r="I146" t="s">
         <v>11</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>10124082.875053978</v>
+        <v>10239256.624277752</v>
       </c>
       <c r="F147">
         <v>1704.1329421642708</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>1.3269913620508451</v>
+        <v>1.3420875018435712</v>
       </c>
       <c r="I147" t="s">
         <v>11</v>
@@ -6607,22 +6607,22 @@
         <v>393144</v>
       </c>
       <c r="C148">
-        <v>1320660117.33708</v>
+        <v>1401998270.995636</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>122571338.77166411</v>
+        <v>121907087.7541921</v>
       </c>
       <c r="F148">
-        <v>3359.2274518677127</v>
+        <v>3566.1189564018173</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>311.77212108454944</v>
+        <v>310.08253401855836</v>
       </c>
       <c r="I148" t="s">
         <v>34</v>
@@ -6648,22 +6648,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>37451300517.087769</v>
+        <v>37945921109.796036</v>
       </c>
       <c r="D149">
-        <v>863616.28814268624</v>
+        <v>874743.36455945589</v>
       </c>
       <c r="E149">
-        <v>14833976.38179503</v>
+        <v>14963734.295977486</v>
       </c>
       <c r="F149">
-        <v>5689.9791501924219</v>
+        <v>5765.1268972908638</v>
       </c>
       <c r="G149">
-        <v>0.13120929328092043</v>
+        <v>0.13289983091085211</v>
       </c>
       <c r="H149">
-        <v>2.2537272447548085</v>
+        <v>2.2734413752676796</v>
       </c>
       <c r="I149" t="s">
         <v>34</v>
@@ -6689,22 +6689,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>485839968.10570055</v>
+        <v>483848340.29181021</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>47909766.943720922</v>
+        <v>46400125.674109489</v>
       </c>
       <c r="F150">
-        <v>1860.0233846949307</v>
+        <v>1852.3984988258476</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>183.42107014797386</v>
+        <v>177.64145494890712</v>
       </c>
       <c r="I150" t="s">
         <v>34</v>
@@ -6730,22 +6730,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>58148830171.5905</v>
+        <v>59771345894.965927</v>
       </c>
       <c r="D151">
-        <v>3469981.17947869</v>
+        <v>3604838.8915730389</v>
       </c>
       <c r="E151">
-        <v>61607798.012013905</v>
+        <v>62993545.952008106</v>
       </c>
       <c r="F151">
-        <v>4132.1911465430594</v>
+        <v>4247.4908883860944</v>
       </c>
       <c r="G151">
-        <v>0.24658493500559261</v>
+        <v>0.25616823775329911</v>
       </c>
       <c r="H151">
-        <v>4.3779934480544984</v>
+        <v>4.4764679204056543</v>
       </c>
       <c r="I151" t="s">
         <v>35</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>83367374.630890816</v>
+        <v>84016222.474616736</v>
       </c>
       <c r="F152">
         <v>1708.633999395636</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>153.49008944368597</v>
+        <v>154.68470201256889</v>
       </c>
       <c r="I152" t="s">
         <v>35</v>
@@ -6812,22 +6812,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>31926971470.052475</v>
+        <v>32271562988.387688</v>
       </c>
       <c r="D153">
-        <v>2036971.1866299759</v>
+        <v>2049790.247300169</v>
       </c>
       <c r="E153">
-        <v>42715998.875402324</v>
+        <v>41321586.307418473</v>
       </c>
       <c r="F153">
-        <v>4375.6976315886641</v>
+        <v>4422.9250453149953</v>
       </c>
       <c r="G153">
-        <v>0.27917367625400036</v>
+        <v>0.28093057115605424</v>
       </c>
       <c r="H153">
-        <v>5.8543697226455027</v>
+        <v>5.6632608422774524</v>
       </c>
       <c r="I153" t="s">
         <v>35</v>
@@ -6853,22 +6853,22 @@
         <v>11269955</v>
       </c>
       <c r="C154">
-        <v>23671195376.964039</v>
+        <v>23677825538.340508</v>
       </c>
       <c r="D154">
-        <v>1827417.7140733108</v>
+        <v>1903809.0876350082</v>
       </c>
       <c r="E154">
-        <v>31126603.537425868</v>
+        <v>32678397.668039523</v>
       </c>
       <c r="F154">
-        <v>2100.3806472132355</v>
+        <v>2100.9689513703033</v>
       </c>
       <c r="G154">
-        <v>0.16214951293712448</v>
+        <v>0.16892783401841518</v>
       </c>
       <c r="H154">
-        <v>2.7619101884103237</v>
+        <v>2.8996032076471931</v>
       </c>
       <c r="I154" t="s">
         <v>35</v>
@@ -6894,22 +6894,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>21717589256.67408</v>
+        <v>21094045841.359024</v>
       </c>
       <c r="D155">
-        <v>1315806.0945241088</v>
+        <v>1303333.5310342885</v>
       </c>
       <c r="E155">
-        <v>23231676.857371464</v>
+        <v>22900419.560148042</v>
       </c>
       <c r="F155">
-        <v>4045.8870272403151</v>
+        <v>3929.7237558418092</v>
       </c>
       <c r="G155">
-        <v>0.24512862570889757</v>
+        <v>0.24280504447603179</v>
       </c>
       <c r="H155">
-        <v>4.3279545859075101</v>
+        <v>4.2662428744613115</v>
       </c>
       <c r="I155" t="s">
         <v>35</v>
@@ -6935,22 +6935,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>65088603058.484314</v>
+        <v>64480531587.449989</v>
       </c>
       <c r="D156">
-        <v>3897032.8238099255</v>
+        <v>4038936.3589316113</v>
       </c>
       <c r="E156">
-        <v>70274762.036689699</v>
+        <v>70621160.803416505</v>
       </c>
       <c r="F156">
-        <v>6610.5651731503849</v>
+        <v>6548.8078777050669</v>
       </c>
       <c r="G156">
-        <v>0.3957926311700703</v>
+        <v>0.41020471751304277</v>
       </c>
       <c r="H156">
-        <v>7.1372847571141218</v>
+        <v>7.1724659027486188</v>
       </c>
       <c r="I156" t="s">
         <v>35</v>
@@ -6976,22 +6976,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>6038870420.54249</v>
+        <v>6041364447.1279593</v>
       </c>
       <c r="D157">
-        <v>455120.78284619359</v>
+        <v>451292.52083480469</v>
       </c>
       <c r="E157">
-        <v>7361861.8678044463</v>
+        <v>7325764.7446291531</v>
       </c>
       <c r="F157">
-        <v>1166.1779172149418</v>
+        <v>1166.6595435003853</v>
       </c>
       <c r="G157">
-        <v>8.7889252403122231E-2</v>
+        <v>8.7149969340546835E-2</v>
       </c>
       <c r="H157">
-        <v>1.4216633479360286</v>
+        <v>1.4146925628403892</v>
       </c>
       <c r="I157" t="s">
         <v>36</v>
@@ -7017,22 +7017,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>4255476956.3036919</v>
+        <v>4217782306.1822834</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>412242709.23973691</v>
+        <v>401377868.41343361</v>
       </c>
       <c r="F158">
-        <v>1092.0851706076194</v>
+        <v>1082.4115737742836</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>105.7940517771885</v>
+        <v>103.0058022650294</v>
       </c>
       <c r="I158" t="s">
         <v>36</v>
@@ -7058,22 +7058,22 @@
         <v>419820</v>
       </c>
       <c r="C159">
-        <v>419835412.64958125</v>
+        <v>421796351.39765829</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>35547943.880461238</v>
+        <v>35639469.499678947</v>
       </c>
       <c r="F159">
-        <v>1000.0367125186539</v>
+        <v>1004.7076161156169</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>84.674250584682099</v>
+        <v>84.892262159208585</v>
       </c>
       <c r="I159" t="s">
         <v>36</v>
@@ -7099,22 +7099,22 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>4962193951.7243958</v>
+        <v>5186102268.4410458</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>20853061.783669114</v>
+        <v>21715967.779176638</v>
       </c>
       <c r="F160">
-        <v>1126.5278195692608</v>
+        <v>1177.3599616153365</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>4.7341064156382631</v>
+        <v>4.9300051691068827</v>
       </c>
       <c r="I160" t="s">
         <v>36</v>
@@ -7140,22 +7140,22 @@
         <v>1376677</v>
       </c>
       <c r="C161">
-        <v>1761590237.5717678</v>
+        <v>1761064867.8700733</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>152564.3808713828</v>
+        <v>156645.63470527326</v>
       </c>
       <c r="F161">
-        <v>1279.5958947318563</v>
+        <v>1279.2142731156787</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0.11082075234160431</v>
+        <v>0.11378532125202445</v>
       </c>
       <c r="I161" t="s">
         <v>36</v>
@@ -7181,22 +7181,22 @@
         <v>5140970</v>
       </c>
       <c r="C162">
-        <v>7240144978.8429413</v>
+        <v>7243277682.7129574</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>212596364.15019459</v>
+        <v>208959377.01383096</v>
       </c>
       <c r="F162">
-        <v>1408.322744315361</v>
+        <v>1408.9321047804126</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>41.353356302447708</v>
+        <v>40.645904763854091</v>
       </c>
       <c r="I162" t="s">
         <v>37</v>
@@ -7263,22 +7263,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>1808546795.9217319</v>
+        <v>1777242084.5138206</v>
       </c>
       <c r="D164">
-        <v>111857.74617858707</v>
+        <v>109690.18849542804</v>
       </c>
       <c r="E164">
-        <v>1716508.4083652021</v>
+        <v>1731458.7687243544</v>
       </c>
       <c r="F164">
-        <v>8436.0157284206471</v>
+        <v>8289.9940504600181</v>
       </c>
       <c r="G164">
-        <v>0.52176349997475124</v>
+        <v>0.51165286819645139</v>
       </c>
       <c r="H164">
-        <v>8.006700165894852</v>
+        <v>8.0764365284925859</v>
       </c>
       <c r="I164" t="s">
         <v>23</v>
@@ -7304,22 +7304,22 @@
         <v>1502812</v>
       </c>
       <c r="C165">
-        <v>1951052849.6524799</v>
+        <v>1977183021.7460399</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>9410222.7475200519</v>
+        <v>9536252.5164600518</v>
       </c>
       <c r="F165">
-        <v>1298.2680798745816</v>
+        <v>1315.6555988014734</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>6.2617431505205259</v>
+        <v>6.3456057820007103</v>
       </c>
       <c r="I165" t="s">
         <v>36</v>
@@ -7345,22 +7345,22 @@
         <v>13572760</v>
       </c>
       <c r="C166">
-        <v>6339900705.5328321</v>
+        <v>6371448563.8321648</v>
       </c>
       <c r="D166">
         <v>2621533.9661828708</v>
       </c>
       <c r="E166">
-        <v>75946749.485087454</v>
+        <v>85374500.696584731</v>
       </c>
       <c r="F166">
-        <v>467.1047528677168</v>
+        <v>469.42910386923256</v>
       </c>
       <c r="G166">
         <v>0.19314671195710165</v>
       </c>
       <c r="H166">
-        <v>5.59552732716761</v>
+        <v>6.2901355874991332</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -7386,22 +7386,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>21331986358.969856</v>
+        <v>20985823210.825802</v>
       </c>
       <c r="D167">
-        <v>1429552.8556538434</v>
+        <v>1453767.9742728604</v>
       </c>
       <c r="E167">
-        <v>23592621.624747228</v>
+        <v>23720062.283478349</v>
       </c>
       <c r="F167">
-        <v>1197.3572558885692</v>
+        <v>1177.9272342217293</v>
       </c>
       <c r="G167">
-        <v>8.0240323408682923E-2</v>
+        <v>8.1599509913529475E-2</v>
       </c>
       <c r="H167">
-        <v>1.3242459568677889</v>
+        <v>1.3313991583961953</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7427,22 +7427,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>31103204478.087761</v>
+        <v>31855865570.419163</v>
       </c>
       <c r="D168">
-        <v>2123831.9489364787</v>
+        <v>2140722.0870311763</v>
       </c>
       <c r="E168">
-        <v>34963828.538617536</v>
+        <v>33882938.736139372</v>
       </c>
       <c r="F168">
-        <v>4413.3470380961389</v>
+        <v>4520.1448635379256</v>
       </c>
       <c r="G168">
-        <v>0.30135825547673695</v>
+        <v>0.30375485872659769</v>
       </c>
       <c r="H168">
-        <v>4.961145055973855</v>
+        <v>4.807773662629609</v>
       </c>
       <c r="I168" t="s">
         <v>35</v>
@@ -7468,22 +7468,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>7015405362.1818075</v>
+        <v>7020682517.86619</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>676252565.48229051</v>
+        <v>679588367.82815194</v>
       </c>
       <c r="F169">
-        <v>1127.3115762475447</v>
+        <v>1128.1595669744577</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>108.66761166003316</v>
+        <v>109.20364463409837</v>
       </c>
       <c r="I169" t="s">
         <v>38</v>
@@ -7509,19 +7509,19 @@
         <v>2129192</v>
       </c>
       <c r="C170">
-        <v>2546306071.0583277</v>
+        <v>2547019276.2807994</v>
       </c>
       <c r="D170">
-        <v>190424.94190541701</v>
+        <v>188412.14911619946</v>
       </c>
       <c r="E170">
         <v>3062593.9780308809</v>
       </c>
       <c r="F170">
-        <v>1195.9025165688804</v>
+        <v>1196.237481768107</v>
       </c>
       <c r="G170">
-        <v>8.9435307809449319E-2</v>
+        <v>8.8489976064253226E-2</v>
       </c>
       <c r="H170">
         <v>1.4383831885667806</v>
@@ -7550,22 +7550,22 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>4748286777.4738235</v>
+        <v>4699341273.6318026</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>377711968.66178238</v>
+        <v>379113277.80822808</v>
       </c>
       <c r="F171">
-        <v>950.0242548619924</v>
+        <v>940.23137208225864</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>75.571579476350237</v>
+        <v>75.851949584575181</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -7591,22 +7591,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>32093639594.584076</v>
+        <v>32231598979.137886</v>
       </c>
       <c r="D172">
-        <v>13084317.225586671</v>
+        <v>13155727.509052407</v>
       </c>
       <c r="E172">
-        <v>206996494.70544708</v>
+        <v>187886689.51034263</v>
       </c>
       <c r="F172">
-        <v>7960.3401238447968</v>
+        <v>7994.5588549764925</v>
       </c>
       <c r="G172">
-        <v>3.2453662694438643</v>
+        <v>3.2630785062580197</v>
       </c>
       <c r="H172">
-        <v>51.342338329774961</v>
+        <v>46.6024412356754</v>
       </c>
       <c r="I172" t="s">
         <v>21</v>
@@ -7632,22 +7632,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>27945013948.641983</v>
+        <v>28250433119.215202</v>
       </c>
       <c r="D173">
-        <v>1641482.9971401177</v>
+        <v>1655719.4653065908</v>
       </c>
       <c r="E173">
-        <v>28387167.55713265</v>
+        <v>30528839.863002487</v>
       </c>
       <c r="F173">
-        <v>4706.9258304813566</v>
+        <v>4758.3691894196381</v>
       </c>
       <c r="G173">
-        <v>0.27648362365230611</v>
+        <v>0.27888154694090245</v>
       </c>
       <c r="H173">
-        <v>4.7814000907078897</v>
+        <v>5.1421332331372271</v>
       </c>
       <c r="I173" t="s">
         <v>31</v>
@@ -7679,7 +7679,7 @@
         <v>18697.339289279269</v>
       </c>
       <c r="E174">
-        <v>1484273.464494013</v>
+        <v>1502681.5712733357</v>
       </c>
       <c r="F174">
         <v>387.35216998060815</v>
@@ -7688,7 +7688,7 @@
         <v>2.3312004123045636E-3</v>
       </c>
       <c r="H174">
-        <v>0.18506049758561904</v>
+        <v>0.18735563623875934</v>
       </c>
       <c r="I174" t="s">
         <v>66</v>
@@ -7714,22 +7714,22 @@
         <v>8834166</v>
       </c>
       <c r="C175">
-        <v>53803807832.392258</v>
+        <v>53836713987.829506</v>
       </c>
       <c r="D175">
-        <v>3168945.5428270586</v>
+        <v>3169654.7221121597</v>
       </c>
       <c r="E175">
-        <v>49212995.621030755</v>
+        <v>50094780.845352754</v>
       </c>
       <c r="F175">
-        <v>6090.4230045476006</v>
+        <v>6094.1478785693525</v>
       </c>
       <c r="G175">
-        <v>0.3587147380779418</v>
+        <v>0.35879501495807975</v>
       </c>
       <c r="H175">
-        <v>5.5707574004190947</v>
+        <v>5.6705727337875196</v>
       </c>
       <c r="I175" t="s">
         <v>30</v>
@@ -7755,22 +7755,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>17127477391.330517</v>
+        <v>17331498934.390633</v>
       </c>
       <c r="D176">
-        <v>6978679.6796151446</v>
+        <v>7072677.6705090627</v>
       </c>
       <c r="E176">
-        <v>96363056.743923247</v>
+        <v>91919001.505776197</v>
       </c>
       <c r="F176">
-        <v>4977.5403409668361</v>
+        <v>5036.8325202997985</v>
       </c>
       <c r="G176">
-        <v>2.028124681662268</v>
+        <v>2.0554421190731702</v>
       </c>
       <c r="H176">
-        <v>28.004766339060598</v>
+        <v>26.713247236746167</v>
       </c>
       <c r="I176" t="s">
         <v>31</v>
@@ -7796,22 +7796,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>39992260079.205246</v>
+        <v>40278485070.911209</v>
       </c>
       <c r="D177">
-        <v>12826191.771912215</v>
+        <v>12903844.987584297</v>
       </c>
       <c r="E177">
-        <v>338445223.24358708</v>
+        <v>316149881.84850281</v>
       </c>
       <c r="F177">
-        <v>7181.689912766029</v>
+        <v>7233.0893368457173</v>
       </c>
       <c r="G177">
-        <v>2.3032889835461168</v>
+        <v>2.3172337147161368</v>
       </c>
       <c r="H177">
-        <v>60.776976369388997</v>
+        <v>56.7732459455111</v>
       </c>
       <c r="I177" t="s">
         <v>21</v>
@@ -7837,22 +7837,22 @@
         <v>4469578</v>
       </c>
       <c r="C178">
-        <v>11455230239.841496</v>
+        <v>11476577401.769165</v>
       </c>
       <c r="D178">
-        <v>716594.42408284522</v>
+        <v>720849.09743993916</v>
       </c>
       <c r="E178">
-        <v>12787311.307237696</v>
+        <v>13953663.486905687</v>
       </c>
       <c r="F178">
-        <v>2562.9332880736156</v>
+        <v>2567.7093904098251</v>
       </c>
       <c r="G178">
-        <v>0.16032708772122228</v>
+        <v>0.16127900608064993</v>
       </c>
       <c r="H178">
-        <v>2.8609661375722037</v>
+        <v>3.1219196727086285</v>
       </c>
       <c r="I178" t="s">
         <v>16</v>
@@ -7878,22 +7878,22 @@
         <v>5464804</v>
       </c>
       <c r="C179">
-        <v>6886811729.9628105</v>
+        <v>6796242002.0250912</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>659501761.28855276</v>
+        <v>657978449.29767299</v>
       </c>
       <c r="F179">
-        <v>1260.2120277255708</v>
+        <v>1243.6387475241731</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>120.68168616633876</v>
+        <v>120.40293655502978</v>
       </c>
       <c r="I179" t="s">
         <v>39</v>
@@ -7919,22 +7919,22 @@
         <v>245854</v>
       </c>
       <c r="C180">
-        <v>602386585.17014229</v>
+        <v>591967540.79656565</v>
       </c>
       <c r="D180">
-        <v>243240.38615054172</v>
+        <v>242105.8033014829</v>
       </c>
       <c r="E180">
-        <v>4845692.5352495965</v>
+        <v>4810212.1670255959</v>
       </c>
       <c r="F180">
-        <v>2450.1801279220281</v>
+        <v>2407.8011372463561</v>
       </c>
       <c r="G180">
-        <v>0.98936924414710237</v>
+        <v>0.98475437984121839</v>
       </c>
       <c r="H180">
-        <v>19.709634723248744</v>
+        <v>19.565319933885949</v>
       </c>
       <c r="I180" t="s">
         <v>25</v>
@@ -7960,22 +7960,22 @@
         <v>1204962</v>
       </c>
       <c r="C181">
-        <v>1565884706.5735779</v>
+        <v>1586651441.8631756</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>150376666.50494289</v>
+        <v>154563686.3659637</v>
       </c>
       <c r="F181">
-        <v>1299.5303640891395</v>
+        <v>1316.7647127985576</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>124.79784964583355</v>
+        <v>128.27266450391272</v>
       </c>
       <c r="I181" t="s">
         <v>20</v>
@@ -8001,22 +8001,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>10711709145.654821</v>
+        <v>10073292048.849199</v>
       </c>
       <c r="D182">
-        <v>89285.253344433557</v>
+        <v>84998.114010176636</v>
       </c>
       <c r="E182">
-        <v>1931444.4027091092</v>
+        <v>1984021.200668917</v>
       </c>
       <c r="F182">
-        <v>1138.8151690275135</v>
+        <v>1070.9418666326599</v>
       </c>
       <c r="G182">
-        <v>9.4923601356699909E-3</v>
+        <v>9.036572992908859E-3</v>
       </c>
       <c r="H182">
-        <v>0.20534147763250879</v>
+        <v>0.21093117898094507</v>
       </c>
       <c r="I182" t="s">
         <v>26</v>
@@ -8042,22 +8042,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>15523031616.291515</v>
+        <v>15364746179.179728</v>
       </c>
       <c r="D183">
-        <v>1146202.4478868067</v>
+        <v>1144267.9739691913</v>
       </c>
       <c r="E183">
-        <v>18898360.763314597</v>
+        <v>18423363.790906839</v>
       </c>
       <c r="F183">
-        <v>1368.1371282814789</v>
+        <v>1354.1864910134584</v>
       </c>
       <c r="G183">
-        <v>0.10102164089102683</v>
+        <v>0.10085114419580629</v>
       </c>
       <c r="H183">
-        <v>1.6656249670208143</v>
+        <v>1.6237606579196002</v>
       </c>
       <c r="I183" t="s">
         <v>20</v>
@@ -8083,22 +8083,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>51357713740.936577</v>
+        <v>50593893840.012505</v>
       </c>
       <c r="D184">
-        <v>29734.440533867248</v>
+        <v>28896.679679223496</v>
       </c>
       <c r="E184">
-        <v>490328.16358681832</v>
+        <v>474835.33104507939</v>
       </c>
       <c r="F184">
-        <v>6203.7358082545461</v>
+        <v>6111.4704692185705</v>
       </c>
       <c r="G184">
-        <v>3.5917606147513005E-3</v>
+        <v>3.4905636058866962E-3</v>
       </c>
       <c r="H184">
-        <v>5.9229006991691785E-2</v>
+        <v>5.7357556083746361E-2</v>
       </c>
       <c r="I184" t="s">
         <v>21</v>
@@ -8124,22 +8124,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>2583160779.0552883</v>
+        <v>2615581614.1113605</v>
       </c>
       <c r="D185">
-        <v>158706.44492815505</v>
+        <v>160028.40118366911</v>
       </c>
       <c r="E185">
-        <v>2693340.1463724021</v>
+        <v>2659517.6421352392</v>
       </c>
       <c r="F185">
-        <v>1058.7214813863463</v>
+        <v>1072.0093242479511</v>
       </c>
       <c r="G185">
-        <v>6.5046637376302688E-2</v>
+        <v>6.5588447818964196E-2</v>
       </c>
       <c r="H185">
-        <v>1.1038790511086793</v>
+        <v>1.0900167270595889</v>
       </c>
       <c r="I185" t="s">
         <v>25</v>
@@ -8165,22 +8165,22 @@
         <v>14844275</v>
       </c>
       <c r="C186">
-        <v>16523738683.894474</v>
+        <v>16468789649.041775</v>
       </c>
       <c r="D186">
-        <v>14265494.397095568</v>
+        <v>14218055.063672736</v>
       </c>
       <c r="E186">
-        <v>349537482.03092444</v>
+        <v>353532473.38827729</v>
       </c>
       <c r="F186">
-        <v>1113.1388150579583</v>
+        <v>1109.4371162648074</v>
       </c>
       <c r="G186">
-        <v>0.96100984366670439</v>
+        <v>0.95781404370861734</v>
       </c>
       <c r="H186">
-        <v>23.546955444501293</v>
+        <v>23.816082185777162</v>
       </c>
       <c r="I186" t="s">
         <v>40</v>
@@ -8247,22 +8247,22 @@
         <v>614883</v>
       </c>
       <c r="C188">
-        <v>3350515202.7431431</v>
+        <v>3320653089.0944014</v>
       </c>
       <c r="D188">
-        <v>191032.9281604079</v>
+        <v>180106.6887409554</v>
       </c>
       <c r="E188">
-        <v>2878795.643326642</v>
+        <v>2781058.7542013554</v>
       </c>
       <c r="F188">
-        <v>5449.0288440941495</v>
+        <v>5400.4633224441095</v>
       </c>
       <c r="G188">
-        <v>0.31068175272435228</v>
+        <v>0.29291212920336945</v>
       </c>
       <c r="H188">
-        <v>4.6818592209032319</v>
+        <v>4.5229072103170118</v>
       </c>
       <c r="I188" t="s">
         <v>28</v>
@@ -8288,22 +8288,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>16187461750.806932</v>
+        <v>15737199188.94976</v>
       </c>
       <c r="D189">
-        <v>1066498.8621627076</v>
+        <v>1031014.3019034502</v>
       </c>
       <c r="E189">
-        <v>18231485.429360274</v>
+        <v>18012659.270526312</v>
       </c>
       <c r="F189">
-        <v>3012.7670436113708</v>
+        <v>2928.9653810519089</v>
       </c>
       <c r="G189">
-        <v>0.19849391297018262</v>
+        <v>0.19188962161481907</v>
       </c>
       <c r="H189">
-        <v>3.393195258356021</v>
+        <v>3.352467919520322</v>
       </c>
       <c r="I189" t="s">
         <v>18</v>
@@ -8370,22 +8370,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>17511567095.314079</v>
+        <v>17574399321.063438</v>
       </c>
       <c r="D191">
-        <v>8984030.2550908532</v>
+        <v>8997956.4503657259</v>
       </c>
       <c r="E191">
-        <v>168693461.19633636</v>
+        <v>166684335.67678288</v>
       </c>
       <c r="F191">
-        <v>1440.0782141103589</v>
+        <v>1445.2452742000253</v>
       </c>
       <c r="G191">
-        <v>0.73880916395692919</v>
+        <v>0.73995439615183412</v>
       </c>
       <c r="H191">
-        <v>13.872646406198637</v>
+        <v>13.707424306179025</v>
       </c>
       <c r="I191" t="s">
         <v>24</v>
@@ -8411,22 +8411,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>58372740720.421165</v>
+        <v>58149000937.167519</v>
       </c>
       <c r="D192">
-        <v>33186458.001924768</v>
+        <v>33112508.984650332</v>
       </c>
       <c r="E192">
-        <v>730748580.88595295</v>
+        <v>643285636.52645314</v>
       </c>
       <c r="F192">
-        <v>4288.702193293846</v>
+        <v>4272.2638131985404</v>
       </c>
       <c r="G192">
-        <v>2.4382414370808725</v>
+        <v>2.4328083306571773</v>
       </c>
       <c r="H192">
-        <v>53.688810957193311</v>
+        <v>47.26282313004819</v>
       </c>
       <c r="I192" t="s">
         <v>32</v>
@@ -8452,22 +8452,22 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>5759555181.4889841</v>
+        <v>5842720905.2641373</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>530846770.65742755</v>
+        <v>534176758.30078149</v>
       </c>
       <c r="F193">
-        <v>1024.5669903295436</v>
+        <v>1039.3613368757397</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>94.432306141744405</v>
+        <v>95.02467748121019</v>
       </c>
       <c r="I193" t="s">
         <v>15</v>
@@ -8493,22 +8493,22 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>9968604133.527523</v>
+        <v>9938125489.8123093</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>527652398.06642312</v>
+        <v>504091294.39046848</v>
       </c>
       <c r="F194">
-        <v>1148.3012534049276</v>
+        <v>1144.7903641859898</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>60.78121890947056</v>
+        <v>58.067173440285266</v>
       </c>
       <c r="I194" t="s">
         <v>10</v>
@@ -8534,22 +8534,22 @@
         <v>1498688</v>
       </c>
       <c r="C195">
-        <v>2009717021.1732769</v>
+        <v>2036632874.1354189</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>2011728.749923202</v>
+        <v>2038671.5456811017</v>
       </c>
       <c r="F195">
-        <v>1340.9842616830701</v>
+        <v>1358.9438723306112</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>1.3423265882713427</v>
+        <v>1.3603041765071193</v>
       </c>
       <c r="I195" t="s">
         <v>68</v>
@@ -8616,22 +8616,22 @@
         <v>2383346</v>
       </c>
       <c r="C197">
-        <v>2648909108.2297506</v>
+        <v>2616329513.5029764</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>256508450.91193509</v>
+        <v>257148122.85934639</v>
       </c>
       <c r="F197">
-        <v>1111.4244881900281</v>
+        <v>1097.7548008148949</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>107.62535146467827</v>
+        <v>107.89374386234579</v>
       </c>
       <c r="I197" t="s">
         <v>41</v>
@@ -8657,22 +8657,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>146280071694.33093</v>
+        <v>146414766015.49374</v>
       </c>
       <c r="D198">
-        <v>7049057.0777658876</v>
+        <v>7084582.0669743596</v>
       </c>
       <c r="E198">
-        <v>140075335.17976055</v>
+        <v>146047394.56055251</v>
       </c>
       <c r="F198">
-        <v>10028.878032800403</v>
+        <v>10038.112598404632</v>
       </c>
       <c r="G198">
-        <v>0.48327932069165269</v>
+        <v>0.48571489362897524</v>
       </c>
       <c r="H198">
-        <v>9.6034848469102627</v>
+        <v>10.012925821616356</v>
       </c>
       <c r="I198" t="s">
         <v>18</v>
@@ -8698,22 +8698,22 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>129180841.75833705</v>
+        <v>128485625.43210411</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>10520207.96887983</v>
+        <v>10617384.514668457</v>
       </c>
       <c r="F199">
-        <v>1385.1687943205775</v>
+        <v>1377.7141907795851</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>112.80514656744403</v>
+        <v>113.84714255488373</v>
       </c>
       <c r="I199" t="s">
         <v>16</v>
@@ -8739,22 +8739,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>2928509049.4982243</v>
+        <v>2900981969.2072239</v>
       </c>
       <c r="D200">
-        <v>218669.69578805988</v>
+        <v>214620.25697716986</v>
       </c>
       <c r="E200">
-        <v>3611922.7201360362</v>
+        <v>3521204.1838956219</v>
       </c>
       <c r="F200">
-        <v>1340.7002794463176</v>
+        <v>1328.0981110340981</v>
       </c>
       <c r="G200">
-        <v>0.1001091399392211</v>
+        <v>9.8255266977383668E-2</v>
       </c>
       <c r="H200">
-        <v>1.6535737873354397</v>
+        <v>1.6120419481528618</v>
       </c>
       <c r="I200" t="s">
         <v>11</v>
@@ -8783,7 +8783,7 @@
         <v>5050852693.728301</v>
       </c>
       <c r="D201">
-        <v>199763.06671086463</v>
+        <v>180985.4801650256</v>
       </c>
       <c r="E201">
         <v>3418488.7289317977</v>
@@ -8792,7 +8792,7 @@
         <v>2053.6487965935112</v>
       </c>
       <c r="G201">
-        <v>8.1222559126303551E-2</v>
+        <v>7.3587696193025687E-2</v>
       </c>
       <c r="H201">
         <v>1.3899386281956996</v>
@@ -8821,22 +8821,22 @@
         <v>3041196</v>
       </c>
       <c r="C202">
-        <v>1976458744.1114879</v>
+        <v>2002929173.720124</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>1824423456.1029119</v>
+        <v>1848857698.8185761</v>
       </c>
       <c r="F202">
-        <v>649.89522020661866</v>
+        <v>658.59917404867167</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>599.9032801907249</v>
+        <v>607.93769912185076</v>
       </c>
       <c r="I202" t="s">
         <v>38</v>
@@ -8862,22 +8862,22 @@
         <v>6130440</v>
       </c>
       <c r="C203">
-        <v>4188538021.0652165</v>
+        <v>4244634512.4187679</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>3866342788.6755838</v>
+        <v>3918124165.3096318</v>
       </c>
       <c r="F203">
-        <v>683.23611699408468</v>
+        <v>692.38660070382684</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>630.67949260992418</v>
+        <v>639.12609295737855</v>
       </c>
       <c r="I203" t="s">
         <v>11</v>
@@ -8903,22 +8903,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>27883820560.06834</v>
+        <v>27815714716.756306</v>
       </c>
       <c r="D204">
-        <v>1739917.779923948</v>
+        <v>1722901.3013617352</v>
       </c>
       <c r="E204">
-        <v>32705467.215508342</v>
+        <v>31567597.20153876</v>
       </c>
       <c r="F204">
-        <v>2795.226167277413</v>
+        <v>2788.3988662997654</v>
       </c>
       <c r="G204">
-        <v>0.1744188425283254</v>
+        <v>0.17271301796065017</v>
       </c>
       <c r="H204">
-        <v>3.2785743107507073</v>
+        <v>3.1645080180360372</v>
       </c>
       <c r="I204" t="s">
         <v>11</v>
@@ -8944,22 +8944,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>11236611671.529358</v>
+        <v>11293595667.562321</v>
       </c>
       <c r="D205">
-        <v>335024.86344045372</v>
+        <v>340546.88611970225</v>
       </c>
       <c r="E205">
-        <v>9700711.1277797744</v>
+        <v>9972952.0142515898</v>
       </c>
       <c r="F205">
-        <v>2351.3119257986268</v>
+        <v>2363.2360852666857</v>
       </c>
       <c r="G205">
-        <v>7.0105471282107479E-2</v>
+        <v>7.1260979558071633E-2</v>
       </c>
       <c r="H205">
-        <v>2.0299177750592818</v>
+        <v>2.0868854145722744</v>
       </c>
       <c r="I205" t="s">
         <v>11</v>
@@ -8985,22 +8985,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>8209948934.3660698</v>
+        <v>8137107475.2263145</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>779273640.36496663</v>
+        <v>777859579.71707129</v>
       </c>
       <c r="F206">
-        <v>1099.7595161089744</v>
+        <v>1090.0020756551264</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>104.38720246564223</v>
+        <v>104.1977826938129</v>
       </c>
       <c r="I206" t="s">
         <v>26</v>
@@ -9026,22 +9026,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>4810782306.6515331</v>
+        <v>4862542483.1888075</v>
       </c>
       <c r="D207">
-        <v>27706.466956337528</v>
+        <v>28004.688765755003</v>
       </c>
       <c r="E207">
-        <v>648064.82673811098</v>
+        <v>687310.07315834519</v>
       </c>
       <c r="F207">
-        <v>499.5402906822157</v>
+        <v>504.91494536102817</v>
       </c>
       <c r="G207">
-        <v>2.8769741956541587E-3</v>
+        <v>2.9079408451236654E-3</v>
       </c>
       <c r="H207">
-        <v>6.7293523442553321E-2</v>
+        <v>7.1368657288778933E-2</v>
       </c>
       <c r="I207" t="s">
         <v>42</v>
@@ -9067,22 +9067,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>49787241569.934525</v>
+        <v>50474765795.648865</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>4085149035.2860456</v>
+        <v>3998389188.6875052</v>
       </c>
       <c r="F208">
-        <v>4001.3943827673584</v>
+        <v>4056.6506188640205</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>328.32291742051967</v>
+        <v>321.35003939229006</v>
       </c>
       <c r="I208" t="s">
         <v>18</v>
@@ -9108,22 +9108,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>8965576383.9930077</v>
+        <v>8976660961.4670944</v>
       </c>
       <c r="D209">
-        <v>668687.81075909198</v>
+        <v>667313.0223376482</v>
       </c>
       <c r="E209">
-        <v>10819160.346590936</v>
+        <v>10786652.407472448</v>
       </c>
       <c r="F209">
-        <v>1346.3192936689982</v>
+        <v>1347.9838135923549</v>
       </c>
       <c r="G209">
-        <v>0.100413767337209</v>
+        <v>0.10020732169476185</v>
       </c>
       <c r="H209">
-        <v>1.6246634563194307</v>
+        <v>1.6197818888932944</v>
       </c>
       <c r="I209" t="s">
         <v>36</v>
@@ -9149,22 +9149,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>7044489178.3293705</v>
+        <v>7019748396.5150995</v>
       </c>
       <c r="D210">
-        <v>2883977.1425654525</v>
+        <v>2875628.0768663147</v>
       </c>
       <c r="E210">
-        <v>63068160.706598505</v>
+        <v>63231572.904084757</v>
       </c>
       <c r="F210">
-        <v>1427.3428159391292</v>
+        <v>1422.3298794025877</v>
       </c>
       <c r="G210">
-        <v>0.58434670727248994</v>
+        <v>0.58265503330667179</v>
       </c>
       <c r="H210">
-        <v>12.778767036221984</v>
+        <v>12.811877347021573</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -9231,22 +9231,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>11302172105.657207</v>
+        <v>11420186911.920906</v>
       </c>
       <c r="D212">
-        <v>839236.36078766198</v>
+        <v>841576.00967726507</v>
       </c>
       <c r="E212">
-        <v>13676775.59314503</v>
+        <v>13447024.464291276</v>
       </c>
       <c r="F212">
-        <v>1295.0549072984443</v>
+        <v>1308.5775870591938</v>
       </c>
       <c r="G212">
-        <v>9.6163565486437078E-2</v>
+        <v>9.6431653226343214E-2</v>
       </c>
       <c r="H212">
-        <v>1.5671479059371587</v>
+        <v>1.5408219639768095</v>
       </c>
       <c r="I212" t="s">
         <v>11</v>
@@ -9272,19 +9272,19 @@
         <v>11925993</v>
       </c>
       <c r="C213">
-        <v>29682003745.454189</v>
+        <v>33143572338.292709</v>
       </c>
       <c r="D213">
-        <v>255194.37626070442</v>
+        <v>271736.14764965966</v>
       </c>
       <c r="E213">
         <v>7251192.523025387</v>
       </c>
       <c r="F213">
-        <v>2488.849670250032</v>
+        <v>2779.1037893693806</v>
       </c>
       <c r="G213">
-        <v>2.1398165860126231E-2</v>
+        <v>2.27852010016826E-2</v>
       </c>
       <c r="H213">
         <v>0.6080158292081328</v>
@@ -9313,22 +9313,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>4072797129.8218241</v>
+        <v>3949876725.707634</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>41139364.947695225</v>
+        <v>39897744.704117551</v>
       </c>
       <c r="F214">
-        <v>1273.9294783516052</v>
+        <v>1235.4812273583598</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>12.867974528804103</v>
+        <v>12.479608357155161</v>
       </c>
       <c r="I214" t="s">
         <v>11</v>
@@ -9354,22 +9354,22 @@
         <v>2169628</v>
       </c>
       <c r="C215">
-        <v>8583208452.1644831</v>
+        <v>9502070741.4095955</v>
       </c>
       <c r="D215">
         <v>551475.82707662426</v>
       </c>
       <c r="E215">
-        <v>10741786.757523069</v>
+        <v>10857590.623949787</v>
       </c>
       <c r="F215">
-        <v>3956.0737841530822</v>
+        <v>4379.5852290851681</v>
       </c>
       <c r="G215">
         <v>0.25417989953882614</v>
       </c>
       <c r="H215">
-        <v>4.9509808859044355</v>
+        <v>5.0043558729652213</v>
       </c>
       <c r="I215" t="s">
         <v>11</v>
@@ -9395,22 +9395,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>4163595539.2427235</v>
+        <v>4302987498.7781467</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>20081650.510817103</v>
+        <v>20753958.997322366</v>
       </c>
       <c r="F216">
-        <v>2076.0947373777849</v>
+        <v>2145.5997867748029</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>10.013318669024741</v>
+        <v>10.348552026245088</v>
       </c>
       <c r="I216" t="s">
         <v>39</v>
@@ -9436,22 +9436,22 @@
         <v>5753937</v>
       </c>
       <c r="C217">
-        <v>6832443328.9654636</v>
+        <v>6756429195.5061932</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>259987489.71902904</v>
+        <v>259378224.99877703</v>
       </c>
       <c r="F217">
-        <v>1187.437980110916</v>
+        <v>1174.2271761936554</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>45.184278124530913</v>
+        <v>45.078391542830069</v>
       </c>
       <c r="I217" t="s">
         <v>11</v>
@@ -9518,22 +9518,22 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>2233808379.5281649</v>
+        <v>2204862165.114819</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>2170895.6115593733</v>
+        <v>2149199.278361355</v>
       </c>
       <c r="F219">
-        <v>1199.7905179028853</v>
+        <v>1184.2433501598528</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>1.1659997312106427</v>
+        <v>1.1543465137355868</v>
       </c>
       <c r="I219" t="s">
         <v>26</v>
@@ -9559,22 +9559,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>12822243327.232477</v>
+        <v>12829215939.967222</v>
       </c>
       <c r="D220">
-        <v>3230229.7876452324</v>
+        <v>3255043.4800709719</v>
       </c>
       <c r="E220">
-        <v>76771739.034281075</v>
+        <v>73557262.309110314</v>
       </c>
       <c r="F220">
-        <v>1195.5520682073172</v>
+        <v>1196.2021979360309</v>
       </c>
       <c r="G220">
-        <v>0.30118816223071054</v>
+        <v>0.30350180271797589</v>
       </c>
       <c r="H220">
-        <v>7.1582334728721566</v>
+        <v>6.8585141336813233</v>
       </c>
       <c r="I220" t="s">
         <v>37</v>
@@ -9600,22 +9600,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>18819893113.883896</v>
+        <v>19195778818.881947</v>
       </c>
       <c r="D221">
-        <v>1199440.4228563351</v>
+        <v>1230163.6257865229</v>
       </c>
       <c r="E221">
-        <v>19995349.838876769</v>
+        <v>20045330.697291009</v>
       </c>
       <c r="F221">
-        <v>3634.286913689617</v>
+        <v>3706.873749887407</v>
       </c>
       <c r="G221">
-        <v>0.23162249679947949</v>
+        <v>0.23755541754882425</v>
       </c>
       <c r="H221">
-        <v>3.8612779474537002</v>
+        <v>3.8709296908812885</v>
       </c>
       <c r="I221" t="s">
         <v>18</v>
@@ -9682,22 +9682,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>24724662147.544384</v>
+        <v>23913972018.159554</v>
       </c>
       <c r="D223">
-        <v>1422103.6190260747</v>
+        <v>1394681.6392220696</v>
       </c>
       <c r="E223">
-        <v>23683342.609516654</v>
+        <v>23027938.420059294</v>
       </c>
       <c r="F223">
-        <v>6322.469570553174</v>
+        <v>6115.1638592113322</v>
       </c>
       <c r="G223">
-        <v>0.36365337588076585</v>
+        <v>0.35664116144319202</v>
       </c>
       <c r="H223">
-        <v>6.056188435825649</v>
+        <v>5.8885916848759585</v>
       </c>
       <c r="I223" t="s">
         <v>12</v>
@@ -9723,22 +9723,22 @@
         <v>3855966</v>
       </c>
       <c r="C224">
-        <v>4670070756.409627</v>
+        <v>4679078689.8142014</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>2242710.4640995567</v>
+        <v>2247036.3485582932</v>
       </c>
       <c r="F224">
-        <v>1211.1286137921411</v>
+        <v>1213.4647167050232</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>0.58162091265834726</v>
+        <v>0.58274278055312034</v>
       </c>
       <c r="I224" t="s">
         <v>19</v>
@@ -9764,22 +9764,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>21877704968.072151</v>
+        <v>22074271600.070915</v>
       </c>
       <c r="D225">
-        <v>51309.133432111084</v>
+        <v>51736.013887513771</v>
       </c>
       <c r="E225">
-        <v>1048132.7245585246</v>
+        <v>1029896.0326778612</v>
       </c>
       <c r="F225">
-        <v>1287.7345641830943</v>
+        <v>1299.3045915949856</v>
       </c>
       <c r="G225">
-        <v>3.020085729981122E-3</v>
+        <v>3.0452121643122589E-3</v>
       </c>
       <c r="H225">
-        <v>6.1693707783113366E-2</v>
+        <v>6.0620285387786271E-2</v>
       </c>
       <c r="I225" t="s">
         <v>16</v>
@@ -9805,22 +9805,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>35361423540.623657</v>
+        <v>36049433902.468559</v>
       </c>
       <c r="D226">
-        <v>2119970.9554601111</v>
+        <v>2157443.2369859964</v>
       </c>
       <c r="E226">
-        <v>37547243.623223096</v>
+        <v>37388658.985270306</v>
       </c>
       <c r="F226">
-        <v>4738.092710481048</v>
+        <v>4830.2795218080237</v>
       </c>
       <c r="G226">
-        <v>0.28405584178356702</v>
+        <v>0.28907676928494214</v>
       </c>
       <c r="H226">
-        <v>5.0309717058045722</v>
+        <v>5.0097228803376002</v>
       </c>
       <c r="I226" t="s">
         <v>35</v>
@@ -9887,22 +9887,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>7292302309.7622385</v>
+        <v>7390550127.1837397</v>
       </c>
       <c r="D228">
-        <v>61239.793887303087</v>
+        <v>61724.859602297751</v>
       </c>
       <c r="E228">
-        <v>1230735.216329783</v>
+        <v>1412966.6682968792</v>
       </c>
       <c r="F228">
-        <v>671.42651777694095</v>
+        <v>680.47252096336865</v>
       </c>
       <c r="G228">
-        <v>5.6385514221050084E-3</v>
+        <v>5.6832130351426157E-3</v>
       </c>
       <c r="H228">
-        <v>0.1133178830915334</v>
+        <v>0.13009653872404964</v>
       </c>
       <c r="I228" t="s">
         <v>42</v>
@@ -9928,22 +9928,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>12070784675.413639</v>
+        <v>12180156004.593685</v>
       </c>
       <c r="D229">
-        <v>754970.92320877686</v>
+        <v>769645.84657807765</v>
       </c>
       <c r="E229">
-        <v>11963496.042883188</v>
+        <v>12718073.800689509</v>
       </c>
       <c r="F229">
-        <v>4671.3056806712775</v>
+        <v>4713.6315878131682</v>
       </c>
       <c r="G229">
-        <v>0.29216824400075264</v>
+        <v>0.29784733237336347</v>
       </c>
       <c r="H229">
-        <v>4.6297857619511813</v>
+        <v>4.9218018538071213</v>
       </c>
       <c r="I229" t="s">
         <v>21</v>
@@ -9969,22 +9969,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>6044154511.0660553</v>
+        <v>6040633857.3322067</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>590516161.45264816</v>
+        <v>579439099.33497262</v>
       </c>
       <c r="F230">
-        <v>1165.8648196680563</v>
+        <v>1165.1857161932837</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>113.90542991953311</v>
+        <v>111.76876100998899</v>
       </c>
       <c r="I230" t="s">
         <v>38</v>
@@ -10010,22 +10010,22 @@
         <v>4104611</v>
       </c>
       <c r="C231">
-        <v>11730377900.769903</v>
+        <v>11732257922.082264</v>
       </c>
       <c r="D231">
-        <v>730848.22313377296</v>
+        <v>753683.18162156525</v>
       </c>
       <c r="E231">
-        <v>14428829.484429255</v>
+        <v>14795045.805989588</v>
       </c>
       <c r="F231">
-        <v>2857.8537407734625</v>
+        <v>2858.3117674445311</v>
       </c>
       <c r="G231">
-        <v>0.17805541697709551</v>
+        <v>0.18361866243148625</v>
       </c>
       <c r="H231">
-        <v>3.5152733071244158</v>
+        <v>3.604494020502695</v>
       </c>
       <c r="I231" t="s">
         <v>11</v>
@@ -10051,22 +10051,22 @@
         <v>3995922</v>
       </c>
       <c r="C232">
-        <v>4849596865.8864784</v>
+        <v>4897583967.8001308</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>2328924.3793277615</v>
+        <v>2351969.2497841353</v>
       </c>
       <c r="F232">
-        <v>1213.6365189026408</v>
+        <v>1225.6455375755911</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>0.58282528521021215</v>
+        <v>0.5885923823798701</v>
       </c>
       <c r="I232" t="s">
         <v>19</v>
@@ -10092,22 +10092,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>18224830188.770477</v>
+        <v>18111080520.202747</v>
       </c>
       <c r="D233">
-        <v>1099690.776804104</v>
+        <v>1091176.4217729557</v>
       </c>
       <c r="E233">
-        <v>18434171.424473457</v>
+        <v>17471475.368760817</v>
       </c>
       <c r="F233">
-        <v>3318.6854912584331</v>
+        <v>3297.9720266718723</v>
       </c>
       <c r="G233">
-        <v>0.20025030620582743</v>
+        <v>0.19869986835721001</v>
       </c>
       <c r="H233">
-        <v>3.356805886041462</v>
+        <v>3.1815018969511359</v>
       </c>
       <c r="I233" t="s">
         <v>18</v>
@@ -10174,22 +10174,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>1507640442.5921555</v>
+        <v>1518524233.896852</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>146971897.14747277</v>
+        <v>145625316.79252705</v>
       </c>
       <c r="F235">
-        <v>1160.6126252052768</v>
+        <v>1168.99119163363</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>113.14198966860208</v>
+        <v>112.1053644119087</v>
       </c>
       <c r="I235" t="s">
         <v>26</v>
@@ -10215,22 +10215,22 @@
         <v>2477354</v>
       </c>
       <c r="C236">
-        <v>3006980300.5429821</v>
+        <v>3043121890.6937389</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>287323646.39541829</v>
+        <v>295382202.56321412</v>
       </c>
       <c r="F236">
-        <v>1213.7870891858743</v>
+        <v>1228.375876315512</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>115.98005226359183</v>
+        <v>119.23294069527977</v>
       </c>
       <c r="I236" t="s">
         <v>15</v>
@@ -10256,22 +10256,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>11376965028.190308</v>
+        <v>11039268985.299971</v>
       </c>
       <c r="D237">
-        <v>757002.6803173956</v>
+        <v>753289.99573249475</v>
       </c>
       <c r="E237">
-        <v>11343695.34058414</v>
+        <v>11391496.696408696</v>
       </c>
       <c r="F237">
-        <v>3499.7313064925361</v>
+        <v>3395.850753950313</v>
       </c>
       <c r="G237">
-        <v>0.2328657926644753</v>
+        <v>0.2317237131695736</v>
       </c>
       <c r="H237">
-        <v>3.4894970333815594</v>
+        <v>3.5042014735426625</v>
       </c>
       <c r="I237" t="s">
         <v>21</v>
@@ -10338,22 +10338,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>13492245258.239914</v>
+        <v>13423149548.490538</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>13505751.009249177</v>
+        <v>13436586.134625174</v>
       </c>
       <c r="F239">
-        <v>6133.6667987632482</v>
+        <v>6102.2554174315974</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>6.1398066053686229</v>
+        <v>6.108363781212816</v>
       </c>
       <c r="I239" t="s">
         <v>12</v>
@@ -10379,22 +10379,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>24822791046.195694</v>
+        <v>24575151780.418648</v>
       </c>
       <c r="D240">
-        <v>208366.14444625689</v>
+        <v>206081.94593989002</v>
       </c>
       <c r="E240">
-        <v>3704785.0509242648</v>
+        <v>3650866.2209643102</v>
       </c>
       <c r="F240">
-        <v>4525.6465269834025</v>
+        <v>4480.4973823516439</v>
       </c>
       <c r="G240">
-        <v>3.7988939930211671E-2</v>
+        <v>3.7572488975198527E-2</v>
       </c>
       <c r="H240">
-        <v>0.67544973358284155</v>
+        <v>0.66561934967906711</v>
       </c>
       <c r="I240" t="s">
         <v>34</v>
@@ -10420,22 +10420,22 @@
         <v>4229531</v>
       </c>
       <c r="C241">
-        <v>5016977077.1427984</v>
+        <v>4947726411.0125113</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>437803.09351771855</v>
+        <v>442472.82745721412</v>
       </c>
       <c r="F241">
-        <v>1186.1781074882294</v>
+        <v>1169.8049762520977</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0.10351102604939379</v>
+        <v>0.10461510447782842</v>
       </c>
       <c r="I241" t="s">
         <v>19</v>
@@ -10584,22 +10584,22 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>6170899398.7215996</v>
+        <v>6252155615.8608608</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>1813120.3865088501</v>
+        <v>1844750.6272024808</v>
       </c>
       <c r="F245">
-        <v>1269.8217443946878</v>
+        <v>1286.5423072695364</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0.37309629330064997</v>
+        <v>0.37960503130106704</v>
       </c>
       <c r="I245" t="s">
         <v>36</v>
@@ -10625,22 +10625,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>70547621901.401917</v>
+        <v>70214285316.971466</v>
       </c>
       <c r="D246">
-        <v>3950908.6063200124</v>
+        <v>4092361.1070278543</v>
       </c>
       <c r="E246">
-        <v>72907095.173547953</v>
+        <v>75683326.819194809</v>
       </c>
       <c r="F246">
-        <v>5644.2915488387625</v>
+        <v>5617.6223456011376</v>
       </c>
       <c r="G246">
-        <v>0.31609967077349821</v>
+        <v>0.32741683686342299</v>
       </c>
       <c r="H246">
-        <v>5.8330655243569955</v>
+        <v>6.0551830159578266</v>
       </c>
       <c r="I246" t="s">
         <v>29</v>
@@ -10666,22 +10666,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>15179548636.59149</v>
+        <v>15247147032.200378</v>
       </c>
       <c r="D247">
-        <v>1114421.0453777188</v>
+        <v>1125816.3188623041</v>
       </c>
       <c r="E247">
-        <v>19831651.937059678</v>
+        <v>19594145.178303622</v>
       </c>
       <c r="F247">
-        <v>1129.4860839226783</v>
+        <v>1134.5159730823393</v>
       </c>
       <c r="G247">
-        <v>8.2922298450327198E-2</v>
+        <v>8.3770202635851276E-2</v>
       </c>
       <c r="H247">
-        <v>1.475641695307804</v>
+        <v>1.4579691949407059</v>
       </c>
       <c r="I247" t="s">
         <v>37</v>
@@ -10707,22 +10707,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>3056696730.6883345</v>
+        <v>3160442436.1699686</v>
       </c>
       <c r="D248">
-        <v>12983.214055110619</v>
+        <v>13229.142112282803</v>
       </c>
       <c r="E248">
-        <v>328837.70558014477</v>
+        <v>296430.19192725461</v>
       </c>
       <c r="F248">
-        <v>510.44328819684165</v>
+        <v>527.76797026643681</v>
       </c>
       <c r="G248">
-        <v>2.1680902809621365E-3</v>
+        <v>2.2091582498262124E-3</v>
       </c>
       <c r="H248">
-        <v>5.4913200264272002E-2</v>
+        <v>4.9501411235551386E-2</v>
       </c>
       <c r="I248" t="s">
         <v>42</v>
@@ -10748,22 +10748,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>78871964793.11615</v>
+        <v>78309781760.1409</v>
       </c>
       <c r="D249">
-        <v>5083829.1847580299</v>
+        <v>5010995.9470107034</v>
       </c>
       <c r="E249">
-        <v>82126723.133358374</v>
+        <v>84970504.442125842</v>
       </c>
       <c r="F249">
-        <v>5565.4864600962828</v>
+        <v>5525.8168250576909</v>
       </c>
       <c r="G249">
-        <v>0.35873307540175042</v>
+        <v>0.35359370300763077</v>
       </c>
       <c r="H249">
-        <v>5.7951537889249494</v>
+        <v>5.9958211161677157</v>
       </c>
       <c r="I249" t="s">
         <v>31</v>
@@ -10871,22 +10871,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>13183204634.262161</v>
+        <v>13078999355.212353</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>13196401.035297472</v>
+        <v>13092091.446659023</v>
       </c>
       <c r="F252">
-        <v>1312.1295736717182</v>
+        <v>1301.7579810152092</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>1.3134430166884079</v>
+        <v>1.3030610420572677</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -10912,22 +10912,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>1470251621.4735003</v>
+        <v>1428404620.3496225</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>12097153.712794043</v>
+        <v>11752838.768589007</v>
       </c>
       <c r="F253">
-        <v>1031.569479380561</v>
+        <v>1002.2084580883466</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>8.4876999115205489</v>
+        <v>8.2461189586081716</v>
       </c>
       <c r="I253" t="s">
         <v>69</v>
@@ -10953,22 +10953,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>10353322285.034355</v>
+        <v>10306956510.908165</v>
       </c>
       <c r="D254">
-        <v>601677.82290741615</v>
+        <v>607982.00843868987</v>
       </c>
       <c r="E254">
-        <v>10531144.030362707</v>
+        <v>10371772.310332805</v>
       </c>
       <c r="F254">
-        <v>5335.4906973409725</v>
+        <v>5311.59651635108</v>
       </c>
       <c r="G254">
-        <v>0.31006920663131232</v>
+        <v>0.31331801144298543</v>
       </c>
       <c r="H254">
-        <v>5.4271295203066003</v>
+        <v>5.3449987504697614</v>
       </c>
       <c r="I254" t="s">
         <v>32</v>
@@ -10994,22 +10994,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>1127131688.9161894</v>
+        <v>1108798052.013612</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>98065176.907446325</v>
+        <v>99278983.144611537</v>
       </c>
       <c r="F255">
-        <v>1364.6488152021182</v>
+        <v>1342.4517852335032</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>118.73016152000281</v>
+        <v>120.19974955458748</v>
       </c>
       <c r="I255" t="s">
         <v>24</v>
@@ -11035,22 +11035,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>448544867.94170547</v>
+        <v>444353475.03682202</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>40070979.402115315</v>
+        <v>39279057.828305706</v>
       </c>
       <c r="F256">
-        <v>2688.7310455432398</v>
+        <v>2663.6064057738818</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>240.19912843544884</v>
+        <v>235.45208020611966</v>
       </c>
       <c r="I256" t="s">
         <v>36</v>
@@ -11117,22 +11117,22 @@
         <v>97358</v>
       </c>
       <c r="C258">
-        <v>14189541.854279999</v>
+        <v>34671837.052631997</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>13098038.634719998</v>
+        <v>32004772.663967997</v>
       </c>
       <c r="F258">
-        <v>145.74602861891162</v>
+        <v>356.12725253838408</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
       <c r="H258">
-        <v>134.53479564822612</v>
+        <v>328.73284849696989</v>
       </c>
       <c r="I258" t="s">
         <v>22</v>
@@ -11199,22 +11199,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>1425832047.2203956</v>
+        <v>1450781540.6724229</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>122911491.78433707</v>
+        <v>119861814.93905374</v>
       </c>
       <c r="F260">
-        <v>4264.5071777639378</v>
+        <v>4339.1283746399395</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>367.61478321784284</v>
+        <v>358.49353445511184</v>
       </c>
       <c r="I260" t="s">
         <v>35</v>
@@ -11281,22 +11281,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>2474950480.6809225</v>
+        <v>2446468501.0129814</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>2477427.908589514</v>
+        <v>2448917.4184314152</v>
       </c>
       <c r="F262">
-        <v>3633.0454935109169</v>
+        <v>3591.2360396706877</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>3.6366821756866066</v>
+        <v>3.594830870541232</v>
       </c>
       <c r="I262" t="s">
         <v>13</v>
@@ -11322,22 +11322,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>2213526560.2412682</v>
+        <v>2238062988.2889967</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>2215742.3025438143</v>
+        <v>2240303.2915805792</v>
       </c>
       <c r="F263">
-        <v>6589.4651991738128</v>
+        <v>6662.5078911552982</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>6.5960612604342543</v>
+        <v>6.6691770682235276</v>
       </c>
       <c r="I263" t="s">
         <v>34</v>
@@ -11445,22 +11445,22 @@
         <v>23793</v>
       </c>
       <c r="C266">
-        <v>68010485.77940625</v>
+        <v>57781708.718183547</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>68078.564343750055</v>
+        <v>57839.548266450045</v>
       </c>
       <c r="F266">
-        <v>2858.4241490945342</v>
+        <v>2428.5171570707162</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>2.8612854345290653</v>
+        <v>2.4309481051758941</v>
       </c>
       <c r="I266" t="s">
         <v>29</v>
@@ -11527,22 +11527,22 @@
         <v>11106837</v>
       </c>
       <c r="C268">
-        <v>18263142973.661293</v>
+        <v>18371418002.14888</v>
       </c>
       <c r="D268">
-        <v>1365658.4277043021</v>
+        <v>1428177.6638601699</v>
       </c>
       <c r="E268">
-        <v>28127067.91254884</v>
+        <v>28704956.728720665</v>
       </c>
       <c r="F268">
-        <v>1644.3153864292142</v>
+        <v>1654.0638889495615</v>
       </c>
       <c r="G268">
-        <v>0.12295655619185751</v>
+        <v>0.1285854527135106</v>
       </c>
       <c r="H268">
-        <v>2.5324102543819489</v>
+        <v>2.5844402622205283</v>
       </c>
       <c r="I268" t="s">
         <v>17</v>
@@ -11568,22 +11568,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>20728640765.822632</v>
+        <v>20786137323.834846</v>
       </c>
       <c r="D269">
-        <v>174040.27294305945</v>
+        <v>174975.43473600264</v>
       </c>
       <c r="E269">
-        <v>3105341.0775910476</v>
+        <v>3219700.8017189093</v>
       </c>
       <c r="F269">
-        <v>2909.8207718988383</v>
+        <v>2917.891956146118</v>
       </c>
       <c r="G269">
-        <v>2.4431220892768453E-2</v>
+        <v>2.4562495935880731E-2</v>
       </c>
       <c r="H269">
-        <v>0.43591792020939835</v>
+        <v>0.45197137516070118</v>
       </c>
       <c r="I269" t="s">
         <v>36</v>
@@ -11650,22 +11650,22 @@
         <v>4062213</v>
       </c>
       <c r="C271">
-        <v>4371679434.1517763</v>
+        <v>4360485850.9785194</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>4376055.4896414215</v>
+        <v>4364850.7016802039</v>
       </c>
       <c r="F271">
-        <v>1076.1817349685446</v>
+        <v>1073.4261967500274</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271">
-        <v>1.0772589939625079</v>
+        <v>1.074500697447476</v>
       </c>
       <c r="I271" t="s">
         <v>38</v>
@@ -11691,22 +11691,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>3371736454.0646176</v>
+        <v>3377583608.2401466</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>3375111.5656302511</v>
+        <v>3380964.5728129628</v>
       </c>
       <c r="F272">
-        <v>1043.7791392744914</v>
+        <v>1045.5892266391729</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>1.0448239632377301</v>
+        <v>1.0466358625016756</v>
       </c>
       <c r="I272" t="s">
         <v>38</v>
@@ -11773,22 +11773,22 @@
         <v>3492531</v>
       </c>
       <c r="C274">
-        <v>3686026464.671627</v>
+        <v>3660140418.1816192</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>3689716.1808524826</v>
+        <v>3663804.2224040264</v>
       </c>
       <c r="F274">
-        <v>1055.4026477278589</v>
+        <v>1047.9908175995056</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>1.0564591068346945</v>
+        <v>1.0490398574569635</v>
       </c>
       <c r="I274" t="s">
         <v>11</v>
